--- a/data/DL24-25.xlsx
+++ b/data/DL24-25.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9D0C05-D893-4651-AB42-5681D980209E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33636354-C49C-47A1-BABB-13DBAE0F5EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Table" sheetId="2" r:id="rId2"/>
     <sheet name="Cup" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="291">
   <si>
     <t>TONY APPLETON</t>
   </si>
@@ -893,6 +893,21 @@
   </si>
   <si>
     <t>EDDIE NKETIAH</t>
+  </si>
+  <si>
+    <t>BART VERBRUGGEN</t>
+  </si>
+  <si>
+    <t>ELIEZER MAYENDA</t>
+  </si>
+  <si>
+    <t>SUNDERLAND</t>
+  </si>
+  <si>
+    <t>DAVID McGOLDRICK</t>
+  </si>
+  <si>
+    <t>FREDDIE LADAPO</t>
   </si>
 </sst>
 </file>
@@ -1727,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1842,11 +1857,11 @@
       </c>
       <c r="K5" s="30">
         <f t="shared" ref="K5:K17" si="0">L5-M5</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L5" s="31">
         <f>SUM(F8:F25)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M5" s="32">
         <f>SUM(F5:F7)</f>
@@ -1875,11 +1890,11 @@
       </c>
       <c r="L6" s="31">
         <f>SUM(F35:F52)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M6" s="32">
         <f>SUM(F32:F34)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1900,11 +1915,11 @@
       </c>
       <c r="K7" s="30">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L7" s="31">
         <f>SUM(F62:F79)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M7" s="32">
         <f>SUM(F59:F61)</f>
@@ -1938,11 +1953,11 @@
       </c>
       <c r="K8" s="30">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L8" s="31">
         <f>SUM(F89:F106)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M8" s="32">
         <f>SUM(F86:F88)</f>
@@ -1976,15 +1991,15 @@
       </c>
       <c r="K9" s="30">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L9" s="31">
         <f>SUM(F116:F133)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M9" s="32">
         <f>SUM(F113:F115)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2005,11 +2020,11 @@
       </c>
       <c r="K10" s="30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L10" s="31">
         <f>SUM(F143:F160)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M10" s="32">
         <f>SUM(F140:F142)</f>
@@ -2030,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="65"/>
       <c r="I11" s="15" t="str">
@@ -2043,15 +2058,15 @@
       </c>
       <c r="K11" s="30">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L11" s="31">
         <f>SUM(F170:F187)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M11" s="32">
         <f>SUM(F167:F169)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2068,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="65"/>
       <c r="I12" s="15" t="str">
@@ -2085,11 +2100,11 @@
       </c>
       <c r="L12" s="31">
         <f>SUM(F197:F214)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M12" s="32">
         <f>SUM(F194:F196)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2119,15 +2134,15 @@
       </c>
       <c r="K13" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L13" s="31">
         <f>SUM(F224:F241)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M13" s="32">
         <f>SUM(F221:F223)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2148,15 +2163,15 @@
       </c>
       <c r="K14" s="30">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="31">
         <f>SUM(F251:F268)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M14" s="32">
         <f>SUM(F248:F250)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2187,15 +2202,15 @@
       </c>
       <c r="K15" s="30">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L15" s="31">
         <f>SUM(F277:F295)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M15" s="32">
         <f>SUM(F275:F276)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2230,11 +2245,11 @@
       </c>
       <c r="L16" s="31">
         <f>SUM(F305:F322)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M16" s="32">
         <f>SUM(F302:F304)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2266,11 +2281,11 @@
       </c>
       <c r="K17" s="30">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="31">
         <f>SUM(F332:F349)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M17" s="32">
         <f>SUM(F329:F331)</f>
@@ -2291,7 +2306,7 @@
         <v>255</v>
       </c>
       <c r="F18" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="67">
@@ -2341,7 +2356,7 @@
         <v>255</v>
       </c>
       <c r="F20" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="45"/>
       <c r="H20" s="67">
@@ -2352,28 +2367,43 @@
       <c r="B21" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="E21" s="34">
-        <v>1</v>
-      </c>
-      <c r="F21" s="33">
-        <v>0</v>
-      </c>
-      <c r="H21" s="64"/>
+      <c r="E21" s="61">
+        <v>1</v>
+      </c>
+      <c r="F21" s="46">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="46"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="33"/>
+      <c r="B22" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" s="33">
+        <v>0</v>
+      </c>
       <c r="G22" s="45"/>
-      <c r="H22" s="64"/>
+      <c r="H22" s="67">
+        <v>45537</v>
+      </c>
     </row>
     <row r="23" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="46"/>
@@ -2409,7 +2439,7 @@
       </c>
       <c r="F26" s="43">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="64"/>
@@ -2483,7 +2513,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G32" s="50"/>
       <c r="H32" s="64"/>
@@ -2584,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="45"/>
       <c r="H39" s="64"/>
@@ -2628,7 +2658,7 @@
       </c>
       <c r="G41" s="45"/>
       <c r="H41" s="67">
-        <v>45515</v>
+        <v>45523</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2763,28 +2793,42 @@
       <c r="B49" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="34">
-        <v>1</v>
-      </c>
-      <c r="F49" s="33">
-        <v>0</v>
-      </c>
-      <c r="G49" s="45"/>
-      <c r="H49" s="64"/>
+      <c r="E49" s="61">
+        <v>1</v>
+      </c>
+      <c r="F49" s="46">
+        <v>1</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="H49" s="67"/>
     </row>
     <row r="50" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="46"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="33"/>
-      <c r="H50" s="64"/>
+      <c r="B50" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="F50" s="33">
+        <v>0</v>
+      </c>
+      <c r="H50" s="67">
+        <v>45543</v>
+      </c>
     </row>
     <row r="51" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="46"/>
@@ -3032,7 +3076,7 @@
         <v>6</v>
       </c>
       <c r="F69" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="64"/>
     </row>
@@ -3069,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="64"/>
     </row>
@@ -3087,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" s="64"/>
     </row>
@@ -3170,7 +3214,7 @@
       </c>
       <c r="F80" s="43">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="64"/>
@@ -3389,7 +3433,7 @@
         <v>33</v>
       </c>
       <c r="F95" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3482,48 +3526,52 @@
       <c r="B101" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="33" t="s">
+      <c r="C101" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="D101" s="33" t="s">
+      <c r="D101" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E101" s="34">
-        <v>1</v>
-      </c>
-      <c r="F101" s="33">
-        <v>1</v>
-      </c>
-      <c r="H101" s="64"/>
+      <c r="E101" s="61">
+        <v>1</v>
+      </c>
+      <c r="F101" s="46">
+        <v>1</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="102" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>99</v>
+        <v>290</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E102" s="34">
-        <v>1</v>
+        <v>152</v>
+      </c>
+      <c r="E102" s="34" t="s">
+        <v>255</v>
       </c>
       <c r="F102" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" s="45"/>
-      <c r="H102" s="64"/>
+      <c r="H102" s="67">
+        <v>45548</v>
+      </c>
     </row>
     <row r="103" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="E103" s="34">
         <v>1</v>
@@ -3535,11 +3583,21 @@
       <c r="H103" s="64"/>
     </row>
     <row r="104" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="46"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="33"/>
+      <c r="B104" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E104" s="34">
+        <v>1</v>
+      </c>
+      <c r="F104" s="33">
+        <v>2</v>
+      </c>
       <c r="H104" s="64"/>
     </row>
     <row r="105" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3569,7 +3627,7 @@
       </c>
       <c r="F107" s="43">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G107" s="17"/>
     </row>
@@ -3642,7 +3700,7 @@
         <v>5</v>
       </c>
       <c r="F113" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" s="50"/>
       <c r="H113" s="64"/>
@@ -3697,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" s="45"/>
       <c r="H117" s="64"/>
@@ -3725,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G119" s="45"/>
       <c r="H119" s="64"/>
@@ -3767,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="67">
-        <v>45530</v>
+        <v>45529</v>
       </c>
     </row>
     <row r="122" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3784,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3809,7 +3867,7 @@
         <v>7</v>
       </c>
       <c r="F124" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H124" s="64"/>
     </row>
@@ -3845,7 +3903,7 @@
         <v>39</v>
       </c>
       <c r="F126" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126" s="45"/>
       <c r="H126" s="64"/>
@@ -3937,7 +3995,7 @@
       </c>
       <c r="F134" s="43">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G134" s="17"/>
       <c r="H134" s="64"/>
@@ -4036,7 +4094,7 @@
       </c>
       <c r="G141" s="50"/>
       <c r="H141" s="67">
-        <v>45529</v>
+        <v>45528</v>
       </c>
     </row>
     <row r="142" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4169,7 +4227,7 @@
         <v>80</v>
       </c>
       <c r="F150" s="33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G150" s="45"/>
       <c r="H150" s="64"/>
@@ -4244,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H154" s="64"/>
     </row>
@@ -4308,7 +4366,7 @@
       </c>
       <c r="F161" s="43">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="64"/>
@@ -4382,7 +4440,7 @@
         <v>7</v>
       </c>
       <c r="F167" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G167" s="50"/>
       <c r="H167" s="64"/>
@@ -4586,7 +4644,7 @@
         <v>5</v>
       </c>
       <c r="F180" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G180" s="45"/>
       <c r="H180" s="64"/>
@@ -4623,7 +4681,7 @@
         <v>10</v>
       </c>
       <c r="F182" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H182" s="64"/>
     </row>
@@ -4677,7 +4735,7 @@
       </c>
       <c r="F188" s="43">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G188" s="17"/>
       <c r="H188" s="64"/>
@@ -4751,7 +4809,7 @@
         <v>4</v>
       </c>
       <c r="F194" s="29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G194" s="50"/>
       <c r="H194" s="64"/>
@@ -4958,7 +5016,7 @@
         <v>10</v>
       </c>
       <c r="F207" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H207" s="64"/>
     </row>
@@ -5138,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G221" s="50"/>
       <c r="H221" s="64"/>
@@ -5241,7 +5299,7 @@
         <v>255</v>
       </c>
       <c r="F228" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H228" s="67">
         <v>45529</v>
@@ -5462,7 +5520,7 @@
       </c>
       <c r="F242" s="43">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G242" s="17"/>
       <c r="H242" s="64"/>
@@ -5527,7 +5585,7 @@
         <v>8</v>
       </c>
       <c r="F248" s="29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G248" s="50"/>
     </row>
@@ -5662,7 +5720,7 @@
         <v>30</v>
       </c>
       <c r="F258" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G258" s="45"/>
     </row>
@@ -5754,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5805,7 +5863,7 @@
       </c>
       <c r="F269" s="43">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G269" s="17"/>
     </row>
@@ -5868,7 +5926,7 @@
         <v>10</v>
       </c>
       <c r="F275" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G275" s="17"/>
     </row>
@@ -5943,7 +6001,7 @@
         <v>7</v>
       </c>
       <c r="F281" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G281" s="45"/>
     </row>
@@ -5978,7 +6036,7 @@
         <v>2</v>
       </c>
       <c r="F283" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G283" s="45"/>
     </row>
@@ -6004,7 +6062,7 @@
         <v>2</v>
       </c>
       <c r="F285" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G285" s="45"/>
     </row>
@@ -6149,7 +6207,7 @@
       </c>
       <c r="F296" s="43">
         <f>SUM(F278:F295)-SUM(F275:F277)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G296" s="17"/>
     </row>
@@ -6213,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="F302" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G302" s="50"/>
     </row>
@@ -6265,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="F306" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G306" s="45"/>
     </row>
@@ -6368,7 +6426,7 @@
         <v>255</v>
       </c>
       <c r="F312" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H312" s="67">
         <v>45532</v>
@@ -6421,38 +6479,40 @@
       <c r="B316" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C316" s="33" t="s">
+      <c r="C316" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="33" t="s">
+      <c r="D316" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="E316" s="34">
+      <c r="E316" s="61">
         <v>7</v>
       </c>
-      <c r="F316" s="33">
-        <v>1</v>
-      </c>
-      <c r="G316" s="45"/>
+      <c r="F316" s="46">
+        <v>1</v>
+      </c>
+      <c r="G316" s="45" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="317" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C317" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D317" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E317" s="61">
-        <v>1</v>
-      </c>
-      <c r="F317" s="46">
-        <v>0</v>
-      </c>
-      <c r="G317" s="45" t="s">
-        <v>257</v>
+      <c r="C317" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D317" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="E317" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="F317" s="33">
+        <v>0</v>
+      </c>
+      <c r="H317" s="67">
+        <v>45550</v>
       </c>
     </row>
     <row r="318" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6460,92 +6520,105 @@
         <v>14</v>
       </c>
       <c r="C318" s="46" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="D318" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="E318" s="61" t="s">
-        <v>255</v>
+        <v>84</v>
+      </c>
+      <c r="E318" s="61">
+        <v>1</v>
       </c>
       <c r="F318" s="46">
         <v>0</v>
       </c>
-      <c r="G318" s="14" t="s">
+      <c r="G318" s="45" t="s">
         <v>257</v>
-      </c>
-      <c r="H318" s="67">
-        <v>45518</v>
       </c>
     </row>
     <row r="319" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C319" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="D319" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="E319" s="34" t="s">
+      <c r="C319" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D319" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E319" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="F319" s="33">
-        <v>0</v>
+      <c r="F319" s="46">
+        <v>0</v>
+      </c>
+      <c r="G319" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="H319" s="67">
-        <v>45528</v>
+        <v>45518</v>
       </c>
     </row>
     <row r="320" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C320" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="D320" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="E320" s="61">
-        <v>1</v>
-      </c>
-      <c r="F320" s="46">
-        <v>0</v>
-      </c>
-      <c r="G320" s="14" t="s">
-        <v>257</v>
+      <c r="C320" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="D320" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="E320" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="F320" s="33">
+        <v>2</v>
+      </c>
+      <c r="H320" s="67">
+        <v>45528</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C321" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="D321" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E321" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="F321" s="33">
-        <v>1</v>
-      </c>
-      <c r="H321" s="67">
-        <v>45515</v>
+      <c r="C321" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D321" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E321" s="61">
+        <v>1</v>
+      </c>
+      <c r="F321" s="46">
+        <v>0</v>
+      </c>
+      <c r="G321" s="14" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A322" s="45"/>
-      <c r="B322" s="48"/>
-      <c r="C322" s="41"/>
-      <c r="D322" s="41"/>
-      <c r="E322" s="28"/>
-      <c r="F322" s="29"/>
+      <c r="B322" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C322" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D322" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E322" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="F322" s="29">
+        <v>1</v>
+      </c>
       <c r="G322" s="17"/>
+      <c r="H322" s="67">
+        <v>45515</v>
+      </c>
     </row>
     <row r="323" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C323" s="15"/>
@@ -6604,26 +6677,41 @@
       <c r="B329" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C329" s="27" t="s">
+      <c r="C329" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="D329" s="27" t="s">
+      <c r="D329" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="E329" s="28">
-        <v>1</v>
-      </c>
-      <c r="F329" s="29">
+      <c r="E329" s="62">
+        <v>1</v>
+      </c>
+      <c r="F329" s="63">
         <v>9</v>
       </c>
-      <c r="G329" s="45"/>
+      <c r="G329" s="45" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="330" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B330" s="26"/>
-      <c r="C330" s="27"/>
-      <c r="D330" s="27"/>
-      <c r="E330" s="28"/>
-      <c r="F330" s="27"/>
+      <c r="B330" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C330" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="D330" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E330" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="F330" s="27">
+        <v>0</v>
+      </c>
+      <c r="H330" s="67">
+        <v>45537</v>
+      </c>
     </row>
     <row r="331" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="49"/>
@@ -6690,7 +6778,7 @@
         <v>15</v>
       </c>
       <c r="F335" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G335" s="45"/>
     </row>
@@ -6879,7 +6967,7 @@
       </c>
       <c r="F350" s="43">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="2:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6994,13 +7082,13 @@
         <v>19</v>
       </c>
       <c r="E7" s="30">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F7" s="31">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G7" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="51"/>
     </row>
@@ -7009,16 +7097,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E8" s="30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" s="31">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" s="32">
         <v>4</v>
@@ -7029,19 +7117,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E9" s="30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" s="31">
         <v>10</v>
       </c>
       <c r="G9" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -7049,19 +7137,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E10" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="31">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G10" s="32">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -7069,19 +7157,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E11" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="31">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="32">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -7089,19 +7177,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E12" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" s="31">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -7115,10 +7203,10 @@
         <v>17</v>
       </c>
       <c r="E13" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13" s="31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G13" s="32">
         <v>7</v>
@@ -7135,10 +7223,10 @@
         <v>253</v>
       </c>
       <c r="E14" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" s="31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G14" s="32">
         <v>4</v>
@@ -7149,19 +7237,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E15" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="31">
+        <v>12</v>
+      </c>
+      <c r="G15" s="32">
         <v>7</v>
-      </c>
-      <c r="G15" s="32">
-        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -7169,16 +7257,16 @@
         <v>10</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E16" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="32">
         <v>7</v>
@@ -7189,19 +7277,19 @@
         <v>11</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G17" s="32">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -7215,10 +7303,10 @@
         <v>236</v>
       </c>
       <c r="E18" s="30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="32">
         <v>9</v>
@@ -7229,19 +7317,19 @@
         <v>13</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E19" s="30">
         <v>-1</v>
       </c>
       <c r="F19" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G19" s="32">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">

--- a/data/DL24-25.xlsx
+++ b/data/DL24-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0001c2a442dfed87/Documents/Dream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33636354-C49C-47A1-BABB-13DBAE0F5EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1719" documentId="8_{4A520963-05AC-46D2-973E-A3A248908BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43C20C5B-0D24-49F2-B98B-C2D67ECF6D33}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="310">
   <si>
     <t>TONY APPLETON</t>
   </si>
@@ -337,9 +337,6 @@
     <t>CALLUM HENDRY</t>
   </si>
   <si>
-    <t>DAN AGYEI</t>
-  </si>
-  <si>
     <t>LEYTON ORIENT</t>
   </si>
   <si>
@@ -908,6 +905,66 @@
   </si>
   <si>
     <t>FREDDIE LADAPO</t>
+  </si>
+  <si>
+    <t>JOSH KOROMA</t>
+  </si>
+  <si>
+    <t>ROMAINE MUNDLE</t>
+  </si>
+  <si>
+    <t>JACK MARRIOTT</t>
+  </si>
+  <si>
+    <t>BRYAN MBUEMO</t>
+  </si>
+  <si>
+    <t>LEE GREGORY</t>
+  </si>
+  <si>
+    <t>DANIEL AGYEI</t>
+  </si>
+  <si>
+    <t>NOTTINGHAM FOREST</t>
+  </si>
+  <si>
+    <t>MATS SELZ</t>
+  </si>
+  <si>
+    <t>LYLE TAYLOR</t>
+  </si>
+  <si>
+    <t>COLCHESTER</t>
+  </si>
+  <si>
+    <t>GLENN MORRIS</t>
+  </si>
+  <si>
+    <t>NATHAN LOWE</t>
+  </si>
+  <si>
+    <t>BORJA SAINZ</t>
+  </si>
+  <si>
+    <t>MICHAEL COOPER</t>
+  </si>
+  <si>
+    <t>ADAM PHILLIPS</t>
+  </si>
+  <si>
+    <t>GABRIEL MAGALHAES</t>
+  </si>
+  <si>
+    <t>KWAME POKU</t>
+  </si>
+  <si>
+    <t>JHON DURAN</t>
+  </si>
+  <si>
+    <t>ELLIOTT NEVITT</t>
+  </si>
+  <si>
+    <t>KYLE JOSEPH</t>
   </si>
 </sst>
 </file>
@@ -1453,6 +1510,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1742,28 +1803,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="19" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" style="19" customWidth="1"/>
     <col min="2" max="2" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="44" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="68" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="31.5" style="19" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="68" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="31.44140625" style="19" customWidth="1"/>
     <col min="11" max="12" width="12" style="19" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="19" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="19" customWidth="1"/>
     <col min="14" max="16384" width="9.33203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -1773,9 +1834,9 @@
       <c r="G1" s="17"/>
       <c r="H1" s="64"/>
     </row>
-    <row r="2" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
@@ -1784,10 +1845,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="17"/>
       <c r="H2" s="70" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
@@ -1795,7 +1856,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="64"/>
     </row>
-    <row r="4" spans="1:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1829,21 +1890,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E5" s="28">
         <v>1</v>
       </c>
       <c r="F5" s="29">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="64"/>
@@ -1857,18 +1918,18 @@
       </c>
       <c r="K5" s="30">
         <f t="shared" ref="K5:K17" si="0">L5-M5</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L5" s="31">
         <f>SUM(F8:F25)</f>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M5" s="32">
         <f>SUM(F5:F7)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -1886,18 +1947,18 @@
       </c>
       <c r="K6" s="30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L6" s="31">
         <f>SUM(F35:F52)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M6" s="32">
         <f>SUM(F32:F34)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="49"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -1915,26 +1976,26 @@
       </c>
       <c r="K7" s="30">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L7" s="31">
         <f>SUM(F62:F79)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M7" s="32">
         <f>SUM(F59:F61)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="34">
         <v>1</v>
@@ -1953,26 +2014,26 @@
       </c>
       <c r="K8" s="30">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L8" s="31">
         <f>SUM(F89:F106)</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M8" s="32">
         <f>SUM(F86:F88)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E9" s="34">
         <v>1</v>
@@ -1991,18 +2052,18 @@
       </c>
       <c r="K9" s="30">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L9" s="31">
         <f>SUM(F116:F133)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M9" s="32">
         <f>SUM(F113:F115)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="46"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -2020,23 +2081,23 @@
       </c>
       <c r="K10" s="30">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L10" s="31">
         <f>SUM(F143:F160)</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M10" s="32">
         <f>SUM(F140:F142)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>47</v>
@@ -2045,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="65"/>
       <c r="I11" s="15" t="str">
@@ -2058,23 +2119,23 @@
       </c>
       <c r="K11" s="30">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L11" s="31">
         <f>SUM(F170:F187)</f>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M11" s="32">
         <f>SUM(F167:F169)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>71</v>
@@ -2083,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H12" s="65"/>
       <c r="I12" s="15" t="str">
@@ -2096,23 +2157,23 @@
       </c>
       <c r="K12" s="30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L12" s="31">
         <f>SUM(F197:F214)</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M12" s="32">
         <f>SUM(F194:F196)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>67</v>
@@ -2134,18 +2195,18 @@
       </c>
       <c r="K13" s="30">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L13" s="31">
         <f>SUM(F224:F241)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M13" s="32">
         <f>SUM(F221:F223)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="46"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -2163,23 +2224,23 @@
       </c>
       <c r="K14" s="30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L14" s="31">
         <f>SUM(F251:F268)</f>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M14" s="32">
         <f>SUM(F248:F250)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>79</v>
@@ -2188,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="66"/>
@@ -2206,30 +2267,32 @@
       </c>
       <c r="L15" s="31">
         <f>SUM(F277:F295)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M15" s="32">
         <f>SUM(F275:F276)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="E16" s="34">
-        <v>1</v>
-      </c>
-      <c r="F16" s="33">
-        <v>1</v>
-      </c>
-      <c r="G16" s="45"/>
+      <c r="E16" s="61">
+        <v>1</v>
+      </c>
+      <c r="F16" s="46">
+        <v>1</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>256</v>
+      </c>
       <c r="H16" s="64"/>
       <c r="I16" s="35" t="str">
         <f>+D299</f>
@@ -2241,43 +2304,42 @@
       </c>
       <c r="K16" s="30">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L16" s="31">
         <f>SUM(F305:F322)</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M16" s="32">
         <f>SUM(F302:F304)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="61">
-        <v>1</v>
-      </c>
-      <c r="F17" s="46">
-        <v>0</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="H17" s="64"/>
+      <c r="C17" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="33">
+        <v>1</v>
+      </c>
+      <c r="H17" s="67">
+        <v>45551</v>
+      </c>
       <c r="I17" s="35" t="str">
         <f>+D326</f>
         <v>AUSTIN LALLY</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K17" s="30">
         <f t="shared" si="0"/>
@@ -2285,135 +2347,148 @@
       </c>
       <c r="L17" s="31">
         <f>SUM(F332:F349)</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M17" s="32">
         <f>SUM(F329:F331)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="F18" s="33">
-        <v>3</v>
-      </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="67">
-        <v>45515</v>
-      </c>
+      <c r="C18" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="61">
+        <v>1</v>
+      </c>
+      <c r="F18" s="46">
+        <v>0</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H18" s="64"/>
       <c r="I18" s="36"/>
       <c r="J18" s="37"/>
       <c r="K18" s="38"/>
       <c r="L18" s="39"/>
       <c r="M18" s="40"/>
     </row>
-    <row r="19" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="61">
-        <v>1</v>
-      </c>
-      <c r="F19" s="46">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="H19" s="64"/>
+      <c r="C19" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F19" s="33">
+        <v>5</v>
+      </c>
+      <c r="G19" s="45"/>
+      <c r="H19" s="67">
+        <v>45515</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="F20" s="33">
-        <v>2</v>
-      </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="67">
+      <c r="C20" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="61">
+        <v>1</v>
+      </c>
+      <c r="F20" s="46">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" s="64"/>
+    </row>
+    <row r="21" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F21" s="33">
+        <v>4</v>
+      </c>
+      <c r="G21" s="45"/>
+      <c r="H21" s="67">
         <v>45515</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="46" t="s">
+    <row r="22" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="D21" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="E21" s="61">
-        <v>1</v>
-      </c>
-      <c r="F21" s="46">
+      <c r="E22" s="61">
+        <v>1</v>
+      </c>
+      <c r="F22" s="46">
         <v>0</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="H21" s="67"/>
-    </row>
-    <row r="22" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="33" t="s">
+      <c r="G22" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22" s="67"/>
+    </row>
+    <row r="23" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="F22" s="33">
+      <c r="E23" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="33">
         <v>0</v>
       </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="67">
+      <c r="G23" s="45"/>
+      <c r="H23" s="67">
         <v>45537</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="46"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="33"/>
-      <c r="H23" s="64"/>
-    </row>
-    <row r="24" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="46"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
@@ -2422,7 +2497,7 @@
       <c r="G24" s="45"/>
       <c r="H24" s="64"/>
     </row>
-    <row r="25" spans="2:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="48"/>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
@@ -2430,7 +2505,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="50"/>
     </row>
-    <row r="26" spans="2:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="42">
@@ -2439,12 +2514,12 @@
       </c>
       <c r="F26" s="43">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="64"/>
     </row>
-    <row r="27" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
@@ -2452,7 +2527,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="64"/>
     </row>
-    <row r="28" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
@@ -2460,7 +2535,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="64"/>
     </row>
-    <row r="29" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="15" t="s">
         <v>41</v>
       </c>
@@ -2472,7 +2547,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="64"/>
     </row>
-    <row r="30" spans="2:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="16"/>
@@ -2480,7 +2555,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="64"/>
     </row>
-    <row r="31" spans="2:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
         <v>1</v>
       </c>
@@ -2499,35 +2574,49 @@
       <c r="G31" s="17"/>
       <c r="H31" s="64"/>
     </row>
-    <row r="32" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" s="27" t="s">
+      <c r="C32" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="62">
         <v>6</v>
       </c>
-      <c r="F32" s="29">
-        <v>7</v>
-      </c>
-      <c r="G32" s="50"/>
+      <c r="F32" s="63">
+        <v>8</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>256</v>
+      </c>
       <c r="H32" s="64"/>
     </row>
-    <row r="33" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="27"/>
+    <row r="33" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="F33" s="27">
+        <v>4</v>
+      </c>
       <c r="G33" s="50"/>
-      <c r="H33" s="64"/>
-    </row>
-    <row r="34" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="67">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="49"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -2536,7 +2625,7 @@
       <c r="G34" s="50"/>
       <c r="H34" s="64"/>
     </row>
-    <row r="35" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
         <v>12</v>
       </c>
@@ -2555,7 +2644,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="64"/>
     </row>
-    <row r="36" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
         <v>12</v>
       </c>
@@ -2569,11 +2658,11 @@
         <v>12</v>
       </c>
       <c r="F36" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H36" s="64"/>
     </row>
-    <row r="37" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="46"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -2582,7 +2671,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="64"/>
     </row>
-    <row r="38" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="46" t="s">
         <v>13</v>
       </c>
@@ -2596,11 +2685,11 @@
         <v>17</v>
       </c>
       <c r="F38" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="64"/>
     </row>
-    <row r="39" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="46" t="s">
         <v>13</v>
       </c>
@@ -2619,7 +2708,7 @@
       <c r="G39" s="45"/>
       <c r="H39" s="64"/>
     </row>
-    <row r="40" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="46" t="s">
         <v>13</v>
       </c>
@@ -2636,32 +2725,32 @@
         <v>0</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H40" s="64"/>
     </row>
-    <row r="41" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D41" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="D41" s="33" t="s">
-        <v>269</v>
-      </c>
       <c r="E41" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F41" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="45"/>
       <c r="H41" s="67">
         <v>45523</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="53"/>
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
@@ -2669,7 +2758,7 @@
       <c r="F42" s="53"/>
       <c r="H42" s="64"/>
     </row>
-    <row r="43" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="46" t="s">
         <v>14</v>
       </c>
@@ -2688,7 +2777,7 @@
       <c r="G43" s="45"/>
       <c r="H43" s="64"/>
     </row>
-    <row r="44" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
         <v>14</v>
       </c>
@@ -2707,7 +2796,7 @@
       <c r="G44" s="45"/>
       <c r="H44" s="64"/>
     </row>
-    <row r="45" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="46" t="s">
         <v>14</v>
       </c>
@@ -2715,7 +2804,7 @@
         <v>62</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E45" s="61">
         <v>1</v>
@@ -2724,130 +2813,160 @@
         <v>0</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H45" s="64"/>
     </row>
-    <row r="46" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="D46" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="D46" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="F46" s="33">
-        <v>1</v>
+      <c r="E46" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="F46" s="46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="H46" s="67">
         <v>45523</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F47" s="33">
+        <v>0</v>
+      </c>
+      <c r="H47" s="67">
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="61">
+      <c r="D48" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="61">
         <v>4</v>
       </c>
-      <c r="F47" s="46">
+      <c r="F48" s="46">
         <v>0</v>
       </c>
-      <c r="G47" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="H47" s="67"/>
-    </row>
-    <row r="48" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="F48" s="33">
+      <c r="G48" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H48" s="67"/>
+    </row>
+    <row r="49" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="F49" s="46">
         <v>0</v>
       </c>
-      <c r="H48" s="67">
+      <c r="G49" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H49" s="67">
         <v>45531</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="46" t="s">
+    <row r="50" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F50" s="33">
+        <v>1</v>
+      </c>
+      <c r="H50" s="67">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D51" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="61">
-        <v>1</v>
-      </c>
-      <c r="F49" s="46">
-        <v>1</v>
-      </c>
-      <c r="G49" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="H49" s="67"/>
-    </row>
-    <row r="50" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="D50" s="33" t="s">
+      <c r="E51" s="61">
+        <v>1</v>
+      </c>
+      <c r="F51" s="46">
+        <v>1</v>
+      </c>
+      <c r="G51" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" s="67"/>
+    </row>
+    <row r="52" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="D52" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="F50" s="33">
-        <v>0</v>
-      </c>
-      <c r="H50" s="67">
+      <c r="E52" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="F52" s="29">
+        <v>1</v>
+      </c>
+      <c r="G52" s="17"/>
+      <c r="H52" s="67">
         <v>45543</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="46"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="33"/>
-      <c r="H51" s="64"/>
-    </row>
-    <row r="52" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="48"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="64"/>
-    </row>
-    <row r="53" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="42">
@@ -2856,11 +2975,11 @@
       </c>
       <c r="F53" s="43">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="16"/>
@@ -2868,7 +2987,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="64"/>
     </row>
-    <row r="55" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="16"/>
@@ -2876,7 +2995,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="64"/>
     </row>
-    <row r="56" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="15" t="s">
         <v>44</v>
       </c>
@@ -2888,7 +3007,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="64"/>
     </row>
-    <row r="57" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="16"/>
@@ -2896,7 +3015,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="64"/>
     </row>
-    <row r="58" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="20" t="s">
         <v>1</v>
       </c>
@@ -2915,12 +3034,12 @@
       <c r="G58" s="17"/>
       <c r="H58" s="64"/>
     </row>
-    <row r="59" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D59" s="27" t="s">
         <v>67</v>
@@ -2929,12 +3048,12 @@
         <v>15</v>
       </c>
       <c r="F59" s="29">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G59" s="50"/>
       <c r="H59" s="64"/>
     </row>
-    <row r="60" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="26"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -2943,7 +3062,7 @@
       <c r="G60" s="50"/>
       <c r="H60" s="64"/>
     </row>
-    <row r="61" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="49"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -2952,7 +3071,7 @@
       <c r="G61" s="17"/>
       <c r="H61" s="64"/>
     </row>
-    <row r="62" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="46" t="s">
         <v>12</v>
       </c>
@@ -2971,7 +3090,7 @@
       <c r="G62" s="45"/>
       <c r="H62" s="64"/>
     </row>
-    <row r="63" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="46" t="s">
         <v>12</v>
       </c>
@@ -2985,11 +3104,11 @@
         <v>1</v>
       </c>
       <c r="F63" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="64"/>
     </row>
-    <row r="64" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="46"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
@@ -2997,7 +3116,7 @@
       <c r="F64" s="33"/>
       <c r="H64" s="64"/>
     </row>
-    <row r="65" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="46" t="s">
         <v>13</v>
       </c>
@@ -3011,12 +3130,12 @@
         <v>30</v>
       </c>
       <c r="F65" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="45"/>
       <c r="H65" s="64"/>
     </row>
-    <row r="66" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="46" t="s">
         <v>13</v>
       </c>
@@ -3030,12 +3149,12 @@
         <v>10</v>
       </c>
       <c r="F66" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" s="45"/>
       <c r="H66" s="64"/>
     </row>
-    <row r="67" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="46" t="s">
         <v>13</v>
       </c>
@@ -3049,11 +3168,11 @@
         <v>1</v>
       </c>
       <c r="F67" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" s="64"/>
     </row>
-    <row r="68" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="46"/>
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
@@ -3062,7 +3181,7 @@
       <c r="G68" s="45"/>
       <c r="H68" s="64"/>
     </row>
-    <row r="69" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="46" t="s">
         <v>14</v>
       </c>
@@ -3076,11 +3195,11 @@
         <v>6</v>
       </c>
       <c r="F69" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H69" s="64"/>
     </row>
-    <row r="70" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="46" t="s">
         <v>14</v>
       </c>
@@ -3094,12 +3213,12 @@
         <v>25</v>
       </c>
       <c r="F70" s="33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G70" s="45"/>
       <c r="H70" s="64"/>
     </row>
-    <row r="71" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="46" t="s">
         <v>14</v>
       </c>
@@ -3113,11 +3232,11 @@
         <v>1</v>
       </c>
       <c r="F71" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H71" s="64"/>
     </row>
-    <row r="72" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="46" t="s">
         <v>14</v>
       </c>
@@ -3125,7 +3244,7 @@
         <v>81</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E72" s="34">
         <v>1</v>
@@ -3135,7 +3254,7 @@
       </c>
       <c r="H72" s="64"/>
     </row>
-    <row r="73" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="46" t="s">
         <v>14</v>
       </c>
@@ -3154,7 +3273,7 @@
       <c r="G73" s="45"/>
       <c r="H73" s="64"/>
     </row>
-    <row r="74" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="53"/>
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
@@ -3162,7 +3281,7 @@
       <c r="F74" s="33"/>
       <c r="H74" s="64"/>
     </row>
-    <row r="75" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="46"/>
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
@@ -3171,7 +3290,7 @@
       <c r="G75" s="45"/>
       <c r="H75" s="64"/>
     </row>
-    <row r="76" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="46"/>
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
@@ -3179,7 +3298,7 @@
       <c r="F76" s="33"/>
       <c r="H76" s="64"/>
     </row>
-    <row r="77" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="46"/>
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
@@ -3188,7 +3307,7 @@
       <c r="G77" s="45"/>
       <c r="H77" s="64"/>
     </row>
-    <row r="78" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="46"/>
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
@@ -3196,7 +3315,7 @@
       <c r="F78" s="33"/>
       <c r="G78" s="45"/>
     </row>
-    <row r="79" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="48"/>
       <c r="C79" s="41"/>
       <c r="D79" s="41"/>
@@ -3205,7 +3324,7 @@
       <c r="G79" s="17"/>
       <c r="H79" s="64"/>
     </row>
-    <row r="80" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="42">
@@ -3214,12 +3333,12 @@
       </c>
       <c r="F80" s="43">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="64"/>
     </row>
-    <row r="81" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="16"/>
@@ -3227,7 +3346,7 @@
       <c r="G81" s="17"/>
       <c r="H81" s="64"/>
     </row>
-    <row r="82" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="16"/>
@@ -3235,7 +3354,7 @@
       <c r="G82" s="17"/>
       <c r="H82" s="64"/>
     </row>
-    <row r="83" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="15" t="s">
         <v>17</v>
       </c>
@@ -3247,7 +3366,7 @@
       <c r="G83" s="17"/>
       <c r="H83" s="64"/>
     </row>
-    <row r="84" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="16"/>
@@ -3255,7 +3374,7 @@
       <c r="G84" s="17"/>
       <c r="H84" s="64"/>
     </row>
-    <row r="85" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="20" t="s">
         <v>1</v>
       </c>
@@ -3274,35 +3393,49 @@
       <c r="G85" s="17"/>
       <c r="H85" s="64"/>
     </row>
-    <row r="86" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="D86" s="27" t="s">
+      <c r="C86" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D86" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E86" s="28">
-        <v>1</v>
-      </c>
-      <c r="F86" s="29">
-        <v>7</v>
-      </c>
-      <c r="G86" s="50"/>
+      <c r="E86" s="62">
+        <v>1</v>
+      </c>
+      <c r="F86" s="63">
+        <v>10</v>
+      </c>
+      <c r="G86" s="50" t="s">
+        <v>256</v>
+      </c>
       <c r="H86" s="64"/>
     </row>
-    <row r="87" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="26"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="27"/>
+    <row r="87" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="F87" s="27">
+        <v>2</v>
+      </c>
       <c r="G87" s="50"/>
-      <c r="H87" s="64"/>
-    </row>
-    <row r="88" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H87" s="67">
+        <v>45564</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="49"/>
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
@@ -3311,7 +3444,7 @@
       <c r="G88" s="17"/>
       <c r="H88" s="64"/>
     </row>
-    <row r="89" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="46" t="s">
         <v>12</v>
       </c>
@@ -3325,12 +3458,12 @@
         <v>10</v>
       </c>
       <c r="F89" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="45"/>
       <c r="H89" s="64"/>
     </row>
-    <row r="90" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="46" t="s">
         <v>12</v>
       </c>
@@ -3347,31 +3480,31 @@
         <v>0</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H90" s="64"/>
     </row>
-    <row r="91" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D91" s="33" t="s">
         <v>57</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F91" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" s="67">
         <v>45534</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="53"/>
       <c r="C92" s="53"/>
       <c r="D92" s="53"/>
@@ -3379,7 +3512,7 @@
       <c r="F92" s="53"/>
       <c r="H92" s="64"/>
     </row>
-    <row r="93" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="46" t="s">
         <v>13</v>
       </c>
@@ -3396,30 +3529,30 @@
         <v>0</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D94" s="33" t="s">
         <v>88</v>
       </c>
       <c r="E94" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F94" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="67">
         <v>45534</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="46" t="s">
         <v>13</v>
       </c>
@@ -3433,10 +3566,10 @@
         <v>33</v>
       </c>
       <c r="F95" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="46" t="s">
         <v>13</v>
       </c>
@@ -3453,31 +3586,31 @@
         <v>0</v>
       </c>
       <c r="G96" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H96" s="64"/>
     </row>
-    <row r="97" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F97" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" s="67">
         <v>45526</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="53"/>
       <c r="C98" s="53"/>
       <c r="D98" s="53"/>
@@ -3485,7 +3618,7 @@
       <c r="F98" s="53"/>
       <c r="H98" s="64"/>
     </row>
-    <row r="99" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="46" t="s">
         <v>14</v>
       </c>
@@ -3499,126 +3632,153 @@
         <v>45</v>
       </c>
       <c r="F99" s="33">
+        <v>5</v>
+      </c>
+      <c r="H99" s="64"/>
+    </row>
+    <row r="100" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E100" s="61">
+        <v>1</v>
+      </c>
+      <c r="F100" s="46">
+        <v>0</v>
+      </c>
+      <c r="G100" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H100" s="64"/>
+    </row>
+    <row r="101" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E101" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F101" s="33">
+        <v>1</v>
+      </c>
+      <c r="H101" s="67">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" s="61">
+        <v>1</v>
+      </c>
+      <c r="F102" s="46">
+        <v>1</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E103" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F103" s="33">
+        <v>0</v>
+      </c>
+      <c r="G103" s="45"/>
+      <c r="H103" s="67">
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E104" s="61">
+        <v>1</v>
+      </c>
+      <c r="F104" s="46">
+        <v>2</v>
+      </c>
+      <c r="G104" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H104" s="64"/>
+    </row>
+    <row r="105" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E105" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F105" s="33">
+        <v>0</v>
+      </c>
+      <c r="H105" s="67">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="D106" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106" s="28">
+        <v>1</v>
+      </c>
+      <c r="F106" s="29">
         <v>4</v>
       </c>
-      <c r="H99" s="64"/>
-    </row>
-    <row r="100" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D100" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="E100" s="34">
-        <v>1</v>
-      </c>
-      <c r="F100" s="33">
-        <v>0</v>
-      </c>
-      <c r="G100" s="45"/>
-      <c r="H100" s="64"/>
-    </row>
-    <row r="101" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D101" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="E101" s="61">
-        <v>1</v>
-      </c>
-      <c r="F101" s="46">
-        <v>1</v>
-      </c>
-      <c r="G101" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="E102" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="F102" s="33">
-        <v>0</v>
-      </c>
-      <c r="G102" s="45"/>
-      <c r="H102" s="67">
-        <v>45548</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E103" s="34">
-        <v>1</v>
-      </c>
-      <c r="F103" s="33">
-        <v>2</v>
-      </c>
-      <c r="G103" s="45"/>
-      <c r="H103" s="64"/>
-    </row>
-    <row r="104" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E104" s="34">
-        <v>1</v>
-      </c>
-      <c r="F104" s="33">
-        <v>2</v>
-      </c>
-      <c r="H104" s="64"/>
-    </row>
-    <row r="105" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="46"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="64"/>
-    </row>
-    <row r="106" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="48"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="29"/>
       <c r="G106" s="45"/>
       <c r="H106" s="64"/>
     </row>
-    <row r="107" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="42">
@@ -3627,11 +3787,11 @@
       </c>
       <c r="F107" s="43">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G107" s="17"/>
     </row>
-    <row r="108" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="16"/>
@@ -3639,7 +3799,7 @@
       <c r="G108" s="17"/>
       <c r="H108" s="64"/>
     </row>
-    <row r="109" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="16"/>
@@ -3647,7 +3807,7 @@
       <c r="G109" s="17"/>
       <c r="H109" s="64"/>
     </row>
-    <row r="110" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="15" t="s">
         <v>19</v>
       </c>
@@ -3659,7 +3819,7 @@
       <c r="G110" s="17"/>
       <c r="H110" s="64"/>
     </row>
-    <row r="111" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="16"/>
@@ -3667,7 +3827,7 @@
       <c r="G111" s="17"/>
       <c r="H111" s="64"/>
     </row>
-    <row r="112" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="20" t="s">
         <v>1</v>
       </c>
@@ -3686,12 +3846,12 @@
       <c r="G112" s="17"/>
       <c r="H112" s="64"/>
     </row>
-    <row r="113" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D113" s="27" t="s">
         <v>53</v>
@@ -3700,12 +3860,12 @@
         <v>5</v>
       </c>
       <c r="F113" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G113" s="50"/>
       <c r="H113" s="64"/>
     </row>
-    <row r="114" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="26"/>
       <c r="C114" s="27"/>
       <c r="D114" s="27"/>
@@ -3714,7 +3874,7 @@
       <c r="G114" s="50"/>
       <c r="H114" s="64"/>
     </row>
-    <row r="115" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="49"/>
       <c r="C115" s="27"/>
       <c r="D115" s="27"/>
@@ -3723,15 +3883,15 @@
       <c r="G115" s="17"/>
       <c r="H115" s="64"/>
     </row>
-    <row r="116" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D116" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="D116" s="33" t="s">
-        <v>103</v>
       </c>
       <c r="E116" s="34">
         <v>3</v>
@@ -3741,15 +3901,15 @@
       </c>
       <c r="H116" s="64"/>
     </row>
-    <row r="117" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C117" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D117" s="33" t="s">
         <v>104</v>
-      </c>
-      <c r="D117" s="33" t="s">
-        <v>105</v>
       </c>
       <c r="E117" s="34">
         <v>1</v>
@@ -3760,7 +3920,7 @@
       <c r="G117" s="45"/>
       <c r="H117" s="64"/>
     </row>
-    <row r="118" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="46"/>
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
@@ -3769,207 +3929,250 @@
       <c r="G118" s="45"/>
       <c r="H118" s="64"/>
     </row>
-    <row r="119" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C119" s="33" t="s">
+      <c r="C119" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D119" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="D119" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E119" s="34">
-        <v>1</v>
-      </c>
-      <c r="F119" s="33">
+      <c r="E119" s="61">
+        <v>1</v>
+      </c>
+      <c r="F119" s="46">
         <v>3</v>
       </c>
-      <c r="G119" s="45"/>
+      <c r="G119" s="45" t="s">
+        <v>256</v>
+      </c>
       <c r="H119" s="64"/>
     </row>
-    <row r="120" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C120" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="D120" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="E120" s="61">
-        <v>1</v>
-      </c>
-      <c r="F120" s="46">
+      <c r="C120" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="E120" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F120" s="33">
         <v>0</v>
       </c>
-      <c r="G120" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H120" s="67">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C121" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="D121" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="E121" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="F121" s="33">
+      <c r="C121" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D121" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E121" s="61">
+        <v>1</v>
+      </c>
+      <c r="F121" s="46">
         <v>0</v>
       </c>
-      <c r="H121" s="67">
-        <v>45529</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G121" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C122" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E122" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F122" s="33">
+        <v>1</v>
+      </c>
+      <c r="H122" s="67">
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D123" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E123" s="34">
+        <v>1</v>
+      </c>
+      <c r="F123" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="46"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="33"/>
+      <c r="H124" s="64"/>
+    </row>
+    <row r="125" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D122" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E122" s="34">
-        <v>1</v>
-      </c>
-      <c r="F122" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="46"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="33"/>
-      <c r="H123" s="64"/>
-    </row>
-    <row r="124" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" s="33" t="s">
+      <c r="D125" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E125" s="34">
+        <v>7</v>
+      </c>
+      <c r="F125" s="33">
+        <v>4</v>
+      </c>
+      <c r="H125" s="64"/>
+    </row>
+    <row r="126" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D124" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E124" s="34">
-        <v>7</v>
-      </c>
-      <c r="F124" s="33">
-        <v>4</v>
-      </c>
-      <c r="H124" s="64"/>
-    </row>
-    <row r="125" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D125" s="33" t="s">
+      <c r="D126" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E125" s="34">
+      <c r="E126" s="34">
         <v>15</v>
-      </c>
-      <c r="F125" s="33">
-        <v>0</v>
-      </c>
-      <c r="H125" s="64"/>
-    </row>
-    <row r="126" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D126" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E126" s="34">
-        <v>39</v>
       </c>
       <c r="F126" s="33">
         <v>2</v>
       </c>
-      <c r="G126" s="45"/>
       <c r="H126" s="64"/>
     </row>
-    <row r="127" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E127" s="34">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F127" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G127" s="45"/>
       <c r="H127" s="64"/>
     </row>
-    <row r="128" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D128" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="E128" s="34">
+      <c r="C128" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D128" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E128" s="61">
+        <v>12</v>
+      </c>
+      <c r="F128" s="46">
+        <v>1</v>
+      </c>
+      <c r="G128" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H128" s="64"/>
+    </row>
+    <row r="129" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="D129" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E129" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" s="33">
+        <v>3</v>
+      </c>
+      <c r="H129" s="67">
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D130" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="E130" s="61">
         <v>11</v>
       </c>
-      <c r="F128" s="33">
+      <c r="F130" s="46">
         <v>0</v>
       </c>
-      <c r="H128" s="64"/>
-    </row>
-    <row r="129" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="46"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="34"/>
-      <c r="F129" s="33"/>
-      <c r="H129" s="64"/>
-    </row>
-    <row r="130" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="46"/>
-      <c r="C130" s="33"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="34"/>
-      <c r="F130" s="33"/>
+      <c r="G130" s="14" t="s">
+        <v>256</v>
+      </c>
       <c r="H130" s="64"/>
     </row>
-    <row r="131" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="46"/>
-      <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="34"/>
-      <c r="F131" s="33"/>
-      <c r="H131" s="64"/>
-    </row>
-    <row r="132" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E131" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" s="33">
+        <v>2</v>
+      </c>
+      <c r="H131" s="67">
+        <v>45556</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="46"/>
       <c r="C132" s="33"/>
       <c r="D132" s="33"/>
@@ -3977,7 +4180,7 @@
       <c r="F132" s="33"/>
       <c r="H132" s="64"/>
     </row>
-    <row r="133" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="48"/>
       <c r="C133" s="41"/>
       <c r="D133" s="41"/>
@@ -3986,7 +4189,7 @@
       <c r="G133" s="17"/>
       <c r="H133" s="64"/>
     </row>
-    <row r="134" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
       <c r="E134" s="42">
@@ -3995,12 +4198,12 @@
       </c>
       <c r="F134" s="43">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G134" s="17"/>
       <c r="H134" s="64"/>
     </row>
-    <row r="135" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="16"/>
@@ -4008,7 +4211,7 @@
       <c r="G135" s="17"/>
       <c r="H135" s="64"/>
     </row>
-    <row r="136" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
       <c r="E136" s="16"/>
@@ -4016,7 +4219,7 @@
       <c r="G136" s="17"/>
       <c r="H136" s="64"/>
     </row>
-    <row r="137" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="15" t="s">
         <v>21</v>
       </c>
@@ -4028,7 +4231,7 @@
       <c r="G137" s="17"/>
       <c r="H137" s="64"/>
     </row>
-    <row r="138" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
       <c r="E138" s="16"/>
@@ -4036,7 +4239,7 @@
       <c r="G138" s="17"/>
       <c r="H138" s="64"/>
     </row>
-    <row r="139" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="20" t="s">
         <v>1</v>
       </c>
@@ -4055,15 +4258,15 @@
       <c r="G139" s="50"/>
       <c r="H139" s="64"/>
     </row>
-    <row r="140" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C140" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D140" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E140" s="62">
         <v>1</v>
@@ -4072,32 +4275,32 @@
         <v>7</v>
       </c>
       <c r="G140" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H140" s="64"/>
     </row>
-    <row r="141" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D141" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E141" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F141" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G141" s="50"/>
       <c r="H141" s="67">
-        <v>45528</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="49"/>
       <c r="C142" s="27"/>
       <c r="D142" s="27"/>
@@ -4106,15 +4309,15 @@
       <c r="G142" s="45"/>
       <c r="H142" s="64"/>
     </row>
-    <row r="143" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E143" s="34">
         <v>1</v>
@@ -4124,15 +4327,15 @@
       </c>
       <c r="H143" s="64"/>
     </row>
-    <row r="144" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C144" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D144" s="33" t="s">
         <v>120</v>
-      </c>
-      <c r="D144" s="33" t="s">
-        <v>121</v>
       </c>
       <c r="E144" s="34">
         <v>1</v>
@@ -4142,7 +4345,7 @@
       </c>
       <c r="H144" s="64"/>
     </row>
-    <row r="145" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="46"/>
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
@@ -4150,12 +4353,12 @@
       <c r="F145" s="33"/>
       <c r="H145" s="64"/>
     </row>
-    <row r="146" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D146" s="33" t="s">
         <v>67</v>
@@ -4164,17 +4367,17 @@
         <v>1</v>
       </c>
       <c r="F146" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G146" s="45"/>
       <c r="H146" s="64"/>
     </row>
-    <row r="147" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D147" s="33" t="s">
         <v>84</v>
@@ -4183,164 +4386,220 @@
         <v>1</v>
       </c>
       <c r="F147" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H147" s="64"/>
     </row>
-    <row r="148" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C148" s="33" t="s">
+      <c r="C148" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D148" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E148" s="61">
+        <v>1</v>
+      </c>
+      <c r="F148" s="46">
+        <v>1</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H148" s="64"/>
+    </row>
+    <row r="149" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="E149" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F149" s="33">
+        <v>0</v>
+      </c>
+      <c r="H149" s="67">
+        <v>45564</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="53"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="53"/>
+      <c r="E150" s="60"/>
+      <c r="F150" s="53"/>
+    </row>
+    <row r="151" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D148" s="33" t="s">
+      <c r="D151" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E148" s="34">
-        <v>1</v>
-      </c>
-      <c r="F148" s="33">
-        <v>1</v>
-      </c>
-      <c r="H148" s="64"/>
-    </row>
-    <row r="149" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="46"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="34"/>
-      <c r="F149" s="33"/>
-      <c r="H149" s="64"/>
-    </row>
-    <row r="150" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C150" s="33" t="s">
+      <c r="E151" s="34">
+        <v>80</v>
+      </c>
+      <c r="F151" s="33">
+        <v>11</v>
+      </c>
+      <c r="G151" s="45"/>
+      <c r="H151" s="64"/>
+    </row>
+    <row r="152" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="D150" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E150" s="34">
-        <v>80</v>
-      </c>
-      <c r="F150" s="33">
-        <v>9</v>
-      </c>
-      <c r="G150" s="45"/>
-      <c r="H150" s="64"/>
-    </row>
-    <row r="151" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C151" s="33" t="s">
+      <c r="D152" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D151" s="33" t="s">
+      <c r="E152" s="61">
+        <v>2</v>
+      </c>
+      <c r="F152" s="46">
+        <v>0</v>
+      </c>
+      <c r="G152" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H152" s="64"/>
+    </row>
+    <row r="153" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="D153" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E153" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F153" s="33">
+        <v>1</v>
+      </c>
+      <c r="G153" s="45"/>
+      <c r="H153" s="67">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="E151" s="34">
+      <c r="D154" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E154" s="61">
+        <v>1</v>
+      </c>
+      <c r="F154" s="46">
         <v>2</v>
       </c>
-      <c r="F151" s="33">
-        <v>0</v>
-      </c>
-      <c r="H151" s="64"/>
-    </row>
-    <row r="152" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C152" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D152" s="33" t="s">
+      <c r="G154" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H154" s="67"/>
+    </row>
+    <row r="155" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="D155" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E155" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F155" s="33">
+        <v>3</v>
+      </c>
+      <c r="H155" s="67">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="E152" s="34">
-        <v>1</v>
-      </c>
-      <c r="F152" s="33">
-        <v>2</v>
-      </c>
-      <c r="G152" s="45"/>
-      <c r="H152" s="64"/>
-    </row>
-    <row r="153" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C153" s="33" t="s">
+      <c r="D156" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D153" s="33" t="s">
+      <c r="E156" s="61">
+        <v>6</v>
+      </c>
+      <c r="F156" s="46">
+        <v>1</v>
+      </c>
+      <c r="G156" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H156" s="67"/>
+    </row>
+    <row r="157" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="D157" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E157" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F157" s="33">
+        <v>1</v>
+      </c>
+      <c r="H157" s="67">
+        <v>45564</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="E153" s="34">
+      <c r="D158" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E158" s="34">
+        <v>1</v>
+      </c>
+      <c r="F158" s="33">
         <v>6</v>
       </c>
-      <c r="F153" s="33">
-        <v>1</v>
-      </c>
-      <c r="G153" s="45"/>
-      <c r="H153" s="64"/>
-    </row>
-    <row r="154" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C154" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D154" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E154" s="34">
-        <v>1</v>
-      </c>
-      <c r="F154" s="33">
-        <v>4</v>
-      </c>
-      <c r="H154" s="64"/>
-    </row>
-    <row r="155" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="53"/>
-      <c r="C155" s="33"/>
-      <c r="D155" s="33"/>
-      <c r="E155" s="34"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="45"/>
-      <c r="H155" s="64"/>
-    </row>
-    <row r="156" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="46"/>
-      <c r="C156" s="33"/>
-      <c r="D156" s="33"/>
-      <c r="E156" s="34"/>
-      <c r="F156" s="33"/>
-      <c r="H156" s="64"/>
-    </row>
-    <row r="157" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="46"/>
-      <c r="C157" s="33"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="34"/>
-      <c r="F157" s="33"/>
-      <c r="H157" s="64"/>
-    </row>
-    <row r="158" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="46"/>
-      <c r="C158" s="33"/>
-      <c r="D158" s="33"/>
-      <c r="E158" s="34"/>
-      <c r="F158" s="33"/>
-      <c r="G158" s="45"/>
       <c r="H158" s="64"/>
     </row>
-    <row r="159" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="46"/>
       <c r="C159" s="33"/>
       <c r="D159" s="33"/>
@@ -4348,7 +4607,7 @@
       <c r="F159" s="33"/>
       <c r="H159" s="64"/>
     </row>
-    <row r="160" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B160" s="48"/>
       <c r="C160" s="41"/>
       <c r="D160" s="41"/>
@@ -4357,7 +4616,7 @@
       <c r="G160" s="17"/>
       <c r="H160" s="64"/>
     </row>
-    <row r="161" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
       <c r="E161" s="42">
@@ -4366,12 +4625,12 @@
       </c>
       <c r="F161" s="43">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="64"/>
     </row>
-    <row r="162" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
       <c r="E162" s="16"/>
@@ -4379,7 +4638,7 @@
       <c r="G162" s="17"/>
       <c r="H162" s="64"/>
     </row>
-    <row r="163" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
       <c r="E163" s="16"/>
@@ -4387,7 +4646,7 @@
       <c r="G163" s="17"/>
       <c r="H163" s="64"/>
     </row>
-    <row r="164" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C164" s="15" t="s">
         <v>38</v>
       </c>
@@ -4399,7 +4658,7 @@
       <c r="G164" s="17"/>
       <c r="H164" s="64"/>
     </row>
-    <row r="165" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
       <c r="E165" s="16"/>
@@ -4407,7 +4666,7 @@
       <c r="G165" s="17"/>
       <c r="H165" s="64"/>
     </row>
-    <row r="166" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="20" t="s">
         <v>1</v>
       </c>
@@ -4426,12 +4685,12 @@
       <c r="G166" s="50"/>
       <c r="H166" s="64"/>
     </row>
-    <row r="167" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C167" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D167" s="27" t="s">
         <v>59</v>
@@ -4440,12 +4699,12 @@
         <v>7</v>
       </c>
       <c r="F167" s="29">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G167" s="50"/>
       <c r="H167" s="64"/>
     </row>
-    <row r="168" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="26"/>
       <c r="C168" s="27"/>
       <c r="D168" s="27"/>
@@ -4454,7 +4713,7 @@
       <c r="G168" s="50"/>
       <c r="H168" s="64"/>
     </row>
-    <row r="169" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="49"/>
       <c r="C169" s="27"/>
       <c r="D169" s="27"/>
@@ -4463,12 +4722,12 @@
       <c r="G169" s="47"/>
       <c r="H169" s="64"/>
     </row>
-    <row r="170" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C170" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D170" s="33" t="s">
         <v>64</v>
@@ -4481,15 +4740,15 @@
       </c>
       <c r="H170" s="64"/>
     </row>
-    <row r="171" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C171" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D171" s="33" t="s">
         <v>136</v>
-      </c>
-      <c r="D171" s="33" t="s">
-        <v>137</v>
       </c>
       <c r="E171" s="34">
         <v>1</v>
@@ -4500,7 +4759,7 @@
       <c r="G171" s="45"/>
       <c r="H171" s="64"/>
     </row>
-    <row r="172" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="46"/>
       <c r="C172" s="33"/>
       <c r="D172" s="33"/>
@@ -4509,15 +4768,15 @@
       <c r="G172" s="45"/>
       <c r="H172" s="64"/>
     </row>
-    <row r="173" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D173" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E173" s="34">
         <v>9</v>
@@ -4528,12 +4787,12 @@
       <c r="G173" s="45"/>
       <c r="H173" s="64"/>
     </row>
-    <row r="174" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C174" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D174" s="33" t="s">
         <v>67</v>
@@ -4542,19 +4801,19 @@
         <v>15</v>
       </c>
       <c r="F174" s="33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H174" s="64"/>
     </row>
-    <row r="175" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C175" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D175" s="46" t="s">
         <v>140</v>
-      </c>
-      <c r="D175" s="46" t="s">
-        <v>141</v>
       </c>
       <c r="E175" s="61">
         <v>1</v>
@@ -4563,22 +4822,22 @@
         <v>0</v>
       </c>
       <c r="G175" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H175" s="64"/>
     </row>
-    <row r="176" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D176" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E176" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F176" s="33">
         <v>0</v>
@@ -4587,7 +4846,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="177" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="53"/>
       <c r="C177" s="53"/>
       <c r="D177" s="53"/>
@@ -4595,12 +4854,12 @@
       <c r="F177" s="53"/>
       <c r="H177" s="64"/>
     </row>
-    <row r="178" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C178" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D178" s="33" t="s">
         <v>90</v>
@@ -4609,15 +4868,15 @@
         <v>3</v>
       </c>
       <c r="F178" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C179" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D179" s="33" t="s">
         <v>53</v>
@@ -4626,38 +4885,38 @@
         <v>4</v>
       </c>
       <c r="F179" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179" s="64"/>
     </row>
-    <row r="180" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C180" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D180" s="33" t="s">
         <v>144</v>
-      </c>
-      <c r="D180" s="33" t="s">
-        <v>145</v>
       </c>
       <c r="E180" s="34">
         <v>5</v>
       </c>
       <c r="F180" s="33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G180" s="45"/>
       <c r="H180" s="64"/>
     </row>
-    <row r="181" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C181" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D181" s="33" t="s">
         <v>146</v>
-      </c>
-      <c r="D181" s="33" t="s">
-        <v>147</v>
       </c>
       <c r="E181" s="34">
         <v>38</v>
@@ -4667,32 +4926,48 @@
       </c>
       <c r="H181" s="64"/>
     </row>
-    <row r="182" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C182" s="33" t="s">
+      <c r="C182" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D182" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="D182" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E182" s="34">
+      <c r="E182" s="61">
         <v>10</v>
       </c>
-      <c r="F182" s="33">
+      <c r="F182" s="46">
         <v>2</v>
       </c>
+      <c r="G182" s="14" t="s">
+        <v>256</v>
+      </c>
       <c r="H182" s="64"/>
     </row>
-    <row r="183" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="46"/>
-      <c r="C183" s="33"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="34"/>
-      <c r="F183" s="33"/>
-    </row>
-    <row r="184" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="D183" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E183" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F183" s="33">
+        <v>1</v>
+      </c>
+      <c r="H183" s="67">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="46"/>
       <c r="C184" s="33"/>
       <c r="D184" s="33"/>
@@ -4700,7 +4975,7 @@
       <c r="F184" s="33"/>
       <c r="H184" s="64"/>
     </row>
-    <row r="185" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="46"/>
       <c r="C185" s="33"/>
       <c r="D185" s="33"/>
@@ -4709,7 +4984,7 @@
       <c r="G185" s="45"/>
       <c r="H185" s="64"/>
     </row>
-    <row r="186" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="46"/>
       <c r="C186" s="33"/>
       <c r="D186" s="33"/>
@@ -4717,7 +4992,7 @@
       <c r="F186" s="33"/>
       <c r="H186" s="64"/>
     </row>
-    <row r="187" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B187" s="48"/>
       <c r="C187" s="41"/>
       <c r="D187" s="41"/>
@@ -4726,7 +5001,7 @@
       <c r="G187" s="17"/>
       <c r="H187" s="64"/>
     </row>
-    <row r="188" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
       <c r="E188" s="42">
@@ -4735,12 +5010,12 @@
       </c>
       <c r="F188" s="43">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G188" s="17"/>
       <c r="H188" s="64"/>
     </row>
-    <row r="189" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="16"/>
@@ -4748,7 +5023,7 @@
       <c r="G189" s="17"/>
       <c r="H189" s="64"/>
     </row>
-    <row r="190" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
       <c r="E190" s="16"/>
@@ -4756,7 +5031,7 @@
       <c r="G190" s="17"/>
       <c r="H190" s="64"/>
     </row>
-    <row r="191" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C191" s="15" t="s">
         <v>42</v>
       </c>
@@ -4768,7 +5043,7 @@
       <c r="G191" s="17"/>
       <c r="H191" s="64"/>
     </row>
-    <row r="192" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C192" s="15"/>
       <c r="D192" s="15"/>
       <c r="E192" s="16"/>
@@ -4776,7 +5051,7 @@
       <c r="G192" s="17"/>
       <c r="H192" s="64"/>
     </row>
-    <row r="193" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B193" s="20" t="s">
         <v>1</v>
       </c>
@@ -4795,26 +5070,26 @@
       <c r="G193" s="50"/>
       <c r="H193" s="64"/>
     </row>
-    <row r="194" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C194" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D194" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E194" s="28">
         <v>4</v>
       </c>
       <c r="F194" s="29">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G194" s="50"/>
       <c r="H194" s="64"/>
     </row>
-    <row r="195" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="26"/>
       <c r="C195" s="27"/>
       <c r="D195" s="27"/>
@@ -4823,7 +5098,7 @@
       <c r="G195" s="17"/>
       <c r="H195" s="64"/>
     </row>
-    <row r="196" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="49"/>
       <c r="C196" s="27"/>
       <c r="D196" s="27"/>
@@ -4832,262 +5107,277 @@
       <c r="G196" s="45"/>
       <c r="H196" s="64"/>
     </row>
-    <row r="197" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C197" s="33" t="s">
+      <c r="C197" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D197" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="D197" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="E197" s="34">
+      <c r="E197" s="61">
         <v>3</v>
       </c>
-      <c r="F197" s="33">
+      <c r="F197" s="46">
         <v>0</v>
       </c>
+      <c r="G197" s="14" t="s">
+        <v>256</v>
+      </c>
       <c r="H197" s="64"/>
     </row>
-    <row r="198" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C198" s="33" t="s">
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="D198" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="E198" s="34">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="E198" s="34" t="s">
+        <v>254</v>
       </c>
       <c r="F198" s="33">
-        <v>1</v>
-      </c>
-      <c r="G198" s="45"/>
-      <c r="H198" s="64"/>
-    </row>
-    <row r="199" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="46"/>
-      <c r="C199" s="33"/>
-      <c r="D199" s="33"/>
-      <c r="E199" s="34"/>
-      <c r="F199" s="33"/>
+        <v>0</v>
+      </c>
+      <c r="H198" s="67">
+        <v>45564</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D199" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E199" s="34">
+        <v>1</v>
+      </c>
+      <c r="F199" s="33">
+        <v>1</v>
+      </c>
       <c r="G199" s="45"/>
       <c r="H199" s="64"/>
     </row>
-    <row r="200" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C200" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="D200" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E200" s="34">
-        <v>23</v>
-      </c>
-      <c r="F200" s="33">
-        <v>1</v>
-      </c>
+    <row r="200" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="46"/>
+      <c r="C200" s="33"/>
+      <c r="D200" s="33"/>
+      <c r="E200" s="34"/>
+      <c r="F200" s="33"/>
+      <c r="G200" s="45"/>
       <c r="H200" s="64"/>
     </row>
-    <row r="201" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C201" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D201" s="33" t="s">
-        <v>238</v>
+        <v>67</v>
       </c>
       <c r="E201" s="34">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F201" s="33">
-        <v>1</v>
-      </c>
-      <c r="G201" s="45"/>
+        <v>3</v>
+      </c>
       <c r="H201" s="64"/>
     </row>
-    <row r="202" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C202" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="D202" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="E202" s="61">
+      <c r="C202" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D202" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="E202" s="34">
+        <v>1</v>
+      </c>
+      <c r="F202" s="33">
         <v>2</v>
       </c>
-      <c r="F202" s="46">
-        <v>0</v>
-      </c>
-      <c r="G202" s="45" t="s">
-        <v>257</v>
-      </c>
+      <c r="G202" s="45"/>
       <c r="H202" s="64"/>
     </row>
-    <row r="203" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C203" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="D203" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="E203" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="F203" s="33">
+      <c r="C203" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D203" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E203" s="61">
         <v>2</v>
       </c>
-      <c r="G203" s="45"/>
-      <c r="H203" s="67">
+      <c r="F203" s="46">
+        <v>0</v>
+      </c>
+      <c r="G203" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H203" s="64"/>
+    </row>
+    <row r="204" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D204" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E204" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F204" s="33">
+        <v>3</v>
+      </c>
+      <c r="G204" s="45"/>
+      <c r="H204" s="67">
         <v>45515</v>
       </c>
     </row>
-    <row r="204" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="53"/>
-      <c r="C204" s="53"/>
-      <c r="D204" s="53"/>
-      <c r="E204" s="60"/>
-      <c r="F204" s="53"/>
-      <c r="H204" s="64"/>
-    </row>
-    <row r="205" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C205" s="33" t="s">
+    <row r="205" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="53"/>
+      <c r="C205" s="53"/>
+      <c r="D205" s="53"/>
+      <c r="E205" s="60"/>
+      <c r="F205" s="53"/>
+      <c r="H205" s="64"/>
+    </row>
+    <row r="206" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D206" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E206" s="34">
+        <v>13</v>
+      </c>
+      <c r="F206" s="33">
+        <v>3</v>
+      </c>
+      <c r="G206" s="45"/>
+      <c r="H206" s="64"/>
+    </row>
+    <row r="207" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="D205" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="E205" s="34">
-        <v>13</v>
-      </c>
-      <c r="F205" s="33">
-        <v>0</v>
-      </c>
-      <c r="G205" s="45"/>
-      <c r="H205" s="64"/>
-    </row>
-    <row r="206" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C206" s="33" t="s">
+      <c r="D207" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="D206" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="E206" s="34">
+      <c r="E207" s="34">
         <v>4</v>
-      </c>
-      <c r="F206" s="33">
-        <v>2</v>
-      </c>
-      <c r="H206" s="64"/>
-    </row>
-    <row r="207" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C207" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D207" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E207" s="34">
-        <v>10</v>
       </c>
       <c r="F207" s="33">
         <v>2</v>
       </c>
       <c r="H207" s="64"/>
     </row>
-    <row r="208" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C208" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D208" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E208" s="34">
+        <v>10</v>
+      </c>
+      <c r="F208" s="33">
+        <v>2</v>
+      </c>
+      <c r="H208" s="64"/>
+    </row>
+    <row r="209" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D209" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D208" s="33" t="s">
+      <c r="E209" s="34">
+        <v>16</v>
+      </c>
+      <c r="F209" s="33">
+        <v>0</v>
+      </c>
+      <c r="G209" s="45"/>
+    </row>
+    <row r="210" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="E208" s="34">
-        <v>16</v>
-      </c>
-      <c r="F208" s="33">
+      <c r="D210" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E210" s="61">
+        <v>15</v>
+      </c>
+      <c r="F210" s="46">
         <v>0</v>
       </c>
-      <c r="G208" s="45"/>
-    </row>
-    <row r="209" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C209" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="D209" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="E209" s="61">
-        <v>15</v>
-      </c>
-      <c r="F209" s="46">
-        <v>0</v>
-      </c>
-      <c r="G209" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="H209" s="64"/>
-    </row>
-    <row r="210" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C210" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="D210" s="33" t="s">
+      <c r="G210" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H210" s="64"/>
+    </row>
+    <row r="211" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D211" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E210" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="F210" s="33">
-        <v>0</v>
-      </c>
-      <c r="H210" s="67">
+      <c r="E211" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F211" s="33">
+        <v>1</v>
+      </c>
+      <c r="H211" s="67">
         <v>45535</v>
       </c>
     </row>
-    <row r="211" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="46"/>
-      <c r="C211" s="33"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="34"/>
-      <c r="F211" s="33"/>
-      <c r="H211" s="64"/>
-    </row>
-    <row r="212" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="46"/>
       <c r="C212" s="33"/>
       <c r="D212" s="33"/>
@@ -5095,7 +5385,7 @@
       <c r="F212" s="33"/>
       <c r="H212" s="64"/>
     </row>
-    <row r="213" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="46"/>
       <c r="C213" s="33"/>
       <c r="D213" s="33"/>
@@ -5104,7 +5394,7 @@
       <c r="G213" s="45"/>
       <c r="H213" s="64"/>
     </row>
-    <row r="214" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="48"/>
       <c r="C214" s="41"/>
       <c r="D214" s="41"/>
@@ -5113,7 +5403,7 @@
       <c r="G214" s="17"/>
       <c r="H214" s="64"/>
     </row>
-    <row r="215" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C215" s="15"/>
       <c r="D215" s="15"/>
       <c r="E215" s="42">
@@ -5122,12 +5412,12 @@
       </c>
       <c r="F215" s="43">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G215" s="17"/>
       <c r="H215" s="64"/>
     </row>
-    <row r="216" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C216" s="15"/>
       <c r="D216" s="15"/>
       <c r="E216" s="16"/>
@@ -5135,7 +5425,7 @@
       <c r="G216" s="17"/>
       <c r="H216" s="64"/>
     </row>
-    <row r="217" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C217" s="15"/>
       <c r="D217" s="15"/>
       <c r="E217" s="16"/>
@@ -5143,7 +5433,7 @@
       <c r="G217" s="17"/>
       <c r="H217" s="64"/>
     </row>
-    <row r="218" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C218" s="15" t="s">
         <v>43</v>
       </c>
@@ -5155,7 +5445,7 @@
       <c r="G218" s="17"/>
       <c r="H218" s="64"/>
     </row>
-    <row r="219" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C219" s="15"/>
       <c r="D219" s="15"/>
       <c r="E219" s="16"/>
@@ -5163,7 +5453,7 @@
       <c r="G219" s="17"/>
       <c r="H219" s="64"/>
     </row>
-    <row r="220" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B220" s="20" t="s">
         <v>1</v>
       </c>
@@ -5182,26 +5472,26 @@
       <c r="G220" s="50"/>
       <c r="H220" s="64"/>
     </row>
-    <row r="221" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C221" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D221" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E221" s="28">
         <v>1</v>
       </c>
       <c r="F221" s="29">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G221" s="50"/>
       <c r="H221" s="64"/>
     </row>
-    <row r="222" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="26"/>
       <c r="C222" s="27"/>
       <c r="D222" s="27"/>
@@ -5210,7 +5500,7 @@
       <c r="G222" s="50"/>
       <c r="H222" s="64"/>
     </row>
-    <row r="223" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="49"/>
       <c r="C223" s="27"/>
       <c r="D223" s="27"/>
@@ -5219,12 +5509,12 @@
       <c r="G223" s="45"/>
       <c r="H223" s="64"/>
     </row>
-    <row r="224" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C224" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D224" s="33" t="s">
         <v>73</v>
@@ -5233,16 +5523,16 @@
         <v>1</v>
       </c>
       <c r="F224" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H224" s="64"/>
     </row>
-    <row r="225" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C225" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D225" s="33" t="s">
         <v>82</v>
@@ -5256,7 +5546,7 @@
       <c r="G225" s="45"/>
       <c r="H225" s="64"/>
     </row>
-    <row r="226" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="46"/>
       <c r="C226" s="33"/>
       <c r="D226" s="33"/>
@@ -5264,15 +5554,15 @@
       <c r="F226" s="33"/>
       <c r="H226" s="64"/>
     </row>
-    <row r="227" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C227" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D227" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E227" s="61">
         <v>16</v>
@@ -5281,22 +5571,22 @@
         <v>0</v>
       </c>
       <c r="G227" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H227" s="64"/>
     </row>
-    <row r="228" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C228" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D228" s="33" t="s">
         <v>55</v>
       </c>
       <c r="E228" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F228" s="33">
         <v>2</v>
@@ -5305,12 +5595,12 @@
         <v>45529</v>
       </c>
     </row>
-    <row r="229" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C229" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D229" s="33" t="s">
         <v>71</v>
@@ -5323,15 +5613,15 @@
       </c>
       <c r="H229" s="64"/>
     </row>
-    <row r="230" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C230" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D230" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E230" s="34">
         <v>3</v>
@@ -5342,7 +5632,7 @@
       <c r="G230" s="45"/>
       <c r="H230" s="64"/>
     </row>
-    <row r="231" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="46"/>
       <c r="C231" s="33"/>
       <c r="D231" s="33"/>
@@ -5350,29 +5640,29 @@
       <c r="F231" s="33"/>
       <c r="G231" s="45"/>
     </row>
-    <row r="232" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C232" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D232" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E232" s="34">
         <v>8</v>
       </c>
       <c r="F232" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C233" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D233" s="46" t="s">
         <v>57</v>
@@ -5384,21 +5674,21 @@
         <v>0</v>
       </c>
       <c r="G233" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="234" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C234" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D234" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E234" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F234" s="33">
         <v>0</v>
@@ -5407,15 +5697,15 @@
         <v>45529</v>
       </c>
     </row>
-    <row r="235" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C235" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D235" s="33" t="s">
         <v>172</v>
-      </c>
-      <c r="D235" s="33" t="s">
-        <v>173</v>
       </c>
       <c r="E235" s="34">
         <v>3</v>
@@ -5426,30 +5716,30 @@
       <c r="G235" s="45"/>
       <c r="H235" s="64"/>
     </row>
-    <row r="236" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C236" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D236" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E236" s="34">
         <v>36</v>
       </c>
       <c r="F236" s="33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H236" s="64"/>
     </row>
-    <row r="237" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C237" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D237" s="46" t="s">
         <v>61</v>
@@ -5461,31 +5751,31 @@
         <v>0</v>
       </c>
       <c r="G237" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H237" s="64"/>
     </row>
-    <row r="238" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C238" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D238" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E238" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F238" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H238" s="67">
         <v>45529</v>
       </c>
     </row>
-    <row r="239" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="46"/>
       <c r="C239" s="33"/>
       <c r="D239" s="33"/>
@@ -5493,7 +5783,7 @@
       <c r="F239" s="33"/>
       <c r="H239" s="64"/>
     </row>
-    <row r="240" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="46"/>
       <c r="C240" s="33"/>
       <c r="D240" s="33"/>
@@ -5502,7 +5792,7 @@
       <c r="G240" s="45"/>
       <c r="H240" s="64"/>
     </row>
-    <row r="241" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B241" s="48"/>
       <c r="C241" s="41"/>
       <c r="D241" s="41"/>
@@ -5511,7 +5801,7 @@
       <c r="G241" s="17"/>
       <c r="H241" s="64"/>
     </row>
-    <row r="242" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C242" s="15"/>
       <c r="D242" s="15"/>
       <c r="E242" s="42">
@@ -5520,22 +5810,22 @@
       </c>
       <c r="F242" s="43">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G242" s="17"/>
       <c r="H242" s="64"/>
     </row>
-    <row r="243" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C243" s="15"/>
       <c r="D243" s="15"/>
       <c r="E243" s="16"/>
       <c r="F243" s="15"/>
       <c r="H243" s="64"/>
     </row>
-    <row r="244" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G244" s="17"/>
     </row>
-    <row r="245" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C245" s="15" t="s">
         <v>31</v>
       </c>
@@ -5546,14 +5836,14 @@
       <c r="F245" s="15"/>
       <c r="G245" s="17"/>
     </row>
-    <row r="246" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C246" s="15"/>
       <c r="D246" s="15"/>
       <c r="E246" s="16"/>
       <c r="F246" s="15"/>
       <c r="G246" s="17"/>
     </row>
-    <row r="247" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B247" s="20" t="s">
         <v>1</v>
       </c>
@@ -5571,12 +5861,12 @@
       </c>
       <c r="G247" s="50"/>
     </row>
-    <row r="248" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D248" s="27" t="s">
         <v>57</v>
@@ -5585,11 +5875,11 @@
         <v>8</v>
       </c>
       <c r="F248" s="29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G248" s="50"/>
     </row>
-    <row r="249" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="26"/>
       <c r="C249" s="27"/>
       <c r="D249" s="27"/>
@@ -5597,7 +5887,7 @@
       <c r="F249" s="27"/>
       <c r="G249" s="50"/>
     </row>
-    <row r="250" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="49"/>
       <c r="C250" s="27"/>
       <c r="D250" s="27"/>
@@ -5605,15 +5895,15 @@
       <c r="F250" s="27"/>
       <c r="G250" s="45"/>
     </row>
-    <row r="251" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C251" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D251" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E251" s="34">
         <v>1</v>
@@ -5623,12 +5913,12 @@
       </c>
       <c r="G251" s="45"/>
     </row>
-    <row r="252" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C252" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D252" s="33" t="s">
         <v>92</v>
@@ -5640,19 +5930,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="46"/>
       <c r="C253" s="33"/>
       <c r="D253" s="33"/>
       <c r="E253" s="34"/>
       <c r="F253" s="33"/>
     </row>
-    <row r="254" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C254" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D254" s="33" t="s">
         <v>67</v>
@@ -5661,16 +5951,16 @@
         <v>15</v>
       </c>
       <c r="F254" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G254" s="45"/>
     </row>
-    <row r="255" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C255" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D255" s="33" t="s">
         <v>73</v>
@@ -5679,57 +5969,57 @@
         <v>15</v>
       </c>
       <c r="F255" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C256" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D256" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D256" s="33" t="s">
-        <v>182</v>
-      </c>
       <c r="E256" s="34">
         <v>1</v>
       </c>
       <c r="F256" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="46"/>
       <c r="C257" s="33"/>
       <c r="D257" s="33"/>
       <c r="E257" s="34"/>
       <c r="F257" s="33"/>
     </row>
-    <row r="258" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C258" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D258" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E258" s="34">
         <v>30</v>
       </c>
       <c r="F258" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G258" s="45"/>
     </row>
-    <row r="259" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C259" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D259" s="46" t="s">
         <v>73</v>
@@ -5741,52 +6031,52 @@
         <v>0</v>
       </c>
       <c r="G259" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="260" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C260" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D260" s="33" t="s">
         <v>84</v>
       </c>
       <c r="E260" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F260" s="33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H260" s="67">
         <v>45534</v>
       </c>
     </row>
-    <row r="261" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C261" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D261" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E261" s="34">
         <v>3</v>
       </c>
       <c r="F261" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C262" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D262" s="33" t="s">
         <v>92</v>
@@ -5795,15 +6085,15 @@
         <v>2</v>
       </c>
       <c r="F262" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C263" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D263" s="33" t="s">
         <v>86</v>
@@ -5812,17 +6102,17 @@
         <v>1</v>
       </c>
       <c r="F263" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="46"/>
       <c r="C264" s="33"/>
       <c r="D264" s="33"/>
       <c r="E264" s="34"/>
       <c r="F264" s="33"/>
     </row>
-    <row r="265" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="46"/>
       <c r="C265" s="33"/>
       <c r="D265" s="33"/>
@@ -5830,7 +6120,7 @@
       <c r="F265" s="33"/>
       <c r="G265" s="45"/>
     </row>
-    <row r="266" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="46"/>
       <c r="C266" s="33"/>
       <c r="D266" s="33"/>
@@ -5838,7 +6128,7 @@
       <c r="F266" s="33"/>
       <c r="G266" s="45"/>
     </row>
-    <row r="267" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="46"/>
       <c r="C267" s="33"/>
       <c r="D267" s="33"/>
@@ -5846,7 +6136,7 @@
       <c r="F267" s="33"/>
       <c r="G267" s="45"/>
     </row>
-    <row r="268" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B268" s="48"/>
       <c r="C268" s="41"/>
       <c r="D268" s="41"/>
@@ -5854,7 +6144,7 @@
       <c r="F268" s="29"/>
       <c r="G268" s="17"/>
     </row>
-    <row r="269" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C269" s="15"/>
       <c r="D269" s="15"/>
       <c r="E269" s="42">
@@ -5863,20 +6153,20 @@
       </c>
       <c r="F269" s="43">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G269" s="17"/>
     </row>
-    <row r="270" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C270" s="15"/>
       <c r="D270" s="15"/>
       <c r="E270" s="16"/>
       <c r="F270" s="15"/>
     </row>
-    <row r="271" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G271" s="17"/>
     </row>
-    <row r="272" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C272" s="15" t="s">
         <v>30</v>
       </c>
@@ -5887,14 +6177,14 @@
       <c r="F272" s="15"/>
       <c r="G272" s="17"/>
     </row>
-    <row r="273" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C273" s="15"/>
       <c r="D273" s="15"/>
       <c r="E273" s="16"/>
       <c r="F273" s="15"/>
       <c r="G273" s="17"/>
     </row>
-    <row r="274" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B274" s="20" t="s">
         <v>1</v>
       </c>
@@ -5912,12 +6202,12 @@
       </c>
       <c r="G274" s="50"/>
     </row>
-    <row r="275" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C275" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D275" s="27" t="s">
         <v>73</v>
@@ -5926,11 +6216,11 @@
         <v>10</v>
       </c>
       <c r="F275" s="29">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G275" s="17"/>
     </row>
-    <row r="276" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="26"/>
       <c r="C276" s="27"/>
       <c r="D276" s="27"/>
@@ -5938,22 +6228,22 @@
       <c r="F276" s="27"/>
       <c r="G276" s="17"/>
     </row>
-    <row r="277" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="49"/>
       <c r="C277" s="27"/>
       <c r="D277" s="27"/>
       <c r="E277" s="28"/>
       <c r="F277" s="27"/>
     </row>
-    <row r="278" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C278" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D278" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E278" s="34">
         <v>2</v>
@@ -5962,15 +6252,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C279" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D279" s="33" t="s">
         <v>190</v>
-      </c>
-      <c r="D279" s="33" t="s">
-        <v>191</v>
       </c>
       <c r="E279" s="34">
         <v>2</v>
@@ -5979,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="46"/>
       <c r="C280" s="33"/>
       <c r="D280" s="33"/>
@@ -5987,60 +6277,60 @@
       <c r="F280" s="33"/>
       <c r="G280" s="45"/>
     </row>
-    <row r="281" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C281" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D281" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E281" s="34">
         <v>7</v>
       </c>
       <c r="F281" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G281" s="45"/>
     </row>
-    <row r="282" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C282" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D282" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E282" s="34">
         <v>22</v>
       </c>
       <c r="F282" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C283" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D283" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E283" s="34">
         <v>2</v>
       </c>
       <c r="F283" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G283" s="45"/>
     </row>
-    <row r="284" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="46"/>
       <c r="C284" s="33"/>
       <c r="D284" s="33"/>
@@ -6048,33 +6338,33 @@
       <c r="F284" s="33"/>
       <c r="G284" s="45"/>
     </row>
-    <row r="285" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C285" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D285" s="33" t="s">
         <v>196</v>
-      </c>
-      <c r="D285" s="33" t="s">
-        <v>197</v>
       </c>
       <c r="E285" s="34">
         <v>2</v>
       </c>
       <c r="F285" s="33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G285" s="45"/>
     </row>
-    <row r="286" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C286" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D286" s="46" t="s">
         <v>198</v>
-      </c>
-      <c r="D286" s="46" t="s">
-        <v>199</v>
       </c>
       <c r="E286" s="61">
         <v>1</v>
@@ -6083,21 +6373,21 @@
         <v>0</v>
       </c>
       <c r="G286" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="287" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C287" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D287" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E287" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F287" s="33">
         <v>1</v>
@@ -6106,12 +6396,12 @@
         <v>45515</v>
       </c>
     </row>
-    <row r="288" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C288" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D288" s="33" t="s">
         <v>51</v>
@@ -6120,18 +6410,18 @@
         <v>17</v>
       </c>
       <c r="F288" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C289" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D289" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E289" s="34">
         <v>3</v>
@@ -6141,15 +6431,15 @@
       </c>
       <c r="G289" s="45"/>
     </row>
-    <row r="290" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C290" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D290" s="33" t="s">
         <v>202</v>
-      </c>
-      <c r="D290" s="33" t="s">
-        <v>203</v>
       </c>
       <c r="E290" s="34">
         <v>3</v>
@@ -6159,7 +6449,7 @@
       </c>
       <c r="G290" s="45"/>
     </row>
-    <row r="291" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="46"/>
       <c r="C291" s="33"/>
       <c r="D291" s="33"/>
@@ -6167,14 +6457,14 @@
       <c r="F291" s="33"/>
       <c r="G291" s="45"/>
     </row>
-    <row r="292" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="46"/>
       <c r="C292" s="33"/>
       <c r="D292" s="33"/>
       <c r="E292" s="34"/>
       <c r="F292" s="33"/>
     </row>
-    <row r="293" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="46"/>
       <c r="C293" s="33"/>
       <c r="D293" s="33"/>
@@ -6182,7 +6472,7 @@
       <c r="F293" s="33"/>
       <c r="G293" s="45"/>
     </row>
-    <row r="294" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="46"/>
       <c r="C294" s="33"/>
       <c r="D294" s="33"/>
@@ -6190,7 +6480,7 @@
       <c r="F294" s="33"/>
       <c r="G294" s="45"/>
     </row>
-    <row r="295" spans="1:7" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B295" s="48"/>
       <c r="C295" s="41"/>
       <c r="D295" s="41"/>
@@ -6198,7 +6488,7 @@
       <c r="F295" s="29"/>
       <c r="G295" s="17"/>
     </row>
-    <row r="296" spans="1:7" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C296" s="15"/>
       <c r="D296" s="15"/>
       <c r="E296" s="42">
@@ -6211,17 +6501,17 @@
       </c>
       <c r="G296" s="17"/>
     </row>
-    <row r="297" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C297" s="15"/>
       <c r="D297" s="15"/>
       <c r="E297" s="16"/>
       <c r="F297" s="15"/>
     </row>
-    <row r="298" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="45"/>
       <c r="G298" s="17"/>
     </row>
-    <row r="299" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C299" s="15" t="s">
         <v>35</v>
       </c>
@@ -6232,14 +6522,14 @@
       <c r="F299" s="15"/>
       <c r="G299" s="17"/>
     </row>
-    <row r="300" spans="1:7" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C300" s="15"/>
       <c r="D300" s="15"/>
       <c r="E300" s="16"/>
       <c r="F300" s="15"/>
       <c r="G300" s="17"/>
     </row>
-    <row r="301" spans="1:7" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B301" s="20" t="s">
         <v>1</v>
       </c>
@@ -6257,33 +6547,48 @@
       </c>
       <c r="G301" s="50"/>
     </row>
-    <row r="302" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C302" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="D302" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E302" s="28">
-        <v>1</v>
-      </c>
-      <c r="F302" s="29">
-        <v>6</v>
-      </c>
-      <c r="G302" s="50"/>
-    </row>
-    <row r="303" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B303" s="26"/>
-      <c r="C303" s="27"/>
-      <c r="D303" s="27"/>
-      <c r="E303" s="28"/>
-      <c r="F303" s="27"/>
+      <c r="C302" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="D302" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E302" s="62">
+        <v>1</v>
+      </c>
+      <c r="F302" s="63">
+        <v>7</v>
+      </c>
+      <c r="G302" s="50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B303" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C303" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="D303" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E303" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="F303" s="27">
+        <v>7</v>
+      </c>
       <c r="G303" s="50"/>
-    </row>
-    <row r="304" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H303" s="67">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="49"/>
       <c r="C304" s="27"/>
       <c r="D304" s="27"/>
@@ -6291,12 +6596,12 @@
       <c r="F304" s="27"/>
       <c r="G304" s="45"/>
     </row>
-    <row r="305" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C305" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D305" s="33" t="s">
         <v>69</v>
@@ -6309,12 +6614,12 @@
       </c>
       <c r="G305" s="45"/>
     </row>
-    <row r="306" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C306" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D306" s="33" t="s">
         <v>66</v>
@@ -6323,61 +6628,73 @@
         <v>1</v>
       </c>
       <c r="F306" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G306" s="45"/>
     </row>
-    <row r="307" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="46"/>
-      <c r="C307" s="33"/>
-      <c r="D307" s="33"/>
-      <c r="E307" s="34"/>
-      <c r="F307" s="33"/>
-      <c r="G307" s="45"/>
-    </row>
-    <row r="308" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C307" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="D307" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E307" s="34">
+        <v>15</v>
+      </c>
+      <c r="F307" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C308" s="33" t="s">
+      <c r="C308" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="D308" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="E308" s="34">
-        <v>15</v>
-      </c>
-      <c r="F308" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D308" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="E308" s="61">
+        <v>25</v>
+      </c>
+      <c r="F308" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C309" s="33" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="D309" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="E309" s="34">
-        <v>25</v>
+        <v>108</v>
+      </c>
+      <c r="E309" s="34" t="s">
+        <v>254</v>
       </c>
       <c r="F309" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="310" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H309" s="67">
+        <v>45564</v>
+      </c>
+    </row>
+    <row r="310" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C310" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D310" s="46" t="s">
         <v>210</v>
-      </c>
-      <c r="D310" s="46" t="s">
-        <v>211</v>
       </c>
       <c r="E310" s="60">
         <v>16</v>
@@ -6386,104 +6703,119 @@
         <v>0</v>
       </c>
       <c r="G310" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="311" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="311" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C311" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D311" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E311" s="61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F311" s="46">
         <v>0</v>
       </c>
       <c r="G311" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H311" s="67">
         <v>45518</v>
       </c>
     </row>
-    <row r="312" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C312" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D312" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E312" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F312" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H312" s="67">
         <v>45532</v>
       </c>
     </row>
-    <row r="313" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B313" s="53"/>
-      <c r="C313" s="53"/>
-      <c r="D313" s="53"/>
-      <c r="E313" s="60"/>
-      <c r="F313" s="53"/>
-    </row>
-    <row r="314" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B313" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C313" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D313" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="E313" s="61">
+        <v>15</v>
+      </c>
+      <c r="F313" s="46">
+        <v>1</v>
+      </c>
+      <c r="G313" s="45" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="314" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C314" s="33" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="D314" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="E314" s="34">
-        <v>15</v>
+        <v>299</v>
+      </c>
+      <c r="E314" s="34" t="s">
+        <v>254</v>
       </c>
       <c r="F314" s="33">
-        <v>1</v>
-      </c>
-      <c r="G314" s="45"/>
-    </row>
-    <row r="315" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H314" s="67">
+        <v>45557</v>
+      </c>
+    </row>
+    <row r="315" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C315" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D315" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E315" s="34">
         <v>15</v>
       </c>
       <c r="F315" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G315" s="45"/>
     </row>
-    <row r="316" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C316" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="D316" s="46" t="s">
         <v>214</v>
-      </c>
-      <c r="D316" s="46" t="s">
-        <v>215</v>
       </c>
       <c r="E316" s="61">
         <v>7</v>
@@ -6492,10 +6824,10 @@
         <v>1</v>
       </c>
       <c r="G316" s="45" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="317" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="317" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="46" t="s">
         <v>14</v>
       </c>
@@ -6503,24 +6835,24 @@
         <v>62</v>
       </c>
       <c r="D317" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E317" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F317" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H317" s="67">
         <v>45550</v>
       </c>
     </row>
-    <row r="318" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C318" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D318" s="46" t="s">
         <v>84</v>
@@ -6532,44 +6864,44 @@
         <v>0</v>
       </c>
       <c r="G318" s="45" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="319" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="319" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C319" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D319" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E319" s="61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F319" s="46">
         <v>0</v>
       </c>
       <c r="G319" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H319" s="67">
         <v>45518</v>
       </c>
     </row>
-    <row r="320" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C320" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D320" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E320" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F320" s="33">
         <v>2</v>
@@ -6578,15 +6910,15 @@
         <v>45528</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C321" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D321" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E321" s="61">
         <v>1</v>
@@ -6595,32 +6927,32 @@
         <v>0</v>
       </c>
       <c r="G321" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="45"/>
       <c r="B322" s="48" t="s">
         <v>14</v>
       </c>
       <c r="C322" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D322" s="41" t="s">
         <v>57</v>
       </c>
       <c r="E322" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F322" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G322" s="17"/>
       <c r="H322" s="67">
         <v>45515</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C323" s="15"/>
       <c r="D323" s="15"/>
       <c r="E323" s="42">
@@ -6629,19 +6961,19 @@
       </c>
       <c r="F323" s="43">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G323" s="17"/>
     </row>
-    <row r="324" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C324" s="15"/>
       <c r="D324" s="15"/>
       <c r="E324" s="16"/>
       <c r="F324" s="15"/>
     </row>
-    <row r="326" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C326" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D326" s="15" t="s">
         <v>39</v>
@@ -6649,13 +6981,13 @@
       <c r="E326" s="16"/>
       <c r="F326" s="15"/>
     </row>
-    <row r="327" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C327" s="15"/>
       <c r="D327" s="15"/>
       <c r="E327" s="16"/>
       <c r="F327" s="15"/>
     </row>
-    <row r="328" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B328" s="20" t="s">
         <v>1</v>
       </c>
@@ -6673,15 +7005,15 @@
       </c>
       <c r="G328" s="45"/>
     </row>
-    <row r="329" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C329" s="49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D329" s="49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E329" s="62">
         <v>1</v>
@@ -6690,30 +7022,30 @@
         <v>9</v>
       </c>
       <c r="G329" s="45" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C330" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D330" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E330" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F330" s="27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H330" s="67">
         <v>45537</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="49"/>
       <c r="C331" s="27"/>
       <c r="D331" s="27"/>
@@ -6721,12 +7053,12 @@
       <c r="F331" s="27"/>
       <c r="G331" s="45"/>
     </row>
-    <row r="332" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C332" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D332" s="33" t="s">
         <v>53</v>
@@ -6739,15 +7071,15 @@
       </c>
       <c r="G332" s="45"/>
     </row>
-    <row r="333" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C333" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D333" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E333" s="34">
         <v>4</v>
@@ -6756,7 +7088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="46"/>
       <c r="C334" s="33"/>
       <c r="D334" s="33"/>
@@ -6764,15 +7096,15 @@
       <c r="F334" s="33"/>
       <c r="G334" s="45"/>
     </row>
-    <row r="335" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C335" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D335" s="33" t="s">
         <v>220</v>
-      </c>
-      <c r="D335" s="33" t="s">
-        <v>221</v>
       </c>
       <c r="E335" s="34">
         <v>15</v>
@@ -6782,12 +7114,12 @@
       </c>
       <c r="G335" s="45"/>
     </row>
-    <row r="336" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C336" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D336" s="33" t="s">
         <v>53</v>
@@ -6796,15 +7128,15 @@
         <v>47</v>
       </c>
       <c r="F336" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="337" spans="2:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C337" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D337" s="33" t="s">
         <v>53</v>
@@ -6813,26 +7145,26 @@
         <v>2</v>
       </c>
       <c r="F337" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G337" s="45"/>
     </row>
-    <row r="338" spans="2:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="46"/>
       <c r="C338" s="33"/>
       <c r="D338" s="33"/>
       <c r="E338" s="34"/>
       <c r="F338" s="33"/>
     </row>
-    <row r="339" spans="2:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C339" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D339" s="33" t="s">
         <v>224</v>
-      </c>
-      <c r="D339" s="33" t="s">
-        <v>225</v>
       </c>
       <c r="E339" s="34">
         <v>6</v>
@@ -6841,15 +7173,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="2:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C340" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D340" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E340" s="34">
         <v>3</v>
@@ -6858,30 +7190,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="2:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C341" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D341" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E341" s="34">
+        <v>1</v>
+      </c>
+      <c r="F341" s="33">
+        <v>1</v>
+      </c>
+      <c r="G341" s="45"/>
+    </row>
+    <row r="342" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B342" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C342" s="33" t="s">
         <v>227</v>
-      </c>
-      <c r="D341" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E341" s="34">
-        <v>1</v>
-      </c>
-      <c r="F341" s="33">
-        <v>0</v>
-      </c>
-      <c r="G341" s="45"/>
-    </row>
-    <row r="342" spans="2:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B342" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C342" s="33" t="s">
-        <v>228</v>
       </c>
       <c r="D342" s="33" t="s">
         <v>53</v>
@@ -6890,19 +7222,19 @@
         <v>2</v>
       </c>
       <c r="F342" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G342" s="45"/>
     </row>
-    <row r="343" spans="2:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C343" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D343" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E343" s="34">
         <v>1</v>
@@ -6912,7 +7244,7 @@
       </c>
       <c r="G343" s="45"/>
     </row>
-    <row r="344" spans="2:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="53"/>
       <c r="C344" s="33"/>
       <c r="D344" s="33"/>
@@ -6920,7 +7252,7 @@
       <c r="F344" s="33"/>
       <c r="G344" s="45"/>
     </row>
-    <row r="345" spans="2:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="46"/>
       <c r="C345" s="33"/>
       <c r="D345" s="33"/>
@@ -6928,14 +7260,14 @@
       <c r="F345" s="33"/>
       <c r="G345" s="45"/>
     </row>
-    <row r="346" spans="2:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="46"/>
       <c r="C346" s="33"/>
       <c r="D346" s="33"/>
       <c r="E346" s="34"/>
       <c r="F346" s="33"/>
     </row>
-    <row r="347" spans="2:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="46"/>
       <c r="C347" s="33"/>
       <c r="D347" s="33"/>
@@ -6943,7 +7275,7 @@
       <c r="F347" s="33"/>
       <c r="G347" s="45"/>
     </row>
-    <row r="348" spans="2:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="46"/>
       <c r="C348" s="33"/>
       <c r="D348" s="33"/>
@@ -6951,14 +7283,14 @@
       <c r="F348" s="33"/>
       <c r="G348" s="45"/>
     </row>
-    <row r="349" spans="2:7" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:7" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B349" s="48"/>
       <c r="C349" s="41"/>
       <c r="D349" s="41"/>
       <c r="E349" s="28"/>
       <c r="F349" s="29"/>
     </row>
-    <row r="350" spans="2:7" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:7" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C350" s="15"/>
       <c r="D350" s="15"/>
       <c r="E350" s="42">
@@ -6970,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="2:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C351" s="15"/>
       <c r="D351" s="15"/>
       <c r="E351" s="16"/>
@@ -6996,18 +7328,18 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="7" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -7015,7 +7347,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
@@ -7025,7 +7357,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -7033,7 +7365,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="54" t="s">
@@ -7043,7 +7375,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -7051,7 +7383,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -7071,128 +7403,128 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="30">
         <v>20</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="30">
-        <v>14</v>
-      </c>
       <c r="F7" s="31">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G7" s="32">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K7" s="51"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E8" s="30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F8" s="31">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G8" s="32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>3</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="30">
         <v>16</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="30">
+      <c r="F9" s="31">
+        <v>25</v>
+      </c>
+      <c r="G9" s="32">
         <v>9</v>
       </c>
-      <c r="F9" s="31">
-        <v>10</v>
-      </c>
-      <c r="G9" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>4</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E10" s="30">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F10" s="31">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G10" s="32">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>5</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E11" s="30">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F11" s="31">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G11" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>6</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E12" s="30">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F12" s="31">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G12" s="32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>7</v>
       </c>
@@ -7203,16 +7535,16 @@
         <v>17</v>
       </c>
       <c r="E13" s="30">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F13" s="31">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G13" s="32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>8</v>
       </c>
@@ -7220,59 +7552,59 @@
         <v>0</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E14" s="30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F14" s="31">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G14" s="32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>9</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E15" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15" s="31">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G15" s="32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>10</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E16" s="30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F16" s="31">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G16" s="32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>11</v>
       </c>
@@ -7283,56 +7615,56 @@
         <v>42</v>
       </c>
       <c r="E17" s="30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" s="31">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G17" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>12</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="E18" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="31">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G18" s="32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>13</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c r="E19" s="30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="31">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G19" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -7340,10 +7672,10 @@
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="13"/>
     </row>
@@ -7366,103 +7698,103 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="55" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" style="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="50" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="55" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="45"/>
+    <col min="7" max="16384" width="8.77734375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="57"/>
       <c r="C6" s="57"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="57"/>
       <c r="C7" s="57"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
     </row>
-    <row r="10" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="50"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
       <c r="B11" s="57"/>
       <c r="C11" s="57"/>
       <c r="F11" s="57"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="57"/>
       <c r="C12" s="57"/>
       <c r="F12" s="57"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
       <c r="F13" s="57"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="57"/>
       <c r="C14" s="57"/>
       <c r="F14" s="57"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="58"/>
       <c r="C15" s="57"/>
       <c r="F15" s="57"/>
     </row>
-    <row r="16" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="50"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="57"/>
       <c r="C17" s="57"/>
       <c r="F17" s="57"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="57"/>
       <c r="C18" s="57"/>
       <c r="F18" s="57"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="57"/>
       <c r="C19" s="57"/>
       <c r="F19" s="57"/>
     </row>
-    <row r="20" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
         <v>27</v>
       </c>
@@ -7470,22 +7802,22 @@
       <c r="C20" s="58"/>
       <c r="F20" s="57"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
       <c r="F21" s="57"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="57"/>
       <c r="C22" s="57"/>
       <c r="F22" s="57"/>
     </row>
-    <row r="23" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>

--- a/data/DL24-25.xlsx
+++ b/data/DL24-25.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0001c2a442dfed87/Documents/Dream/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1719" documentId="8_{4A520963-05AC-46D2-973E-A3A248908BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43C20C5B-0D24-49F2-B98B-C2D67ECF6D33}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{499008D1-9BAD-420B-94F0-09DC1FE29DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Table" sheetId="2" r:id="rId2"/>
     <sheet name="Cup" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="318">
   <si>
     <t>TONY APPLETON</t>
   </si>
@@ -965,6 +965,30 @@
   </si>
   <si>
     <t>KYLE JOSEPH</t>
+  </si>
+  <si>
+    <t>CAMERON McGEEHAN</t>
+  </si>
+  <si>
+    <t>DILAN MARKANDAY</t>
+  </si>
+  <si>
+    <t>JOSH BROWNHILL</t>
+  </si>
+  <si>
+    <t>RICHARD KONE</t>
+  </si>
+  <si>
+    <t>«Ward»</t>
+  </si>
+  <si>
+    <t>«Constituency»</t>
+  </si>
+  <si>
+    <t>LD result: «LD2»%      Majority: «Majority2»%</t>
+  </si>
+  <si>
+    <t>Challenger: «M_2nd_Place»      Turnout: «Tunrout2»%</t>
   </si>
 </sst>
 </file>
@@ -974,7 +998,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm/yy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -1031,6 +1055,16 @@
       <sz val="7"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1217,7 +1251,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1423,6 +1457,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1508,10 +1548,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1803,28 +1839,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M351"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:M17"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.296875" defaultRowHeight="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="1.3984375" style="19" customWidth="1"/>
     <col min="2" max="2" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="44" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="68" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="31.44140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="8.59765625" style="68" customWidth="1"/>
+    <col min="9" max="9" width="23.796875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="31.3984375" style="19" customWidth="1"/>
     <col min="11" max="12" width="12" style="19" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="19" customWidth="1"/>
-    <col min="14" max="16384" width="9.33203125" style="19"/>
+    <col min="13" max="13" width="10.3984375" style="19" customWidth="1"/>
+    <col min="14" max="16384" width="9.296875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -1834,7 +1868,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="64"/>
     </row>
-    <row r="2" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="15" t="s">
         <v>252</v>
       </c>
@@ -1848,7 +1882,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
@@ -1856,7 +1890,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="64"/>
     </row>
-    <row r="4" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1890,7 +1924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
         <v>11</v>
       </c>
@@ -1904,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="64"/>
@@ -1918,18 +1952,18 @@
       </c>
       <c r="K5" s="30">
         <f t="shared" ref="K5:K17" si="0">L5-M5</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L5" s="31">
         <f>SUM(F8:F25)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="32">
         <f>SUM(F5:F7)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -1947,18 +1981,18 @@
       </c>
       <c r="K6" s="30">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="L6" s="31">
         <f>SUM(F35:F52)</f>
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M6" s="32">
         <f>SUM(F32:F34)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -1976,18 +2010,18 @@
       </c>
       <c r="K7" s="30">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L7" s="31">
         <f>SUM(F62:F79)</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M7" s="32">
         <f>SUM(F59:F61)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
@@ -2014,18 +2048,18 @@
       </c>
       <c r="K8" s="30">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L8" s="31">
         <f>SUM(F89:F106)</f>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M8" s="32">
         <f>SUM(F86:F88)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="46" t="s">
         <v>12</v>
       </c>
@@ -2056,14 +2090,14 @@
       </c>
       <c r="L9" s="31">
         <f>SUM(F116:F133)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M9" s="32">
         <f>SUM(F113:F115)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="46"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -2081,18 +2115,18 @@
       </c>
       <c r="K10" s="30">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="L10" s="31">
         <f>SUM(F143:F160)</f>
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M10" s="32">
         <f>SUM(F140:F142)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="46" t="s">
         <v>13</v>
       </c>
@@ -2106,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" s="65"/>
       <c r="I11" s="15" t="str">
@@ -2119,18 +2153,18 @@
       </c>
       <c r="K11" s="30">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L11" s="31">
         <f>SUM(F170:F187)</f>
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M11" s="32">
         <f>SUM(F167:F169)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="46" t="s">
         <v>13</v>
       </c>
@@ -2157,18 +2191,18 @@
       </c>
       <c r="K12" s="30">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" s="31">
         <f>SUM(F197:F214)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M12" s="32">
         <f>SUM(F194:F196)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="46" t="s">
         <v>13</v>
       </c>
@@ -2195,18 +2229,18 @@
       </c>
       <c r="K13" s="30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="31">
         <f>SUM(F224:F241)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M13" s="32">
         <f>SUM(F221:F223)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="46"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -2224,18 +2258,18 @@
       </c>
       <c r="K14" s="30">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L14" s="31">
         <f>SUM(F251:F268)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M14" s="32">
         <f>SUM(F248:F250)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="46" t="s">
         <v>14</v>
       </c>
@@ -2263,18 +2297,18 @@
       </c>
       <c r="K15" s="30">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L15" s="31">
         <f>SUM(F277:F295)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M15" s="32">
         <f>SUM(F275:F276)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="46" t="s">
         <v>14</v>
       </c>
@@ -2308,14 +2342,14 @@
       </c>
       <c r="L16" s="31">
         <f>SUM(F305:F322)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M16" s="32">
         <f>SUM(F302:F304)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="46" t="s">
         <v>14</v>
       </c>
@@ -2347,14 +2381,14 @@
       </c>
       <c r="L17" s="31">
         <f>SUM(F332:F349)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M17" s="32">
         <f>SUM(F329:F331)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="46" t="s">
         <v>14</v>
       </c>
@@ -2380,7 +2414,7 @@
       <c r="L18" s="39"/>
       <c r="M18" s="40"/>
     </row>
-    <row r="19" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="46" t="s">
         <v>14</v>
       </c>
@@ -2394,7 +2428,7 @@
         <v>254</v>
       </c>
       <c r="F19" s="33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G19" s="45"/>
       <c r="H19" s="67">
@@ -2404,7 +2438,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="46" t="s">
         <v>14</v>
       </c>
@@ -2425,7 +2459,7 @@
       </c>
       <c r="H20" s="64"/>
     </row>
-    <row r="21" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="46" t="s">
         <v>14</v>
       </c>
@@ -2439,14 +2473,14 @@
         <v>254</v>
       </c>
       <c r="F21" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" s="45"/>
       <c r="H21" s="67">
         <v>45515</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="46" t="s">
         <v>14</v>
       </c>
@@ -2467,7 +2501,7 @@
       </c>
       <c r="H22" s="67"/>
     </row>
-    <row r="23" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="46" t="s">
         <v>14</v>
       </c>
@@ -2488,7 +2522,7 @@
         <v>45537</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="46"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
@@ -2497,7 +2531,7 @@
       <c r="G24" s="45"/>
       <c r="H24" s="64"/>
     </row>
-    <row r="25" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="48"/>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
@@ -2505,7 +2539,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="50"/>
     </row>
-    <row r="26" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="42">
@@ -2514,12 +2548,12 @@
       </c>
       <c r="F26" s="43">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="64"/>
     </row>
-    <row r="27" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
@@ -2527,7 +2561,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="64"/>
     </row>
-    <row r="28" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
@@ -2535,7 +2569,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="64"/>
     </row>
-    <row r="29" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="15" t="s">
         <v>41</v>
       </c>
@@ -2547,7 +2581,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="64"/>
     </row>
-    <row r="30" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="16"/>
@@ -2555,7 +2589,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="64"/>
     </row>
-    <row r="31" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="20" t="s">
         <v>1</v>
       </c>
@@ -2574,7 +2608,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="64"/>
     </row>
-    <row r="32" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="26" t="s">
         <v>11</v>
       </c>
@@ -2595,7 +2629,7 @@
       </c>
       <c r="H32" s="64"/>
     </row>
-    <row r="33" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="49" t="s">
         <v>11</v>
       </c>
@@ -2609,14 +2643,14 @@
         <v>254</v>
       </c>
       <c r="F33" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33" s="50"/>
       <c r="H33" s="67">
         <v>45555</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="49"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -2625,7 +2659,7 @@
       <c r="G34" s="50"/>
       <c r="H34" s="64"/>
     </row>
-    <row r="35" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="46" t="s">
         <v>12</v>
       </c>
@@ -2639,12 +2673,12 @@
         <v>6</v>
       </c>
       <c r="F35" s="33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="45"/>
       <c r="H35" s="64"/>
     </row>
-    <row r="36" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="46" t="s">
         <v>12</v>
       </c>
@@ -2658,11 +2692,11 @@
         <v>12</v>
       </c>
       <c r="F36" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H36" s="64"/>
     </row>
-    <row r="37" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="46"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -2671,7 +2705,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="64"/>
     </row>
-    <row r="38" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="46" t="s">
         <v>13</v>
       </c>
@@ -2685,11 +2719,11 @@
         <v>17</v>
       </c>
       <c r="F38" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H38" s="64"/>
     </row>
-    <row r="39" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="46" t="s">
         <v>13</v>
       </c>
@@ -2708,7 +2742,7 @@
       <c r="G39" s="45"/>
       <c r="H39" s="64"/>
     </row>
-    <row r="40" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="46" t="s">
         <v>13</v>
       </c>
@@ -2729,7 +2763,7 @@
       </c>
       <c r="H40" s="64"/>
     </row>
-    <row r="41" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="46" t="s">
         <v>13</v>
       </c>
@@ -2743,14 +2777,14 @@
         <v>254</v>
       </c>
       <c r="F41" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="45"/>
       <c r="H41" s="67">
         <v>45523</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="53"/>
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
@@ -2758,7 +2792,7 @@
       <c r="F42" s="53"/>
       <c r="H42" s="64"/>
     </row>
-    <row r="43" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="46" t="s">
         <v>14</v>
       </c>
@@ -2772,12 +2806,12 @@
         <v>23</v>
       </c>
       <c r="F43" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G43" s="45"/>
       <c r="H43" s="64"/>
     </row>
-    <row r="44" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="46" t="s">
         <v>14</v>
       </c>
@@ -2791,12 +2825,12 @@
         <v>10</v>
       </c>
       <c r="F44" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="45"/>
       <c r="H44" s="64"/>
     </row>
-    <row r="45" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="46" t="s">
         <v>14</v>
       </c>
@@ -2817,7 +2851,7 @@
       </c>
       <c r="H45" s="64"/>
     </row>
-    <row r="46" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="46" t="s">
         <v>14</v>
       </c>
@@ -2840,7 +2874,7 @@
         <v>45523</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="46" t="s">
         <v>14</v>
       </c>
@@ -2854,13 +2888,13 @@
         <v>254</v>
       </c>
       <c r="F47" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" s="67">
         <v>45578</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="46" t="s">
         <v>14</v>
       </c>
@@ -2881,7 +2915,7 @@
       </c>
       <c r="H48" s="67"/>
     </row>
-    <row r="49" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="46" t="s">
         <v>14</v>
       </c>
@@ -2904,7 +2938,7 @@
         <v>45531</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="46" t="s">
         <v>14</v>
       </c>
@@ -2918,13 +2952,13 @@
         <v>254</v>
       </c>
       <c r="F50" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="67">
         <v>45565</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="46" t="s">
         <v>14</v>
       </c>
@@ -2945,7 +2979,7 @@
       </c>
       <c r="H51" s="67"/>
     </row>
-    <row r="52" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="48" t="s">
         <v>14</v>
       </c>
@@ -2959,14 +2993,14 @@
         <v>254</v>
       </c>
       <c r="F52" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="67">
         <v>45543</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="42">
@@ -2975,11 +3009,11 @@
       </c>
       <c r="F53" s="43">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="16"/>
@@ -2987,7 +3021,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="64"/>
     </row>
-    <row r="55" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="16"/>
@@ -2995,7 +3029,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="64"/>
     </row>
-    <row r="56" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15" t="s">
         <v>44</v>
       </c>
@@ -3007,7 +3041,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="64"/>
     </row>
-    <row r="57" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="16"/>
@@ -3015,7 +3049,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="64"/>
     </row>
-    <row r="58" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="20" t="s">
         <v>1</v>
       </c>
@@ -3034,7 +3068,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="64"/>
     </row>
-    <row r="59" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="26" t="s">
         <v>11</v>
       </c>
@@ -3048,12 +3082,12 @@
         <v>15</v>
       </c>
       <c r="F59" s="29">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G59" s="50"/>
       <c r="H59" s="64"/>
     </row>
-    <row r="60" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="26"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -3062,7 +3096,7 @@
       <c r="G60" s="50"/>
       <c r="H60" s="64"/>
     </row>
-    <row r="61" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="49"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -3071,7 +3105,7 @@
       <c r="G61" s="17"/>
       <c r="H61" s="64"/>
     </row>
-    <row r="62" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="46" t="s">
         <v>12</v>
       </c>
@@ -3090,7 +3124,7 @@
       <c r="G62" s="45"/>
       <c r="H62" s="64"/>
     </row>
-    <row r="63" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="46" t="s">
         <v>12</v>
       </c>
@@ -3108,7 +3142,7 @@
       </c>
       <c r="H63" s="64"/>
     </row>
-    <row r="64" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="46"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
@@ -3116,7 +3150,7 @@
       <c r="F64" s="33"/>
       <c r="H64" s="64"/>
     </row>
-    <row r="65" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="46" t="s">
         <v>13</v>
       </c>
@@ -3130,12 +3164,12 @@
         <v>30</v>
       </c>
       <c r="F65" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="45"/>
       <c r="H65" s="64"/>
     </row>
-    <row r="66" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="46" t="s">
         <v>13</v>
       </c>
@@ -3149,12 +3183,12 @@
         <v>10</v>
       </c>
       <c r="F66" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G66" s="45"/>
       <c r="H66" s="64"/>
     </row>
-    <row r="67" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="46" t="s">
         <v>13</v>
       </c>
@@ -3172,7 +3206,7 @@
       </c>
       <c r="H67" s="64"/>
     </row>
-    <row r="68" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="46"/>
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
@@ -3181,7 +3215,7 @@
       <c r="G68" s="45"/>
       <c r="H68" s="64"/>
     </row>
-    <row r="69" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="46" t="s">
         <v>14</v>
       </c>
@@ -3195,11 +3229,11 @@
         <v>6</v>
       </c>
       <c r="F69" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H69" s="64"/>
     </row>
-    <row r="70" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="46" t="s">
         <v>14</v>
       </c>
@@ -3213,12 +3247,12 @@
         <v>25</v>
       </c>
       <c r="F70" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G70" s="45"/>
       <c r="H70" s="64"/>
     </row>
-    <row r="71" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="46" t="s">
         <v>14</v>
       </c>
@@ -3236,7 +3270,7 @@
       </c>
       <c r="H71" s="64"/>
     </row>
-    <row r="72" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="46" t="s">
         <v>14</v>
       </c>
@@ -3250,11 +3284,11 @@
         <v>1</v>
       </c>
       <c r="F72" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H72" s="64"/>
     </row>
-    <row r="73" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="46" t="s">
         <v>14</v>
       </c>
@@ -3273,7 +3307,7 @@
       <c r="G73" s="45"/>
       <c r="H73" s="64"/>
     </row>
-    <row r="74" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="53"/>
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
@@ -3281,7 +3315,7 @@
       <c r="F74" s="33"/>
       <c r="H74" s="64"/>
     </row>
-    <row r="75" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="46"/>
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
@@ -3290,7 +3324,7 @@
       <c r="G75" s="45"/>
       <c r="H75" s="64"/>
     </row>
-    <row r="76" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="46"/>
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
@@ -3298,7 +3332,7 @@
       <c r="F76" s="33"/>
       <c r="H76" s="64"/>
     </row>
-    <row r="77" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="46"/>
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
@@ -3307,7 +3341,7 @@
       <c r="G77" s="45"/>
       <c r="H77" s="64"/>
     </row>
-    <row r="78" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="46"/>
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
@@ -3315,7 +3349,7 @@
       <c r="F78" s="33"/>
       <c r="G78" s="45"/>
     </row>
-    <row r="79" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="48"/>
       <c r="C79" s="41"/>
       <c r="D79" s="41"/>
@@ -3324,7 +3358,7 @@
       <c r="G79" s="17"/>
       <c r="H79" s="64"/>
     </row>
-    <row r="80" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="42">
@@ -3333,12 +3367,12 @@
       </c>
       <c r="F80" s="43">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="64"/>
     </row>
-    <row r="81" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="16"/>
@@ -3346,7 +3380,7 @@
       <c r="G81" s="17"/>
       <c r="H81" s="64"/>
     </row>
-    <row r="82" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="16"/>
@@ -3354,7 +3388,7 @@
       <c r="G82" s="17"/>
       <c r="H82" s="64"/>
     </row>
-    <row r="83" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="15" t="s">
         <v>17</v>
       </c>
@@ -3366,7 +3400,7 @@
       <c r="G83" s="17"/>
       <c r="H83" s="64"/>
     </row>
-    <row r="84" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="16"/>
@@ -3374,7 +3408,7 @@
       <c r="G84" s="17"/>
       <c r="H84" s="64"/>
     </row>
-    <row r="85" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B85" s="20" t="s">
         <v>1</v>
       </c>
@@ -3393,7 +3427,7 @@
       <c r="G85" s="17"/>
       <c r="H85" s="64"/>
     </row>
-    <row r="86" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="26" t="s">
         <v>11</v>
       </c>
@@ -3414,7 +3448,7 @@
       </c>
       <c r="H86" s="64"/>
     </row>
-    <row r="87" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="49" t="s">
         <v>11</v>
       </c>
@@ -3428,14 +3462,14 @@
         <v>254</v>
       </c>
       <c r="F87" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G87" s="50"/>
       <c r="H87" s="67">
         <v>45564</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="49"/>
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
@@ -3444,7 +3478,7 @@
       <c r="G88" s="17"/>
       <c r="H88" s="64"/>
     </row>
-    <row r="89" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="46" t="s">
         <v>12</v>
       </c>
@@ -3458,12 +3492,12 @@
         <v>10</v>
       </c>
       <c r="F89" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" s="45"/>
       <c r="H89" s="64"/>
     </row>
-    <row r="90" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="46" t="s">
         <v>12</v>
       </c>
@@ -3484,7 +3518,7 @@
       </c>
       <c r="H90" s="64"/>
     </row>
-    <row r="91" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="46" t="s">
         <v>12</v>
       </c>
@@ -3504,221 +3538,235 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="53"/>
-      <c r="H92" s="64"/>
-    </row>
-    <row r="93" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92" s="61">
+        <v>1</v>
+      </c>
+      <c r="F92" s="46">
+        <v>0</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="D93" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="E93" s="61">
-        <v>1</v>
-      </c>
-      <c r="F93" s="46">
-        <v>0</v>
-      </c>
-      <c r="G93" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D93" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E93" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F93" s="33">
+        <v>2</v>
+      </c>
+      <c r="H93" s="67">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>279</v>
+        <v>91</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E94" s="34" t="s">
-        <v>254</v>
+        <v>92</v>
+      </c>
+      <c r="E94" s="34">
+        <v>33</v>
       </c>
       <c r="F94" s="33">
-        <v>1</v>
-      </c>
-      <c r="H94" s="67">
-        <v>45534</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D95" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="E95" s="34">
-        <v>33</v>
-      </c>
-      <c r="F95" s="33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E95" s="61">
+        <v>1</v>
+      </c>
+      <c r="F95" s="46">
+        <v>0</v>
+      </c>
+      <c r="G95" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H95" s="64"/>
+    </row>
+    <row r="96" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D96" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="E96" s="61">
-        <v>1</v>
-      </c>
-      <c r="F96" s="46">
+      <c r="C96" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E96" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F96" s="33">
+        <v>4</v>
+      </c>
+      <c r="H96" s="67">
+        <v>45526</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="53"/>
+      <c r="H97" s="64"/>
+    </row>
+    <row r="98" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" s="34">
+        <v>45</v>
+      </c>
+      <c r="F98" s="33">
+        <v>5</v>
+      </c>
+      <c r="H98" s="64"/>
+    </row>
+    <row r="99" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E99" s="61">
+        <v>1</v>
+      </c>
+      <c r="F99" s="46">
         <v>0</v>
       </c>
-      <c r="G96" s="45" t="s">
+      <c r="G99" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="H96" s="64"/>
-    </row>
-    <row r="97" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="D97" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E97" s="34" t="s">
+      <c r="H99" s="64"/>
+    </row>
+    <row r="100" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E100" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F97" s="33">
+      <c r="F100" s="33">
         <v>2</v>
       </c>
-      <c r="H97" s="67">
-        <v>45526</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="53"/>
-      <c r="H98" s="64"/>
-    </row>
-    <row r="99" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E99" s="34">
-        <v>45</v>
-      </c>
-      <c r="F99" s="33">
-        <v>5</v>
-      </c>
-      <c r="H99" s="64"/>
-    </row>
-    <row r="100" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E100" s="61">
-        <v>1</v>
-      </c>
-      <c r="F100" s="46">
+      <c r="H100" s="67">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D101" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E101" s="61">
+        <v>1</v>
+      </c>
+      <c r="F101" s="46">
+        <v>1</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="D102" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E102" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="F102" s="46">
         <v>0</v>
       </c>
-      <c r="G100" s="45" t="s">
+      <c r="G102" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="H100" s="64"/>
-    </row>
-    <row r="101" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="D101" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="E101" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F101" s="33">
-        <v>1</v>
-      </c>
-      <c r="H101" s="67">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D102" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="E102" s="61">
-        <v>1</v>
-      </c>
-      <c r="F102" s="46">
-        <v>1</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="67">
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="E103" s="34" t="s">
         <v>254</v>
       </c>
       <c r="F103" s="33">
-        <v>0</v>
-      </c>
-      <c r="G103" s="45"/>
+        <v>2</v>
+      </c>
       <c r="H103" s="67">
-        <v>45548</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="46" t="s">
         <v>14</v>
       </c>
@@ -3739,7 +3787,7 @@
       </c>
       <c r="H104" s="64"/>
     </row>
-    <row r="105" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="46" t="s">
         <v>14</v>
       </c>
@@ -3759,7 +3807,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="106" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B106" s="48" t="s">
         <v>14</v>
       </c>
@@ -3773,12 +3821,12 @@
         <v>1</v>
       </c>
       <c r="F106" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G106" s="45"/>
       <c r="H106" s="64"/>
     </row>
-    <row r="107" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="42">
@@ -3787,11 +3835,11 @@
       </c>
       <c r="F107" s="43">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G107" s="17"/>
     </row>
-    <row r="108" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="16"/>
@@ -3799,7 +3847,7 @@
       <c r="G108" s="17"/>
       <c r="H108" s="64"/>
     </row>
-    <row r="109" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="16"/>
@@ -3807,7 +3855,7 @@
       <c r="G109" s="17"/>
       <c r="H109" s="64"/>
     </row>
-    <row r="110" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="15" t="s">
         <v>19</v>
       </c>
@@ -3819,7 +3867,7 @@
       <c r="G110" s="17"/>
       <c r="H110" s="64"/>
     </row>
-    <row r="111" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="16"/>
@@ -3827,7 +3875,7 @@
       <c r="G111" s="17"/>
       <c r="H111" s="64"/>
     </row>
-    <row r="112" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B112" s="20" t="s">
         <v>1</v>
       </c>
@@ -3846,7 +3894,7 @@
       <c r="G112" s="17"/>
       <c r="H112" s="64"/>
     </row>
-    <row r="113" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="26" t="s">
         <v>11</v>
       </c>
@@ -3860,12 +3908,12 @@
         <v>5</v>
       </c>
       <c r="F113" s="29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G113" s="50"/>
       <c r="H113" s="64"/>
     </row>
-    <row r="114" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="26"/>
       <c r="C114" s="27"/>
       <c r="D114" s="27"/>
@@ -3874,7 +3922,7 @@
       <c r="G114" s="50"/>
       <c r="H114" s="64"/>
     </row>
-    <row r="115" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="49"/>
       <c r="C115" s="27"/>
       <c r="D115" s="27"/>
@@ -3883,7 +3931,7 @@
       <c r="G115" s="17"/>
       <c r="H115" s="64"/>
     </row>
-    <row r="116" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="46" t="s">
         <v>12</v>
       </c>
@@ -3897,11 +3945,11 @@
         <v>3</v>
       </c>
       <c r="F116" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116" s="64"/>
     </row>
-    <row r="117" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="46" t="s">
         <v>12</v>
       </c>
@@ -3920,7 +3968,7 @@
       <c r="G117" s="45"/>
       <c r="H117" s="64"/>
     </row>
-    <row r="118" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="46"/>
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
@@ -3929,7 +3977,7 @@
       <c r="G118" s="45"/>
       <c r="H118" s="64"/>
     </row>
-    <row r="119" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="46" t="s">
         <v>13</v>
       </c>
@@ -3950,237 +3998,252 @@
       </c>
       <c r="H119" s="64"/>
     </row>
-    <row r="120" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C120" s="33" t="s">
+      <c r="C120" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="D120" s="33" t="s">
+      <c r="D120" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="E120" s="34" t="s">
+      <c r="E120" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="F120" s="33">
-        <v>0</v>
+      <c r="F120" s="46">
+        <v>1</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="H120" s="67">
         <v>45551</v>
       </c>
     </row>
-    <row r="121" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C121" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="D121" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="E121" s="61">
-        <v>1</v>
-      </c>
-      <c r="F121" s="46">
+      <c r="C121" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D121" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E121" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F121" s="33">
         <v>0</v>
       </c>
-      <c r="G121" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H121" s="67">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C122" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="D122" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="E122" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F122" s="33">
-        <v>1</v>
-      </c>
-      <c r="H122" s="67">
-        <v>45529</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C122" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D122" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E122" s="61">
+        <v>1</v>
+      </c>
+      <c r="F122" s="46">
+        <v>0</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C123" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="D123" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E123" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F123" s="33">
+        <v>1</v>
+      </c>
+      <c r="H123" s="67">
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D123" s="33" t="s">
+      <c r="D124" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="E123" s="34">
-        <v>1</v>
-      </c>
-      <c r="F123" s="33">
+      <c r="E124" s="34">
+        <v>1</v>
+      </c>
+      <c r="F124" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="46"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="33"/>
-      <c r="H124" s="64"/>
-    </row>
-    <row r="125" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" s="33" t="s">
+    <row r="125" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="46"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="34"/>
+      <c r="F125" s="33"/>
+      <c r="H125" s="64"/>
+    </row>
+    <row r="126" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D125" s="33" t="s">
+      <c r="D126" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E125" s="34">
+      <c r="E126" s="34">
         <v>7</v>
       </c>
-      <c r="F125" s="33">
+      <c r="F126" s="33">
+        <v>5</v>
+      </c>
+      <c r="H126" s="64"/>
+    </row>
+    <row r="127" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D127" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E127" s="34">
+        <v>15</v>
+      </c>
+      <c r="F127" s="33">
+        <v>2</v>
+      </c>
+      <c r="H127" s="64"/>
+    </row>
+    <row r="128" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E128" s="34">
+        <v>39</v>
+      </c>
+      <c r="F128" s="33">
         <v>4</v>
       </c>
-      <c r="H125" s="64"/>
-    </row>
-    <row r="126" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D126" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E126" s="34">
-        <v>15</v>
-      </c>
-      <c r="F126" s="33">
-        <v>2</v>
-      </c>
-      <c r="H126" s="64"/>
-    </row>
-    <row r="127" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C127" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D127" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E127" s="34">
-        <v>39</v>
-      </c>
-      <c r="F127" s="33">
+      <c r="G128" s="45"/>
+      <c r="H128" s="64"/>
+    </row>
+    <row r="129" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D129" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E129" s="61">
+        <v>12</v>
+      </c>
+      <c r="F129" s="46">
+        <v>1</v>
+      </c>
+      <c r="G129" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H129" s="64"/>
+    </row>
+    <row r="130" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="D130" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E130" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F130" s="33">
         <v>4</v>
       </c>
-      <c r="G127" s="45"/>
-      <c r="H127" s="64"/>
-    </row>
-    <row r="128" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D128" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="E128" s="61">
-        <v>12</v>
-      </c>
-      <c r="F128" s="46">
-        <v>1</v>
-      </c>
-      <c r="G128" s="45" t="s">
+      <c r="H130" s="67">
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D131" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="E131" s="61">
+        <v>11</v>
+      </c>
+      <c r="F131" s="46">
+        <v>0</v>
+      </c>
+      <c r="G131" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="H128" s="64"/>
-    </row>
-    <row r="129" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C129" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="D129" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="E129" s="34" t="s">
+      <c r="H131" s="64"/>
+    </row>
+    <row r="132" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="D132" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E132" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F129" s="33">
+      <c r="F132" s="33">
         <v>3</v>
       </c>
-      <c r="H129" s="67">
-        <v>45563</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C130" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="D130" s="46" t="s">
-        <v>262</v>
-      </c>
-      <c r="E130" s="61">
-        <v>11</v>
-      </c>
-      <c r="F130" s="46">
-        <v>0</v>
-      </c>
-      <c r="G130" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="H130" s="64"/>
-    </row>
-    <row r="131" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C131" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="D131" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E131" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F131" s="33">
-        <v>2</v>
-      </c>
-      <c r="H131" s="67">
+      <c r="H132" s="67">
         <v>45556</v>
       </c>
     </row>
-    <row r="132" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="46"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="34"/>
-      <c r="F132" s="33"/>
-      <c r="H132" s="64"/>
-    </row>
-    <row r="133" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B133" s="48"/>
       <c r="C133" s="41"/>
       <c r="D133" s="41"/>
@@ -4189,7 +4252,7 @@
       <c r="G133" s="17"/>
       <c r="H133" s="64"/>
     </row>
-    <row r="134" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
       <c r="E134" s="42">
@@ -4203,7 +4266,7 @@
       <c r="G134" s="17"/>
       <c r="H134" s="64"/>
     </row>
-    <row r="135" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="16"/>
@@ -4211,7 +4274,7 @@
       <c r="G135" s="17"/>
       <c r="H135" s="64"/>
     </row>
-    <row r="136" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
       <c r="E136" s="16"/>
@@ -4219,7 +4282,7 @@
       <c r="G136" s="17"/>
       <c r="H136" s="64"/>
     </row>
-    <row r="137" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="15" t="s">
         <v>21</v>
       </c>
@@ -4231,7 +4294,7 @@
       <c r="G137" s="17"/>
       <c r="H137" s="64"/>
     </row>
-    <row r="138" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
       <c r="E138" s="16"/>
@@ -4239,7 +4302,7 @@
       <c r="G138" s="17"/>
       <c r="H138" s="64"/>
     </row>
-    <row r="139" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B139" s="20" t="s">
         <v>1</v>
       </c>
@@ -4258,7 +4321,7 @@
       <c r="G139" s="50"/>
       <c r="H139" s="64"/>
     </row>
-    <row r="140" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="26" t="s">
         <v>11</v>
       </c>
@@ -4279,7 +4342,7 @@
       </c>
       <c r="H140" s="64"/>
     </row>
-    <row r="141" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="49" t="s">
         <v>11</v>
       </c>
@@ -4293,14 +4356,14 @@
         <v>254</v>
       </c>
       <c r="F141" s="27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G141" s="50"/>
       <c r="H141" s="67">
         <v>45529</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="49"/>
       <c r="C142" s="27"/>
       <c r="D142" s="27"/>
@@ -4309,7 +4372,7 @@
       <c r="G142" s="45"/>
       <c r="H142" s="64"/>
     </row>
-    <row r="143" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="46" t="s">
         <v>12</v>
       </c>
@@ -4327,7 +4390,7 @@
       </c>
       <c r="H143" s="64"/>
     </row>
-    <row r="144" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="46" t="s">
         <v>12</v>
       </c>
@@ -4345,7 +4408,7 @@
       </c>
       <c r="H144" s="64"/>
     </row>
-    <row r="145" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="46"/>
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
@@ -4353,7 +4416,7 @@
       <c r="F145" s="33"/>
       <c r="H145" s="64"/>
     </row>
-    <row r="146" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="46" t="s">
         <v>13</v>
       </c>
@@ -4372,7 +4435,7 @@
       <c r="G146" s="45"/>
       <c r="H146" s="64"/>
     </row>
-    <row r="147" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="46" t="s">
         <v>13</v>
       </c>
@@ -4386,11 +4449,11 @@
         <v>1</v>
       </c>
       <c r="F147" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H147" s="64"/>
     </row>
-    <row r="148" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="46" t="s">
         <v>13</v>
       </c>
@@ -4411,7 +4474,7 @@
       </c>
       <c r="H148" s="64"/>
     </row>
-    <row r="149" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="46" t="s">
         <v>13</v>
       </c>
@@ -4425,20 +4488,20 @@
         <v>254</v>
       </c>
       <c r="F149" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" s="67">
         <v>45564</v>
       </c>
     </row>
-    <row r="150" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="53"/>
       <c r="C150" s="53"/>
       <c r="D150" s="53"/>
       <c r="E150" s="60"/>
       <c r="F150" s="53"/>
     </row>
-    <row r="151" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="46" t="s">
         <v>14</v>
       </c>
@@ -4452,12 +4515,12 @@
         <v>80</v>
       </c>
       <c r="F151" s="33">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G151" s="45"/>
       <c r="H151" s="64"/>
     </row>
-    <row r="152" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="46" t="s">
         <v>14</v>
       </c>
@@ -4478,136 +4541,150 @@
       </c>
       <c r="H152" s="64"/>
     </row>
-    <row r="153" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C153" s="33" t="s">
+      <c r="C153" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="D153" s="33" t="s">
+      <c r="D153" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="E153" s="34" t="s">
+      <c r="E153" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="F153" s="33">
-        <v>1</v>
-      </c>
-      <c r="G153" s="45"/>
+      <c r="F153" s="46">
+        <v>1</v>
+      </c>
+      <c r="G153" s="45" t="s">
+        <v>256</v>
+      </c>
       <c r="H153" s="67">
         <v>45552</v>
       </c>
     </row>
-    <row r="154" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="46" t="s">
+      <c r="C154" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="D154" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E154" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F154" s="33">
+        <v>0</v>
+      </c>
+      <c r="H154" s="67">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D154" s="46" t="s">
+      <c r="D155" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="E154" s="61">
-        <v>1</v>
-      </c>
-      <c r="F154" s="46">
+      <c r="E155" s="61">
+        <v>1</v>
+      </c>
+      <c r="F155" s="46">
         <v>2</v>
       </c>
-      <c r="G154" s="45" t="s">
+      <c r="G155" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="H154" s="67"/>
-    </row>
-    <row r="155" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C155" s="33" t="s">
+      <c r="H155" s="67"/>
+    </row>
+    <row r="156" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D155" s="33" t="s">
+      <c r="D156" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E155" s="34" t="s">
+      <c r="E156" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F155" s="33">
-        <v>3</v>
-      </c>
-      <c r="H155" s="67">
+      <c r="F156" s="33">
+        <v>5</v>
+      </c>
+      <c r="H156" s="67">
         <v>45552</v>
       </c>
     </row>
-    <row r="156" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C156" s="46" t="s">
+    <row r="157" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D156" s="46" t="s">
+      <c r="D157" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="E156" s="61">
+      <c r="E157" s="61">
         <v>6</v>
       </c>
-      <c r="F156" s="46">
-        <v>1</v>
-      </c>
-      <c r="G156" s="45" t="s">
+      <c r="F157" s="46">
+        <v>1</v>
+      </c>
+      <c r="G157" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="H156" s="67"/>
-    </row>
-    <row r="157" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C157" s="33" t="s">
+      <c r="H157" s="67"/>
+    </row>
+    <row r="158" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="D157" s="33" t="s">
+      <c r="D158" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="E157" s="34" t="s">
+      <c r="E158" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F157" s="33">
-        <v>1</v>
-      </c>
-      <c r="H157" s="67">
+      <c r="F158" s="33">
+        <v>5</v>
+      </c>
+      <c r="H158" s="67">
         <v>45564</v>
       </c>
     </row>
-    <row r="158" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C158" s="33" t="s">
+    <row r="159" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="D158" s="33" t="s">
+      <c r="D159" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E158" s="34">
-        <v>1</v>
-      </c>
-      <c r="F158" s="33">
-        <v>6</v>
-      </c>
-      <c r="H158" s="64"/>
-    </row>
-    <row r="159" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="46"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="34"/>
-      <c r="F159" s="33"/>
+      <c r="E159" s="34">
+        <v>1</v>
+      </c>
+      <c r="F159" s="33">
+        <v>9</v>
+      </c>
       <c r="H159" s="64"/>
     </row>
-    <row r="160" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B160" s="48"/>
       <c r="C160" s="41"/>
       <c r="D160" s="41"/>
@@ -4616,7 +4693,7 @@
       <c r="G160" s="17"/>
       <c r="H160" s="64"/>
     </row>
-    <row r="161" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
       <c r="E161" s="42">
@@ -4625,12 +4702,12 @@
       </c>
       <c r="F161" s="43">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="64"/>
     </row>
-    <row r="162" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
       <c r="E162" s="16"/>
@@ -4638,7 +4715,7 @@
       <c r="G162" s="17"/>
       <c r="H162" s="64"/>
     </row>
-    <row r="163" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
       <c r="E163" s="16"/>
@@ -4646,7 +4723,7 @@
       <c r="G163" s="17"/>
       <c r="H163" s="64"/>
     </row>
-    <row r="164" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C164" s="15" t="s">
         <v>38</v>
       </c>
@@ -4658,7 +4735,7 @@
       <c r="G164" s="17"/>
       <c r="H164" s="64"/>
     </row>
-    <row r="165" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
       <c r="E165" s="16"/>
@@ -4666,7 +4743,7 @@
       <c r="G165" s="17"/>
       <c r="H165" s="64"/>
     </row>
-    <row r="166" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B166" s="20" t="s">
         <v>1</v>
       </c>
@@ -4685,7 +4762,7 @@
       <c r="G166" s="50"/>
       <c r="H166" s="64"/>
     </row>
-    <row r="167" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="26" t="s">
         <v>11</v>
       </c>
@@ -4699,12 +4776,12 @@
         <v>7</v>
       </c>
       <c r="F167" s="29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G167" s="50"/>
       <c r="H167" s="64"/>
     </row>
-    <row r="168" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="26"/>
       <c r="C168" s="27"/>
       <c r="D168" s="27"/>
@@ -4713,7 +4790,7 @@
       <c r="G168" s="50"/>
       <c r="H168" s="64"/>
     </row>
-    <row r="169" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="49"/>
       <c r="C169" s="27"/>
       <c r="D169" s="27"/>
@@ -4722,7 +4799,7 @@
       <c r="G169" s="47"/>
       <c r="H169" s="64"/>
     </row>
-    <row r="170" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="46" t="s">
         <v>12</v>
       </c>
@@ -4740,7 +4817,7 @@
       </c>
       <c r="H170" s="64"/>
     </row>
-    <row r="171" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="46" t="s">
         <v>12</v>
       </c>
@@ -4759,7 +4836,7 @@
       <c r="G171" s="45"/>
       <c r="H171" s="64"/>
     </row>
-    <row r="172" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="46"/>
       <c r="C172" s="33"/>
       <c r="D172" s="33"/>
@@ -4768,7 +4845,7 @@
       <c r="G172" s="45"/>
       <c r="H172" s="64"/>
     </row>
-    <row r="173" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="46" t="s">
         <v>13</v>
       </c>
@@ -4787,7 +4864,7 @@
       <c r="G173" s="45"/>
       <c r="H173" s="64"/>
     </row>
-    <row r="174" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="46" t="s">
         <v>13</v>
       </c>
@@ -4801,11 +4878,11 @@
         <v>15</v>
       </c>
       <c r="F174" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H174" s="64"/>
     </row>
-    <row r="175" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="46" t="s">
         <v>13</v>
       </c>
@@ -4826,7 +4903,7 @@
       </c>
       <c r="H175" s="64"/>
     </row>
-    <row r="176" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="46" t="s">
         <v>13</v>
       </c>
@@ -4840,13 +4917,13 @@
         <v>254</v>
       </c>
       <c r="F176" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H176" s="67">
         <v>45526</v>
       </c>
     </row>
-    <row r="177" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="53"/>
       <c r="C177" s="53"/>
       <c r="D177" s="53"/>
@@ -4854,7 +4931,7 @@
       <c r="F177" s="53"/>
       <c r="H177" s="64"/>
     </row>
-    <row r="178" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="46" t="s">
         <v>14</v>
       </c>
@@ -4868,10 +4945,10 @@
         <v>3</v>
       </c>
       <c r="F178" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="46" t="s">
         <v>14</v>
       </c>
@@ -4885,11 +4962,11 @@
         <v>4</v>
       </c>
       <c r="F179" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" s="64"/>
     </row>
-    <row r="180" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="46" t="s">
         <v>14</v>
       </c>
@@ -4903,12 +4980,12 @@
         <v>5</v>
       </c>
       <c r="F180" s="33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G180" s="45"/>
       <c r="H180" s="64"/>
     </row>
-    <row r="181" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="46" t="s">
         <v>14</v>
       </c>
@@ -4922,11 +4999,11 @@
         <v>38</v>
       </c>
       <c r="F181" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H181" s="64"/>
     </row>
-    <row r="182" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="46" t="s">
         <v>14</v>
       </c>
@@ -4947,7 +5024,7 @@
       </c>
       <c r="H182" s="64"/>
     </row>
-    <row r="183" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="46" t="s">
         <v>14</v>
       </c>
@@ -4961,13 +5038,13 @@
         <v>254</v>
       </c>
       <c r="F183" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H183" s="67">
         <v>45565</v>
       </c>
     </row>
-    <row r="184" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="46"/>
       <c r="C184" s="33"/>
       <c r="D184" s="33"/>
@@ -4975,7 +5052,7 @@
       <c r="F184" s="33"/>
       <c r="H184" s="64"/>
     </row>
-    <row r="185" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="46"/>
       <c r="C185" s="33"/>
       <c r="D185" s="33"/>
@@ -4984,7 +5061,7 @@
       <c r="G185" s="45"/>
       <c r="H185" s="64"/>
     </row>
-    <row r="186" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="46"/>
       <c r="C186" s="33"/>
       <c r="D186" s="33"/>
@@ -4992,7 +5069,7 @@
       <c r="F186" s="33"/>
       <c r="H186" s="64"/>
     </row>
-    <row r="187" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B187" s="48"/>
       <c r="C187" s="41"/>
       <c r="D187" s="41"/>
@@ -5001,7 +5078,7 @@
       <c r="G187" s="17"/>
       <c r="H187" s="64"/>
     </row>
-    <row r="188" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
       <c r="E188" s="42">
@@ -5010,12 +5087,12 @@
       </c>
       <c r="F188" s="43">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G188" s="17"/>
       <c r="H188" s="64"/>
     </row>
-    <row r="189" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="16"/>
@@ -5023,7 +5100,7 @@
       <c r="G189" s="17"/>
       <c r="H189" s="64"/>
     </row>
-    <row r="190" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
       <c r="E190" s="16"/>
@@ -5031,7 +5108,7 @@
       <c r="G190" s="17"/>
       <c r="H190" s="64"/>
     </row>
-    <row r="191" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C191" s="15" t="s">
         <v>42</v>
       </c>
@@ -5043,7 +5120,7 @@
       <c r="G191" s="17"/>
       <c r="H191" s="64"/>
     </row>
-    <row r="192" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C192" s="15"/>
       <c r="D192" s="15"/>
       <c r="E192" s="16"/>
@@ -5051,7 +5128,7 @@
       <c r="G192" s="17"/>
       <c r="H192" s="64"/>
     </row>
-    <row r="193" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B193" s="20" t="s">
         <v>1</v>
       </c>
@@ -5070,7 +5147,7 @@
       <c r="G193" s="50"/>
       <c r="H193" s="64"/>
     </row>
-    <row r="194" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="26" t="s">
         <v>11</v>
       </c>
@@ -5084,12 +5161,12 @@
         <v>4</v>
       </c>
       <c r="F194" s="29">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G194" s="50"/>
       <c r="H194" s="64"/>
     </row>
-    <row r="195" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="26"/>
       <c r="C195" s="27"/>
       <c r="D195" s="27"/>
@@ -5098,7 +5175,7 @@
       <c r="G195" s="17"/>
       <c r="H195" s="64"/>
     </row>
-    <row r="196" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="49"/>
       <c r="C196" s="27"/>
       <c r="D196" s="27"/>
@@ -5107,7 +5184,7 @@
       <c r="G196" s="45"/>
       <c r="H196" s="64"/>
     </row>
-    <row r="197" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="46" t="s">
         <v>12</v>
       </c>
@@ -5128,7 +5205,7 @@
       </c>
       <c r="H197" s="64"/>
     </row>
-    <row r="198" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="46" t="s">
         <v>12</v>
       </c>
@@ -5148,7 +5225,7 @@
         <v>45564</v>
       </c>
     </row>
-    <row r="199" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="46" t="s">
         <v>12</v>
       </c>
@@ -5167,7 +5244,7 @@
       <c r="G199" s="45"/>
       <c r="H199" s="64"/>
     </row>
-    <row r="200" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="46"/>
       <c r="C200" s="33"/>
       <c r="D200" s="33"/>
@@ -5176,7 +5253,7 @@
       <c r="G200" s="45"/>
       <c r="H200" s="64"/>
     </row>
-    <row r="201" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="46" t="s">
         <v>13</v>
       </c>
@@ -5190,11 +5267,11 @@
         <v>23</v>
       </c>
       <c r="F201" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H201" s="64"/>
     </row>
-    <row r="202" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="46" t="s">
         <v>13</v>
       </c>
@@ -5213,7 +5290,7 @@
       <c r="G202" s="45"/>
       <c r="H202" s="64"/>
     </row>
-    <row r="203" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="46" t="s">
         <v>13</v>
       </c>
@@ -5234,7 +5311,7 @@
       </c>
       <c r="H203" s="64"/>
     </row>
-    <row r="204" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="46" t="s">
         <v>13</v>
       </c>
@@ -5255,7 +5332,7 @@
         <v>45515</v>
       </c>
     </row>
-    <row r="205" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="53"/>
       <c r="C205" s="53"/>
       <c r="D205" s="53"/>
@@ -5263,7 +5340,7 @@
       <c r="F205" s="53"/>
       <c r="H205" s="64"/>
     </row>
-    <row r="206" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="46" t="s">
         <v>14</v>
       </c>
@@ -5277,12 +5354,12 @@
         <v>13</v>
       </c>
       <c r="F206" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G206" s="45"/>
       <c r="H206" s="64"/>
     </row>
-    <row r="207" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="46" t="s">
         <v>14</v>
       </c>
@@ -5300,7 +5377,7 @@
       </c>
       <c r="H207" s="64"/>
     </row>
-    <row r="208" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="46" t="s">
         <v>14</v>
       </c>
@@ -5314,11 +5391,11 @@
         <v>10</v>
       </c>
       <c r="F208" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H208" s="64"/>
     </row>
-    <row r="209" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="46" t="s">
         <v>14</v>
       </c>
@@ -5332,11 +5409,11 @@
         <v>16</v>
       </c>
       <c r="F209" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G209" s="45"/>
     </row>
-    <row r="210" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="46" t="s">
         <v>14</v>
       </c>
@@ -5357,7 +5434,7 @@
       </c>
       <c r="H210" s="64"/>
     </row>
-    <row r="211" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="46" t="s">
         <v>14</v>
       </c>
@@ -5377,7 +5454,7 @@
         <v>45535</v>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="46"/>
       <c r="C212" s="33"/>
       <c r="D212" s="33"/>
@@ -5385,7 +5462,7 @@
       <c r="F212" s="33"/>
       <c r="H212" s="64"/>
     </row>
-    <row r="213" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="46"/>
       <c r="C213" s="33"/>
       <c r="D213" s="33"/>
@@ -5394,7 +5471,7 @@
       <c r="G213" s="45"/>
       <c r="H213" s="64"/>
     </row>
-    <row r="214" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B214" s="48"/>
       <c r="C214" s="41"/>
       <c r="D214" s="41"/>
@@ -5403,7 +5480,7 @@
       <c r="G214" s="17"/>
       <c r="H214" s="64"/>
     </row>
-    <row r="215" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C215" s="15"/>
       <c r="D215" s="15"/>
       <c r="E215" s="42">
@@ -5412,12 +5489,12 @@
       </c>
       <c r="F215" s="43">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G215" s="17"/>
       <c r="H215" s="64"/>
     </row>
-    <row r="216" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C216" s="15"/>
       <c r="D216" s="15"/>
       <c r="E216" s="16"/>
@@ -5425,7 +5502,7 @@
       <c r="G216" s="17"/>
       <c r="H216" s="64"/>
     </row>
-    <row r="217" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C217" s="15"/>
       <c r="D217" s="15"/>
       <c r="E217" s="16"/>
@@ -5433,7 +5510,7 @@
       <c r="G217" s="17"/>
       <c r="H217" s="64"/>
     </row>
-    <row r="218" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C218" s="15" t="s">
         <v>43</v>
       </c>
@@ -5445,7 +5522,7 @@
       <c r="G218" s="17"/>
       <c r="H218" s="64"/>
     </row>
-    <row r="219" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C219" s="15"/>
       <c r="D219" s="15"/>
       <c r="E219" s="16"/>
@@ -5453,7 +5530,7 @@
       <c r="G219" s="17"/>
       <c r="H219" s="64"/>
     </row>
-    <row r="220" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B220" s="20" t="s">
         <v>1</v>
       </c>
@@ -5472,7 +5549,7 @@
       <c r="G220" s="50"/>
       <c r="H220" s="64"/>
     </row>
-    <row r="221" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="26" t="s">
         <v>11</v>
       </c>
@@ -5486,12 +5563,12 @@
         <v>1</v>
       </c>
       <c r="F221" s="29">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G221" s="50"/>
       <c r="H221" s="64"/>
     </row>
-    <row r="222" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="26"/>
       <c r="C222" s="27"/>
       <c r="D222" s="27"/>
@@ -5500,7 +5577,7 @@
       <c r="G222" s="50"/>
       <c r="H222" s="64"/>
     </row>
-    <row r="223" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="49"/>
       <c r="C223" s="27"/>
       <c r="D223" s="27"/>
@@ -5509,7 +5586,7 @@
       <c r="G223" s="45"/>
       <c r="H223" s="64"/>
     </row>
-    <row r="224" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="46" t="s">
         <v>12</v>
       </c>
@@ -5523,11 +5600,11 @@
         <v>1</v>
       </c>
       <c r="F224" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H224" s="64"/>
     </row>
-    <row r="225" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="46" t="s">
         <v>12</v>
       </c>
@@ -5546,7 +5623,7 @@
       <c r="G225" s="45"/>
       <c r="H225" s="64"/>
     </row>
-    <row r="226" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="46"/>
       <c r="C226" s="33"/>
       <c r="D226" s="33"/>
@@ -5554,7 +5631,7 @@
       <c r="F226" s="33"/>
       <c r="H226" s="64"/>
     </row>
-    <row r="227" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="46" t="s">
         <v>13</v>
       </c>
@@ -5575,233 +5652,275 @@
       </c>
       <c r="H227" s="64"/>
     </row>
-    <row r="228" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C228" s="33" t="s">
+      <c r="C228" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="D228" s="33" t="s">
+      <c r="D228" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E228" s="34" t="s">
+      <c r="E228" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="F228" s="33">
+      <c r="F228" s="46">
         <v>2</v>
+      </c>
+      <c r="G228" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="H228" s="67">
         <v>45529</v>
       </c>
     </row>
-    <row r="229" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C229" s="33" t="s">
-        <v>167</v>
+        <v>310</v>
       </c>
       <c r="D229" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E229" s="34">
-        <v>12</v>
+        <v>220</v>
+      </c>
+      <c r="E229" s="34" t="s">
+        <v>254</v>
       </c>
       <c r="F229" s="33">
         <v>0</v>
       </c>
-      <c r="H229" s="64"/>
-    </row>
-    <row r="230" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H229" s="67">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C230" s="33" t="s">
+      <c r="C230" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D230" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E230" s="61">
+        <v>12</v>
+      </c>
+      <c r="F230" s="46">
+        <v>0</v>
+      </c>
+      <c r="G230" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H230" s="64"/>
+    </row>
+    <row r="231" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="D231" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E231" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F231" s="33">
+        <v>1</v>
+      </c>
+      <c r="H231" s="67">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C232" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="D230" s="33" t="s">
+      <c r="D232" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="E230" s="34">
+      <c r="E232" s="61">
         <v>3</v>
       </c>
-      <c r="F230" s="33">
+      <c r="F232" s="46">
         <v>0</v>
       </c>
-      <c r="G230" s="45"/>
-      <c r="H230" s="64"/>
-    </row>
-    <row r="231" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="46"/>
-      <c r="C231" s="33"/>
-      <c r="D231" s="33"/>
-      <c r="E231" s="34"/>
-      <c r="F231" s="33"/>
-      <c r="G231" s="45"/>
-    </row>
-    <row r="232" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C232" s="33" t="s">
+      <c r="G232" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H232" s="64"/>
+    </row>
+    <row r="233" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="D233" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E233" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F233" s="33">
+        <v>0</v>
+      </c>
+      <c r="G233" s="45"/>
+      <c r="H233" s="67">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="53"/>
+      <c r="C234" s="53"/>
+      <c r="D234" s="53"/>
+      <c r="E234" s="60"/>
+      <c r="F234" s="53"/>
+    </row>
+    <row r="235" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="D232" s="33" t="s">
+      <c r="D235" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="E232" s="34">
+      <c r="E235" s="34">
         <v>8</v>
       </c>
-      <c r="F232" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C233" s="46" t="s">
+      <c r="F235" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="D233" s="46" t="s">
+      <c r="D236" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E233" s="61">
+      <c r="E236" s="61">
         <v>15</v>
       </c>
-      <c r="F233" s="46">
+      <c r="F236" s="46">
         <v>0</v>
       </c>
-      <c r="G233" s="14" t="s">
+      <c r="G236" s="14" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="234" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C234" s="33" t="s">
+    <row r="237" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="D234" s="33" t="s">
+      <c r="D237" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="E234" s="34" t="s">
+      <c r="E237" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F234" s="33">
+      <c r="F237" s="33">
         <v>0</v>
       </c>
-      <c r="H234" s="67">
+      <c r="H237" s="67">
         <v>45529</v>
       </c>
     </row>
-    <row r="235" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C235" s="33" t="s">
+    <row r="238" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="D235" s="33" t="s">
+      <c r="D238" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="E235" s="34">
+      <c r="E238" s="34">
         <v>3</v>
       </c>
-      <c r="F235" s="33">
+      <c r="F238" s="33">
         <v>4</v>
       </c>
-      <c r="G235" s="45"/>
-      <c r="H235" s="64"/>
-    </row>
-    <row r="236" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C236" s="33" t="s">
+      <c r="G238" s="45"/>
+      <c r="H238" s="64"/>
+    </row>
+    <row r="239" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="D236" s="33" t="s">
+      <c r="D239" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="E236" s="34">
+      <c r="E239" s="34">
         <v>36</v>
       </c>
-      <c r="F236" s="33">
-        <v>3</v>
-      </c>
-      <c r="H236" s="64"/>
-    </row>
-    <row r="237" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C237" s="46" t="s">
+      <c r="F239" s="33">
+        <v>4</v>
+      </c>
+      <c r="H239" s="64"/>
+    </row>
+    <row r="240" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="D237" s="46" t="s">
+      <c r="D240" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E237" s="61">
-        <v>1</v>
-      </c>
-      <c r="F237" s="46">
+      <c r="E240" s="61">
+        <v>1</v>
+      </c>
+      <c r="F240" s="46">
         <v>0</v>
       </c>
-      <c r="G237" s="14" t="s">
+      <c r="G240" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="H237" s="64"/>
-    </row>
-    <row r="238" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C238" s="33" t="s">
+    </row>
+    <row r="241" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B241" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="D238" s="33" t="s">
+      <c r="D241" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E238" s="34" t="s">
+      <c r="E241" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="F238" s="33">
-        <v>2</v>
-      </c>
-      <c r="H238" s="67">
+      <c r="F241" s="29">
+        <v>4</v>
+      </c>
+      <c r="G241" s="17"/>
+      <c r="H241" s="67">
         <v>45529</v>
       </c>
     </row>
-    <row r="239" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="46"/>
-      <c r="C239" s="33"/>
-      <c r="D239" s="33"/>
-      <c r="E239" s="34"/>
-      <c r="F239" s="33"/>
-      <c r="H239" s="64"/>
-    </row>
-    <row r="240" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="46"/>
-      <c r="C240" s="33"/>
-      <c r="D240" s="33"/>
-      <c r="E240" s="34"/>
-      <c r="F240" s="33"/>
-      <c r="G240" s="45"/>
-      <c r="H240" s="64"/>
-    </row>
-    <row r="241" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="48"/>
-      <c r="C241" s="41"/>
-      <c r="D241" s="41"/>
-      <c r="E241" s="28"/>
-      <c r="F241" s="29"/>
-      <c r="G241" s="17"/>
-      <c r="H241" s="64"/>
-    </row>
-    <row r="242" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C242" s="15"/>
       <c r="D242" s="15"/>
       <c r="E242" s="42">
@@ -5810,22 +5929,22 @@
       </c>
       <c r="F242" s="43">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G242" s="17"/>
       <c r="H242" s="64"/>
     </row>
-    <row r="243" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C243" s="15"/>
       <c r="D243" s="15"/>
       <c r="E243" s="16"/>
       <c r="F243" s="15"/>
       <c r="H243" s="64"/>
     </row>
-    <row r="244" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G244" s="17"/>
     </row>
-    <row r="245" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C245" s="15" t="s">
         <v>31</v>
       </c>
@@ -5836,14 +5955,14 @@
       <c r="F245" s="15"/>
       <c r="G245" s="17"/>
     </row>
-    <row r="246" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C246" s="15"/>
       <c r="D246" s="15"/>
       <c r="E246" s="16"/>
       <c r="F246" s="15"/>
       <c r="G246" s="17"/>
     </row>
-    <row r="247" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B247" s="20" t="s">
         <v>1</v>
       </c>
@@ -5861,7 +5980,7 @@
       </c>
       <c r="G247" s="50"/>
     </row>
-    <row r="248" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248" s="26" t="s">
         <v>11</v>
       </c>
@@ -5875,11 +5994,11 @@
         <v>8</v>
       </c>
       <c r="F248" s="29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G248" s="50"/>
     </row>
-    <row r="249" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B249" s="26"/>
       <c r="C249" s="27"/>
       <c r="D249" s="27"/>
@@ -5887,7 +6006,7 @@
       <c r="F249" s="27"/>
       <c r="G249" s="50"/>
     </row>
-    <row r="250" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B250" s="49"/>
       <c r="C250" s="27"/>
       <c r="D250" s="27"/>
@@ -5895,7 +6014,7 @@
       <c r="F250" s="27"/>
       <c r="G250" s="45"/>
     </row>
-    <row r="251" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B251" s="46" t="s">
         <v>12</v>
       </c>
@@ -5913,7 +6032,7 @@
       </c>
       <c r="G251" s="45"/>
     </row>
-    <row r="252" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B252" s="46" t="s">
         <v>12</v>
       </c>
@@ -5930,14 +6049,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B253" s="46"/>
       <c r="C253" s="33"/>
       <c r="D253" s="33"/>
       <c r="E253" s="34"/>
       <c r="F253" s="33"/>
     </row>
-    <row r="254" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B254" s="46" t="s">
         <v>13</v>
       </c>
@@ -5955,7 +6074,7 @@
       </c>
       <c r="G254" s="45"/>
     </row>
-    <row r="255" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B255" s="46" t="s">
         <v>13</v>
       </c>
@@ -5972,7 +6091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B256" s="46" t="s">
         <v>13</v>
       </c>
@@ -5989,14 +6108,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B257" s="46"/>
       <c r="C257" s="33"/>
       <c r="D257" s="33"/>
       <c r="E257" s="34"/>
       <c r="F257" s="33"/>
     </row>
-    <row r="258" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B258" s="46" t="s">
         <v>14</v>
       </c>
@@ -6014,7 +6133,7 @@
       </c>
       <c r="G258" s="45"/>
     </row>
-    <row r="259" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B259" s="46" t="s">
         <v>14</v>
       </c>
@@ -6034,7 +6153,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="260" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B260" s="46" t="s">
         <v>14</v>
       </c>
@@ -6048,13 +6167,13 @@
         <v>254</v>
       </c>
       <c r="F260" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H260" s="67">
         <v>45534</v>
       </c>
     </row>
-    <row r="261" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B261" s="46" t="s">
         <v>14</v>
       </c>
@@ -6071,7 +6190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="46" t="s">
         <v>14</v>
       </c>
@@ -6085,10 +6204,10 @@
         <v>2</v>
       </c>
       <c r="F262" s="33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="46" t="s">
         <v>14</v>
       </c>
@@ -6102,17 +6221,17 @@
         <v>1</v>
       </c>
       <c r="F263" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264" s="46"/>
       <c r="C264" s="33"/>
       <c r="D264" s="33"/>
       <c r="E264" s="34"/>
       <c r="F264" s="33"/>
     </row>
-    <row r="265" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265" s="46"/>
       <c r="C265" s="33"/>
       <c r="D265" s="33"/>
@@ -6120,7 +6239,7 @@
       <c r="F265" s="33"/>
       <c r="G265" s="45"/>
     </row>
-    <row r="266" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B266" s="46"/>
       <c r="C266" s="33"/>
       <c r="D266" s="33"/>
@@ -6128,7 +6247,7 @@
       <c r="F266" s="33"/>
       <c r="G266" s="45"/>
     </row>
-    <row r="267" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B267" s="46"/>
       <c r="C267" s="33"/>
       <c r="D267" s="33"/>
@@ -6136,7 +6255,7 @@
       <c r="F267" s="33"/>
       <c r="G267" s="45"/>
     </row>
-    <row r="268" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B268" s="48"/>
       <c r="C268" s="41"/>
       <c r="D268" s="41"/>
@@ -6144,7 +6263,7 @@
       <c r="F268" s="29"/>
       <c r="G268" s="17"/>
     </row>
-    <row r="269" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C269" s="15"/>
       <c r="D269" s="15"/>
       <c r="E269" s="42">
@@ -6153,20 +6272,20 @@
       </c>
       <c r="F269" s="43">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G269" s="17"/>
     </row>
-    <row r="270" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C270" s="15"/>
       <c r="D270" s="15"/>
       <c r="E270" s="16"/>
       <c r="F270" s="15"/>
     </row>
-    <row r="271" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G271" s="17"/>
     </row>
-    <row r="272" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C272" s="15" t="s">
         <v>30</v>
       </c>
@@ -6177,14 +6296,14 @@
       <c r="F272" s="15"/>
       <c r="G272" s="17"/>
     </row>
-    <row r="273" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C273" s="15"/>
       <c r="D273" s="15"/>
       <c r="E273" s="16"/>
       <c r="F273" s="15"/>
       <c r="G273" s="17"/>
     </row>
-    <row r="274" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B274" s="20" t="s">
         <v>1</v>
       </c>
@@ -6202,7 +6321,7 @@
       </c>
       <c r="G274" s="50"/>
     </row>
-    <row r="275" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B275" s="26" t="s">
         <v>11</v>
       </c>
@@ -6216,11 +6335,11 @@
         <v>10</v>
       </c>
       <c r="F275" s="29">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G275" s="17"/>
     </row>
-    <row r="276" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B276" s="26"/>
       <c r="C276" s="27"/>
       <c r="D276" s="27"/>
@@ -6228,14 +6347,14 @@
       <c r="F276" s="27"/>
       <c r="G276" s="17"/>
     </row>
-    <row r="277" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B277" s="49"/>
       <c r="C277" s="27"/>
       <c r="D277" s="27"/>
       <c r="E277" s="28"/>
       <c r="F277" s="27"/>
     </row>
-    <row r="278" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B278" s="46" t="s">
         <v>12</v>
       </c>
@@ -6249,10 +6368,10 @@
         <v>2</v>
       </c>
       <c r="F278" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B279" s="46" t="s">
         <v>12</v>
       </c>
@@ -6269,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="46"/>
       <c r="C280" s="33"/>
       <c r="D280" s="33"/>
@@ -6277,7 +6396,7 @@
       <c r="F280" s="33"/>
       <c r="G280" s="45"/>
     </row>
-    <row r="281" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="46" t="s">
         <v>13</v>
       </c>
@@ -6291,11 +6410,11 @@
         <v>7</v>
       </c>
       <c r="F281" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G281" s="45"/>
     </row>
-    <row r="282" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B282" s="46" t="s">
         <v>13</v>
       </c>
@@ -6309,10 +6428,10 @@
         <v>22</v>
       </c>
       <c r="F282" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="283" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="46" t="s">
         <v>13</v>
       </c>
@@ -6330,7 +6449,7 @@
       </c>
       <c r="G283" s="45"/>
     </row>
-    <row r="284" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284" s="46"/>
       <c r="C284" s="33"/>
       <c r="D284" s="33"/>
@@ -6338,7 +6457,7 @@
       <c r="F284" s="33"/>
       <c r="G284" s="45"/>
     </row>
-    <row r="285" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="46" t="s">
         <v>14</v>
       </c>
@@ -6352,11 +6471,11 @@
         <v>2</v>
       </c>
       <c r="F285" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G285" s="45"/>
     </row>
-    <row r="286" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B286" s="46" t="s">
         <v>14</v>
       </c>
@@ -6376,7 +6495,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="287" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B287" s="46" t="s">
         <v>14</v>
       </c>
@@ -6390,13 +6509,13 @@
         <v>254</v>
       </c>
       <c r="F287" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H287" s="67">
         <v>45515</v>
       </c>
     </row>
-    <row r="288" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B288" s="46" t="s">
         <v>14</v>
       </c>
@@ -6413,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B289" s="46" t="s">
         <v>14</v>
       </c>
@@ -6431,7 +6550,7 @@
       </c>
       <c r="G289" s="45"/>
     </row>
-    <row r="290" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B290" s="46" t="s">
         <v>14</v>
       </c>
@@ -6449,7 +6568,7 @@
       </c>
       <c r="G290" s="45"/>
     </row>
-    <row r="291" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B291" s="46"/>
       <c r="C291" s="33"/>
       <c r="D291" s="33"/>
@@ -6457,14 +6576,14 @@
       <c r="F291" s="33"/>
       <c r="G291" s="45"/>
     </row>
-    <row r="292" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B292" s="46"/>
       <c r="C292" s="33"/>
       <c r="D292" s="33"/>
       <c r="E292" s="34"/>
       <c r="F292" s="33"/>
     </row>
-    <row r="293" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B293" s="46"/>
       <c r="C293" s="33"/>
       <c r="D293" s="33"/>
@@ -6472,7 +6591,7 @@
       <c r="F293" s="33"/>
       <c r="G293" s="45"/>
     </row>
-    <row r="294" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B294" s="46"/>
       <c r="C294" s="33"/>
       <c r="D294" s="33"/>
@@ -6480,7 +6599,7 @@
       <c r="F294" s="33"/>
       <c r="G294" s="45"/>
     </row>
-    <row r="295" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B295" s="48"/>
       <c r="C295" s="41"/>
       <c r="D295" s="41"/>
@@ -6488,7 +6607,7 @@
       <c r="F295" s="29"/>
       <c r="G295" s="17"/>
     </row>
-    <row r="296" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C296" s="15"/>
       <c r="D296" s="15"/>
       <c r="E296" s="42">
@@ -6497,21 +6616,21 @@
       </c>
       <c r="F296" s="43">
         <f>SUM(F278:F295)-SUM(F275:F277)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G296" s="17"/>
     </row>
-    <row r="297" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C297" s="15"/>
       <c r="D297" s="15"/>
       <c r="E297" s="16"/>
       <c r="F297" s="15"/>
     </row>
-    <row r="298" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="45"/>
       <c r="G298" s="17"/>
     </row>
-    <row r="299" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C299" s="15" t="s">
         <v>35</v>
       </c>
@@ -6522,14 +6641,14 @@
       <c r="F299" s="15"/>
       <c r="G299" s="17"/>
     </row>
-    <row r="300" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C300" s="15"/>
       <c r="D300" s="15"/>
       <c r="E300" s="16"/>
       <c r="F300" s="15"/>
       <c r="G300" s="17"/>
     </row>
-    <row r="301" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B301" s="20" t="s">
         <v>1</v>
       </c>
@@ -6547,7 +6666,7 @@
       </c>
       <c r="G301" s="50"/>
     </row>
-    <row r="302" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="26" t="s">
         <v>11</v>
       </c>
@@ -6567,7 +6686,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="49" t="s">
         <v>11</v>
       </c>
@@ -6581,14 +6700,14 @@
         <v>254</v>
       </c>
       <c r="F303" s="27">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G303" s="50"/>
       <c r="H303" s="67">
         <v>45559</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="49"/>
       <c r="C304" s="27"/>
       <c r="D304" s="27"/>
@@ -6596,7 +6715,7 @@
       <c r="F304" s="27"/>
       <c r="G304" s="45"/>
     </row>
-    <row r="305" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B305" s="46" t="s">
         <v>12</v>
       </c>
@@ -6614,7 +6733,7 @@
       </c>
       <c r="G305" s="45"/>
     </row>
-    <row r="306" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B306" s="46" t="s">
         <v>12</v>
       </c>
@@ -6628,11 +6747,11 @@
         <v>1</v>
       </c>
       <c r="F306" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G306" s="45"/>
     </row>
-    <row r="307" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B307" s="46" t="s">
         <v>13</v>
       </c>
@@ -6646,10 +6765,10 @@
         <v>15</v>
       </c>
       <c r="F307" s="33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="308" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B308" s="46" t="s">
         <v>13</v>
       </c>
@@ -6666,7 +6785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B309" s="46" t="s">
         <v>13</v>
       </c>
@@ -6680,13 +6799,13 @@
         <v>254</v>
       </c>
       <c r="F309" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H309" s="67">
         <v>45564</v>
       </c>
     </row>
-    <row r="310" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B310" s="46" t="s">
         <v>13</v>
       </c>
@@ -6706,7 +6825,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="311" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B311" s="46" t="s">
         <v>13</v>
       </c>
@@ -6729,7 +6848,7 @@
         <v>45518</v>
       </c>
     </row>
-    <row r="312" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B312" s="46" t="s">
         <v>13</v>
       </c>
@@ -6743,13 +6862,13 @@
         <v>254</v>
       </c>
       <c r="F312" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H312" s="67">
         <v>45532</v>
       </c>
     </row>
-    <row r="313" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B313" s="46" t="s">
         <v>14</v>
       </c>
@@ -6769,7 +6888,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="314" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B314" s="46" t="s">
         <v>14</v>
       </c>
@@ -6783,13 +6902,13 @@
         <v>254</v>
       </c>
       <c r="F314" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H314" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="315" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B315" s="46" t="s">
         <v>14</v>
       </c>
@@ -6807,7 +6926,7 @@
       </c>
       <c r="G315" s="45"/>
     </row>
-    <row r="316" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B316" s="46" t="s">
         <v>14</v>
       </c>
@@ -6827,7 +6946,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="317" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B317" s="46" t="s">
         <v>14</v>
       </c>
@@ -6847,7 +6966,7 @@
         <v>45550</v>
       </c>
     </row>
-    <row r="318" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B318" s="46" t="s">
         <v>14</v>
       </c>
@@ -6867,7 +6986,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="319" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B319" s="46" t="s">
         <v>14</v>
       </c>
@@ -6890,7 +7009,7 @@
         <v>45518</v>
       </c>
     </row>
-    <row r="320" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B320" s="46" t="s">
         <v>14</v>
       </c>
@@ -6910,7 +7029,7 @@
         <v>45528</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B321" s="46" t="s">
         <v>14</v>
       </c>
@@ -6930,7 +7049,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="45"/>
       <c r="B322" s="48" t="s">
         <v>14</v>
@@ -6952,7 +7071,7 @@
         <v>45515</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C323" s="15"/>
       <c r="D323" s="15"/>
       <c r="E323" s="42">
@@ -6965,13 +7084,13 @@
       </c>
       <c r="G323" s="17"/>
     </row>
-    <row r="324" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C324" s="15"/>
       <c r="D324" s="15"/>
       <c r="E324" s="16"/>
       <c r="F324" s="15"/>
     </row>
-    <row r="326" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C326" s="15" t="s">
         <v>235</v>
       </c>
@@ -6981,13 +7100,13 @@
       <c r="E326" s="16"/>
       <c r="F326" s="15"/>
     </row>
-    <row r="327" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C327" s="15"/>
       <c r="D327" s="15"/>
       <c r="E327" s="16"/>
       <c r="F327" s="15"/>
     </row>
-    <row r="328" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B328" s="20" t="s">
         <v>1</v>
       </c>
@@ -7005,7 +7124,7 @@
       </c>
       <c r="G328" s="45"/>
     </row>
-    <row r="329" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B329" s="26" t="s">
         <v>11</v>
       </c>
@@ -7025,7 +7144,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B330" s="49" t="s">
         <v>11</v>
       </c>
@@ -7039,13 +7158,13 @@
         <v>254</v>
       </c>
       <c r="F330" s="27">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H330" s="67">
         <v>45537</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B331" s="49"/>
       <c r="C331" s="27"/>
       <c r="D331" s="27"/>
@@ -7053,7 +7172,7 @@
       <c r="F331" s="27"/>
       <c r="G331" s="45"/>
     </row>
-    <row r="332" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B332" s="46" t="s">
         <v>12</v>
       </c>
@@ -7071,7 +7190,7 @@
       </c>
       <c r="G332" s="45"/>
     </row>
-    <row r="333" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B333" s="46" t="s">
         <v>12</v>
       </c>
@@ -7088,7 +7207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B334" s="46"/>
       <c r="C334" s="33"/>
       <c r="D334" s="33"/>
@@ -7096,7 +7215,7 @@
       <c r="F334" s="33"/>
       <c r="G334" s="45"/>
     </row>
-    <row r="335" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B335" s="46" t="s">
         <v>13</v>
       </c>
@@ -7114,7 +7233,7 @@
       </c>
       <c r="G335" s="45"/>
     </row>
-    <row r="336" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B336" s="46" t="s">
         <v>13</v>
       </c>
@@ -7128,10 +7247,10 @@
         <v>47</v>
       </c>
       <c r="F336" s="33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="337" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B337" s="46" t="s">
         <v>13</v>
       </c>
@@ -7145,18 +7264,18 @@
         <v>2</v>
       </c>
       <c r="F337" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G337" s="45"/>
     </row>
-    <row r="338" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B338" s="46"/>
       <c r="C338" s="33"/>
       <c r="D338" s="33"/>
       <c r="E338" s="34"/>
       <c r="F338" s="33"/>
     </row>
-    <row r="339" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B339" s="46" t="s">
         <v>14</v>
       </c>
@@ -7170,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="F339" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B340" s="46" t="s">
         <v>14</v>
       </c>
@@ -7187,10 +7306,10 @@
         <v>3</v>
       </c>
       <c r="F340" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B341" s="46" t="s">
         <v>14</v>
       </c>
@@ -7208,7 +7327,7 @@
       </c>
       <c r="G341" s="45"/>
     </row>
-    <row r="342" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B342" s="46" t="s">
         <v>14</v>
       </c>
@@ -7226,7 +7345,7 @@
       </c>
       <c r="G342" s="45"/>
     </row>
-    <row r="343" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B343" s="46" t="s">
         <v>14</v>
       </c>
@@ -7240,11 +7359,11 @@
         <v>1</v>
       </c>
       <c r="F343" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G343" s="45"/>
     </row>
-    <row r="344" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B344" s="53"/>
       <c r="C344" s="33"/>
       <c r="D344" s="33"/>
@@ -7252,7 +7371,7 @@
       <c r="F344" s="33"/>
       <c r="G344" s="45"/>
     </row>
-    <row r="345" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B345" s="46"/>
       <c r="C345" s="33"/>
       <c r="D345" s="33"/>
@@ -7260,14 +7379,14 @@
       <c r="F345" s="33"/>
       <c r="G345" s="45"/>
     </row>
-    <row r="346" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B346" s="46"/>
       <c r="C346" s="33"/>
       <c r="D346" s="33"/>
       <c r="E346" s="34"/>
       <c r="F346" s="33"/>
     </row>
-    <row r="347" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B347" s="46"/>
       <c r="C347" s="33"/>
       <c r="D347" s="33"/>
@@ -7275,7 +7394,7 @@
       <c r="F347" s="33"/>
       <c r="G347" s="45"/>
     </row>
-    <row r="348" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B348" s="46"/>
       <c r="C348" s="33"/>
       <c r="D348" s="33"/>
@@ -7283,14 +7402,14 @@
       <c r="F348" s="33"/>
       <c r="G348" s="45"/>
     </row>
-    <row r="349" spans="2:7" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:7" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B349" s="48"/>
       <c r="C349" s="41"/>
       <c r="D349" s="41"/>
       <c r="E349" s="28"/>
       <c r="F349" s="29"/>
     </row>
-    <row r="350" spans="2:7" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:7" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C350" s="15"/>
       <c r="D350" s="15"/>
       <c r="E350" s="42">
@@ -7302,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C351" s="15"/>
       <c r="D351" s="15"/>
       <c r="E351" s="16"/>
@@ -7328,26 +7447,31 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" customWidth="1"/>
-    <col min="5" max="7" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.796875" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
+    <col min="5" max="7" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>37</v>
+    <row r="1" spans="1:11" ht="31" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>314</v>
       </c>
       <c r="J1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
+        <v>315</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
@@ -7357,7 +7481,10 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="72" t="s">
+        <v>316</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -7365,7 +7492,10 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
+        <v>317</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="54" t="s">
@@ -7375,7 +7505,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -7383,7 +7513,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -7403,7 +7533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>1</v>
       </c>
@@ -7414,137 +7544,137 @@
         <v>21</v>
       </c>
       <c r="E7" s="30">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F7" s="31">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G7" s="32">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" s="51"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E8" s="30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F8" s="31">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G8" s="32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>3</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="30">
+        <v>21</v>
+      </c>
+      <c r="F9" s="31">
         <v>34</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="30">
-        <v>16</v>
-      </c>
-      <c r="F9" s="31">
-        <v>25</v>
-      </c>
       <c r="G9" s="32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>4</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E10" s="30">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F10" s="31">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G10" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>5</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E11" s="30">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F11" s="31">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G11" s="32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>6</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E12" s="30">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="31">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G12" s="32">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>7</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="30">
         <v>17</v>
       </c>
-      <c r="E13" s="30">
-        <v>13</v>
-      </c>
       <c r="F13" s="31">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G13" s="32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>8</v>
       </c>
@@ -7555,56 +7685,56 @@
         <v>252</v>
       </c>
       <c r="E14" s="30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F14" s="31">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G14" s="32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <v>9</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E15" s="30">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F15" s="31">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G15" s="32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>10</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="30">
+        <v>9</v>
+      </c>
+      <c r="F16" s="31">
+        <v>24</v>
+      </c>
+      <c r="G16" s="32">
         <v>15</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="30">
-        <v>6</v>
-      </c>
-      <c r="F16" s="31">
-        <v>18</v>
-      </c>
-      <c r="G16" s="32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>11</v>
       </c>
@@ -7615,16 +7745,16 @@
         <v>42</v>
       </c>
       <c r="E17" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="31">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G17" s="32">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>12</v>
       </c>
@@ -7635,16 +7765,16 @@
         <v>43</v>
       </c>
       <c r="E18" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="31">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G18" s="32">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>13</v>
       </c>
@@ -7658,13 +7788,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="31">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G19" s="32">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -7672,10 +7802,10 @@
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" s="13"/>
     </row>
@@ -7698,103 +7828,103 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="50" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="55" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="45"/>
+    <col min="1" max="1" width="33.296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.296875" style="55" customWidth="1"/>
+    <col min="4" max="4" width="31.69921875" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.296875" style="50" customWidth="1"/>
+    <col min="6" max="6" width="9.296875" style="55" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="57"/>
       <c r="C6" s="57"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="57"/>
       <c r="C7" s="57"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="50"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
       <c r="B11" s="57"/>
       <c r="C11" s="57"/>
       <c r="F11" s="57"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="57"/>
       <c r="C12" s="57"/>
       <c r="F12" s="57"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
       <c r="F13" s="57"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="57"/>
       <c r="C14" s="57"/>
       <c r="F14" s="57"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="58"/>
       <c r="C15" s="57"/>
       <c r="F15" s="57"/>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="50"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="57"/>
       <c r="C17" s="57"/>
       <c r="F17" s="57"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="57"/>
       <c r="C18" s="57"/>
       <c r="F18" s="57"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="57"/>
       <c r="C19" s="57"/>
       <c r="F19" s="57"/>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
         <v>27</v>
       </c>
@@ -7802,22 +7932,22 @@
       <c r="C20" s="58"/>
       <c r="F20" s="57"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
       <c r="F21" s="57"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="57"/>
       <c r="C22" s="57"/>
       <c r="F22" s="57"/>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>

--- a/data/DL24-25.xlsx
+++ b/data/DL24-25.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0001c2a442dfed87/Documents/Dream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{499008D1-9BAD-420B-94F0-09DC1FE29DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2281" documentId="8_{4A520963-05AC-46D2-973E-A3A248908BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B0E212F-504D-4D30-8135-3C2C1D6D531C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Table" sheetId="2" r:id="rId2"/>
     <sheet name="Cup" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="321">
   <si>
     <t>TONY APPLETON</t>
   </si>
@@ -979,16 +979,25 @@
     <t>RICHARD KONE</t>
   </si>
   <si>
-    <t>«Ward»</t>
-  </si>
-  <si>
-    <t>«Constituency»</t>
-  </si>
-  <si>
-    <t>LD result: «LD2»%      Majority: «Majority2»%</t>
-  </si>
-  <si>
-    <t>Challenger: «M_2nd_Place»      Turnout: «Tunrout2»%</t>
+    <t>CHRIS WOOD</t>
+  </si>
+  <si>
+    <t>JOAO FELIX</t>
+  </si>
+  <si>
+    <t>WILSON ISIDOR</t>
+  </si>
+  <si>
+    <t>MATHEUS CUNHA</t>
+  </si>
+  <si>
+    <t>WOLVES</t>
+  </si>
+  <si>
+    <t>KEVIN SCHADE</t>
+  </si>
+  <si>
+    <t>JAMES MADDISON</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1007,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm/yy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -1055,16 +1064,6 @@
       <sz val="7"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1457,11 +1456,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1548,6 +1547,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1839,26 +1842,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M351"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.296875" defaultRowHeight="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.3984375" style="19" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" style="19" customWidth="1"/>
     <col min="2" max="2" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.3984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="44" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" style="68" customWidth="1"/>
-    <col min="9" max="9" width="23.796875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="31.3984375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="68" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="31.44140625" style="19" customWidth="1"/>
     <col min="11" max="12" width="12" style="19" customWidth="1"/>
-    <col min="13" max="13" width="10.3984375" style="19" customWidth="1"/>
-    <col min="14" max="16384" width="9.296875" style="19"/>
+    <col min="13" max="13" width="10.44140625" style="19" customWidth="1"/>
+    <col min="14" max="16384" width="9.33203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -1868,7 +1871,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="64"/>
     </row>
-    <row r="2" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="15" t="s">
         <v>252</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
@@ -1890,7 +1893,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="64"/>
     </row>
-    <row r="4" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1924,7 +1927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>11</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="29">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="64"/>
@@ -1952,18 +1955,18 @@
       </c>
       <c r="K5" s="30">
         <f t="shared" ref="K5:K17" si="0">L5-M5</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L5" s="31">
         <f>SUM(F8:F25)</f>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M5" s="32">
         <f>SUM(F5:F7)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -1981,18 +1984,18 @@
       </c>
       <c r="K6" s="30">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L6" s="31">
         <f>SUM(F35:F52)</f>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M6" s="32">
         <f>SUM(F32:F34)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="49"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -2010,18 +2013,18 @@
       </c>
       <c r="K7" s="30">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L7" s="31">
         <f>SUM(F62:F79)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M7" s="32">
         <f>SUM(F59:F61)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
@@ -2048,18 +2051,18 @@
       </c>
       <c r="K8" s="30">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L8" s="31">
         <f>SUM(F89:F106)</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M8" s="32">
         <f>SUM(F86:F88)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="46" t="s">
         <v>12</v>
       </c>
@@ -2086,18 +2089,18 @@
       </c>
       <c r="K9" s="30">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L9" s="31">
         <f>SUM(F116:F133)</f>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M9" s="32">
         <f>SUM(F113:F115)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="46"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -2115,18 +2118,18 @@
       </c>
       <c r="K10" s="30">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L10" s="31">
         <f>SUM(F143:F160)</f>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="M10" s="32">
         <f>SUM(F140:F142)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="46" t="s">
         <v>13</v>
       </c>
@@ -2153,18 +2156,18 @@
       </c>
       <c r="K11" s="30">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L11" s="31">
         <f>SUM(F170:F187)</f>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="M11" s="32">
         <f>SUM(F167:F169)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="46" t="s">
         <v>13</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H12" s="65"/>
       <c r="I12" s="15" t="str">
@@ -2191,18 +2194,18 @@
       </c>
       <c r="K12" s="30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L12" s="31">
         <f>SUM(F197:F214)</f>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M12" s="32">
         <f>SUM(F194:F196)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>13</v>
       </c>
@@ -2216,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="65"/>
       <c r="I13" s="15" t="str">
@@ -2233,14 +2236,14 @@
       </c>
       <c r="L13" s="31">
         <f>SUM(F224:F241)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M13" s="32">
         <f>SUM(F221:F223)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="46"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -2258,18 +2261,18 @@
       </c>
       <c r="K14" s="30">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L14" s="31">
         <f>SUM(F251:F268)</f>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M14" s="32">
         <f>SUM(F248:F250)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
         <v>14</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="66"/>
@@ -2297,18 +2300,18 @@
       </c>
       <c r="K15" s="30">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L15" s="31">
         <f>SUM(F277:F295)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M15" s="32">
         <f>SUM(F275:F276)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="46" t="s">
         <v>14</v>
       </c>
@@ -2338,18 +2341,18 @@
       </c>
       <c r="K16" s="30">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L16" s="31">
         <f>SUM(F305:F322)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M16" s="32">
         <f>SUM(F302:F304)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="46" t="s">
         <v>14</v>
       </c>
@@ -2377,18 +2380,18 @@
       </c>
       <c r="K17" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L17" s="31">
         <f>SUM(F332:F349)</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M17" s="32">
         <f>SUM(F329:F331)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="46" t="s">
         <v>14</v>
       </c>
@@ -2414,7 +2417,7 @@
       <c r="L18" s="39"/>
       <c r="M18" s="40"/>
     </row>
-    <row r="19" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="46" t="s">
         <v>14</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>254</v>
       </c>
       <c r="F19" s="33">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G19" s="45"/>
       <c r="H19" s="67">
@@ -2438,7 +2441,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="46" t="s">
         <v>14</v>
       </c>
@@ -2459,7 +2462,7 @@
       </c>
       <c r="H20" s="64"/>
     </row>
-    <row r="21" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="46" t="s">
         <v>14</v>
       </c>
@@ -2473,14 +2476,14 @@
         <v>254</v>
       </c>
       <c r="F21" s="33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G21" s="45"/>
       <c r="H21" s="67">
         <v>45515</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="46" t="s">
         <v>14</v>
       </c>
@@ -2501,7 +2504,7 @@
       </c>
       <c r="H22" s="67"/>
     </row>
-    <row r="23" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="46" t="s">
         <v>14</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>45537</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="46"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
@@ -2531,7 +2534,7 @@
       <c r="G24" s="45"/>
       <c r="H24" s="64"/>
     </row>
-    <row r="25" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="48"/>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
@@ -2539,7 +2542,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="50"/>
     </row>
-    <row r="26" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="42">
@@ -2548,12 +2551,12 @@
       </c>
       <c r="F26" s="43">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="64"/>
     </row>
-    <row r="27" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
@@ -2561,7 +2564,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="64"/>
     </row>
-    <row r="28" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
@@ -2569,7 +2572,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="64"/>
     </row>
-    <row r="29" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="15" t="s">
         <v>41</v>
       </c>
@@ -2581,7 +2584,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="64"/>
     </row>
-    <row r="30" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="16"/>
@@ -2589,7 +2592,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="64"/>
     </row>
-    <row r="31" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
         <v>1</v>
       </c>
@@ -2608,7 +2611,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="64"/>
     </row>
-    <row r="32" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="26" t="s">
         <v>11</v>
       </c>
@@ -2629,7 +2632,7 @@
       </c>
       <c r="H32" s="64"/>
     </row>
-    <row r="33" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="49" t="s">
         <v>11</v>
       </c>
@@ -2643,14 +2646,14 @@
         <v>254</v>
       </c>
       <c r="F33" s="27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G33" s="50"/>
       <c r="H33" s="67">
         <v>45555</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="49"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -2659,7 +2662,7 @@
       <c r="G34" s="50"/>
       <c r="H34" s="64"/>
     </row>
-    <row r="35" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
         <v>12</v>
       </c>
@@ -2673,12 +2676,12 @@
         <v>6</v>
       </c>
       <c r="F35" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" s="45"/>
       <c r="H35" s="64"/>
     </row>
-    <row r="36" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
         <v>12</v>
       </c>
@@ -2696,141 +2699,154 @@
       </c>
       <c r="H36" s="64"/>
     </row>
-    <row r="37" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="46"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="45"/>
+    <row r="37" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="34">
+        <v>17</v>
+      </c>
+      <c r="F37" s="33">
+        <v>8</v>
+      </c>
       <c r="H37" s="64"/>
     </row>
-    <row r="38" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E38" s="34">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F38" s="33">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G38" s="45"/>
       <c r="H38" s="64"/>
     </row>
-    <row r="39" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="34">
-        <v>7</v>
-      </c>
-      <c r="F39" s="33">
-        <v>3</v>
-      </c>
-      <c r="G39" s="45"/>
+      <c r="C39" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="61">
+        <v>4</v>
+      </c>
+      <c r="F39" s="46">
+        <v>0</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>256</v>
+      </c>
       <c r="H39" s="64"/>
     </row>
-    <row r="40" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="61">
-        <v>4</v>
-      </c>
-      <c r="F40" s="46">
+      <c r="C40" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F40" s="33">
+        <v>2</v>
+      </c>
+      <c r="G40" s="45"/>
+      <c r="H40" s="67">
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="53"/>
+      <c r="H41" s="64"/>
+    </row>
+    <row r="42" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="34">
+        <v>23</v>
+      </c>
+      <c r="F42" s="33">
+        <v>5</v>
+      </c>
+      <c r="G42" s="45"/>
+      <c r="H42" s="64"/>
+    </row>
+    <row r="43" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="61">
+        <v>10</v>
+      </c>
+      <c r="F43" s="46">
+        <v>2</v>
+      </c>
+      <c r="G43" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H43" s="64"/>
+    </row>
+    <row r="44" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F44" s="33">
         <v>0</v>
       </c>
-      <c r="G40" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="H40" s="64"/>
-    </row>
-    <row r="41" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F41" s="33">
-        <v>2</v>
-      </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="67">
-        <v>45523</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="53"/>
-      <c r="H42" s="64"/>
-    </row>
-    <row r="43" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="34">
-        <v>23</v>
-      </c>
-      <c r="F43" s="33">
-        <v>4</v>
-      </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="64"/>
-    </row>
-    <row r="44" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="34">
-        <v>10</v>
-      </c>
-      <c r="F44" s="33">
-        <v>2</v>
-      </c>
-      <c r="G44" s="45"/>
-      <c r="H44" s="64"/>
-    </row>
-    <row r="45" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="67">
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="46" t="s">
         <v>14</v>
       </c>
@@ -2851,7 +2867,7 @@
       </c>
       <c r="H45" s="64"/>
     </row>
-    <row r="46" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="46" t="s">
         <v>14</v>
       </c>
@@ -2874,7 +2890,7 @@
         <v>45523</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="46" t="s">
         <v>14</v>
       </c>
@@ -2888,13 +2904,13 @@
         <v>254</v>
       </c>
       <c r="F47" s="33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H47" s="67">
         <v>45578</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="46" t="s">
         <v>14</v>
       </c>
@@ -2915,7 +2931,7 @@
       </c>
       <c r="H48" s="67"/>
     </row>
-    <row r="49" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="46" t="s">
         <v>14</v>
       </c>
@@ -2938,7 +2954,7 @@
         <v>45531</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="46" t="s">
         <v>14</v>
       </c>
@@ -2952,13 +2968,13 @@
         <v>254</v>
       </c>
       <c r="F50" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H50" s="67">
         <v>45565</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="46" t="s">
         <v>14</v>
       </c>
@@ -2979,7 +2995,7 @@
       </c>
       <c r="H51" s="67"/>
     </row>
-    <row r="52" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="48" t="s">
         <v>14</v>
       </c>
@@ -3000,7 +3016,7 @@
         <v>45543</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="42">
@@ -3009,11 +3025,11 @@
       </c>
       <c r="F53" s="43">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="16"/>
@@ -3021,7 +3037,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="64"/>
     </row>
-    <row r="55" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="16"/>
@@ -3029,7 +3045,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="64"/>
     </row>
-    <row r="56" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="15" t="s">
         <v>44</v>
       </c>
@@ -3041,7 +3057,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="64"/>
     </row>
-    <row r="57" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="16"/>
@@ -3049,7 +3065,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="64"/>
     </row>
-    <row r="58" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="20" t="s">
         <v>1</v>
       </c>
@@ -3068,7 +3084,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="64"/>
     </row>
-    <row r="59" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="26" t="s">
         <v>11</v>
       </c>
@@ -3082,12 +3098,12 @@
         <v>15</v>
       </c>
       <c r="F59" s="29">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G59" s="50"/>
       <c r="H59" s="64"/>
     </row>
-    <row r="60" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="26"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -3096,7 +3112,7 @@
       <c r="G60" s="50"/>
       <c r="H60" s="64"/>
     </row>
-    <row r="61" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="49"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -3105,7 +3121,7 @@
       <c r="G61" s="17"/>
       <c r="H61" s="64"/>
     </row>
-    <row r="62" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="46" t="s">
         <v>12</v>
       </c>
@@ -3124,7 +3140,7 @@
       <c r="G62" s="45"/>
       <c r="H62" s="64"/>
     </row>
-    <row r="63" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="46" t="s">
         <v>12</v>
       </c>
@@ -3142,7 +3158,7 @@
       </c>
       <c r="H63" s="64"/>
     </row>
-    <row r="64" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="46"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
@@ -3150,7 +3166,7 @@
       <c r="F64" s="33"/>
       <c r="H64" s="64"/>
     </row>
-    <row r="65" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="46" t="s">
         <v>13</v>
       </c>
@@ -3164,12 +3180,12 @@
         <v>30</v>
       </c>
       <c r="F65" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65" s="45"/>
       <c r="H65" s="64"/>
     </row>
-    <row r="66" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="46" t="s">
         <v>13</v>
       </c>
@@ -3183,12 +3199,12 @@
         <v>10</v>
       </c>
       <c r="F66" s="33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G66" s="45"/>
       <c r="H66" s="64"/>
     </row>
-    <row r="67" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="46" t="s">
         <v>13</v>
       </c>
@@ -3206,7 +3222,7 @@
       </c>
       <c r="H67" s="64"/>
     </row>
-    <row r="68" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="46"/>
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
@@ -3215,7 +3231,7 @@
       <c r="G68" s="45"/>
       <c r="H68" s="64"/>
     </row>
-    <row r="69" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="46" t="s">
         <v>14</v>
       </c>
@@ -3229,11 +3245,11 @@
         <v>6</v>
       </c>
       <c r="F69" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H69" s="64"/>
     </row>
-    <row r="70" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="46" t="s">
         <v>14</v>
       </c>
@@ -3252,7 +3268,7 @@
       <c r="G70" s="45"/>
       <c r="H70" s="64"/>
     </row>
-    <row r="71" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="46" t="s">
         <v>14</v>
       </c>
@@ -3266,11 +3282,11 @@
         <v>1</v>
       </c>
       <c r="F71" s="33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H71" s="64"/>
     </row>
-    <row r="72" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="46" t="s">
         <v>14</v>
       </c>
@@ -3284,38 +3300,52 @@
         <v>1</v>
       </c>
       <c r="F72" s="33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H72" s="64"/>
     </row>
-    <row r="73" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="33" t="s">
+      <c r="C73" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="33" t="s">
+      <c r="D73" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E73" s="34">
-        <v>1</v>
-      </c>
-      <c r="F73" s="33">
-        <v>1</v>
-      </c>
-      <c r="G73" s="45"/>
+      <c r="E73" s="61">
+        <v>1</v>
+      </c>
+      <c r="F73" s="46">
+        <v>1</v>
+      </c>
+      <c r="G73" s="45" t="s">
+        <v>256</v>
+      </c>
       <c r="H73" s="64"/>
     </row>
-    <row r="74" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="53"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="33"/>
-      <c r="H74" s="64"/>
-    </row>
-    <row r="75" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F74" s="33">
+        <v>0</v>
+      </c>
+      <c r="H74" s="67">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="46"/>
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
@@ -3324,7 +3354,7 @@
       <c r="G75" s="45"/>
       <c r="H75" s="64"/>
     </row>
-    <row r="76" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="46"/>
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
@@ -3332,7 +3362,7 @@
       <c r="F76" s="33"/>
       <c r="H76" s="64"/>
     </row>
-    <row r="77" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="46"/>
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
@@ -3341,7 +3371,7 @@
       <c r="G77" s="45"/>
       <c r="H77" s="64"/>
     </row>
-    <row r="78" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="46"/>
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
@@ -3349,7 +3379,7 @@
       <c r="F78" s="33"/>
       <c r="G78" s="45"/>
     </row>
-    <row r="79" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="48"/>
       <c r="C79" s="41"/>
       <c r="D79" s="41"/>
@@ -3358,7 +3388,7 @@
       <c r="G79" s="17"/>
       <c r="H79" s="64"/>
     </row>
-    <row r="80" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="42">
@@ -3367,12 +3397,12 @@
       </c>
       <c r="F80" s="43">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="64"/>
     </row>
-    <row r="81" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="16"/>
@@ -3380,7 +3410,7 @@
       <c r="G81" s="17"/>
       <c r="H81" s="64"/>
     </row>
-    <row r="82" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="16"/>
@@ -3388,7 +3418,7 @@
       <c r="G82" s="17"/>
       <c r="H82" s="64"/>
     </row>
-    <row r="83" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="15" t="s">
         <v>17</v>
       </c>
@@ -3400,7 +3430,7 @@
       <c r="G83" s="17"/>
       <c r="H83" s="64"/>
     </row>
-    <row r="84" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="16"/>
@@ -3408,7 +3438,7 @@
       <c r="G84" s="17"/>
       <c r="H84" s="64"/>
     </row>
-    <row r="85" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="20" t="s">
         <v>1</v>
       </c>
@@ -3427,7 +3457,7 @@
       <c r="G85" s="17"/>
       <c r="H85" s="64"/>
     </row>
-    <row r="86" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="26" t="s">
         <v>11</v>
       </c>
@@ -3448,7 +3478,7 @@
       </c>
       <c r="H86" s="64"/>
     </row>
-    <row r="87" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="49" t="s">
         <v>11</v>
       </c>
@@ -3462,14 +3492,14 @@
         <v>254</v>
       </c>
       <c r="F87" s="27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G87" s="50"/>
       <c r="H87" s="67">
         <v>45564</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="49"/>
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
@@ -3478,7 +3508,7 @@
       <c r="G88" s="17"/>
       <c r="H88" s="64"/>
     </row>
-    <row r="89" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="46" t="s">
         <v>12</v>
       </c>
@@ -3497,7 +3527,7 @@
       <c r="G89" s="45"/>
       <c r="H89" s="64"/>
     </row>
-    <row r="90" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="46" t="s">
         <v>12</v>
       </c>
@@ -3518,7 +3548,7 @@
       </c>
       <c r="H90" s="64"/>
     </row>
-    <row r="91" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="46" t="s">
         <v>12</v>
       </c>
@@ -3538,7 +3568,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="46" t="s">
         <v>13</v>
       </c>
@@ -3558,7 +3588,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="46" t="s">
         <v>13</v>
       </c>
@@ -3578,7 +3608,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="46" t="s">
         <v>13</v>
       </c>
@@ -3592,10 +3622,10 @@
         <v>33</v>
       </c>
       <c r="F94" s="33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="46" t="s">
         <v>13</v>
       </c>
@@ -3616,7 +3646,7 @@
       </c>
       <c r="H95" s="64"/>
     </row>
-    <row r="96" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="46" t="s">
         <v>13</v>
       </c>
@@ -3636,166 +3666,181 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="53"/>
+    <row r="97" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97" s="34">
+        <v>45</v>
+      </c>
+      <c r="F97" s="33">
+        <v>5</v>
+      </c>
       <c r="H97" s="64"/>
     </row>
-    <row r="98" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D98" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E98" s="34">
-        <v>45</v>
-      </c>
-      <c r="F98" s="33">
-        <v>5</v>
+      <c r="C98" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E98" s="61">
+        <v>1</v>
+      </c>
+      <c r="F98" s="46">
+        <v>0</v>
+      </c>
+      <c r="G98" s="45" t="s">
+        <v>256</v>
       </c>
       <c r="H98" s="64"/>
     </row>
-    <row r="99" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D99" s="46" t="s">
+      <c r="C99" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="D99" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E99" s="61">
-        <v>1</v>
-      </c>
-      <c r="F99" s="46">
+      <c r="E99" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F99" s="33">
+        <v>3</v>
+      </c>
+      <c r="H99" s="67">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D100" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E100" s="61">
+        <v>1</v>
+      </c>
+      <c r="F100" s="46">
+        <v>1</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="D101" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E101" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="F101" s="46">
         <v>0</v>
       </c>
-      <c r="G99" s="45" t="s">
+      <c r="G101" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="H99" s="64"/>
-    </row>
-    <row r="100" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="D100" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="E100" s="34" t="s">
+      <c r="H101" s="67">
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E102" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F100" s="33">
+      <c r="F102" s="33">
         <v>2</v>
       </c>
-      <c r="H100" s="67">
+      <c r="H102" s="67">
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D103" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E103" s="61">
+        <v>1</v>
+      </c>
+      <c r="F103" s="46">
+        <v>2</v>
+      </c>
+      <c r="G103" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H103" s="64"/>
+    </row>
+    <row r="104" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="D104" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="E104" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="F104" s="71">
+        <v>0</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H104" s="67">
         <v>45566</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D101" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="E101" s="61">
-        <v>1</v>
-      </c>
-      <c r="F101" s="46">
-        <v>1</v>
-      </c>
-      <c r="G101" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="D102" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="E102" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="F102" s="46">
-        <v>0</v>
-      </c>
-      <c r="G102" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="H102" s="67">
-        <v>45548</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="E103" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F103" s="33">
-        <v>2</v>
-      </c>
-      <c r="H103" s="67">
-        <v>45588</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C104" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="D104" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E104" s="61">
-        <v>1</v>
-      </c>
-      <c r="F104" s="46">
-        <v>2</v>
-      </c>
-      <c r="G104" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="H104" s="64"/>
-    </row>
-    <row r="105" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="46" t="s">
+    <row r="105" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>308</v>
+        <v>184</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="E105" s="34" t="s">
         <v>254</v>
@@ -3804,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="H105" s="67">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="48" t="s">
         <v>14</v>
       </c>
@@ -3821,12 +3866,12 @@
         <v>1</v>
       </c>
       <c r="F106" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G106" s="45"/>
       <c r="H106" s="64"/>
     </row>
-    <row r="107" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="42">
@@ -3835,11 +3880,11 @@
       </c>
       <c r="F107" s="43">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G107" s="17"/>
     </row>
-    <row r="108" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="16"/>
@@ -3847,7 +3892,7 @@
       <c r="G108" s="17"/>
       <c r="H108" s="64"/>
     </row>
-    <row r="109" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="16"/>
@@ -3855,7 +3900,7 @@
       <c r="G109" s="17"/>
       <c r="H109" s="64"/>
     </row>
-    <row r="110" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="15" t="s">
         <v>19</v>
       </c>
@@ -3867,7 +3912,7 @@
       <c r="G110" s="17"/>
       <c r="H110" s="64"/>
     </row>
-    <row r="111" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="16"/>
@@ -3875,7 +3920,7 @@
       <c r="G111" s="17"/>
       <c r="H111" s="64"/>
     </row>
-    <row r="112" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="20" t="s">
         <v>1</v>
       </c>
@@ -3894,7 +3939,7 @@
       <c r="G112" s="17"/>
       <c r="H112" s="64"/>
     </row>
-    <row r="113" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="26" t="s">
         <v>11</v>
       </c>
@@ -3908,12 +3953,12 @@
         <v>5</v>
       </c>
       <c r="F113" s="29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G113" s="50"/>
       <c r="H113" s="64"/>
     </row>
-    <row r="114" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="26"/>
       <c r="C114" s="27"/>
       <c r="D114" s="27"/>
@@ -3922,7 +3967,7 @@
       <c r="G114" s="50"/>
       <c r="H114" s="64"/>
     </row>
-    <row r="115" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="49"/>
       <c r="C115" s="27"/>
       <c r="D115" s="27"/>
@@ -3931,7 +3976,7 @@
       <c r="G115" s="17"/>
       <c r="H115" s="64"/>
     </row>
-    <row r="116" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="46" t="s">
         <v>12</v>
       </c>
@@ -3945,11 +3990,11 @@
         <v>3</v>
       </c>
       <c r="F116" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H116" s="64"/>
     </row>
-    <row r="117" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="46" t="s">
         <v>12</v>
       </c>
@@ -3968,7 +4013,7 @@
       <c r="G117" s="45"/>
       <c r="H117" s="64"/>
     </row>
-    <row r="118" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="46"/>
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
@@ -3977,7 +4022,7 @@
       <c r="G118" s="45"/>
       <c r="H118" s="64"/>
     </row>
-    <row r="119" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="46" t="s">
         <v>13</v>
       </c>
@@ -3998,7 +4043,7 @@
       </c>
       <c r="H119" s="64"/>
     </row>
-    <row r="120" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="46" t="s">
         <v>13</v>
       </c>
@@ -4021,7 +4066,7 @@
         <v>45551</v>
       </c>
     </row>
-    <row r="121" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="46" t="s">
         <v>13</v>
       </c>
@@ -4035,13 +4080,13 @@
         <v>254</v>
       </c>
       <c r="F121" s="33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H121" s="67">
         <v>45592</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="46" t="s">
         <v>13</v>
       </c>
@@ -4061,7 +4106,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="46" t="s">
         <v>13</v>
       </c>
@@ -4081,7 +4126,7 @@
         <v>45529</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="46" t="s">
         <v>13</v>
       </c>
@@ -4095,10 +4140,10 @@
         <v>1</v>
       </c>
       <c r="F124" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="46"/>
       <c r="C125" s="33"/>
       <c r="D125" s="33"/>
@@ -4106,7 +4151,7 @@
       <c r="F125" s="33"/>
       <c r="H125" s="64"/>
     </row>
-    <row r="126" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="46" t="s">
         <v>14</v>
       </c>
@@ -4124,7 +4169,7 @@
       </c>
       <c r="H126" s="64"/>
     </row>
-    <row r="127" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="46" t="s">
         <v>14</v>
       </c>
@@ -4138,11 +4183,11 @@
         <v>15</v>
       </c>
       <c r="F127" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H127" s="64"/>
     </row>
-    <row r="128" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="46" t="s">
         <v>14</v>
       </c>
@@ -4161,7 +4206,7 @@
       <c r="G128" s="45"/>
       <c r="H128" s="64"/>
     </row>
-    <row r="129" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="46" t="s">
         <v>14</v>
       </c>
@@ -4182,7 +4227,7 @@
       </c>
       <c r="H129" s="64"/>
     </row>
-    <row r="130" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="46" t="s">
         <v>14</v>
       </c>
@@ -4196,13 +4241,13 @@
         <v>254</v>
       </c>
       <c r="F130" s="33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H130" s="67">
         <v>45563</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="46" t="s">
         <v>14</v>
       </c>
@@ -4223,7 +4268,7 @@
       </c>
       <c r="H131" s="64"/>
     </row>
-    <row r="132" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="46" t="s">
         <v>14</v>
       </c>
@@ -4243,7 +4288,7 @@
         <v>45556</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="48"/>
       <c r="C133" s="41"/>
       <c r="D133" s="41"/>
@@ -4252,7 +4297,7 @@
       <c r="G133" s="17"/>
       <c r="H133" s="64"/>
     </row>
-    <row r="134" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
       <c r="E134" s="42">
@@ -4261,12 +4306,12 @@
       </c>
       <c r="F134" s="43">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G134" s="17"/>
       <c r="H134" s="64"/>
     </row>
-    <row r="135" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="16"/>
@@ -4274,7 +4319,7 @@
       <c r="G135" s="17"/>
       <c r="H135" s="64"/>
     </row>
-    <row r="136" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
       <c r="E136" s="16"/>
@@ -4282,7 +4327,7 @@
       <c r="G136" s="17"/>
       <c r="H136" s="64"/>
     </row>
-    <row r="137" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="15" t="s">
         <v>21</v>
       </c>
@@ -4294,7 +4339,7 @@
       <c r="G137" s="17"/>
       <c r="H137" s="64"/>
     </row>
-    <row r="138" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
       <c r="E138" s="16"/>
@@ -4302,7 +4347,7 @@
       <c r="G138" s="17"/>
       <c r="H138" s="64"/>
     </row>
-    <row r="139" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="20" t="s">
         <v>1</v>
       </c>
@@ -4321,7 +4366,7 @@
       <c r="G139" s="50"/>
       <c r="H139" s="64"/>
     </row>
-    <row r="140" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="26" t="s">
         <v>11</v>
       </c>
@@ -4342,7 +4387,7 @@
       </c>
       <c r="H140" s="64"/>
     </row>
-    <row r="141" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="49" t="s">
         <v>11</v>
       </c>
@@ -4363,7 +4408,7 @@
         <v>45529</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="49"/>
       <c r="C142" s="27"/>
       <c r="D142" s="27"/>
@@ -4372,7 +4417,7 @@
       <c r="G142" s="45"/>
       <c r="H142" s="64"/>
     </row>
-    <row r="143" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="46" t="s">
         <v>12</v>
       </c>
@@ -4390,7 +4435,7 @@
       </c>
       <c r="H143" s="64"/>
     </row>
-    <row r="144" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="46" t="s">
         <v>12</v>
       </c>
@@ -4408,7 +4453,7 @@
       </c>
       <c r="H144" s="64"/>
     </row>
-    <row r="145" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="46"/>
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
@@ -4416,284 +4461,298 @@
       <c r="F145" s="33"/>
       <c r="H145" s="64"/>
     </row>
-    <row r="146" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C146" s="33" t="s">
+      <c r="C146" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D146" s="33" t="s">
+      <c r="D146" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E146" s="34">
-        <v>1</v>
-      </c>
-      <c r="F146" s="33">
+      <c r="E146" s="61">
+        <v>1</v>
+      </c>
+      <c r="F146" s="46">
         <v>2</v>
       </c>
-      <c r="G146" s="45"/>
+      <c r="G146" s="45" t="s">
+        <v>256</v>
+      </c>
       <c r="H146" s="64"/>
     </row>
-    <row r="147" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>123</v>
+        <v>316</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E147" s="34">
-        <v>1</v>
+        <v>287</v>
+      </c>
+      <c r="E147" s="34" t="s">
+        <v>254</v>
       </c>
       <c r="F147" s="33">
-        <v>5</v>
-      </c>
-      <c r="H147" s="64"/>
-    </row>
-    <row r="148" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H147" s="67">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C148" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D148" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="E148" s="61">
-        <v>1</v>
-      </c>
-      <c r="F148" s="46">
-        <v>1</v>
-      </c>
-      <c r="G148" s="14" t="s">
-        <v>256</v>
+      <c r="C148" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D148" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E148" s="34">
+        <v>1</v>
+      </c>
+      <c r="F148" s="33">
+        <v>5</v>
       </c>
       <c r="H148" s="64"/>
     </row>
-    <row r="149" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C149" s="33" t="s">
+      <c r="C149" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D149" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E149" s="61">
+        <v>1</v>
+      </c>
+      <c r="F149" s="46">
+        <v>1</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H149" s="64"/>
+    </row>
+    <row r="150" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="D149" s="33" t="s">
+      <c r="D150" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="E149" s="34" t="s">
+      <c r="E150" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F149" s="33">
-        <v>1</v>
-      </c>
-      <c r="H149" s="67">
+      <c r="F150" s="33">
+        <v>1</v>
+      </c>
+      <c r="H150" s="67">
         <v>45564</v>
       </c>
     </row>
-    <row r="150" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="53"/>
-      <c r="C150" s="53"/>
-      <c r="D150" s="53"/>
-      <c r="E150" s="60"/>
-      <c r="F150" s="53"/>
-    </row>
-    <row r="151" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C151" s="33" t="s">
+    <row r="151" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="53"/>
+      <c r="C151" s="53"/>
+      <c r="D151" s="53"/>
+      <c r="E151" s="60"/>
+      <c r="F151" s="53"/>
+    </row>
+    <row r="152" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D151" s="33" t="s">
+      <c r="D152" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E151" s="34">
+      <c r="E152" s="34">
         <v>80</v>
       </c>
-      <c r="F151" s="33">
-        <v>14</v>
-      </c>
-      <c r="G151" s="45"/>
-      <c r="H151" s="64"/>
-    </row>
-    <row r="152" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C152" s="46" t="s">
+      <c r="F152" s="33">
+        <v>17</v>
+      </c>
+      <c r="G152" s="45"/>
+      <c r="H152" s="64"/>
+    </row>
+    <row r="153" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="D152" s="46" t="s">
+      <c r="D153" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="E152" s="61">
+      <c r="E153" s="61">
         <v>2</v>
       </c>
-      <c r="F152" s="46">
+      <c r="F153" s="46">
         <v>0</v>
       </c>
-      <c r="G152" s="14" t="s">
+      <c r="G153" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="H152" s="64"/>
-    </row>
-    <row r="153" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C153" s="46" t="s">
+      <c r="H153" s="64"/>
+    </row>
+    <row r="154" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="D153" s="46" t="s">
+      <c r="D154" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="E153" s="61" t="s">
+      <c r="E154" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="F153" s="46">
-        <v>1</v>
-      </c>
-      <c r="G153" s="45" t="s">
+      <c r="F154" s="46">
+        <v>1</v>
+      </c>
+      <c r="G154" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="H153" s="67">
+      <c r="H154" s="67">
         <v>45552</v>
       </c>
     </row>
-    <row r="154" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C154" s="33" t="s">
+    <row r="155" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="D154" s="33" t="s">
+      <c r="D155" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E154" s="34" t="s">
+      <c r="E155" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F154" s="33">
-        <v>0</v>
-      </c>
-      <c r="H154" s="67">
+      <c r="F155" s="33">
+        <v>4</v>
+      </c>
+      <c r="H155" s="67">
         <v>45592</v>
       </c>
     </row>
-    <row r="155" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C155" s="46" t="s">
+    <row r="156" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D155" s="46" t="s">
+      <c r="D156" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="E155" s="61">
-        <v>1</v>
-      </c>
-      <c r="F155" s="46">
+      <c r="E156" s="61">
+        <v>1</v>
+      </c>
+      <c r="F156" s="46">
         <v>2</v>
       </c>
-      <c r="G155" s="45" t="s">
+      <c r="G156" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="H155" s="67"/>
-    </row>
-    <row r="156" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C156" s="33" t="s">
+      <c r="H156" s="67"/>
+    </row>
+    <row r="157" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D156" s="33" t="s">
+      <c r="D157" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E156" s="34" t="s">
+      <c r="E157" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F156" s="33">
+      <c r="F157" s="33">
         <v>5</v>
       </c>
-      <c r="H156" s="67">
+      <c r="H157" s="67">
         <v>45552</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C157" s="46" t="s">
+    <row r="158" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D157" s="46" t="s">
+      <c r="D158" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="E157" s="61">
+      <c r="E158" s="61">
         <v>6</v>
       </c>
-      <c r="F157" s="46">
-        <v>1</v>
-      </c>
-      <c r="G157" s="45" t="s">
+      <c r="F158" s="46">
+        <v>1</v>
+      </c>
+      <c r="G158" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="H157" s="67"/>
-    </row>
-    <row r="158" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C158" s="33" t="s">
+      <c r="H158" s="67"/>
+    </row>
+    <row r="159" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="D158" s="33" t="s">
+      <c r="D159" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="E158" s="34" t="s">
+      <c r="E159" s="34" t="s">
         <v>254</v>
-      </c>
-      <c r="F158" s="33">
-        <v>5</v>
-      </c>
-      <c r="H158" s="67">
-        <v>45564</v>
-      </c>
-    </row>
-    <row r="159" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C159" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D159" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E159" s="34">
-        <v>1</v>
       </c>
       <c r="F159" s="33">
         <v>9</v>
       </c>
-      <c r="H159" s="64"/>
-    </row>
-    <row r="160" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="48"/>
-      <c r="C160" s="41"/>
-      <c r="D160" s="41"/>
-      <c r="E160" s="28"/>
-      <c r="F160" s="29"/>
+      <c r="H159" s="67">
+        <v>45564</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D160" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E160" s="28">
+        <v>1</v>
+      </c>
+      <c r="F160" s="29">
+        <v>10</v>
+      </c>
       <c r="G160" s="17"/>
       <c r="H160" s="64"/>
     </row>
-    <row r="161" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
       <c r="E161" s="42">
@@ -4702,12 +4761,12 @@
       </c>
       <c r="F161" s="43">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="64"/>
     </row>
-    <row r="162" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
       <c r="E162" s="16"/>
@@ -4715,7 +4774,7 @@
       <c r="G162" s="17"/>
       <c r="H162" s="64"/>
     </row>
-    <row r="163" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
       <c r="E163" s="16"/>
@@ -4723,7 +4782,7 @@
       <c r="G163" s="17"/>
       <c r="H163" s="64"/>
     </row>
-    <row r="164" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C164" s="15" t="s">
         <v>38</v>
       </c>
@@ -4735,7 +4794,7 @@
       <c r="G164" s="17"/>
       <c r="H164" s="64"/>
     </row>
-    <row r="165" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
       <c r="E165" s="16"/>
@@ -4743,7 +4802,7 @@
       <c r="G165" s="17"/>
       <c r="H165" s="64"/>
     </row>
-    <row r="166" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="20" t="s">
         <v>1</v>
       </c>
@@ -4762,7 +4821,7 @@
       <c r="G166" s="50"/>
       <c r="H166" s="64"/>
     </row>
-    <row r="167" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="26" t="s">
         <v>11</v>
       </c>
@@ -4776,12 +4835,12 @@
         <v>7</v>
       </c>
       <c r="F167" s="29">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G167" s="50"/>
       <c r="H167" s="64"/>
     </row>
-    <row r="168" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="26"/>
       <c r="C168" s="27"/>
       <c r="D168" s="27"/>
@@ -4790,7 +4849,7 @@
       <c r="G168" s="50"/>
       <c r="H168" s="64"/>
     </row>
-    <row r="169" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="49"/>
       <c r="C169" s="27"/>
       <c r="D169" s="27"/>
@@ -4799,7 +4858,7 @@
       <c r="G169" s="47"/>
       <c r="H169" s="64"/>
     </row>
-    <row r="170" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="46" t="s">
         <v>12</v>
       </c>
@@ -4817,7 +4876,7 @@
       </c>
       <c r="H170" s="64"/>
     </row>
-    <row r="171" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="46" t="s">
         <v>12</v>
       </c>
@@ -4831,12 +4890,12 @@
         <v>1</v>
       </c>
       <c r="F171" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G171" s="45"/>
       <c r="H171" s="64"/>
     </row>
-    <row r="172" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="46"/>
       <c r="C172" s="33"/>
       <c r="D172" s="33"/>
@@ -4845,223 +4904,251 @@
       <c r="G172" s="45"/>
       <c r="H172" s="64"/>
     </row>
-    <row r="173" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C173" s="33" t="s">
+      <c r="C173" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="D173" s="33" t="s">
+      <c r="D173" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E173" s="34">
+      <c r="E173" s="61">
         <v>9</v>
       </c>
-      <c r="F173" s="33">
-        <v>1</v>
-      </c>
-      <c r="G173" s="45"/>
+      <c r="F173" s="46">
+        <v>1</v>
+      </c>
+      <c r="G173" s="45" t="s">
+        <v>256</v>
+      </c>
       <c r="H173" s="64"/>
     </row>
-    <row r="174" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C174" s="33" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="D174" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E174" s="34">
-        <v>15</v>
+        <v>108</v>
+      </c>
+      <c r="E174" s="34" t="s">
+        <v>254</v>
       </c>
       <c r="F174" s="33">
-        <v>7</v>
-      </c>
-      <c r="H174" s="64"/>
-    </row>
-    <row r="175" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H174" s="67">
+        <v>45601</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C175" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D175" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E175" s="61">
-        <v>1</v>
-      </c>
-      <c r="F175" s="46">
-        <v>0</v>
-      </c>
-      <c r="G175" s="45" t="s">
-        <v>256</v>
+      <c r="C175" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D175" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E175" s="34">
+        <v>15</v>
+      </c>
+      <c r="F175" s="33">
+        <v>9</v>
       </c>
       <c r="H175" s="64"/>
     </row>
-    <row r="176" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C176" s="33" t="s">
+      <c r="C176" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D176" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E176" s="61">
+        <v>1</v>
+      </c>
+      <c r="F176" s="46">
+        <v>0</v>
+      </c>
+      <c r="G176" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H176" s="64"/>
+    </row>
+    <row r="177" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="D176" s="33" t="s">
+      <c r="D177" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="E176" s="34" t="s">
+      <c r="E177" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F176" s="33">
+      <c r="F177" s="33">
         <v>2</v>
       </c>
-      <c r="H176" s="67">
+      <c r="H177" s="67">
         <v>45526</v>
       </c>
     </row>
-    <row r="177" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="53"/>
-      <c r="C177" s="53"/>
-      <c r="D177" s="53"/>
-      <c r="E177" s="60"/>
-      <c r="F177" s="53"/>
-      <c r="H177" s="64"/>
-    </row>
-    <row r="178" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C178" s="33" t="s">
+    <row r="178" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="53"/>
+      <c r="C178" s="53"/>
+      <c r="D178" s="53"/>
+      <c r="E178" s="60"/>
+      <c r="F178" s="53"/>
+      <c r="H178" s="64"/>
+    </row>
+    <row r="179" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="D178" s="33" t="s">
+      <c r="D179" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="E178" s="34">
+      <c r="E179" s="34">
         <v>3</v>
       </c>
-      <c r="F178" s="33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C179" s="33" t="s">
+      <c r="F179" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D179" s="33" t="s">
+      <c r="D180" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E179" s="34">
+      <c r="E180" s="61">
         <v>4</v>
       </c>
-      <c r="F179" s="33">
+      <c r="F180" s="46">
         <v>2</v>
       </c>
-      <c r="H179" s="64"/>
-    </row>
-    <row r="180" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C180" s="33" t="s">
+      <c r="G180" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H180" s="64"/>
+    </row>
+    <row r="181" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="D181" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="E181" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F181" s="33">
+        <v>1</v>
+      </c>
+      <c r="H181" s="67">
+        <v>45601</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="D180" s="33" t="s">
+      <c r="D182" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="E180" s="34">
+      <c r="E182" s="34">
         <v>5</v>
       </c>
-      <c r="F180" s="33">
-        <v>9</v>
-      </c>
-      <c r="G180" s="45"/>
-      <c r="H180" s="64"/>
-    </row>
-    <row r="181" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C181" s="33" t="s">
+      <c r="F182" s="33">
+        <v>10</v>
+      </c>
+      <c r="G182" s="45"/>
+      <c r="H182" s="64"/>
+    </row>
+    <row r="183" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="D181" s="33" t="s">
+      <c r="D183" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="E181" s="34">
+      <c r="E183" s="34">
         <v>38</v>
       </c>
-      <c r="F181" s="33">
+      <c r="F183" s="33">
+        <v>7</v>
+      </c>
+      <c r="H183" s="64"/>
+    </row>
+    <row r="184" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D184" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E184" s="61">
+        <v>10</v>
+      </c>
+      <c r="F184" s="46">
         <v>2</v>
       </c>
-      <c r="H181" s="64"/>
-    </row>
-    <row r="182" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C182" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D182" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="E182" s="61">
-        <v>10</v>
-      </c>
-      <c r="F182" s="46">
-        <v>2</v>
-      </c>
-      <c r="G182" s="14" t="s">
+      <c r="G184" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="H182" s="64"/>
-    </row>
-    <row r="183" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C183" s="33" t="s">
+      <c r="H184" s="64"/>
+    </row>
+    <row r="185" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="D183" s="33" t="s">
+      <c r="D185" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="E183" s="34" t="s">
+      <c r="E185" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F183" s="33">
+      <c r="F185" s="33">
         <v>3</v>
       </c>
-      <c r="H183" s="67">
+      <c r="H185" s="67">
         <v>45565</v>
       </c>
     </row>
-    <row r="184" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="46"/>
-      <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="34"/>
-      <c r="F184" s="33"/>
-      <c r="H184" s="64"/>
-    </row>
-    <row r="185" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="46"/>
-      <c r="C185" s="33"/>
-      <c r="D185" s="33"/>
-      <c r="E185" s="34"/>
-      <c r="F185" s="33"/>
-      <c r="G185" s="45"/>
-      <c r="H185" s="64"/>
-    </row>
-    <row r="186" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="46"/>
       <c r="C186" s="33"/>
       <c r="D186" s="33"/>
@@ -5069,7 +5156,7 @@
       <c r="F186" s="33"/>
       <c r="H186" s="64"/>
     </row>
-    <row r="187" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B187" s="48"/>
       <c r="C187" s="41"/>
       <c r="D187" s="41"/>
@@ -5078,7 +5165,7 @@
       <c r="G187" s="17"/>
       <c r="H187" s="64"/>
     </row>
-    <row r="188" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
       <c r="E188" s="42">
@@ -5087,12 +5174,12 @@
       </c>
       <c r="F188" s="43">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G188" s="17"/>
       <c r="H188" s="64"/>
     </row>
-    <row r="189" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="16"/>
@@ -5100,7 +5187,7 @@
       <c r="G189" s="17"/>
       <c r="H189" s="64"/>
     </row>
-    <row r="190" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
       <c r="E190" s="16"/>
@@ -5108,7 +5195,7 @@
       <c r="G190" s="17"/>
       <c r="H190" s="64"/>
     </row>
-    <row r="191" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C191" s="15" t="s">
         <v>42</v>
       </c>
@@ -5120,7 +5207,7 @@
       <c r="G191" s="17"/>
       <c r="H191" s="64"/>
     </row>
-    <row r="192" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C192" s="15"/>
       <c r="D192" s="15"/>
       <c r="E192" s="16"/>
@@ -5128,7 +5215,7 @@
       <c r="G192" s="17"/>
       <c r="H192" s="64"/>
     </row>
-    <row r="193" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B193" s="20" t="s">
         <v>1</v>
       </c>
@@ -5147,7 +5234,7 @@
       <c r="G193" s="50"/>
       <c r="H193" s="64"/>
     </row>
-    <row r="194" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="26" t="s">
         <v>11</v>
       </c>
@@ -5161,12 +5248,12 @@
         <v>4</v>
       </c>
       <c r="F194" s="29">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G194" s="50"/>
       <c r="H194" s="64"/>
     </row>
-    <row r="195" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="26"/>
       <c r="C195" s="27"/>
       <c r="D195" s="27"/>
@@ -5175,7 +5262,7 @@
       <c r="G195" s="17"/>
       <c r="H195" s="64"/>
     </row>
-    <row r="196" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="49"/>
       <c r="C196" s="27"/>
       <c r="D196" s="27"/>
@@ -5184,7 +5271,7 @@
       <c r="G196" s="45"/>
       <c r="H196" s="64"/>
     </row>
-    <row r="197" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="46" t="s">
         <v>12</v>
       </c>
@@ -5205,7 +5292,7 @@
       </c>
       <c r="H197" s="64"/>
     </row>
-    <row r="198" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="46" t="s">
         <v>12</v>
       </c>
@@ -5219,13 +5306,13 @@
         <v>254</v>
       </c>
       <c r="F198" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H198" s="67">
         <v>45564</v>
       </c>
     </row>
-    <row r="199" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="46" t="s">
         <v>12</v>
       </c>
@@ -5244,7 +5331,7 @@
       <c r="G199" s="45"/>
       <c r="H199" s="64"/>
     </row>
-    <row r="200" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="46"/>
       <c r="C200" s="33"/>
       <c r="D200" s="33"/>
@@ -5253,7 +5340,7 @@
       <c r="G200" s="45"/>
       <c r="H200" s="64"/>
     </row>
-    <row r="201" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="46" t="s">
         <v>13</v>
       </c>
@@ -5267,11 +5354,11 @@
         <v>23</v>
       </c>
       <c r="F201" s="33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H201" s="64"/>
     </row>
-    <row r="202" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="46" t="s">
         <v>13</v>
       </c>
@@ -5285,12 +5372,12 @@
         <v>1</v>
       </c>
       <c r="F202" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G202" s="45"/>
       <c r="H202" s="64"/>
     </row>
-    <row r="203" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="46" t="s">
         <v>13</v>
       </c>
@@ -5311,7 +5398,7 @@
       </c>
       <c r="H203" s="64"/>
     </row>
-    <row r="204" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="46" t="s">
         <v>13</v>
       </c>
@@ -5332,7 +5419,7 @@
         <v>45515</v>
       </c>
     </row>
-    <row r="205" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="53"/>
       <c r="C205" s="53"/>
       <c r="D205" s="53"/>
@@ -5340,7 +5427,7 @@
       <c r="F205" s="53"/>
       <c r="H205" s="64"/>
     </row>
-    <row r="206" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="46" t="s">
         <v>14</v>
       </c>
@@ -5354,12 +5441,12 @@
         <v>13</v>
       </c>
       <c r="F206" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G206" s="45"/>
       <c r="H206" s="64"/>
     </row>
-    <row r="207" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="46" t="s">
         <v>14</v>
       </c>
@@ -5373,11 +5460,11 @@
         <v>4</v>
       </c>
       <c r="F207" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H207" s="64"/>
     </row>
-    <row r="208" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="46" t="s">
         <v>14</v>
       </c>
@@ -5395,7 +5482,7 @@
       </c>
       <c r="H208" s="64"/>
     </row>
-    <row r="209" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="46" t="s">
         <v>14</v>
       </c>
@@ -5409,11 +5496,11 @@
         <v>16</v>
       </c>
       <c r="F209" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G209" s="45"/>
     </row>
-    <row r="210" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="46" t="s">
         <v>14</v>
       </c>
@@ -5434,7 +5521,7 @@
       </c>
       <c r="H210" s="64"/>
     </row>
-    <row r="211" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="46" t="s">
         <v>14</v>
       </c>
@@ -5454,7 +5541,7 @@
         <v>45535</v>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="46"/>
       <c r="C212" s="33"/>
       <c r="D212" s="33"/>
@@ -5462,7 +5549,7 @@
       <c r="F212" s="33"/>
       <c r="H212" s="64"/>
     </row>
-    <row r="213" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="46"/>
       <c r="C213" s="33"/>
       <c r="D213" s="33"/>
@@ -5471,7 +5558,7 @@
       <c r="G213" s="45"/>
       <c r="H213" s="64"/>
     </row>
-    <row r="214" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="48"/>
       <c r="C214" s="41"/>
       <c r="D214" s="41"/>
@@ -5480,7 +5567,7 @@
       <c r="G214" s="17"/>
       <c r="H214" s="64"/>
     </row>
-    <row r="215" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C215" s="15"/>
       <c r="D215" s="15"/>
       <c r="E215" s="42">
@@ -5489,12 +5576,12 @@
       </c>
       <c r="F215" s="43">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G215" s="17"/>
       <c r="H215" s="64"/>
     </row>
-    <row r="216" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C216" s="15"/>
       <c r="D216" s="15"/>
       <c r="E216" s="16"/>
@@ -5502,7 +5589,7 @@
       <c r="G216" s="17"/>
       <c r="H216" s="64"/>
     </row>
-    <row r="217" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C217" s="15"/>
       <c r="D217" s="15"/>
       <c r="E217" s="16"/>
@@ -5510,7 +5597,7 @@
       <c r="G217" s="17"/>
       <c r="H217" s="64"/>
     </row>
-    <row r="218" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C218" s="15" t="s">
         <v>43</v>
       </c>
@@ -5522,7 +5609,7 @@
       <c r="G218" s="17"/>
       <c r="H218" s="64"/>
     </row>
-    <row r="219" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C219" s="15"/>
       <c r="D219" s="15"/>
       <c r="E219" s="16"/>
@@ -5530,7 +5617,7 @@
       <c r="G219" s="17"/>
       <c r="H219" s="64"/>
     </row>
-    <row r="220" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B220" s="20" t="s">
         <v>1</v>
       </c>
@@ -5549,7 +5636,7 @@
       <c r="G220" s="50"/>
       <c r="H220" s="64"/>
     </row>
-    <row r="221" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="26" t="s">
         <v>11</v>
       </c>
@@ -5563,12 +5650,12 @@
         <v>1</v>
       </c>
       <c r="F221" s="29">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G221" s="50"/>
       <c r="H221" s="64"/>
     </row>
-    <row r="222" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="26"/>
       <c r="C222" s="27"/>
       <c r="D222" s="27"/>
@@ -5577,7 +5664,7 @@
       <c r="G222" s="50"/>
       <c r="H222" s="64"/>
     </row>
-    <row r="223" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="49"/>
       <c r="C223" s="27"/>
       <c r="D223" s="27"/>
@@ -5586,7 +5673,7 @@
       <c r="G223" s="45"/>
       <c r="H223" s="64"/>
     </row>
-    <row r="224" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="46" t="s">
         <v>12</v>
       </c>
@@ -5604,7 +5691,7 @@
       </c>
       <c r="H224" s="64"/>
     </row>
-    <row r="225" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="46" t="s">
         <v>12</v>
       </c>
@@ -5623,7 +5710,7 @@
       <c r="G225" s="45"/>
       <c r="H225" s="64"/>
     </row>
-    <row r="226" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="46"/>
       <c r="C226" s="33"/>
       <c r="D226" s="33"/>
@@ -5631,7 +5718,7 @@
       <c r="F226" s="33"/>
       <c r="H226" s="64"/>
     </row>
-    <row r="227" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="46" t="s">
         <v>13</v>
       </c>
@@ -5652,7 +5739,7 @@
       </c>
       <c r="H227" s="64"/>
     </row>
-    <row r="228" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="46" t="s">
         <v>13</v>
       </c>
@@ -5675,7 +5762,7 @@
         <v>45529</v>
       </c>
     </row>
-    <row r="229" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="46" t="s">
         <v>13</v>
       </c>
@@ -5695,7 +5782,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="230" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="46" t="s">
         <v>13</v>
       </c>
@@ -5716,7 +5803,7 @@
       </c>
       <c r="H230" s="64"/>
     </row>
-    <row r="231" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="46" t="s">
         <v>13</v>
       </c>
@@ -5736,7 +5823,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="232" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="46" t="s">
         <v>13</v>
       </c>
@@ -5757,7 +5844,7 @@
       </c>
       <c r="H232" s="64"/>
     </row>
-    <row r="233" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="46" t="s">
         <v>13</v>
       </c>
@@ -5771,21 +5858,21 @@
         <v>254</v>
       </c>
       <c r="F233" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233" s="45"/>
       <c r="H233" s="67">
         <v>45590</v>
       </c>
     </row>
-    <row r="234" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="53"/>
       <c r="C234" s="53"/>
       <c r="D234" s="53"/>
       <c r="E234" s="60"/>
       <c r="F234" s="53"/>
     </row>
-    <row r="235" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="46" t="s">
         <v>14</v>
       </c>
@@ -5802,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="46" t="s">
         <v>14</v>
       </c>
@@ -5822,7 +5909,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="237" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="46" t="s">
         <v>14</v>
       </c>
@@ -5842,7 +5929,7 @@
         <v>45529</v>
       </c>
     </row>
-    <row r="238" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="46" t="s">
         <v>14</v>
       </c>
@@ -5861,7 +5948,7 @@
       <c r="G238" s="45"/>
       <c r="H238" s="64"/>
     </row>
-    <row r="239" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="46" t="s">
         <v>14</v>
       </c>
@@ -5879,7 +5966,7 @@
       </c>
       <c r="H239" s="64"/>
     </row>
-    <row r="240" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="46" t="s">
         <v>14</v>
       </c>
@@ -5899,7 +5986,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="241" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B241" s="48" t="s">
         <v>14</v>
       </c>
@@ -5913,14 +6000,14 @@
         <v>254</v>
       </c>
       <c r="F241" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G241" s="17"/>
       <c r="H241" s="67">
         <v>45529</v>
       </c>
     </row>
-    <row r="242" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C242" s="15"/>
       <c r="D242" s="15"/>
       <c r="E242" s="42">
@@ -5934,17 +6021,17 @@
       <c r="G242" s="17"/>
       <c r="H242" s="64"/>
     </row>
-    <row r="243" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C243" s="15"/>
       <c r="D243" s="15"/>
       <c r="E243" s="16"/>
       <c r="F243" s="15"/>
       <c r="H243" s="64"/>
     </row>
-    <row r="244" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G244" s="17"/>
     </row>
-    <row r="245" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C245" s="15" t="s">
         <v>31</v>
       </c>
@@ -5955,14 +6042,14 @@
       <c r="F245" s="15"/>
       <c r="G245" s="17"/>
     </row>
-    <row r="246" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C246" s="15"/>
       <c r="D246" s="15"/>
       <c r="E246" s="16"/>
       <c r="F246" s="15"/>
       <c r="G246" s="17"/>
     </row>
-    <row r="247" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B247" s="20" t="s">
         <v>1</v>
       </c>
@@ -5980,7 +6067,7 @@
       </c>
       <c r="G247" s="50"/>
     </row>
-    <row r="248" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="26" t="s">
         <v>11</v>
       </c>
@@ -5994,11 +6081,11 @@
         <v>8</v>
       </c>
       <c r="F248" s="29">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G248" s="50"/>
     </row>
-    <row r="249" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="26"/>
       <c r="C249" s="27"/>
       <c r="D249" s="27"/>
@@ -6006,7 +6093,7 @@
       <c r="F249" s="27"/>
       <c r="G249" s="50"/>
     </row>
-    <row r="250" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="49"/>
       <c r="C250" s="27"/>
       <c r="D250" s="27"/>
@@ -6014,7 +6101,7 @@
       <c r="F250" s="27"/>
       <c r="G250" s="45"/>
     </row>
-    <row r="251" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="46" t="s">
         <v>12</v>
       </c>
@@ -6032,7 +6119,7 @@
       </c>
       <c r="G251" s="45"/>
     </row>
-    <row r="252" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="46" t="s">
         <v>12</v>
       </c>
@@ -6049,14 +6136,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="46"/>
       <c r="C253" s="33"/>
       <c r="D253" s="33"/>
       <c r="E253" s="34"/>
       <c r="F253" s="33"/>
     </row>
-    <row r="254" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="46" t="s">
         <v>13</v>
       </c>
@@ -6070,11 +6157,11 @@
         <v>15</v>
       </c>
       <c r="F254" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G254" s="45"/>
     </row>
-    <row r="255" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="46" t="s">
         <v>13</v>
       </c>
@@ -6091,155 +6178,187 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C256" s="33" t="s">
+      <c r="C256" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="D256" s="33" t="s">
+      <c r="D256" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="E256" s="34">
-        <v>1</v>
-      </c>
-      <c r="F256" s="33">
+      <c r="E256" s="72">
+        <v>1</v>
+      </c>
+      <c r="F256" s="71">
         <v>2</v>
       </c>
-    </row>
-    <row r="257" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B257" s="46"/>
-      <c r="C257" s="33"/>
-      <c r="D257" s="33"/>
-      <c r="E257" s="34"/>
-      <c r="F257" s="33"/>
-    </row>
-    <row r="258" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C258" s="33" t="s">
+      <c r="G256" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C257" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="D257" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E257" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F257" s="33">
+        <v>0</v>
+      </c>
+      <c r="H257" s="67">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="53"/>
+      <c r="C258" s="53"/>
+      <c r="D258" s="53"/>
+      <c r="E258" s="60"/>
+      <c r="F258" s="53"/>
+    </row>
+    <row r="259" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C259" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="D258" s="33" t="s">
+      <c r="D259" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="E258" s="34">
+      <c r="E259" s="34">
         <v>30</v>
       </c>
-      <c r="F258" s="33">
+      <c r="F259" s="33">
+        <v>6</v>
+      </c>
+      <c r="G259" s="45"/>
+    </row>
+    <row r="260" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D260" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E260" s="61">
+        <v>9</v>
+      </c>
+      <c r="F260" s="46">
+        <v>0</v>
+      </c>
+      <c r="G260" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C261" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D261" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E261" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F261" s="33">
+        <v>7</v>
+      </c>
+      <c r="H261" s="67">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C262" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D262" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="E262" s="72">
+        <v>3</v>
+      </c>
+      <c r="F262" s="71">
         <v>5</v>
       </c>
-      <c r="G258" s="45"/>
-    </row>
-    <row r="259" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C259" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="D259" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="E259" s="61">
-        <v>9</v>
-      </c>
-      <c r="F259" s="46">
+      <c r="G262" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H262" s="67"/>
+    </row>
+    <row r="263" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C263" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="D263" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E263" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F263" s="33">
         <v>0</v>
       </c>
-      <c r="G259" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="260" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C260" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D260" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E260" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F260" s="33">
+      <c r="H263" s="67">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D264" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E264" s="34">
+        <v>2</v>
+      </c>
+      <c r="F264" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C265" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D265" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E265" s="34">
+        <v>1</v>
+      </c>
+      <c r="F265" s="33">
         <v>4</v>
       </c>
-      <c r="H260" s="67">
-        <v>45534</v>
-      </c>
-    </row>
-    <row r="261" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C261" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="D261" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="E261" s="34">
-        <v>3</v>
-      </c>
-      <c r="F261" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="262" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C262" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D262" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="E262" s="34">
-        <v>2</v>
-      </c>
-      <c r="F262" s="33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="263" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C263" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="D263" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E263" s="34">
-        <v>1</v>
-      </c>
-      <c r="F263" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B264" s="46"/>
-      <c r="C264" s="33"/>
-      <c r="D264" s="33"/>
-      <c r="E264" s="34"/>
-      <c r="F264" s="33"/>
-    </row>
-    <row r="265" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="46"/>
-      <c r="C265" s="33"/>
-      <c r="D265" s="33"/>
-      <c r="E265" s="34"/>
-      <c r="F265" s="33"/>
-      <c r="G265" s="45"/>
-    </row>
-    <row r="266" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="46"/>
       <c r="C266" s="33"/>
       <c r="D266" s="33"/>
@@ -6247,7 +6366,7 @@
       <c r="F266" s="33"/>
       <c r="G266" s="45"/>
     </row>
-    <row r="267" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="46"/>
       <c r="C267" s="33"/>
       <c r="D267" s="33"/>
@@ -6255,7 +6374,7 @@
       <c r="F267" s="33"/>
       <c r="G267" s="45"/>
     </row>
-    <row r="268" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B268" s="48"/>
       <c r="C268" s="41"/>
       <c r="D268" s="41"/>
@@ -6263,7 +6382,7 @@
       <c r="F268" s="29"/>
       <c r="G268" s="17"/>
     </row>
-    <row r="269" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C269" s="15"/>
       <c r="D269" s="15"/>
       <c r="E269" s="42">
@@ -6272,20 +6391,20 @@
       </c>
       <c r="F269" s="43">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G269" s="17"/>
     </row>
-    <row r="270" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C270" s="15"/>
       <c r="D270" s="15"/>
       <c r="E270" s="16"/>
       <c r="F270" s="15"/>
     </row>
-    <row r="271" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G271" s="17"/>
     </row>
-    <row r="272" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C272" s="15" t="s">
         <v>30</v>
       </c>
@@ -6296,14 +6415,14 @@
       <c r="F272" s="15"/>
       <c r="G272" s="17"/>
     </row>
-    <row r="273" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C273" s="15"/>
       <c r="D273" s="15"/>
       <c r="E273" s="16"/>
       <c r="F273" s="15"/>
       <c r="G273" s="17"/>
     </row>
-    <row r="274" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B274" s="20" t="s">
         <v>1</v>
       </c>
@@ -6321,7 +6440,7 @@
       </c>
       <c r="G274" s="50"/>
     </row>
-    <row r="275" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="26" t="s">
         <v>11</v>
       </c>
@@ -6335,11 +6454,11 @@
         <v>10</v>
       </c>
       <c r="F275" s="29">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G275" s="17"/>
     </row>
-    <row r="276" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="26"/>
       <c r="C276" s="27"/>
       <c r="D276" s="27"/>
@@ -6347,14 +6466,14 @@
       <c r="F276" s="27"/>
       <c r="G276" s="17"/>
     </row>
-    <row r="277" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="49"/>
       <c r="C277" s="27"/>
       <c r="D277" s="27"/>
       <c r="E277" s="28"/>
       <c r="F277" s="27"/>
     </row>
-    <row r="278" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="46" t="s">
         <v>12</v>
       </c>
@@ -6368,10 +6487,10 @@
         <v>2</v>
       </c>
       <c r="F278" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="46" t="s">
         <v>12</v>
       </c>
@@ -6388,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="46"/>
       <c r="C280" s="33"/>
       <c r="D280" s="33"/>
@@ -6396,7 +6515,7 @@
       <c r="F280" s="33"/>
       <c r="G280" s="45"/>
     </row>
-    <row r="281" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="46" t="s">
         <v>13</v>
       </c>
@@ -6410,11 +6529,11 @@
         <v>7</v>
       </c>
       <c r="F281" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G281" s="45"/>
     </row>
-    <row r="282" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="46" t="s">
         <v>13</v>
       </c>
@@ -6431,7 +6550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="46" t="s">
         <v>13</v>
       </c>
@@ -6449,7 +6568,7 @@
       </c>
       <c r="G283" s="45"/>
     </row>
-    <row r="284" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="46"/>
       <c r="C284" s="33"/>
       <c r="D284" s="33"/>
@@ -6457,7 +6576,7 @@
       <c r="F284" s="33"/>
       <c r="G284" s="45"/>
     </row>
-    <row r="285" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="46" t="s">
         <v>14</v>
       </c>
@@ -6471,11 +6590,11 @@
         <v>2</v>
       </c>
       <c r="F285" s="33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G285" s="45"/>
     </row>
-    <row r="286" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="46" t="s">
         <v>14</v>
       </c>
@@ -6495,7 +6614,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="287" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="46" t="s">
         <v>14</v>
       </c>
@@ -6515,7 +6634,7 @@
         <v>45515</v>
       </c>
     </row>
-    <row r="288" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="46" t="s">
         <v>14</v>
       </c>
@@ -6529,10 +6648,10 @@
         <v>17</v>
       </c>
       <c r="F288" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="46" t="s">
         <v>14</v>
       </c>
@@ -6550,7 +6669,7 @@
       </c>
       <c r="G289" s="45"/>
     </row>
-    <row r="290" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="46" t="s">
         <v>14</v>
       </c>
@@ -6568,7 +6687,7 @@
       </c>
       <c r="G290" s="45"/>
     </row>
-    <row r="291" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="46"/>
       <c r="C291" s="33"/>
       <c r="D291" s="33"/>
@@ -6576,14 +6695,14 @@
       <c r="F291" s="33"/>
       <c r="G291" s="45"/>
     </row>
-    <row r="292" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="46"/>
       <c r="C292" s="33"/>
       <c r="D292" s="33"/>
       <c r="E292" s="34"/>
       <c r="F292" s="33"/>
     </row>
-    <row r="293" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="46"/>
       <c r="C293" s="33"/>
       <c r="D293" s="33"/>
@@ -6591,7 +6710,7 @@
       <c r="F293" s="33"/>
       <c r="G293" s="45"/>
     </row>
-    <row r="294" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="46"/>
       <c r="C294" s="33"/>
       <c r="D294" s="33"/>
@@ -6599,7 +6718,7 @@
       <c r="F294" s="33"/>
       <c r="G294" s="45"/>
     </row>
-    <row r="295" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B295" s="48"/>
       <c r="C295" s="41"/>
       <c r="D295" s="41"/>
@@ -6607,7 +6726,7 @@
       <c r="F295" s="29"/>
       <c r="G295" s="17"/>
     </row>
-    <row r="296" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C296" s="15"/>
       <c r="D296" s="15"/>
       <c r="E296" s="42">
@@ -6616,21 +6735,21 @@
       </c>
       <c r="F296" s="43">
         <f>SUM(F278:F295)-SUM(F275:F277)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G296" s="17"/>
     </row>
-    <row r="297" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C297" s="15"/>
       <c r="D297" s="15"/>
       <c r="E297" s="16"/>
       <c r="F297" s="15"/>
     </row>
-    <row r="298" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="45"/>
       <c r="G298" s="17"/>
     </row>
-    <row r="299" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C299" s="15" t="s">
         <v>35</v>
       </c>
@@ -6641,14 +6760,14 @@
       <c r="F299" s="15"/>
       <c r="G299" s="17"/>
     </row>
-    <row r="300" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C300" s="15"/>
       <c r="D300" s="15"/>
       <c r="E300" s="16"/>
       <c r="F300" s="15"/>
       <c r="G300" s="17"/>
     </row>
-    <row r="301" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B301" s="20" t="s">
         <v>1</v>
       </c>
@@ -6666,7 +6785,7 @@
       </c>
       <c r="G301" s="50"/>
     </row>
-    <row r="302" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="26" t="s">
         <v>11</v>
       </c>
@@ -6686,7 +6805,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="49" t="s">
         <v>11</v>
       </c>
@@ -6700,14 +6819,14 @@
         <v>254</v>
       </c>
       <c r="F303" s="27">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G303" s="50"/>
       <c r="H303" s="67">
         <v>45559</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="49"/>
       <c r="C304" s="27"/>
       <c r="D304" s="27"/>
@@ -6715,7 +6834,7 @@
       <c r="F304" s="27"/>
       <c r="G304" s="45"/>
     </row>
-    <row r="305" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="46" t="s">
         <v>12</v>
       </c>
@@ -6733,7 +6852,7 @@
       </c>
       <c r="G305" s="45"/>
     </row>
-    <row r="306" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="46" t="s">
         <v>12</v>
       </c>
@@ -6751,7 +6870,7 @@
       </c>
       <c r="G306" s="45"/>
     </row>
-    <row r="307" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="46" t="s">
         <v>13</v>
       </c>
@@ -6765,10 +6884,10 @@
         <v>15</v>
       </c>
       <c r="F307" s="33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="308" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="46" t="s">
         <v>13</v>
       </c>
@@ -6785,7 +6904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="46" t="s">
         <v>13</v>
       </c>
@@ -6799,13 +6918,13 @@
         <v>254</v>
       </c>
       <c r="F309" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H309" s="67">
         <v>45564</v>
       </c>
     </row>
-    <row r="310" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="46" t="s">
         <v>13</v>
       </c>
@@ -6825,7 +6944,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="311" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="46" t="s">
         <v>13</v>
       </c>
@@ -6848,7 +6967,7 @@
         <v>45518</v>
       </c>
     </row>
-    <row r="312" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="46" t="s">
         <v>13</v>
       </c>
@@ -6862,13 +6981,13 @@
         <v>254</v>
       </c>
       <c r="F312" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H312" s="67">
         <v>45532</v>
       </c>
     </row>
-    <row r="313" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="46" t="s">
         <v>14</v>
       </c>
@@ -6888,7 +7007,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="314" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="46" t="s">
         <v>14</v>
       </c>
@@ -6902,13 +7021,13 @@
         <v>254</v>
       </c>
       <c r="F314" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H314" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="315" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="46" t="s">
         <v>14</v>
       </c>
@@ -6926,7 +7045,7 @@
       </c>
       <c r="G315" s="45"/>
     </row>
-    <row r="316" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="46" t="s">
         <v>14</v>
       </c>
@@ -6946,7 +7065,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="317" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="46" t="s">
         <v>14</v>
       </c>
@@ -6966,7 +7085,7 @@
         <v>45550</v>
       </c>
     </row>
-    <row r="318" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="46" t="s">
         <v>14</v>
       </c>
@@ -6986,7 +7105,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="319" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="46" t="s">
         <v>14</v>
       </c>
@@ -7009,7 +7128,7 @@
         <v>45518</v>
       </c>
     </row>
-    <row r="320" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="46" t="s">
         <v>14</v>
       </c>
@@ -7029,7 +7148,7 @@
         <v>45528</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="46" t="s">
         <v>14</v>
       </c>
@@ -7049,7 +7168,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="45"/>
       <c r="B322" s="48" t="s">
         <v>14</v>
@@ -7071,7 +7190,7 @@
         <v>45515</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C323" s="15"/>
       <c r="D323" s="15"/>
       <c r="E323" s="42">
@@ -7080,17 +7199,17 @@
       </c>
       <c r="F323" s="43">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G323" s="17"/>
     </row>
-    <row r="324" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C324" s="15"/>
       <c r="D324" s="15"/>
       <c r="E324" s="16"/>
       <c r="F324" s="15"/>
     </row>
-    <row r="326" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C326" s="15" t="s">
         <v>235</v>
       </c>
@@ -7100,13 +7219,13 @@
       <c r="E326" s="16"/>
       <c r="F326" s="15"/>
     </row>
-    <row r="327" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C327" s="15"/>
       <c r="D327" s="15"/>
       <c r="E327" s="16"/>
       <c r="F327" s="15"/>
     </row>
-    <row r="328" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B328" s="20" t="s">
         <v>1</v>
       </c>
@@ -7124,7 +7243,7 @@
       </c>
       <c r="G328" s="45"/>
     </row>
-    <row r="329" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="26" t="s">
         <v>11</v>
       </c>
@@ -7144,7 +7263,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="49" t="s">
         <v>11</v>
       </c>
@@ -7158,13 +7277,13 @@
         <v>254</v>
       </c>
       <c r="F330" s="27">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H330" s="67">
         <v>45537</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="49"/>
       <c r="C331" s="27"/>
       <c r="D331" s="27"/>
@@ -7172,7 +7291,7 @@
       <c r="F331" s="27"/>
       <c r="G331" s="45"/>
     </row>
-    <row r="332" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="46" t="s">
         <v>12</v>
       </c>
@@ -7190,7 +7309,7 @@
       </c>
       <c r="G332" s="45"/>
     </row>
-    <row r="333" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="46" t="s">
         <v>12</v>
       </c>
@@ -7207,7 +7326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="46"/>
       <c r="C334" s="33"/>
       <c r="D334" s="33"/>
@@ -7215,7 +7334,7 @@
       <c r="F334" s="33"/>
       <c r="G334" s="45"/>
     </row>
-    <row r="335" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="46" t="s">
         <v>13</v>
       </c>
@@ -7233,7 +7352,7 @@
       </c>
       <c r="G335" s="45"/>
     </row>
-    <row r="336" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="46" t="s">
         <v>13</v>
       </c>
@@ -7247,10 +7366,10 @@
         <v>47</v>
       </c>
       <c r="F336" s="33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="337" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="46" t="s">
         <v>13</v>
       </c>
@@ -7264,18 +7383,18 @@
         <v>2</v>
       </c>
       <c r="F337" s="33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G337" s="45"/>
     </row>
-    <row r="338" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="46"/>
       <c r="C338" s="33"/>
       <c r="D338" s="33"/>
       <c r="E338" s="34"/>
       <c r="F338" s="33"/>
     </row>
-    <row r="339" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="46" t="s">
         <v>14</v>
       </c>
@@ -7289,10 +7408,10 @@
         <v>6</v>
       </c>
       <c r="F339" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="340" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="46" t="s">
         <v>14</v>
       </c>
@@ -7309,7 +7428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="46" t="s">
         <v>14</v>
       </c>
@@ -7327,7 +7446,7 @@
       </c>
       <c r="G341" s="45"/>
     </row>
-    <row r="342" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="46" t="s">
         <v>14</v>
       </c>
@@ -7345,7 +7464,7 @@
       </c>
       <c r="G342" s="45"/>
     </row>
-    <row r="343" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="46" t="s">
         <v>14</v>
       </c>
@@ -7363,7 +7482,7 @@
       </c>
       <c r="G343" s="45"/>
     </row>
-    <row r="344" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="53"/>
       <c r="C344" s="33"/>
       <c r="D344" s="33"/>
@@ -7371,7 +7490,7 @@
       <c r="F344" s="33"/>
       <c r="G344" s="45"/>
     </row>
-    <row r="345" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="46"/>
       <c r="C345" s="33"/>
       <c r="D345" s="33"/>
@@ -7379,14 +7498,14 @@
       <c r="F345" s="33"/>
       <c r="G345" s="45"/>
     </row>
-    <row r="346" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="46"/>
       <c r="C346" s="33"/>
       <c r="D346" s="33"/>
       <c r="E346" s="34"/>
       <c r="F346" s="33"/>
     </row>
-    <row r="347" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="46"/>
       <c r="C347" s="33"/>
       <c r="D347" s="33"/>
@@ -7394,7 +7513,7 @@
       <c r="F347" s="33"/>
       <c r="G347" s="45"/>
     </row>
-    <row r="348" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="46"/>
       <c r="C348" s="33"/>
       <c r="D348" s="33"/>
@@ -7402,14 +7521,14 @@
       <c r="F348" s="33"/>
       <c r="G348" s="45"/>
     </row>
-    <row r="349" spans="2:7" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:7" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B349" s="48"/>
       <c r="C349" s="41"/>
       <c r="D349" s="41"/>
       <c r="E349" s="28"/>
       <c r="F349" s="29"/>
     </row>
-    <row r="350" spans="2:7" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:7" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C350" s="15"/>
       <c r="D350" s="15"/>
       <c r="E350" s="42">
@@ -7418,10 +7537,10 @@
       </c>
       <c r="F350" s="43">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C351" s="15"/>
       <c r="D351" s="15"/>
       <c r="E351" s="16"/>
@@ -7447,31 +7566,26 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.796875" customWidth="1"/>
-    <col min="4" max="4" width="33.3984375" customWidth="1"/>
-    <col min="5" max="7" width="10.796875" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="7" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
-        <v>314</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
       </c>
       <c r="J1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
-        <v>315</v>
-      </c>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
@@ -7481,10 +7595,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
-        <v>316</v>
-      </c>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -7492,10 +7603,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
-        <v>317</v>
-      </c>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="54" t="s">
@@ -7505,7 +7613,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -7513,7 +7621,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -7533,7 +7641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>1</v>
       </c>
@@ -7544,17 +7652,17 @@
         <v>21</v>
       </c>
       <c r="E7" s="30">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F7" s="31">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G7" s="32">
         <v>13</v>
       </c>
       <c r="K7" s="51"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>2</v>
       </c>
@@ -7565,136 +7673,136 @@
         <v>38</v>
       </c>
       <c r="E8" s="30">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F8" s="31">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G8" s="32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>3</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E9" s="30">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F9" s="31">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G9" s="32">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>4</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E10" s="30">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F10" s="31">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G10" s="32">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>5</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E11" s="30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F11" s="31">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G11" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>6</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="E12" s="30">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F12" s="31">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G12" s="32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>7</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E13" s="30">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F13" s="31">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G13" s="32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="E14" s="30">
+        <v>21</v>
+      </c>
+      <c r="F14" s="31">
+        <v>37</v>
+      </c>
+      <c r="G14" s="32">
         <v>16</v>
       </c>
-      <c r="F14" s="31">
-        <v>26</v>
-      </c>
-      <c r="G14" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>9</v>
       </c>
@@ -7705,56 +7813,56 @@
         <v>35</v>
       </c>
       <c r="E15" s="30">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F15" s="31">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G15" s="32">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>10</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E16" s="30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" s="31">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G16" s="32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>11</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="E17" s="30">
         <v>5</v>
       </c>
       <c r="F17" s="31">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G17" s="32">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>12</v>
       </c>
@@ -7768,33 +7876,33 @@
         <v>2</v>
       </c>
       <c r="F18" s="31">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G18" s="32">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>13</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="E19" s="30">
         <v>0</v>
       </c>
       <c r="F19" s="31">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G19" s="32">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -7802,10 +7910,10 @@
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="13"/>
     </row>
@@ -7828,103 +7936,103 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.296875" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" style="55" customWidth="1"/>
-    <col min="4" max="4" width="31.69921875" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.296875" style="50" customWidth="1"/>
-    <col min="6" max="6" width="9.296875" style="55" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="45"/>
+    <col min="1" max="1" width="33.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="50" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="55" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="57"/>
       <c r="C6" s="57"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="57"/>
       <c r="C7" s="57"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
     </row>
-    <row r="10" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="50"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
       <c r="B11" s="57"/>
       <c r="C11" s="57"/>
       <c r="F11" s="57"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="57"/>
       <c r="C12" s="57"/>
       <c r="F12" s="57"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
       <c r="F13" s="57"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="57"/>
       <c r="C14" s="57"/>
       <c r="F14" s="57"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="58"/>
       <c r="C15" s="57"/>
       <c r="F15" s="57"/>
     </row>
-    <row r="16" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="50"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="57"/>
       <c r="C17" s="57"/>
       <c r="F17" s="57"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="57"/>
       <c r="C18" s="57"/>
       <c r="F18" s="57"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="57"/>
       <c r="C19" s="57"/>
       <c r="F19" s="57"/>
     </row>
-    <row r="20" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
         <v>27</v>
       </c>
@@ -7932,22 +8040,22 @@
       <c r="C20" s="58"/>
       <c r="F20" s="57"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
       <c r="F21" s="57"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="57"/>
       <c r="C22" s="57"/>
       <c r="F22" s="57"/>
     </row>
-    <row r="23" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>

--- a/data/DL24-25.xlsx
+++ b/data/DL24-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0001c2a442dfed87/Documents/Dream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2281" documentId="8_{4A520963-05AC-46D2-973E-A3A248908BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B0E212F-504D-4D30-8135-3C2C1D6D531C}"/>
+  <xr:revisionPtr revIDLastSave="2633" documentId="8_{4A520963-05AC-46D2-973E-A3A248908BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC97661D-729D-4B3A-8423-152F5176465E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="329">
   <si>
     <t>TONY APPLETON</t>
   </si>
@@ -998,6 +998,30 @@
   </si>
   <si>
     <t>JAMES MADDISON</t>
+  </si>
+  <si>
+    <t>SAM SMITH</t>
+  </si>
+  <si>
+    <t>READING</t>
+  </si>
+  <si>
+    <t>VAKOUN BAYO</t>
+  </si>
+  <si>
+    <t>TOM CANNON</t>
+  </si>
+  <si>
+    <t>ANTHONY PATTERSON</t>
+  </si>
+  <si>
+    <t>GABRIEL JESUS</t>
+  </si>
+  <si>
+    <t>LIAM CULLEN</t>
+  </si>
+  <si>
+    <t>SWANSEA</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M351"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1941,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="29">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="64"/>
@@ -1955,15 +1979,15 @@
       </c>
       <c r="K5" s="30">
         <f t="shared" ref="K5:K17" si="0">L5-M5</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L5" s="31">
         <f>SUM(F8:F25)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M5" s="32">
         <f>SUM(F5:F7)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1984,15 +2008,15 @@
       </c>
       <c r="K6" s="30">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="L6" s="31">
         <f>SUM(F35:F52)</f>
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="M6" s="32">
         <f>SUM(F32:F34)</f>
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2013,15 +2037,15 @@
       </c>
       <c r="K7" s="30">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L7" s="31">
         <f>SUM(F62:F79)</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M7" s="32">
         <f>SUM(F59:F61)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2051,15 +2075,15 @@
       </c>
       <c r="K8" s="30">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L8" s="31">
         <f>SUM(F89:F106)</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M8" s="32">
         <f>SUM(F86:F88)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2089,15 +2113,15 @@
       </c>
       <c r="K9" s="30">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L9" s="31">
         <f>SUM(F116:F133)</f>
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M9" s="32">
         <f>SUM(F113:F115)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2118,15 +2142,15 @@
       </c>
       <c r="K10" s="30">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L10" s="31">
         <f>SUM(F143:F160)</f>
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="M10" s="32">
         <f>SUM(F140:F142)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2156,15 +2180,15 @@
       </c>
       <c r="K11" s="30">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L11" s="31">
         <f>SUM(F170:F187)</f>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="M11" s="32">
         <f>SUM(F167:F169)</f>
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2198,11 +2222,11 @@
       </c>
       <c r="L12" s="31">
         <f>SUM(F197:F214)</f>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M12" s="32">
         <f>SUM(F194:F196)</f>
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2232,15 +2256,15 @@
       </c>
       <c r="K13" s="30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L13" s="31">
         <f>SUM(F224:F241)</f>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M13" s="32">
         <f>SUM(F221:F223)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2261,15 +2285,15 @@
       </c>
       <c r="K14" s="30">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L14" s="31">
         <f>SUM(F251:F268)</f>
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M14" s="32">
         <f>SUM(F248:F250)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2286,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="66"/>
@@ -2300,15 +2324,15 @@
       </c>
       <c r="K15" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L15" s="31">
         <f>SUM(F277:F295)</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M15" s="32">
         <f>SUM(F275:F276)</f>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2341,15 +2365,15 @@
       </c>
       <c r="K16" s="30">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L16" s="31">
         <f>SUM(F305:F322)</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M16" s="32">
         <f>SUM(F302:F304)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2366,7 +2390,7 @@
         <v>254</v>
       </c>
       <c r="F17" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="67">
         <v>45551</v>
@@ -2380,15 +2404,15 @@
       </c>
       <c r="K17" s="30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L17" s="31">
         <f>SUM(F332:F349)</f>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M17" s="32">
         <f>SUM(F329:F331)</f>
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2431,7 +2455,7 @@
         <v>254</v>
       </c>
       <c r="F19" s="33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G19" s="45"/>
       <c r="H19" s="67">
@@ -2551,7 +2575,7 @@
       </c>
       <c r="F26" s="43">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="64"/>
@@ -2646,7 +2670,7 @@
         <v>254</v>
       </c>
       <c r="F33" s="27">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G33" s="50"/>
       <c r="H33" s="67">
@@ -2695,7 +2719,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H36" s="64"/>
     </row>
@@ -2713,7 +2737,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="33">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H37" s="64"/>
     </row>
@@ -2731,7 +2755,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G38" s="45"/>
       <c r="H38" s="64"/>
@@ -2761,16 +2785,16 @@
       <c r="B40" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="46">
         <v>2</v>
       </c>
       <c r="G40" s="45"/>
@@ -2779,12 +2803,24 @@
       </c>
     </row>
     <row r="41" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="53"/>
-      <c r="H41" s="64"/>
+      <c r="B41" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F41" s="33">
+        <v>0</v>
+      </c>
+      <c r="H41" s="67">
+        <v>45642</v>
+      </c>
     </row>
     <row r="42" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
@@ -2800,7 +2836,7 @@
         <v>23</v>
       </c>
       <c r="F42" s="33">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G42" s="45"/>
       <c r="H42" s="64"/>
@@ -2840,7 +2876,7 @@
         <v>254</v>
       </c>
       <c r="F44" s="33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44" s="67">
         <v>45621</v>
@@ -2904,7 +2940,7 @@
         <v>254</v>
       </c>
       <c r="F47" s="33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H47" s="67">
         <v>45578</v>
@@ -2968,7 +3004,7 @@
         <v>254</v>
       </c>
       <c r="F50" s="33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H50" s="67">
         <v>45565</v>
@@ -3009,7 +3045,7 @@
         <v>254</v>
       </c>
       <c r="F52" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="67">
@@ -3025,7 +3061,7 @@
       </c>
       <c r="F53" s="43">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G53" s="17"/>
     </row>
@@ -3098,7 +3134,7 @@
         <v>15</v>
       </c>
       <c r="F59" s="29">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G59" s="50"/>
       <c r="H59" s="64"/>
@@ -3135,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="45"/>
       <c r="H62" s="64"/>
@@ -3180,7 +3216,7 @@
         <v>30</v>
       </c>
       <c r="F65" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G65" s="45"/>
       <c r="H65" s="64"/>
@@ -3199,7 +3235,7 @@
         <v>10</v>
       </c>
       <c r="F66" s="33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G66" s="45"/>
       <c r="H66" s="64"/>
@@ -3218,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H67" s="64"/>
     </row>
@@ -3263,7 +3299,7 @@
         <v>25</v>
       </c>
       <c r="F70" s="33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G70" s="45"/>
       <c r="H70" s="64"/>
@@ -3329,38 +3365,67 @@
       <c r="B74" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="D74" s="33" t="s">
+      <c r="D74" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="E74" s="34" t="s">
+      <c r="E74" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="F74" s="33">
+      <c r="F74" s="46">
         <v>0</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="H74" s="67">
         <v>45604</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="46"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="64"/>
+      <c r="B75" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="F75" s="46">
+        <v>1</v>
+      </c>
+      <c r="G75" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H75" s="67">
+        <v>45628</v>
+      </c>
     </row>
     <row r="76" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="46"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="33"/>
-      <c r="H76" s="64"/>
+      <c r="B76" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" s="33">
+        <v>0</v>
+      </c>
+      <c r="H76" s="67">
+        <v>45649</v>
+      </c>
     </row>
     <row r="77" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="46"/>
@@ -3397,7 +3462,7 @@
       </c>
       <c r="F80" s="43">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="64"/>
@@ -3492,7 +3557,7 @@
         <v>254</v>
       </c>
       <c r="F87" s="27">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G87" s="50"/>
       <c r="H87" s="67">
@@ -3522,7 +3587,7 @@
         <v>10</v>
       </c>
       <c r="F89" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G89" s="45"/>
       <c r="H89" s="64"/>
@@ -3622,7 +3687,7 @@
         <v>33</v>
       </c>
       <c r="F94" s="33">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3680,7 +3745,7 @@
         <v>45</v>
       </c>
       <c r="F97" s="33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H97" s="64"/>
     </row>
@@ -3782,7 +3847,7 @@
         <v>254</v>
       </c>
       <c r="F102" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H102" s="67">
         <v>45588</v>
@@ -3813,16 +3878,16 @@
       <c r="B104" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C104" s="71" t="s">
+      <c r="C104" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="D104" s="71" t="s">
+      <c r="D104" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E104" s="72" t="s">
+      <c r="E104" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="F104" s="71">
+      <c r="F104" s="46">
         <v>0</v>
       </c>
       <c r="G104" s="14" t="s">
@@ -3833,7 +3898,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="71" t="s">
+      <c r="B105" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C105" s="33" t="s">
@@ -3846,7 +3911,7 @@
         <v>254</v>
       </c>
       <c r="F105" s="33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H105" s="67">
         <v>45627</v>
@@ -3866,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G106" s="45"/>
       <c r="H106" s="64"/>
@@ -3880,7 +3945,7 @@
       </c>
       <c r="F107" s="43">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G107" s="17"/>
     </row>
@@ -3953,7 +4018,7 @@
         <v>5</v>
       </c>
       <c r="F113" s="29">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G113" s="50"/>
       <c r="H113" s="64"/>
@@ -4014,12 +4079,24 @@
       <c r="H117" s="64"/>
     </row>
     <row r="118" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="46"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="45"/>
+      <c r="B118" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D118" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E118" s="61">
+        <v>1</v>
+      </c>
+      <c r="F118" s="46">
+        <v>3</v>
+      </c>
+      <c r="G118" s="45" t="s">
+        <v>256</v>
+      </c>
       <c r="H118" s="64"/>
     </row>
     <row r="119" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4027,103 +4104,105 @@
         <v>13</v>
       </c>
       <c r="C119" s="46" t="s">
-        <v>105</v>
+        <v>291</v>
       </c>
       <c r="D119" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="E119" s="61">
-        <v>1</v>
+        <v>287</v>
+      </c>
+      <c r="E119" s="61" t="s">
+        <v>254</v>
       </c>
       <c r="F119" s="46">
-        <v>3</v>
-      </c>
-      <c r="G119" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G119" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="H119" s="64"/>
+      <c r="H119" s="67">
+        <v>45551</v>
+      </c>
     </row>
     <row r="120" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C120" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="D120" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="E120" s="61" t="s">
+      <c r="C120" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E120" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F120" s="46">
-        <v>1</v>
-      </c>
-      <c r="G120" s="14" t="s">
-        <v>256</v>
+      <c r="F120" s="33">
+        <v>5</v>
       </c>
       <c r="H120" s="67">
-        <v>45551</v>
+        <v>45592</v>
       </c>
     </row>
     <row r="121" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C121" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D121" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E121" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F121" s="33">
-        <v>3</v>
-      </c>
-      <c r="H121" s="67">
-        <v>45592</v>
+      <c r="C121" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D121" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E121" s="61">
+        <v>1</v>
+      </c>
+      <c r="F121" s="46">
+        <v>0</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C122" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="D122" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="E122" s="61">
-        <v>1</v>
-      </c>
-      <c r="F122" s="46">
-        <v>0</v>
+      <c r="C122" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="D122" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="E122" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="F122" s="71">
+        <v>2</v>
       </c>
       <c r="G122" s="14" t="s">
         <v>256</v>
       </c>
+      <c r="H122" s="67">
+        <v>45529</v>
+      </c>
     </row>
     <row r="123" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="46" t="s">
+      <c r="B123" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C123" s="33" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="E123" s="34" t="s">
         <v>254</v>
       </c>
       <c r="F123" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123" s="67">
-        <v>45529</v>
+        <v>45653</v>
       </c>
     </row>
     <row r="124" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4165,7 +4244,7 @@
         <v>7</v>
       </c>
       <c r="F126" s="33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H126" s="64"/>
     </row>
@@ -4183,7 +4262,7 @@
         <v>15</v>
       </c>
       <c r="F127" s="33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H127" s="64"/>
     </row>
@@ -4201,7 +4280,7 @@
         <v>39</v>
       </c>
       <c r="F128" s="33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G128" s="45"/>
       <c r="H128" s="64"/>
@@ -4241,7 +4320,7 @@
         <v>254</v>
       </c>
       <c r="F130" s="33">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H130" s="67">
         <v>45563</v>
@@ -4272,30 +4351,45 @@
       <c r="B132" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C132" s="33" t="s">
+      <c r="C132" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="D132" s="33" t="s">
+      <c r="D132" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="E132" s="34" t="s">
+      <c r="E132" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="F132" s="33">
+      <c r="F132" s="46">
         <v>3</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="H132" s="67">
         <v>45556</v>
       </c>
     </row>
     <row r="133" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="48"/>
-      <c r="C133" s="41"/>
-      <c r="D133" s="41"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="29"/>
+      <c r="B133" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="D133" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="E133" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" s="29">
+        <v>1</v>
+      </c>
       <c r="G133" s="17"/>
-      <c r="H133" s="64"/>
+      <c r="H133" s="67">
+        <v>45632</v>
+      </c>
     </row>
     <row r="134" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C134" s="15"/>
@@ -4306,7 +4400,7 @@
       </c>
       <c r="F134" s="43">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G134" s="17"/>
       <c r="H134" s="64"/>
@@ -4401,7 +4495,7 @@
         <v>254</v>
       </c>
       <c r="F141" s="27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G141" s="50"/>
       <c r="H141" s="67">
@@ -4449,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" s="64"/>
     </row>
@@ -4555,7 +4649,7 @@
         <v>254</v>
       </c>
       <c r="F150" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H150" s="67">
         <v>45564</v>
@@ -4582,7 +4676,7 @@
         <v>80</v>
       </c>
       <c r="F152" s="33">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G152" s="45"/>
       <c r="H152" s="64"/>
@@ -4645,7 +4739,7 @@
         <v>254</v>
       </c>
       <c r="F155" s="33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H155" s="67">
         <v>45592</v>
@@ -4686,7 +4780,7 @@
         <v>254</v>
       </c>
       <c r="F157" s="33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H157" s="67">
         <v>45552</v>
@@ -4747,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="29">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G160" s="17"/>
       <c r="H160" s="64"/>
@@ -4761,7 +4855,7 @@
       </c>
       <c r="F161" s="43">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="64"/>
@@ -4835,7 +4929,7 @@
         <v>7</v>
       </c>
       <c r="F167" s="29">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G167" s="50"/>
       <c r="H167" s="64"/>
@@ -4939,7 +5033,7 @@
         <v>254</v>
       </c>
       <c r="F174" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H174" s="67">
         <v>45601</v>
@@ -4959,7 +5053,7 @@
         <v>15</v>
       </c>
       <c r="F175" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H175" s="64"/>
     </row>
@@ -4998,7 +5092,7 @@
         <v>254</v>
       </c>
       <c r="F177" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H177" s="67">
         <v>45526</v>
@@ -5064,7 +5158,7 @@
         <v>254</v>
       </c>
       <c r="F181" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H181" s="67">
         <v>45601</v>
@@ -5084,7 +5178,7 @@
         <v>5</v>
       </c>
       <c r="F182" s="33">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G182" s="45"/>
       <c r="H182" s="64"/>
@@ -5103,7 +5197,7 @@
         <v>38</v>
       </c>
       <c r="F183" s="33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H183" s="64"/>
     </row>
@@ -5142,7 +5236,7 @@
         <v>254</v>
       </c>
       <c r="F185" s="33">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H185" s="67">
         <v>45565</v>
@@ -5174,7 +5268,7 @@
       </c>
       <c r="F188" s="43">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G188" s="17"/>
       <c r="H188" s="64"/>
@@ -5248,7 +5342,7 @@
         <v>4</v>
       </c>
       <c r="F194" s="29">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G194" s="50"/>
       <c r="H194" s="64"/>
@@ -5354,7 +5448,7 @@
         <v>23</v>
       </c>
       <c r="F201" s="33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H201" s="64"/>
     </row>
@@ -5441,7 +5535,7 @@
         <v>13</v>
       </c>
       <c r="F206" s="33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G206" s="45"/>
       <c r="H206" s="64"/>
@@ -5496,7 +5590,7 @@
         <v>16</v>
       </c>
       <c r="F209" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G209" s="45"/>
     </row>
@@ -5535,7 +5629,7 @@
         <v>254</v>
       </c>
       <c r="F211" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H211" s="67">
         <v>45535</v>
@@ -5650,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="29">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G221" s="50"/>
       <c r="H221" s="64"/>
@@ -5776,7 +5870,7 @@
         <v>254</v>
       </c>
       <c r="F229" s="33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H229" s="67">
         <v>45590</v>
@@ -5817,7 +5911,7 @@
         <v>254</v>
       </c>
       <c r="F231" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H231" s="67">
         <v>45590</v>
@@ -5858,7 +5952,7 @@
         <v>254</v>
       </c>
       <c r="F233" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G233" s="45"/>
       <c r="H233" s="67">
@@ -5886,7 +5980,7 @@
         <v>8</v>
       </c>
       <c r="F235" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5943,7 +6037,7 @@
         <v>3</v>
       </c>
       <c r="F238" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G238" s="45"/>
       <c r="H238" s="64"/>
@@ -5962,7 +6056,7 @@
         <v>36</v>
       </c>
       <c r="F239" s="33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H239" s="64"/>
     </row>
@@ -6016,7 +6110,7 @@
       </c>
       <c r="F242" s="43">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G242" s="17"/>
       <c r="H242" s="64"/>
@@ -6081,7 +6175,7 @@
         <v>8</v>
       </c>
       <c r="F248" s="29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G248" s="50"/>
     </row>
@@ -6175,23 +6269,23 @@
         <v>15</v>
       </c>
       <c r="F255" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C256" s="71" t="s">
+      <c r="C256" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="D256" s="71" t="s">
+      <c r="D256" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="E256" s="72">
-        <v>1</v>
-      </c>
-      <c r="F256" s="71">
+      <c r="E256" s="61">
+        <v>1</v>
+      </c>
+      <c r="F256" s="46">
         <v>2</v>
       </c>
       <c r="G256" s="14" t="s">
@@ -6212,7 +6306,7 @@
         <v>254</v>
       </c>
       <c r="F257" s="33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H257" s="67">
         <v>45627</v>
@@ -6239,7 +6333,7 @@
         <v>30</v>
       </c>
       <c r="F259" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G259" s="45"/>
     </row>
@@ -6277,7 +6371,7 @@
         <v>254</v>
       </c>
       <c r="F261" s="33">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H261" s="67">
         <v>45534</v>
@@ -6287,16 +6381,16 @@
       <c r="B262" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C262" s="71" t="s">
+      <c r="C262" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="D262" s="71" t="s">
+      <c r="D262" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="E262" s="72">
+      <c r="E262" s="61">
         <v>3</v>
       </c>
-      <c r="F262" s="71">
+      <c r="F262" s="46">
         <v>5</v>
       </c>
       <c r="G262" s="14" t="s">
@@ -6305,7 +6399,7 @@
       <c r="H262" s="67"/>
     </row>
     <row r="263" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="71" t="s">
+      <c r="B263" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C263" s="33" t="s">
@@ -6318,7 +6412,7 @@
         <v>254</v>
       </c>
       <c r="F263" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263" s="67">
         <v>45627</v>
@@ -6338,7 +6432,7 @@
         <v>2</v>
       </c>
       <c r="F264" s="33">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6391,7 +6485,7 @@
       </c>
       <c r="F269" s="43">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G269" s="17"/>
     </row>
@@ -6454,7 +6548,7 @@
         <v>10</v>
       </c>
       <c r="F275" s="29">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G275" s="17"/>
     </row>
@@ -6529,7 +6623,7 @@
         <v>7</v>
       </c>
       <c r="F281" s="33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G281" s="45"/>
     </row>
@@ -6547,7 +6641,7 @@
         <v>22</v>
       </c>
       <c r="F282" s="33">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6564,7 +6658,7 @@
         <v>2</v>
       </c>
       <c r="F283" s="33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G283" s="45"/>
     </row>
@@ -6590,7 +6684,7 @@
         <v>2</v>
       </c>
       <c r="F285" s="33">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G285" s="45"/>
     </row>
@@ -6638,77 +6732,127 @@
       <c r="B288" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C288" s="33" t="s">
+      <c r="C288" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="D288" s="33" t="s">
+      <c r="D288" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E288" s="34">
+      <c r="E288" s="61">
         <v>17</v>
       </c>
-      <c r="F288" s="33">
+      <c r="F288" s="46">
         <v>2</v>
       </c>
+      <c r="G288" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H288" s="67"/>
     </row>
     <row r="289" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C289" s="33" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="D289" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="E289" s="34">
-        <v>3</v>
+        <v>98</v>
+      </c>
+      <c r="E289" s="34" t="s">
+        <v>254</v>
       </c>
       <c r="F289" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" s="45"/>
+      <c r="H289" s="67">
+        <v>45636</v>
+      </c>
     </row>
     <row r="290" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C290" s="33" t="s">
+      <c r="C290" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D290" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="E290" s="61">
+        <v>3</v>
+      </c>
+      <c r="F290" s="46">
+        <v>0</v>
+      </c>
+      <c r="G290" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H290" s="67"/>
+    </row>
+    <row r="291" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C291" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="D291" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="E291" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F291" s="33">
+        <v>2</v>
+      </c>
+      <c r="G291" s="45"/>
+      <c r="H291" s="67">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C292" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="D290" s="33" t="s">
+      <c r="D292" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="E290" s="34">
+      <c r="E292" s="61">
         <v>3</v>
       </c>
-      <c r="F290" s="33">
+      <c r="F292" s="46">
         <v>0</v>
       </c>
-      <c r="G290" s="45"/>
-    </row>
-    <row r="291" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="46"/>
-      <c r="C291" s="33"/>
-      <c r="D291" s="33"/>
-      <c r="E291" s="34"/>
-      <c r="F291" s="33"/>
-      <c r="G291" s="45"/>
-    </row>
-    <row r="292" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="46"/>
-      <c r="C292" s="33"/>
-      <c r="D292" s="33"/>
-      <c r="E292" s="34"/>
-      <c r="F292" s="33"/>
+      <c r="G292" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H292" s="67"/>
     </row>
     <row r="293" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="46"/>
-      <c r="C293" s="33"/>
-      <c r="D293" s="33"/>
-      <c r="E293" s="34"/>
-      <c r="F293" s="33"/>
+      <c r="B293" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C293" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="D293" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E293" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F293" s="33">
+        <v>2</v>
+      </c>
       <c r="G293" s="45"/>
+      <c r="H293" s="67">
+        <v>45636</v>
+      </c>
     </row>
     <row r="294" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="46"/>
@@ -6735,7 +6879,7 @@
       </c>
       <c r="F296" s="43">
         <f>SUM(F278:F295)-SUM(F275:F277)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G296" s="17"/>
     </row>
@@ -6819,7 +6963,7 @@
         <v>254</v>
       </c>
       <c r="F303" s="27">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G303" s="50"/>
       <c r="H303" s="67">
@@ -6848,7 +6992,7 @@
         <v>2</v>
       </c>
       <c r="F305" s="33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G305" s="45"/>
     </row>
@@ -6884,7 +7028,7 @@
         <v>15</v>
       </c>
       <c r="F307" s="33">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="308" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7021,7 +7165,7 @@
         <v>254</v>
       </c>
       <c r="F314" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H314" s="67">
         <v>45557</v>
@@ -7142,7 +7286,7 @@
         <v>254</v>
       </c>
       <c r="F320" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H320" s="67">
         <v>45528</v>
@@ -7199,7 +7343,7 @@
       </c>
       <c r="F323" s="43">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G323" s="17"/>
     </row>
@@ -7267,46 +7411,52 @@
       <c r="B330" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C330" s="27" t="s">
+      <c r="C330" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="D330" s="27" t="s">
+      <c r="D330" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="E330" s="28" t="s">
+      <c r="E330" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="F330" s="27">
-        <v>20</v>
+      <c r="F330" s="49">
+        <v>28</v>
+      </c>
+      <c r="G330" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="H330" s="67">
         <v>45537</v>
       </c>
     </row>
     <row r="331" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B331" s="49"/>
-      <c r="C331" s="27"/>
-      <c r="D331" s="27"/>
-      <c r="E331" s="28"/>
-      <c r="F331" s="27"/>
+      <c r="B331" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C331" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="D331" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E331" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="F331" s="27">
+        <v>3</v>
+      </c>
       <c r="G331" s="45"/>
+      <c r="H331" s="67">
+        <v>45642</v>
+      </c>
     </row>
     <row r="332" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B332" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C332" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="D332" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E332" s="34">
-        <v>15</v>
-      </c>
-      <c r="F332" s="33">
-        <v>0</v>
-      </c>
+      <c r="B332" s="46"/>
+      <c r="C332" s="33"/>
+      <c r="D332" s="33"/>
+      <c r="E332" s="34"/>
+      <c r="F332" s="33"/>
       <c r="G332" s="45"/>
     </row>
     <row r="333" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7314,42 +7464,42 @@
         <v>12</v>
       </c>
       <c r="C333" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D333" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E333" s="34">
+        <v>15</v>
+      </c>
+      <c r="F333" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B334" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C334" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="D333" s="33" t="s">
+      <c r="D334" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="E333" s="34">
+      <c r="E334" s="34">
         <v>4</v>
       </c>
-      <c r="F333" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="46"/>
-      <c r="C334" s="33"/>
-      <c r="D334" s="33"/>
-      <c r="E334" s="34"/>
-      <c r="F334" s="33"/>
+      <c r="F334" s="33">
+        <v>1</v>
+      </c>
       <c r="G334" s="45"/>
     </row>
     <row r="335" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C335" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="D335" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="E335" s="34">
-        <v>15</v>
-      </c>
-      <c r="F335" s="33">
-        <v>1</v>
-      </c>
+      <c r="B335" s="46"/>
+      <c r="C335" s="33"/>
+      <c r="D335" s="33"/>
+      <c r="E335" s="34"/>
+      <c r="F335" s="33"/>
       <c r="G335" s="45"/>
     </row>
     <row r="336" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7357,16 +7507,16 @@
         <v>13</v>
       </c>
       <c r="C336" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D336" s="33" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E336" s="34">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F336" s="33">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7374,58 +7524,58 @@
         <v>13</v>
       </c>
       <c r="C337" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D337" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E337" s="34">
+        <v>47</v>
+      </c>
+      <c r="F337" s="33">
+        <v>20</v>
+      </c>
+      <c r="G337" s="45"/>
+    </row>
+    <row r="338" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B338" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C338" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D338" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E338" s="34">
         <v>2</v>
       </c>
-      <c r="F337" s="33">
-        <v>9</v>
-      </c>
-      <c r="G337" s="45"/>
-    </row>
-    <row r="338" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B338" s="46"/>
-      <c r="C338" s="33"/>
-      <c r="D338" s="33"/>
-      <c r="E338" s="34"/>
-      <c r="F338" s="33"/>
+      <c r="F338" s="33">
+        <v>12</v>
+      </c>
     </row>
     <row r="339" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B339" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C339" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="D339" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="E339" s="34">
-        <v>6</v>
-      </c>
-      <c r="F339" s="33">
-        <v>3</v>
-      </c>
+      <c r="B339" s="46"/>
+      <c r="C339" s="33"/>
+      <c r="D339" s="33"/>
+      <c r="E339" s="34"/>
+      <c r="F339" s="33"/>
     </row>
     <row r="340" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C340" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D340" s="33" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="E340" s="34">
+        <v>6</v>
+      </c>
+      <c r="F340" s="33">
         <v>3</v>
-      </c>
-      <c r="F340" s="33">
-        <v>1</v>
       </c>
     </row>
     <row r="341" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7433,16 +7583,16 @@
         <v>14</v>
       </c>
       <c r="C341" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D341" s="33" t="s">
         <v>104</v>
       </c>
       <c r="E341" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F341" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G341" s="45"/>
     </row>
@@ -7451,16 +7601,16 @@
         <v>14</v>
       </c>
       <c r="C342" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D342" s="33" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E342" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F342" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G342" s="45"/>
     </row>
@@ -7469,25 +7619,35 @@
         <v>14</v>
       </c>
       <c r="C343" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D343" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E343" s="34">
+        <v>2</v>
+      </c>
+      <c r="F343" s="33">
+        <v>6</v>
+      </c>
+      <c r="G343" s="45"/>
+    </row>
+    <row r="344" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B344" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C344" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="D343" s="33" t="s">
+      <c r="D344" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="E343" s="34">
-        <v>1</v>
-      </c>
-      <c r="F343" s="33">
-        <v>1</v>
-      </c>
-      <c r="G343" s="45"/>
-    </row>
-    <row r="344" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B344" s="53"/>
-      <c r="C344" s="33"/>
-      <c r="D344" s="33"/>
-      <c r="E344" s="34"/>
-      <c r="F344" s="33"/>
+      <c r="E344" s="34">
+        <v>1</v>
+      </c>
+      <c r="F344" s="33">
+        <v>1</v>
+      </c>
       <c r="G344" s="45"/>
     </row>
     <row r="345" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7537,7 +7697,7 @@
       </c>
       <c r="F350" s="43">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7554,7 +7714,7 @@
   <ignoredErrors>
     <ignoredError sqref="M13:M14 M5:M7 L5:L6 L9:L11 M8:M12" formulaRange="1" emptyCellReference="1"/>
     <ignoredError sqref="E26:F26" emptyCellReference="1"/>
-    <ignoredError sqref="L16:M16 L13:L15 L7:L8 M15 M17" formulaRange="1"/>
+    <ignoredError sqref="L16:M16 L13:L15 L7:L8 M15 L17:M17" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7652,13 +7812,13 @@
         <v>21</v>
       </c>
       <c r="E7" s="30">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F7" s="31">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G7" s="32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K7" s="51"/>
     </row>
@@ -7673,13 +7833,13 @@
         <v>38</v>
       </c>
       <c r="E8" s="30">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F8" s="31">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G8" s="32">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -7687,19 +7847,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E9" s="30">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F9" s="31">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G9" s="32">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7707,19 +7867,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E10" s="30">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F10" s="31">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G10" s="32">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7727,19 +7887,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E11" s="30">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F11" s="31">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G11" s="32">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7747,19 +7907,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="E12" s="30">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F12" s="31">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G12" s="32">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7773,13 +7933,13 @@
         <v>17</v>
       </c>
       <c r="E13" s="30">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F13" s="31">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G13" s="32">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7787,19 +7947,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E14" s="30">
         <v>21</v>
       </c>
       <c r="F14" s="31">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G14" s="32">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7807,16 +7967,16 @@
         <v>9</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="E15" s="30">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F15" s="31">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G15" s="32">
         <v>21</v>
@@ -7827,19 +7987,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="E16" s="30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F16" s="31">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G16" s="32">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -7847,19 +8007,19 @@
         <v>11</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="E17" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17" s="31">
+        <v>41</v>
+      </c>
+      <c r="G17" s="32">
         <v>34</v>
-      </c>
-      <c r="G17" s="32">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -7873,13 +8033,13 @@
         <v>43</v>
       </c>
       <c r="E18" s="30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F18" s="31">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G18" s="32">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -7893,13 +8053,13 @@
         <v>30</v>
       </c>
       <c r="E19" s="30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F19" s="31">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G19" s="32">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/DL24-25.xlsx
+++ b/data/DL24-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0001c2a442dfed87/Documents/Dream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2633" documentId="8_{4A520963-05AC-46D2-973E-A3A248908BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC97661D-729D-4B3A-8423-152F5176465E}"/>
+  <xr:revisionPtr revIDLastSave="2786" documentId="8_{4A520963-05AC-46D2-973E-A3A248908BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB2FA1A8-A67C-4D41-AA09-81A1470188A6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="332">
   <si>
     <t>TONY APPLETON</t>
   </si>
@@ -1022,6 +1022,15 @@
   </si>
   <si>
     <t>SWANSEA</t>
+  </si>
+  <si>
+    <t>NEIL SIMKIN</t>
+  </si>
+  <si>
+    <t>BILLY SHARP</t>
+  </si>
+  <si>
+    <t>HARVEY KNIBBS</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1283,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1479,12 +1488,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1965,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="29">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="64"/>
@@ -1979,15 +1982,15 @@
       </c>
       <c r="K5" s="30">
         <f t="shared" ref="K5:K17" si="0">L5-M5</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L5" s="31">
         <f>SUM(F8:F25)</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M5" s="32">
         <f>SUM(F5:F7)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2008,11 +2011,11 @@
       </c>
       <c r="K6" s="30">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L6" s="31">
         <f>SUM(F35:F52)</f>
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="M6" s="32">
         <f>SUM(F32:F34)</f>
@@ -2037,15 +2040,15 @@
       </c>
       <c r="K7" s="30">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="31">
         <f>SUM(F62:F79)</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M7" s="32">
         <f>SUM(F59:F61)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2075,15 +2078,15 @@
       </c>
       <c r="K8" s="30">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L8" s="31">
         <f>SUM(F89:F106)</f>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M8" s="32">
         <f>SUM(F86:F88)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2113,15 +2116,15 @@
       </c>
       <c r="K9" s="30">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L9" s="31">
         <f>SUM(F116:F133)</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M9" s="32">
         <f>SUM(F113:F115)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2142,11 +2145,11 @@
       </c>
       <c r="K10" s="30">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="L10" s="31">
         <f>SUM(F143:F160)</f>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M10" s="32">
         <f>SUM(F140:F142)</f>
@@ -2167,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="65"/>
       <c r="I11" s="15" t="str">
@@ -2184,11 +2187,11 @@
       </c>
       <c r="L11" s="31">
         <f>SUM(F170:F187)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" s="32">
         <f>SUM(F167:F169)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2218,15 +2221,15 @@
       </c>
       <c r="K12" s="30">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L12" s="31">
         <f>SUM(F197:F214)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M12" s="32">
         <f>SUM(F194:F196)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2256,15 +2259,15 @@
       </c>
       <c r="K13" s="30">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L13" s="31">
         <f>SUM(F224:F241)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M13" s="32">
         <f>SUM(F221:F223)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2285,15 +2288,15 @@
       </c>
       <c r="K14" s="30">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L14" s="31">
         <f>SUM(F251:F268)</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M14" s="32">
         <f>SUM(F248:F250)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2310,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="66"/>
@@ -2324,15 +2327,15 @@
       </c>
       <c r="K15" s="30">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L15" s="31">
         <f>SUM(F277:F295)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M15" s="32">
         <f>SUM(F275:F276)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2365,15 +2368,15 @@
       </c>
       <c r="K16" s="30">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="31">
         <f>SUM(F305:F322)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M16" s="32">
         <f>SUM(F302:F304)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2408,11 +2411,11 @@
       </c>
       <c r="L17" s="31">
         <f>SUM(F332:F349)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M17" s="32">
         <f>SUM(F329:F331)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2500,7 +2503,7 @@
         <v>254</v>
       </c>
       <c r="F21" s="33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G21" s="45"/>
       <c r="H21" s="67">
@@ -2542,7 +2545,7 @@
         <v>254</v>
       </c>
       <c r="F23" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="45"/>
       <c r="H23" s="67">
@@ -2575,7 +2578,7 @@
       </c>
       <c r="F26" s="43">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="64"/>
@@ -2700,7 +2703,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G35" s="45"/>
       <c r="H35" s="64"/>
@@ -2737,7 +2740,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H37" s="64"/>
     </row>
@@ -2836,7 +2839,7 @@
         <v>23</v>
       </c>
       <c r="F42" s="33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G42" s="45"/>
       <c r="H42" s="64"/>
@@ -2940,7 +2943,7 @@
         <v>254</v>
       </c>
       <c r="F47" s="33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H47" s="67">
         <v>45578</v>
@@ -3004,7 +3007,7 @@
         <v>254</v>
       </c>
       <c r="F50" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H50" s="67">
         <v>45565</v>
@@ -3045,7 +3048,7 @@
         <v>254</v>
       </c>
       <c r="F52" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="67">
@@ -3061,7 +3064,7 @@
       </c>
       <c r="F53" s="43">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G53" s="17"/>
     </row>
@@ -3134,7 +3137,7 @@
         <v>15</v>
       </c>
       <c r="F59" s="29">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G59" s="50"/>
       <c r="H59" s="64"/>
@@ -3216,7 +3219,7 @@
         <v>30</v>
       </c>
       <c r="F65" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G65" s="45"/>
       <c r="H65" s="64"/>
@@ -3254,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H67" s="64"/>
     </row>
@@ -3421,7 +3424,7 @@
         <v>254</v>
       </c>
       <c r="F76" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="67">
         <v>45649</v>
@@ -3462,7 +3465,7 @@
       </c>
       <c r="F80" s="43">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="64"/>
@@ -3557,7 +3560,7 @@
         <v>254</v>
       </c>
       <c r="F87" s="27">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G87" s="50"/>
       <c r="H87" s="67">
@@ -3627,7 +3630,7 @@
         <v>254</v>
       </c>
       <c r="F91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" s="67">
         <v>45534</v>
@@ -3745,7 +3748,7 @@
         <v>45</v>
       </c>
       <c r="F97" s="33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H97" s="64"/>
     </row>
@@ -3784,7 +3787,7 @@
         <v>254</v>
       </c>
       <c r="F99" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H99" s="67">
         <v>45566</v>
@@ -3945,7 +3948,7 @@
       </c>
       <c r="F107" s="43">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G107" s="17"/>
     </row>
@@ -4018,7 +4021,7 @@
         <v>5</v>
       </c>
       <c r="F113" s="29">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G113" s="50"/>
       <c r="H113" s="64"/>
@@ -4136,7 +4139,7 @@
         <v>254</v>
       </c>
       <c r="F120" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H120" s="67">
         <v>45592</v>
@@ -4166,16 +4169,16 @@
       <c r="B122" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C122" s="71" t="s">
+      <c r="C122" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="D122" s="71" t="s">
+      <c r="D122" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="E122" s="72" t="s">
+      <c r="E122" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="F122" s="71">
+      <c r="F122" s="46">
         <v>2</v>
       </c>
       <c r="G122" s="14" t="s">
@@ -4186,7 +4189,7 @@
       </c>
     </row>
     <row r="123" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="71" t="s">
+      <c r="B123" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C123" s="33" t="s">
@@ -4244,7 +4247,7 @@
         <v>7</v>
       </c>
       <c r="F126" s="33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H126" s="64"/>
     </row>
@@ -4320,7 +4323,7 @@
         <v>254</v>
       </c>
       <c r="F130" s="33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H130" s="67">
         <v>45563</v>
@@ -4384,7 +4387,7 @@
         <v>254</v>
       </c>
       <c r="F133" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133" s="17"/>
       <c r="H133" s="67">
@@ -4400,7 +4403,7 @@
       </c>
       <c r="F134" s="43">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G134" s="17"/>
       <c r="H134" s="64"/>
@@ -4590,7 +4593,7 @@
         <v>254</v>
       </c>
       <c r="F147" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H147" s="67">
         <v>45604</v>
@@ -4610,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H148" s="64"/>
     </row>
@@ -4649,7 +4652,7 @@
         <v>254</v>
       </c>
       <c r="F150" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H150" s="67">
         <v>45564</v>
@@ -4676,7 +4679,7 @@
         <v>80</v>
       </c>
       <c r="F152" s="33">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G152" s="45"/>
       <c r="H152" s="64"/>
@@ -4739,7 +4742,7 @@
         <v>254</v>
       </c>
       <c r="F155" s="33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H155" s="67">
         <v>45592</v>
@@ -4780,7 +4783,7 @@
         <v>254</v>
       </c>
       <c r="F157" s="33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H157" s="67">
         <v>45552</v>
@@ -4841,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="29">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G160" s="17"/>
       <c r="H160" s="64"/>
@@ -4855,7 +4858,7 @@
       </c>
       <c r="F161" s="43">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="64"/>
@@ -4929,7 +4932,7 @@
         <v>7</v>
       </c>
       <c r="F167" s="29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G167" s="50"/>
       <c r="H167" s="64"/>
@@ -5197,7 +5200,7 @@
         <v>38</v>
       </c>
       <c r="F183" s="33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H183" s="64"/>
     </row>
@@ -5342,7 +5345,7 @@
         <v>4</v>
       </c>
       <c r="F194" s="29">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G194" s="50"/>
       <c r="H194" s="64"/>
@@ -5535,7 +5538,7 @@
         <v>13</v>
       </c>
       <c r="F206" s="33">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G206" s="45"/>
       <c r="H206" s="64"/>
@@ -5554,7 +5557,7 @@
         <v>4</v>
       </c>
       <c r="F207" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H207" s="64"/>
     </row>
@@ -5670,7 +5673,7 @@
       </c>
       <c r="F215" s="43">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G215" s="17"/>
       <c r="H215" s="64"/>
@@ -5744,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="29">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G221" s="50"/>
       <c r="H221" s="64"/>
@@ -5781,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H224" s="64"/>
     </row>
@@ -5799,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225" s="45"/>
       <c r="H225" s="64"/>
@@ -5952,7 +5955,7 @@
         <v>254</v>
       </c>
       <c r="F233" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G233" s="45"/>
       <c r="H233" s="67">
@@ -6110,7 +6113,7 @@
       </c>
       <c r="F242" s="43">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G242" s="17"/>
       <c r="H242" s="64"/>
@@ -6175,7 +6178,7 @@
         <v>8</v>
       </c>
       <c r="F248" s="29">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G248" s="50"/>
     </row>
@@ -6333,7 +6336,7 @@
         <v>30</v>
       </c>
       <c r="F259" s="33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G259" s="45"/>
     </row>
@@ -6371,7 +6374,7 @@
         <v>254</v>
       </c>
       <c r="F261" s="33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H261" s="67">
         <v>45534</v>
@@ -6412,7 +6415,7 @@
         <v>254</v>
       </c>
       <c r="F263" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H263" s="67">
         <v>45627</v>
@@ -6485,7 +6488,7 @@
       </c>
       <c r="F269" s="43">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G269" s="17"/>
     </row>
@@ -6548,7 +6551,7 @@
         <v>10</v>
       </c>
       <c r="F275" s="29">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G275" s="17"/>
     </row>
@@ -6623,7 +6626,7 @@
         <v>7</v>
       </c>
       <c r="F281" s="33">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G281" s="45"/>
     </row>
@@ -6684,7 +6687,7 @@
         <v>2</v>
       </c>
       <c r="F285" s="33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G285" s="45"/>
     </row>
@@ -6879,7 +6882,7 @@
       </c>
       <c r="F296" s="43">
         <f>SUM(F278:F295)-SUM(F275:F277)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G296" s="17"/>
     </row>
@@ -6953,17 +6956,17 @@
       <c r="B303" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C303" s="27" t="s">
+      <c r="C303" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="D303" s="27" t="s">
+      <c r="D303" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E303" s="28" t="s">
+      <c r="E303" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="F303" s="27">
-        <v>20</v>
+      <c r="F303" s="49">
+        <v>21</v>
       </c>
       <c r="G303" s="50"/>
       <c r="H303" s="67">
@@ -6971,12 +6974,25 @@
       </c>
     </row>
     <row r="304" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B304" s="49"/>
-      <c r="C304" s="27"/>
-      <c r="D304" s="27"/>
-      <c r="E304" s="28"/>
-      <c r="F304" s="27"/>
+      <c r="B304" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C304" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="D304" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E304" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="F304" s="27">
+        <v>1</v>
+      </c>
       <c r="G304" s="45"/>
+      <c r="H304" s="67">
+        <v>45657</v>
+      </c>
     </row>
     <row r="305" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="46" t="s">
@@ -6986,7 +7002,7 @@
         <v>204</v>
       </c>
       <c r="D305" s="33" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="E305" s="34">
         <v>2</v>
@@ -7028,7 +7044,7 @@
         <v>15</v>
       </c>
       <c r="F307" s="33">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7343,7 +7359,7 @@
       </c>
       <c r="F323" s="43">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G323" s="17"/>
     </row>
@@ -7444,7 +7460,7 @@
         <v>254</v>
       </c>
       <c r="F331" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G331" s="45"/>
       <c r="H331" s="67">
@@ -7506,189 +7522,249 @@
       <c r="B336" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C336" s="33" t="s">
+      <c r="C336" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="D336" s="33" t="s">
+      <c r="D336" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="E336" s="34">
+      <c r="E336" s="61">
         <v>15</v>
       </c>
-      <c r="F336" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F336" s="46">
+        <v>2</v>
+      </c>
+      <c r="G336" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="337" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C337" s="33" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="D337" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E337" s="34">
-        <v>47</v>
+        <v>322</v>
+      </c>
+      <c r="E337" s="34" t="s">
+        <v>254</v>
       </c>
       <c r="F337" s="33">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G337" s="45"/>
-    </row>
-    <row r="338" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H337" s="67">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="338" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C338" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D338" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E338" s="34">
+        <v>47</v>
+      </c>
+      <c r="F338" s="33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="339" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B339" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C339" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D339" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E339" s="34">
         <v>2</v>
       </c>
-      <c r="F338" s="33">
+      <c r="F339" s="33">
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B339" s="46"/>
-      <c r="C339" s="33"/>
-      <c r="D339" s="33"/>
-      <c r="E339" s="34"/>
-      <c r="F339" s="33"/>
-    </row>
-    <row r="340" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B340" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C340" s="33" t="s">
+    <row r="340" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B340" s="46"/>
+      <c r="C340" s="33"/>
+      <c r="D340" s="33"/>
+      <c r="E340" s="34"/>
+      <c r="F340" s="33"/>
+    </row>
+    <row r="341" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C341" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="D340" s="33" t="s">
+      <c r="D341" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E340" s="34">
+      <c r="E341" s="61">
         <v>6</v>
       </c>
-      <c r="F340" s="33">
+      <c r="F341" s="46">
         <v>3</v>
       </c>
-    </row>
-    <row r="341" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B341" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C341" s="33" t="s">
+      <c r="G341" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="342" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B342" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C342" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D342" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="E342" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F342" s="33">
+        <v>0</v>
+      </c>
+      <c r="H342" s="67">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="343" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B343" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C343" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="D341" s="33" t="s">
+      <c r="D343" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="E341" s="34">
+      <c r="E343" s="34">
         <v>3</v>
       </c>
-      <c r="F341" s="33">
+      <c r="F343" s="33">
         <v>4</v>
       </c>
-      <c r="G341" s="45"/>
-    </row>
-    <row r="342" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C342" s="33" t="s">
+      <c r="G343" s="45"/>
+    </row>
+    <row r="344" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B344" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C344" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="D342" s="33" t="s">
+      <c r="D344" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E342" s="34">
-        <v>1</v>
-      </c>
-      <c r="F342" s="33">
-        <v>1</v>
-      </c>
-      <c r="G342" s="45"/>
-    </row>
-    <row r="343" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B343" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C343" s="33" t="s">
+      <c r="E344" s="61">
+        <v>1</v>
+      </c>
+      <c r="F344" s="46">
+        <v>1</v>
+      </c>
+      <c r="G344" s="45" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="345" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C345" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="D345" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E345" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F345" s="33">
+        <v>0</v>
+      </c>
+      <c r="G345" s="45"/>
+      <c r="H345" s="67">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="346" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B346" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C346" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="D343" s="33" t="s">
+      <c r="D346" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E343" s="34">
+      <c r="E346" s="34">
         <v>2</v>
       </c>
-      <c r="F343" s="33">
+      <c r="F346" s="33">
         <v>6</v>
       </c>
-      <c r="G343" s="45"/>
-    </row>
-    <row r="344" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B344" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C344" s="33" t="s">
+      <c r="G346" s="45"/>
+    </row>
+    <row r="347" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B347" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C347" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="D344" s="33" t="s">
+      <c r="D347" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="E344" s="34">
-        <v>1</v>
-      </c>
-      <c r="F344" s="33">
-        <v>1</v>
-      </c>
-      <c r="G344" s="45"/>
-    </row>
-    <row r="345" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B345" s="46"/>
-      <c r="C345" s="33"/>
-      <c r="D345" s="33"/>
-      <c r="E345" s="34"/>
-      <c r="F345" s="33"/>
-      <c r="G345" s="45"/>
-    </row>
-    <row r="346" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B346" s="46"/>
-      <c r="C346" s="33"/>
-      <c r="D346" s="33"/>
-      <c r="E346" s="34"/>
-      <c r="F346" s="33"/>
-    </row>
-    <row r="347" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B347" s="46"/>
-      <c r="C347" s="33"/>
-      <c r="D347" s="33"/>
-      <c r="E347" s="34"/>
-      <c r="F347" s="33"/>
-      <c r="G347" s="45"/>
-    </row>
-    <row r="348" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B348" s="46"/>
-      <c r="C348" s="33"/>
-      <c r="D348" s="33"/>
-      <c r="E348" s="34"/>
-      <c r="F348" s="33"/>
-      <c r="G348" s="45"/>
-    </row>
-    <row r="349" spans="2:7" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E347" s="61">
+        <v>1</v>
+      </c>
+      <c r="F347" s="46">
+        <v>1</v>
+      </c>
+      <c r="G347" s="45" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="348" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B348" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C348" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="D348" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E348" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F348" s="33">
+        <v>0</v>
+      </c>
+      <c r="H348" s="67">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="349" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B349" s="48"/>
       <c r="C349" s="41"/>
       <c r="D349" s="41"/>
       <c r="E349" s="28"/>
       <c r="F349" s="29"/>
     </row>
-    <row r="350" spans="2:7" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C350" s="15"/>
       <c r="D350" s="15"/>
       <c r="E350" s="42">
@@ -7700,7 +7776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="2:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C351" s="15"/>
       <c r="D351" s="15"/>
       <c r="E351" s="16"/>
@@ -7812,10 +7888,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="30">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F7" s="31">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G7" s="32">
         <v>16</v>
@@ -7827,19 +7903,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E8" s="30">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F8" s="31">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G8" s="32">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -7847,19 +7923,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="30">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F9" s="31">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G9" s="32">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7873,13 +7949,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="30">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" s="31">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G10" s="32">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7887,19 +7963,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E11" s="30">
         <v>30</v>
       </c>
       <c r="F11" s="31">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G11" s="32">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7913,13 +7989,13 @@
         <v>44</v>
       </c>
       <c r="E12" s="30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="31">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G12" s="32">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7927,19 +8003,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E13" s="30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="31">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13" s="32">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7947,19 +8023,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="E14" s="30">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F14" s="31">
         <v>48</v>
       </c>
       <c r="G14" s="32">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7967,19 +8043,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="E15" s="30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="31">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G15" s="32">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7996,10 +8072,10 @@
         <v>10</v>
       </c>
       <c r="F16" s="31">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G16" s="32">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -8013,13 +8089,13 @@
         <v>42</v>
       </c>
       <c r="E17" s="30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F17" s="31">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G17" s="32">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -8027,19 +8103,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E18" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" s="31">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G18" s="32">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -8047,19 +8123,19 @@
         <v>13</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E19" s="30">
         <v>6</v>
       </c>
       <c r="F19" s="31">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G19" s="32">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/DL24-25.xlsx
+++ b/data/DL24-25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0001c2a442dfed87/Documents/Dream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2786" documentId="8_{4A520963-05AC-46D2-973E-A3A248908BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB2FA1A8-A67C-4D41-AA09-81A1470188A6}"/>
+  <xr:revisionPtr revIDLastSave="3277" documentId="8_{4A520963-05AC-46D2-973E-A3A248908BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4014A92-B58F-4FE0-8C2B-83DC3C0782B6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="347">
   <si>
     <t>TONY APPLETON</t>
   </si>
@@ -871,9 +871,6 @@
     <t>NONI MADUEKE</t>
   </si>
   <si>
-    <t>JAMES BERRY-McNALLY</t>
-  </si>
-  <si>
     <t>MORGAN WHITTAKER</t>
   </si>
   <si>
@@ -1031,6 +1028,54 @@
   </si>
   <si>
     <t>HARVEY KNIBBS</t>
+  </si>
+  <si>
+    <t>JACK LANKESTER</t>
+  </si>
+  <si>
+    <t>OMAR MARMOUSH</t>
+  </si>
+  <si>
+    <t>JUSTIN KLUIVERT</t>
+  </si>
+  <si>
+    <t>BOURNEMOUTH</t>
+  </si>
+  <si>
+    <t>BEN BRERETON-DIAZ</t>
+  </si>
+  <si>
+    <t>HULL</t>
+  </si>
+  <si>
+    <t>JAMES BERRY</t>
+  </si>
+  <si>
+    <t>JOSH WINDASS</t>
+  </si>
+  <si>
+    <t>CALLUM ROBINSON</t>
+  </si>
+  <si>
+    <t>CARDIFF</t>
+  </si>
+  <si>
+    <t>OWEN GOODMAN</t>
+  </si>
+  <si>
+    <t>CHELTENHAM</t>
+  </si>
+  <si>
+    <t>JON DADI BODVARSSON</t>
+  </si>
+  <si>
+    <t>DAN KEMP</t>
+  </si>
+  <si>
+    <t>MATHYS TEL</t>
+  </si>
+  <si>
+    <t>RUMARN BURRELL</t>
   </si>
 </sst>
 </file>
@@ -1909,7 +1954,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="17"/>
       <c r="H2" s="70" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1968,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="29">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="64"/>
@@ -1982,15 +2027,15 @@
       </c>
       <c r="K5" s="30">
         <f t="shared" ref="K5:K17" si="0">L5-M5</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L5" s="31">
         <f>SUM(F8:F25)</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M5" s="32">
         <f>SUM(F5:F7)</f>
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2011,15 +2056,15 @@
       </c>
       <c r="K6" s="30">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="L6" s="31">
         <f>SUM(F35:F52)</f>
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="M6" s="32">
         <f>SUM(F32:F34)</f>
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2040,15 +2085,15 @@
       </c>
       <c r="K7" s="30">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L7" s="31">
         <f>SUM(F62:F79)</f>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M7" s="32">
         <f>SUM(F59:F61)</f>
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2078,15 +2123,15 @@
       </c>
       <c r="K8" s="30">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L8" s="31">
         <f>SUM(F89:F106)</f>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M8" s="32">
         <f>SUM(F86:F88)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2116,15 +2161,15 @@
       </c>
       <c r="K9" s="30">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L9" s="31">
         <f>SUM(F116:F133)</f>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="M9" s="32">
         <f>SUM(F113:F115)</f>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2145,15 +2190,15 @@
       </c>
       <c r="K10" s="30">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="L10" s="31">
         <f>SUM(F143:F160)</f>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M10" s="32">
         <f>SUM(F140:F142)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2170,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" s="65"/>
       <c r="I11" s="15" t="str">
@@ -2183,15 +2228,15 @@
       </c>
       <c r="K11" s="30">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L11" s="31">
         <f>SUM(F170:F187)</f>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="M11" s="32">
         <f>SUM(F167:F169)</f>
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2221,15 +2266,15 @@
       </c>
       <c r="K12" s="30">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L12" s="31">
         <f>SUM(F197:F214)</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M12" s="32">
         <f>SUM(F194:F196)</f>
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2246,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="65"/>
       <c r="I13" s="15" t="str">
@@ -2259,15 +2304,15 @@
       </c>
       <c r="K13" s="30">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L13" s="31">
         <f>SUM(F224:F241)</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M13" s="32">
         <f>SUM(F221:F223)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2288,15 +2333,15 @@
       </c>
       <c r="K14" s="30">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="L14" s="31">
         <f>SUM(F251:F268)</f>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="M14" s="32">
         <f>SUM(F248:F250)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2313,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="66"/>
@@ -2327,15 +2372,15 @@
       </c>
       <c r="K15" s="30">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L15" s="31">
         <f>SUM(F277:F295)</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M15" s="32">
         <f>SUM(F275:F276)</f>
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2368,32 +2413,35 @@
       </c>
       <c r="K16" s="30">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L16" s="31">
         <f>SUM(F305:F322)</f>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M16" s="32">
         <f>SUM(F302:F304)</f>
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="33" t="s">
+      <c r="C17" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F17" s="33">
+      <c r="E17" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="46">
         <v>2</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="H17" s="67">
         <v>45551</v>
@@ -2407,37 +2455,36 @@
       </c>
       <c r="K17" s="30">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L17" s="31">
         <f>SUM(F332:F349)</f>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="M17" s="32">
         <f>SUM(F329:F331)</f>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="61">
-        <v>1</v>
-      </c>
-      <c r="F18" s="46">
-        <v>0</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="H18" s="64"/>
+      <c r="C18" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="33">
+        <v>1</v>
+      </c>
+      <c r="H18" s="67">
+        <v>45693</v>
+      </c>
       <c r="I18" s="36"/>
       <c r="J18" s="37"/>
       <c r="K18" s="38"/>
@@ -2448,22 +2495,22 @@
       <c r="B19" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F19" s="33">
-        <v>14</v>
-      </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="67">
-        <v>45515</v>
-      </c>
+      <c r="C19" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="61">
+        <v>1</v>
+      </c>
+      <c r="F19" s="46">
+        <v>0</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" s="64"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
@@ -2472,102 +2519,127 @@
       <c r="B20" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="61">
-        <v>1</v>
-      </c>
-      <c r="F20" s="46">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="H20" s="64"/>
+      <c r="C20" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="33">
+        <v>14</v>
+      </c>
+      <c r="G20" s="45"/>
+      <c r="H20" s="67">
+        <v>45515</v>
+      </c>
     </row>
     <row r="21" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F21" s="33">
-        <v>9</v>
-      </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="67">
-        <v>45515</v>
-      </c>
+      <c r="C21" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="61">
+        <v>1</v>
+      </c>
+      <c r="F21" s="46">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="E22" s="61">
-        <v>1</v>
-      </c>
-      <c r="F22" s="46">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="H22" s="67"/>
+      <c r="C22" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="33">
+        <v>9</v>
+      </c>
+      <c r="G22" s="45"/>
+      <c r="H22" s="67">
+        <v>45515</v>
+      </c>
     </row>
     <row r="23" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23" s="61">
+        <v>1</v>
+      </c>
+      <c r="F23" s="46">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H23" s="67"/>
+    </row>
+    <row r="24" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F23" s="33">
-        <v>1</v>
-      </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="67">
+      <c r="E24" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="46">
+        <v>2</v>
+      </c>
+      <c r="G24" s="45"/>
+      <c r="H24" s="67">
         <v>45537</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="64"/>
-    </row>
     <row r="25" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="48"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
+      <c r="B25" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="29">
+        <v>1</v>
+      </c>
       <c r="G25" s="50"/>
+      <c r="H25" s="67">
+        <v>45693</v>
+      </c>
     </row>
     <row r="26" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="15"/>
@@ -2578,7 +2650,7 @@
       </c>
       <c r="F26" s="43">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="64"/>
@@ -2664,16 +2736,16 @@
         <v>11</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>254</v>
       </c>
       <c r="F33" s="27">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G33" s="50"/>
       <c r="H33" s="67">
@@ -2722,7 +2794,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="33">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H36" s="64"/>
     </row>
@@ -2740,7 +2812,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="33">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H37" s="64"/>
     </row>
@@ -2752,7 +2824,7 @@
         <v>54</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E38" s="34">
         <v>7</v>
@@ -2800,7 +2872,9 @@
       <c r="F40" s="46">
         <v>2</v>
       </c>
-      <c r="G40" s="45"/>
+      <c r="G40" s="45" t="s">
+        <v>256</v>
+      </c>
       <c r="H40" s="67">
         <v>45523</v>
       </c>
@@ -2819,7 +2893,7 @@
         <v>254</v>
       </c>
       <c r="F41" s="33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H41" s="67">
         <v>45642</v>
@@ -2839,7 +2913,7 @@
         <v>23</v>
       </c>
       <c r="F42" s="33">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G42" s="45"/>
       <c r="H42" s="64"/>
@@ -2870,16 +2944,16 @@
         <v>14</v>
       </c>
       <c r="C44" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="D44" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="D44" s="33" t="s">
-        <v>318</v>
-      </c>
       <c r="E44" s="34" t="s">
         <v>254</v>
       </c>
       <c r="F44" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H44" s="67">
         <v>45621</v>
@@ -2943,7 +3017,7 @@
         <v>254</v>
       </c>
       <c r="F47" s="33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H47" s="67">
         <v>45578</v>
@@ -3007,7 +3081,7 @@
         <v>254</v>
       </c>
       <c r="F50" s="33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H50" s="67">
         <v>45565</v>
@@ -3039,7 +3113,7 @@
         <v>14</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D52" s="41" t="s">
         <v>55</v>
@@ -3048,7 +3122,7 @@
         <v>254</v>
       </c>
       <c r="F52" s="29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="67">
@@ -3064,7 +3138,7 @@
       </c>
       <c r="F53" s="43">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G53" s="17"/>
     </row>
@@ -3137,7 +3211,7 @@
         <v>15</v>
       </c>
       <c r="F59" s="29">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G59" s="50"/>
       <c r="H59" s="64"/>
@@ -3174,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" s="45"/>
       <c r="H62" s="64"/>
@@ -3219,7 +3293,7 @@
         <v>30</v>
       </c>
       <c r="F65" s="33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G65" s="45"/>
       <c r="H65" s="64"/>
@@ -3238,7 +3312,7 @@
         <v>10</v>
       </c>
       <c r="F66" s="33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G66" s="45"/>
       <c r="H66" s="64"/>
@@ -3257,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="33">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H67" s="64"/>
     </row>
@@ -3278,7 +3352,7 @@
         <v>76</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E69" s="34">
         <v>6</v>
@@ -3296,7 +3370,7 @@
         <v>78</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="E70" s="34">
         <v>25</v>
@@ -3315,7 +3389,7 @@
         <v>80</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="E71" s="34">
         <v>1</v>
@@ -3369,7 +3443,7 @@
         <v>14</v>
       </c>
       <c r="C74" s="46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D74" s="46" t="s">
         <v>92</v>
@@ -3414,30 +3488,45 @@
       <c r="B76" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="D76" s="33" t="s">
+      <c r="C76" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="D76" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E76" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F76" s="33">
-        <v>1</v>
+      <c r="E76" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" s="46">
+        <v>1</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="H76" s="67">
         <v>45649</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="46"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="33"/>
+      <c r="B77" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F77" s="33">
+        <v>0</v>
+      </c>
       <c r="G77" s="45"/>
-      <c r="H77" s="64"/>
+      <c r="H77" s="67">
+        <v>45670</v>
+      </c>
     </row>
     <row r="78" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="46"/>
@@ -3465,7 +3554,7 @@
       </c>
       <c r="F80" s="43">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="64"/>
@@ -3551,7 +3640,7 @@
         <v>11</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>131</v>
@@ -3560,7 +3649,7 @@
         <v>254</v>
       </c>
       <c r="F87" s="27">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G87" s="50"/>
       <c r="H87" s="67">
@@ -3621,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D91" s="33" t="s">
         <v>57</v>
@@ -3661,16 +3750,16 @@
         <v>13</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="E93" s="34" t="s">
         <v>254</v>
       </c>
       <c r="F93" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H93" s="67">
         <v>45534</v>
@@ -3690,7 +3779,7 @@
         <v>33</v>
       </c>
       <c r="F94" s="33">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3728,7 +3817,7 @@
         <v>254</v>
       </c>
       <c r="F96" s="33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H96" s="67">
         <v>45526</v>
@@ -3778,10 +3867,10 @@
         <v>14</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="E99" s="34" t="s">
         <v>254</v>
@@ -3818,7 +3907,7 @@
         <v>14</v>
       </c>
       <c r="C101" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D101" s="46" t="s">
         <v>151</v>
@@ -3882,7 +3971,7 @@
         <v>14</v>
       </c>
       <c r="C104" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D104" s="46" t="s">
         <v>102</v>
@@ -3914,7 +4003,7 @@
         <v>254</v>
       </c>
       <c r="F105" s="33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H105" s="67">
         <v>45627</v>
@@ -3925,7 +4014,7 @@
         <v>14</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="41" t="s">
         <v>100</v>
@@ -3948,7 +4037,7 @@
       </c>
       <c r="F107" s="43">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G107" s="17"/>
     </row>
@@ -4021,7 +4110,7 @@
         <v>5</v>
       </c>
       <c r="F113" s="29">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G113" s="50"/>
       <c r="H113" s="64"/>
@@ -4052,7 +4141,7 @@
         <v>101</v>
       </c>
       <c r="D116" s="33" t="s">
-        <v>102</v>
+        <v>342</v>
       </c>
       <c r="E116" s="34">
         <v>3</v>
@@ -4107,10 +4196,10 @@
         <v>13</v>
       </c>
       <c r="C119" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D119" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E119" s="61" t="s">
         <v>254</v>
@@ -4139,7 +4228,7 @@
         <v>254</v>
       </c>
       <c r="F120" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H120" s="67">
         <v>45592</v>
@@ -4193,16 +4282,16 @@
         <v>13</v>
       </c>
       <c r="C123" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="D123" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="D123" s="33" t="s">
-        <v>328</v>
-      </c>
       <c r="E123" s="34" t="s">
         <v>254</v>
       </c>
       <c r="F123" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" s="67">
         <v>45653</v>
@@ -4224,69 +4313,85 @@
       <c r="F124" s="33">
         <v>4</v>
       </c>
+      <c r="H124" s="67"/>
     </row>
     <row r="125" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="46"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="34"/>
-      <c r="F125" s="33"/>
-      <c r="H125" s="64"/>
+      <c r="B125" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E125" s="34">
+        <v>7</v>
+      </c>
+      <c r="F125" s="33">
+        <v>13</v>
+      </c>
+      <c r="H125" s="67"/>
     </row>
     <row r="126" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C126" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D126" s="33" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E126" s="34">
+        <v>15</v>
+      </c>
+      <c r="F126" s="33">
         <v>7</v>
       </c>
-      <c r="F126" s="33">
-        <v>8</v>
-      </c>
-      <c r="H126" s="64"/>
+      <c r="H126" s="67"/>
     </row>
     <row r="127" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C127" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D127" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E127" s="34">
-        <v>15</v>
-      </c>
-      <c r="F127" s="33">
-        <v>7</v>
-      </c>
-      <c r="H127" s="64"/>
+      <c r="C127" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D127" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E127" s="61">
+        <v>39</v>
+      </c>
+      <c r="F127" s="46">
+        <v>6</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H127" s="67"/>
     </row>
     <row r="128" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C128" s="33" t="s">
-        <v>112</v>
+        <v>346</v>
       </c>
       <c r="D128" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E128" s="34">
-        <v>39</v>
+        <v>77</v>
+      </c>
+      <c r="E128" s="34" t="s">
+        <v>254</v>
       </c>
       <c r="F128" s="33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G128" s="45"/>
-      <c r="H128" s="64"/>
+      <c r="H128" s="67">
+        <v>45698</v>
+      </c>
     </row>
     <row r="129" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="46" t="s">
@@ -4314,16 +4419,16 @@
         <v>14</v>
       </c>
       <c r="C130" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D130" s="33" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="E130" s="34" t="s">
         <v>254</v>
       </c>
       <c r="F130" s="33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H130" s="67">
         <v>45563</v>
@@ -4355,7 +4460,7 @@
         <v>14</v>
       </c>
       <c r="C132" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D132" s="46" t="s">
         <v>192</v>
@@ -4378,16 +4483,16 @@
         <v>14</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>322</v>
+        <v>169</v>
       </c>
       <c r="E133" s="28" t="s">
         <v>254</v>
       </c>
       <c r="F133" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G133" s="17"/>
       <c r="H133" s="67">
@@ -4403,7 +4508,7 @@
       </c>
       <c r="F134" s="43">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G134" s="17"/>
       <c r="H134" s="64"/>
@@ -4498,7 +4603,7 @@
         <v>254</v>
       </c>
       <c r="F141" s="27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G141" s="50"/>
       <c r="H141" s="67">
@@ -4551,71 +4656,86 @@
       <c r="H144" s="64"/>
     </row>
     <row r="145" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="46"/>
-      <c r="C145" s="33"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="34"/>
-      <c r="F145" s="33"/>
+      <c r="B145" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D145" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E145" s="61">
+        <v>1</v>
+      </c>
+      <c r="F145" s="46">
+        <v>2</v>
+      </c>
+      <c r="G145" s="45" t="s">
+        <v>256</v>
+      </c>
       <c r="H145" s="64"/>
     </row>
     <row r="146" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C146" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="D146" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E146" s="61">
-        <v>1</v>
-      </c>
-      <c r="F146" s="46">
-        <v>2</v>
-      </c>
-      <c r="G146" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="H146" s="64"/>
+      <c r="C146" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="D146" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="E146" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F146" s="33">
+        <v>6</v>
+      </c>
+      <c r="H146" s="67">
+        <v>45604</v>
+      </c>
     </row>
     <row r="147" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C147" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="D147" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="E147" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F147" s="33">
-        <v>4</v>
-      </c>
-      <c r="H147" s="67">
-        <v>45604</v>
-      </c>
+      <c r="C147" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D147" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E147" s="61">
+        <v>1</v>
+      </c>
+      <c r="F147" s="46">
+        <v>6</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H147" s="64"/>
     </row>
     <row r="148" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>123</v>
+        <v>344</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E148" s="34">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="E148" s="34" t="s">
+        <v>254</v>
       </c>
       <c r="F148" s="33">
-        <v>6</v>
-      </c>
-      <c r="H148" s="64"/>
+        <v>0</v>
+      </c>
+      <c r="H148" s="67">
+        <v>45692</v>
+      </c>
     </row>
     <row r="149" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="46" t="s">
@@ -4643,10 +4763,10 @@
         <v>13</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E150" s="34" t="s">
         <v>254</v>
@@ -4679,7 +4799,7 @@
         <v>80</v>
       </c>
       <c r="F152" s="33">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G152" s="45"/>
       <c r="H152" s="64"/>
@@ -4710,7 +4830,7 @@
         <v>14</v>
       </c>
       <c r="C154" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D154" s="46" t="s">
         <v>169</v>
@@ -4733,7 +4853,7 @@
         <v>14</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D155" s="33" t="s">
         <v>49</v>
@@ -4742,7 +4862,7 @@
         <v>254</v>
       </c>
       <c r="F155" s="33">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H155" s="67">
         <v>45592</v>
@@ -4774,7 +4894,7 @@
         <v>14</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D157" s="33" t="s">
         <v>106</v>
@@ -4783,7 +4903,7 @@
         <v>254</v>
       </c>
       <c r="F157" s="33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H157" s="67">
         <v>45552</v>
@@ -4815,7 +4935,7 @@
         <v>14</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D159" s="33" t="s">
         <v>140</v>
@@ -4844,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="29">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G160" s="17"/>
       <c r="H160" s="64"/>
@@ -4858,7 +4978,7 @@
       </c>
       <c r="F161" s="43">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="64"/>
@@ -4932,7 +5052,7 @@
         <v>7</v>
       </c>
       <c r="F167" s="29">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G167" s="50"/>
       <c r="H167" s="64"/>
@@ -4993,70 +5113,82 @@
       <c r="H171" s="64"/>
     </row>
     <row r="172" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="46"/>
-      <c r="C172" s="33"/>
-      <c r="D172" s="33"/>
-      <c r="E172" s="34"/>
-      <c r="F172" s="33"/>
-      <c r="G172" s="45"/>
+      <c r="B172" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D172" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E172" s="61">
+        <v>9</v>
+      </c>
+      <c r="F172" s="46">
+        <v>1</v>
+      </c>
+      <c r="G172" s="45" t="s">
+        <v>256</v>
+      </c>
       <c r="H172" s="64"/>
     </row>
     <row r="173" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C173" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D173" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E173" s="61">
-        <v>9</v>
-      </c>
-      <c r="F173" s="46">
-        <v>1</v>
-      </c>
-      <c r="G173" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="H173" s="64"/>
+      <c r="C173" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D173" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E173" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F173" s="33">
+        <v>4</v>
+      </c>
+      <c r="H173" s="67">
+        <v>45601</v>
+      </c>
     </row>
     <row r="174" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C174" s="33" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="D174" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="E174" s="34" t="s">
-        <v>254</v>
+        <v>67</v>
+      </c>
+      <c r="E174" s="34">
+        <v>15</v>
       </c>
       <c r="F174" s="33">
-        <v>4</v>
-      </c>
-      <c r="H174" s="67">
-        <v>45601</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H174" s="64"/>
     </row>
     <row r="175" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C175" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D175" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E175" s="34">
-        <v>15</v>
-      </c>
-      <c r="F175" s="33">
-        <v>12</v>
+      <c r="C175" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D175" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E175" s="61">
+        <v>1</v>
+      </c>
+      <c r="F175" s="46">
+        <v>0</v>
+      </c>
+      <c r="G175" s="45" t="s">
+        <v>256</v>
       </c>
       <c r="H175" s="64"/>
     </row>
@@ -5064,203 +5196,233 @@
       <c r="B176" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C176" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D176" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E176" s="61">
-        <v>1</v>
-      </c>
-      <c r="F176" s="46">
-        <v>0</v>
-      </c>
-      <c r="G176" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="H176" s="64"/>
+      <c r="C176" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D176" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E176" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F176" s="33">
+        <v>7</v>
+      </c>
+      <c r="H176" s="67">
+        <v>45526</v>
+      </c>
     </row>
     <row r="177" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C177" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="D177" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="E177" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F177" s="33">
-        <v>5</v>
-      </c>
-      <c r="H177" s="67">
-        <v>45526</v>
-      </c>
+      <c r="B177" s="53"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="53"/>
+      <c r="E177" s="60"/>
+      <c r="F177" s="53"/>
+      <c r="H177" s="64"/>
     </row>
     <row r="178" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="53"/>
-      <c r="C178" s="53"/>
-      <c r="D178" s="53"/>
-      <c r="E178" s="60"/>
-      <c r="F178" s="53"/>
-      <c r="H178" s="64"/>
+      <c r="B178" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D178" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E178" s="34">
+        <v>3</v>
+      </c>
+      <c r="F178" s="33">
+        <v>7</v>
+      </c>
     </row>
     <row r="179" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C179" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D179" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E179" s="34">
-        <v>3</v>
-      </c>
-      <c r="F179" s="33">
-        <v>7</v>
-      </c>
+      <c r="C179" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D179" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E179" s="61">
+        <v>4</v>
+      </c>
+      <c r="F179" s="46">
+        <v>2</v>
+      </c>
+      <c r="G179" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H179" s="64"/>
     </row>
     <row r="180" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C180" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D180" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E180" s="61">
-        <v>4</v>
-      </c>
-      <c r="F180" s="46">
-        <v>2</v>
-      </c>
-      <c r="G180" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="H180" s="64"/>
+      <c r="C180" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="D180" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="E180" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F180" s="33">
+        <v>9</v>
+      </c>
+      <c r="H180" s="67">
+        <v>45601</v>
+      </c>
     </row>
     <row r="181" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C181" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="D181" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="E181" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F181" s="33">
-        <v>3</v>
-      </c>
-      <c r="H181" s="67">
-        <v>45601</v>
-      </c>
+      <c r="C181" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D181" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E181" s="61">
+        <v>5</v>
+      </c>
+      <c r="F181" s="46">
+        <v>13</v>
+      </c>
+      <c r="G181" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H181" s="67"/>
     </row>
     <row r="182" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C182" s="33" t="s">
-        <v>143</v>
+        <v>331</v>
       </c>
       <c r="D182" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="E182" s="34">
-        <v>5</v>
+        <v>64</v>
+      </c>
+      <c r="E182" s="34" t="s">
+        <v>254</v>
       </c>
       <c r="F182" s="33">
-        <v>13</v>
-      </c>
-      <c r="G182" s="45"/>
-      <c r="H182" s="64"/>
+        <v>0</v>
+      </c>
+      <c r="H182" s="67">
+        <v>45664</v>
+      </c>
     </row>
     <row r="183" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C183" s="33" t="s">
+      <c r="C183" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D183" s="33" t="s">
+      <c r="D183" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="E183" s="34">
+      <c r="E183" s="61">
         <v>38</v>
       </c>
-      <c r="F183" s="33">
-        <v>10</v>
-      </c>
-      <c r="H183" s="64"/>
+      <c r="F183" s="46">
+        <v>11</v>
+      </c>
+      <c r="G183" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H183" s="67"/>
     </row>
     <row r="184" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C184" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D184" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="E184" s="61">
-        <v>10</v>
-      </c>
-      <c r="F184" s="46">
-        <v>2</v>
-      </c>
-      <c r="G184" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="H184" s="64"/>
+      <c r="C184" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D184" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E184" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F184" s="33">
+        <v>1</v>
+      </c>
+      <c r="H184" s="67">
+        <v>45676</v>
+      </c>
     </row>
     <row r="185" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C185" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="D185" s="33" t="s">
+      <c r="C185" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D185" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E185" s="61">
+        <v>10</v>
+      </c>
+      <c r="F185" s="46">
+        <v>2</v>
+      </c>
+      <c r="G185" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="D186" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="E185" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F185" s="33">
+      <c r="E186" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="F186" s="53">
         <v>7</v>
       </c>
-      <c r="H185" s="67">
+      <c r="G186" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H186" s="67">
         <v>45565</v>
       </c>
     </row>
-    <row r="186" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="46"/>
-      <c r="C186" s="33"/>
-      <c r="D186" s="33"/>
-      <c r="E186" s="34"/>
-      <c r="F186" s="33"/>
-      <c r="H186" s="64"/>
-    </row>
     <row r="187" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="48"/>
-      <c r="C187" s="41"/>
-      <c r="D187" s="41"/>
-      <c r="E187" s="28"/>
-      <c r="F187" s="29"/>
+      <c r="B187" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="D187" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E187" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="F187" s="29">
+        <v>0</v>
+      </c>
       <c r="G187" s="17"/>
-      <c r="H187" s="64"/>
+      <c r="H187" s="67">
+        <v>45692</v>
+      </c>
     </row>
     <row r="188" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C188" s="15"/>
@@ -5271,7 +5433,7 @@
       </c>
       <c r="F188" s="43">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G188" s="17"/>
       <c r="H188" s="64"/>
@@ -5345,7 +5507,7 @@
         <v>4</v>
       </c>
       <c r="F194" s="29">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G194" s="50"/>
       <c r="H194" s="64"/>
@@ -5394,7 +5556,7 @@
         <v>12</v>
       </c>
       <c r="C198" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D198" s="33" t="s">
         <v>67</v>
@@ -5403,7 +5565,7 @@
         <v>254</v>
       </c>
       <c r="F198" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H198" s="67">
         <v>45564</v>
@@ -5469,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G202" s="45"/>
       <c r="H202" s="64"/>
@@ -5575,7 +5737,7 @@
         <v>10</v>
       </c>
       <c r="F208" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H208" s="64"/>
     </row>
@@ -5623,7 +5785,7 @@
         <v>14</v>
       </c>
       <c r="C211" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D211" s="33" t="s">
         <v>47</v>
@@ -5673,7 +5835,7 @@
       </c>
       <c r="F215" s="43">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G215" s="17"/>
       <c r="H215" s="64"/>
@@ -5737,29 +5899,43 @@
       <c r="B221" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C221" s="27" t="s">
+      <c r="C221" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D221" s="27" t="s">
+      <c r="D221" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="E221" s="28">
-        <v>1</v>
-      </c>
-      <c r="F221" s="29">
+      <c r="E221" s="62">
+        <v>1</v>
+      </c>
+      <c r="F221" s="63">
         <v>30</v>
       </c>
-      <c r="G221" s="50"/>
+      <c r="G221" s="50" t="s">
+        <v>256</v>
+      </c>
       <c r="H221" s="64"/>
     </row>
     <row r="222" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="26"/>
-      <c r="C222" s="27"/>
-      <c r="D222" s="27"/>
-      <c r="E222" s="28"/>
-      <c r="F222" s="27"/>
+      <c r="B222" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="D222" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E222" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="F222" s="27">
+        <v>1</v>
+      </c>
       <c r="G222" s="50"/>
-      <c r="H222" s="64"/>
+      <c r="H222" s="67">
+        <v>45682</v>
+      </c>
     </row>
     <row r="223" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="49"/>
@@ -5784,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H224" s="64"/>
     </row>
@@ -5808,11 +5984,24 @@
       <c r="H225" s="64"/>
     </row>
     <row r="226" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="46"/>
-      <c r="C226" s="33"/>
-      <c r="D226" s="33"/>
-      <c r="E226" s="34"/>
-      <c r="F226" s="33"/>
+      <c r="B226" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D226" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="E226" s="61">
+        <v>16</v>
+      </c>
+      <c r="F226" s="46">
+        <v>0</v>
+      </c>
+      <c r="G226" s="45" t="s">
+        <v>256</v>
+      </c>
       <c r="H226" s="64"/>
     </row>
     <row r="227" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5820,230 +6009,248 @@
         <v>13</v>
       </c>
       <c r="C227" s="46" t="s">
-        <v>166</v>
+        <v>276</v>
       </c>
       <c r="D227" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="E227" s="61">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="E227" s="61" t="s">
+        <v>254</v>
       </c>
       <c r="F227" s="46">
-        <v>0</v>
-      </c>
-      <c r="G227" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G227" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="H227" s="64"/>
+      <c r="H227" s="67">
+        <v>45529</v>
+      </c>
     </row>
     <row r="228" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C228" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="D228" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E228" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="F228" s="46">
-        <v>2</v>
-      </c>
-      <c r="G228" s="14" t="s">
-        <v>256</v>
+      <c r="C228" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="D228" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="E228" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F228" s="33">
+        <v>4</v>
       </c>
       <c r="H228" s="67">
-        <v>45529</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="229" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C229" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="D229" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="E229" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F229" s="33">
-        <v>3</v>
-      </c>
-      <c r="H229" s="67">
-        <v>45590</v>
-      </c>
+      <c r="C229" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D229" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E229" s="61">
+        <v>12</v>
+      </c>
+      <c r="F229" s="46">
+        <v>0</v>
+      </c>
+      <c r="G229" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H229" s="64"/>
     </row>
     <row r="230" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C230" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="D230" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E230" s="61">
-        <v>12</v>
-      </c>
-      <c r="F230" s="46">
-        <v>0</v>
-      </c>
-      <c r="G230" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="H230" s="64"/>
+      <c r="C230" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="D230" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E230" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F230" s="33">
+        <v>4</v>
+      </c>
+      <c r="H230" s="67">
+        <v>45590</v>
+      </c>
     </row>
     <row r="231" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C231" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="D231" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="E231" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F231" s="33">
-        <v>2</v>
-      </c>
-      <c r="H231" s="67">
-        <v>45590</v>
-      </c>
+      <c r="C231" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D231" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E231" s="61">
+        <v>3</v>
+      </c>
+      <c r="F231" s="46">
+        <v>0</v>
+      </c>
+      <c r="G231" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H231" s="64"/>
     </row>
     <row r="232" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C232" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="D232" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E232" s="61">
-        <v>3</v>
-      </c>
-      <c r="F232" s="46">
-        <v>0</v>
-      </c>
-      <c r="G232" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="H232" s="64"/>
+      <c r="C232" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="D232" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E232" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F232" s="33">
+        <v>4</v>
+      </c>
+      <c r="G232" s="45"/>
+      <c r="H232" s="67">
+        <v>45590</v>
+      </c>
     </row>
     <row r="233" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C233" s="33" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="D233" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E233" s="34" t="s">
-        <v>254</v>
+        <v>169</v>
+      </c>
+      <c r="E233" s="34">
+        <v>8</v>
       </c>
       <c r="F233" s="33">
-        <v>4</v>
-      </c>
-      <c r="G233" s="45"/>
-      <c r="H233" s="67">
-        <v>45590</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="53"/>
-      <c r="C234" s="53"/>
-      <c r="D234" s="53"/>
-      <c r="E234" s="60"/>
-      <c r="F234" s="53"/>
+      <c r="B234" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D234" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E234" s="61">
+        <v>15</v>
+      </c>
+      <c r="F234" s="46">
+        <v>0</v>
+      </c>
+      <c r="G234" s="14" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="235" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C235" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="D235" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="E235" s="34">
-        <v>8</v>
-      </c>
-      <c r="F235" s="33">
-        <v>2</v>
+      <c r="C235" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="D235" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E235" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="F235" s="46">
+        <v>0</v>
+      </c>
+      <c r="G235" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H235" s="67">
+        <v>45529</v>
       </c>
     </row>
     <row r="236" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C236" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="D236" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="E236" s="61">
-        <v>15</v>
-      </c>
-      <c r="F236" s="46">
+      <c r="C236" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="D236" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="E236" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F236" s="33">
         <v>0</v>
       </c>
-      <c r="G236" s="14" t="s">
-        <v>256</v>
+      <c r="H236" s="67">
+        <v>45682</v>
       </c>
     </row>
     <row r="237" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C237" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="D237" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E237" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F237" s="33">
-        <v>0</v>
-      </c>
-      <c r="H237" s="67">
-        <v>45529</v>
-      </c>
+      <c r="C237" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D237" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="E237" s="61">
+        <v>3</v>
+      </c>
+      <c r="F237" s="46">
+        <v>5</v>
+      </c>
+      <c r="G237" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H237" s="67"/>
     </row>
     <row r="238" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C238" s="33" t="s">
-        <v>171</v>
+        <v>339</v>
       </c>
       <c r="D238" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E238" s="34">
-        <v>3</v>
+        <v>340</v>
+      </c>
+      <c r="E238" s="34" t="s">
+        <v>254</v>
       </c>
       <c r="F238" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G238" s="45"/>
-      <c r="H238" s="64"/>
+      <c r="H238" s="67">
+        <v>45682</v>
+      </c>
     </row>
     <row r="239" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="46" t="s">
@@ -6097,7 +6304,7 @@
         <v>254</v>
       </c>
       <c r="F241" s="29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G241" s="17"/>
       <c r="H241" s="67">
@@ -6113,7 +6320,7 @@
       </c>
       <c r="F242" s="43">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G242" s="17"/>
       <c r="H242" s="64"/>
@@ -6178,7 +6385,7 @@
         <v>8</v>
       </c>
       <c r="F248" s="29">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G248" s="50"/>
     </row>
@@ -6254,7 +6461,7 @@
         <v>15</v>
       </c>
       <c r="F254" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G254" s="45"/>
     </row>
@@ -6272,7 +6479,7 @@
         <v>15</v>
       </c>
       <c r="F255" s="33">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6300,7 +6507,7 @@
         <v>13</v>
       </c>
       <c r="C257" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D257" s="33" t="s">
         <v>136</v>
@@ -6309,7 +6516,7 @@
         <v>254</v>
       </c>
       <c r="F257" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H257" s="67">
         <v>45627</v>
@@ -6336,7 +6543,7 @@
         <v>30</v>
       </c>
       <c r="F259" s="33">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G259" s="45"/>
     </row>
@@ -6365,7 +6572,7 @@
         <v>14</v>
       </c>
       <c r="C261" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D261" s="33" t="s">
         <v>84</v>
@@ -6374,7 +6581,7 @@
         <v>254</v>
       </c>
       <c r="F261" s="33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H261" s="67">
         <v>45534</v>
@@ -6406,7 +6613,7 @@
         <v>14</v>
       </c>
       <c r="C263" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D263" s="33" t="s">
         <v>106</v>
@@ -6415,7 +6622,7 @@
         <v>254</v>
       </c>
       <c r="F263" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H263" s="67">
         <v>45627</v>
@@ -6442,26 +6649,42 @@
       <c r="B265" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C265" s="33" t="s">
+      <c r="C265" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="D265" s="33" t="s">
+      <c r="D265" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="E265" s="34">
-        <v>1</v>
-      </c>
-      <c r="F265" s="33">
-        <v>4</v>
+      <c r="E265" s="61">
+        <v>1</v>
+      </c>
+      <c r="F265" s="46">
+        <v>5</v>
+      </c>
+      <c r="G265" s="14" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="266" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="46"/>
-      <c r="C266" s="33"/>
-      <c r="D266" s="33"/>
-      <c r="E266" s="34"/>
-      <c r="F266" s="33"/>
+      <c r="B266" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C266" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="D266" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="E266" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F266" s="33">
+        <v>1</v>
+      </c>
       <c r="G266" s="45"/>
+      <c r="H266" s="67">
+        <v>45310</v>
+      </c>
     </row>
     <row r="267" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="46"/>
@@ -6488,7 +6711,7 @@
       </c>
       <c r="F269" s="43">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G269" s="17"/>
     </row>
@@ -6551,7 +6774,7 @@
         <v>10</v>
       </c>
       <c r="F275" s="29">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G275" s="17"/>
     </row>
@@ -6584,7 +6807,7 @@
         <v>2</v>
       </c>
       <c r="F278" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6620,13 +6843,13 @@
         <v>191</v>
       </c>
       <c r="D281" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E281" s="34">
         <v>7</v>
       </c>
       <c r="F281" s="33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G281" s="45"/>
     </row>
@@ -6644,7 +6867,7 @@
         <v>22</v>
       </c>
       <c r="F282" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6661,7 +6884,7 @@
         <v>2</v>
       </c>
       <c r="F283" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G283" s="45"/>
     </row>
@@ -6687,7 +6910,7 @@
         <v>2</v>
       </c>
       <c r="F285" s="33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G285" s="45"/>
     </row>
@@ -6766,7 +6989,7 @@
         <v>254</v>
       </c>
       <c r="F289" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G289" s="45"/>
       <c r="H289" s="67">
@@ -6799,7 +7022,7 @@
         <v>14</v>
       </c>
       <c r="C291" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D291" s="33" t="s">
         <v>268</v>
@@ -6808,7 +7031,7 @@
         <v>254</v>
       </c>
       <c r="F291" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G291" s="45"/>
       <c r="H291" s="67">
@@ -6841,16 +7064,16 @@
         <v>14</v>
       </c>
       <c r="C293" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D293" s="33" t="s">
-        <v>263</v>
+        <v>131</v>
       </c>
       <c r="E293" s="34" t="s">
         <v>254</v>
       </c>
       <c r="F293" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G293" s="45"/>
       <c r="H293" s="67">
@@ -6882,7 +7105,7 @@
       </c>
       <c r="F296" s="43">
         <f>SUM(F278:F295)-SUM(F275:F277)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G296" s="17"/>
     </row>
@@ -6957,7 +7180,7 @@
         <v>11</v>
       </c>
       <c r="C303" s="49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D303" s="49" t="s">
         <v>102</v>
@@ -6978,7 +7201,7 @@
         <v>11</v>
       </c>
       <c r="C304" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D304" s="27" t="s">
         <v>190</v>
@@ -6987,7 +7210,7 @@
         <v>254</v>
       </c>
       <c r="F304" s="27">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G304" s="45"/>
       <c r="H304" s="67">
@@ -7044,7 +7267,7 @@
         <v>15</v>
       </c>
       <c r="F307" s="33">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7063,13 +7286,16 @@
       <c r="F308" s="46">
         <v>4</v>
       </c>
+      <c r="G308" s="14" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="309" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C309" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D309" s="33" t="s">
         <v>108</v>
@@ -7132,10 +7358,10 @@
         <v>13</v>
       </c>
       <c r="C312" s="33" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="D312" s="33" t="s">
-        <v>214</v>
+        <v>49</v>
       </c>
       <c r="E312" s="34" t="s">
         <v>254</v>
@@ -7172,16 +7398,16 @@
         <v>14</v>
       </c>
       <c r="C314" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="D314" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="D314" s="33" t="s">
-        <v>299</v>
-      </c>
       <c r="E314" s="34" t="s">
         <v>254</v>
       </c>
       <c r="F314" s="33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H314" s="67">
         <v>45557</v>
@@ -7201,7 +7427,7 @@
         <v>15</v>
       </c>
       <c r="F315" s="33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G315" s="45"/>
     </row>
@@ -7343,7 +7569,7 @@
         <v>254</v>
       </c>
       <c r="F322" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G322" s="17"/>
       <c r="H322" s="67">
@@ -7359,7 +7585,7 @@
       </c>
       <c r="F323" s="43">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G323" s="17"/>
     </row>
@@ -7428,7 +7654,7 @@
         <v>11</v>
       </c>
       <c r="C330" s="49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D330" s="49" t="s">
         <v>159</v>
@@ -7451,16 +7677,16 @@
         <v>11</v>
       </c>
       <c r="C331" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D331" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E331" s="28" t="s">
         <v>254</v>
       </c>
       <c r="F331" s="27">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G331" s="45"/>
       <c r="H331" s="67">
@@ -7489,7 +7715,7 @@
         <v>15</v>
       </c>
       <c r="F333" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7506,7 +7732,7 @@
         <v>4</v>
       </c>
       <c r="F334" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G334" s="45"/>
     </row>
@@ -7543,16 +7769,16 @@
         <v>13</v>
       </c>
       <c r="C337" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D337" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E337" s="34" t="s">
         <v>254</v>
       </c>
       <c r="F337" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G337" s="45"/>
       <c r="H337" s="67">
@@ -7573,7 +7799,7 @@
         <v>47</v>
       </c>
       <c r="F338" s="33">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="339" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7634,7 +7860,7 @@
         <v>254</v>
       </c>
       <c r="F342" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H342" s="67">
         <v>45662</v>
@@ -7654,7 +7880,7 @@
         <v>3</v>
       </c>
       <c r="F343" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G343" s="45"/>
     </row>
@@ -7683,7 +7909,7 @@
         <v>14</v>
       </c>
       <c r="C345" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D345" s="33" t="s">
         <v>192</v>
@@ -7692,7 +7918,7 @@
         <v>254</v>
       </c>
       <c r="F345" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G345" s="45"/>
       <c r="H345" s="67">
@@ -7713,7 +7939,7 @@
         <v>2</v>
       </c>
       <c r="F346" s="33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G346" s="45"/>
     </row>
@@ -7742,7 +7968,7 @@
         <v>14</v>
       </c>
       <c r="C348" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D348" s="33" t="s">
         <v>51</v>
@@ -7773,7 +7999,7 @@
       </c>
       <c r="F350" s="43">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="351" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7888,13 +8114,13 @@
         <v>21</v>
       </c>
       <c r="E7" s="30">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F7" s="31">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G7" s="32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" s="51"/>
     </row>
@@ -7909,13 +8135,13 @@
         <v>41</v>
       </c>
       <c r="E8" s="30">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F8" s="31">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="G8" s="32">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -7929,13 +8155,13 @@
         <v>38</v>
       </c>
       <c r="E9" s="30">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F9" s="31">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G9" s="32">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7943,16 +8169,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E10" s="30">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F10" s="31">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G10" s="32">
         <v>24</v>
@@ -7963,19 +8189,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11" s="30">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F11" s="31">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G11" s="32">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7983,19 +8209,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E12" s="30">
+        <v>32</v>
+      </c>
+      <c r="F12" s="31">
+        <v>62</v>
+      </c>
+      <c r="G12" s="32">
         <v>30</v>
-      </c>
-      <c r="F12" s="31">
-        <v>53</v>
-      </c>
-      <c r="G12" s="32">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8003,19 +8229,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="30">
         <v>31</v>
       </c>
-      <c r="E13" s="30">
-        <v>29</v>
-      </c>
       <c r="F13" s="31">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G13" s="32">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8029,13 +8255,13 @@
         <v>252</v>
       </c>
       <c r="E14" s="30">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F14" s="31">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G14" s="32">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8043,19 +8269,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="E15" s="30">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F15" s="31">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G15" s="32">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8063,19 +8289,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="E16" s="30">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F16" s="31">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G16" s="32">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -8083,19 +8309,19 @@
         <v>11</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="30">
+        <v>11</v>
+      </c>
+      <c r="F17" s="31">
         <v>42</v>
       </c>
-      <c r="E17" s="30">
-        <v>9</v>
-      </c>
-      <c r="F17" s="31">
-        <v>44</v>
-      </c>
       <c r="G17" s="32">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -8109,13 +8335,13 @@
         <v>30</v>
       </c>
       <c r="E18" s="30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18" s="31">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G18" s="32">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -8123,19 +8349,19 @@
         <v>13</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="30">
         <v>6</v>
       </c>
       <c r="F19" s="31">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G19" s="32">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -8194,24 +8420,54 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>235</v>
+      </c>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
+      <c r="D4" s="45" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>35</v>
+      </c>
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
+      <c r="D5" s="45" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="B6" s="57"/>
       <c r="C6" s="57"/>
+      <c r="D6" s="45" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="B7" s="57"/>
       <c r="C7" s="57"/>
+      <c r="D7" s="45" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>43</v>
+      </c>
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
+      <c r="D8" s="45" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">

--- a/data/DL24-25.xlsx
+++ b/data/DL24-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0001c2a442dfed87/Documents/Dream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3277" documentId="8_{4A520963-05AC-46D2-973E-A3A248908BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4014A92-B58F-4FE0-8C2B-83DC3C0782B6}"/>
+  <xr:revisionPtr revIDLastSave="3531" documentId="8_{4A520963-05AC-46D2-973E-A3A248908BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{210327AB-77DA-4608-A383-1B4F73839A24}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="359">
   <si>
     <t>TONY APPLETON</t>
   </si>
@@ -604,9 +604,6 @@
     <t>HARRISON BURROWS</t>
   </si>
   <si>
-    <t>OISIN McATEE</t>
-  </si>
-  <si>
     <t>WALSALL</t>
   </si>
   <si>
@@ -1076,6 +1073,45 @@
   </si>
   <si>
     <t>RUMARN BURRELL</t>
+  </si>
+  <si>
+    <t>MANOR SOLOMON</t>
+  </si>
+  <si>
+    <t>2 (2-0)</t>
+  </si>
+  <si>
+    <t>0 (1-1)</t>
+  </si>
+  <si>
+    <t>-3 (1-4)</t>
+  </si>
+  <si>
+    <t>3 (3-0)</t>
+  </si>
+  <si>
+    <t>0 (0-0)</t>
+  </si>
+  <si>
+    <t>4 (4-0)</t>
+  </si>
+  <si>
+    <t>0 (2-2)</t>
+  </si>
+  <si>
+    <t>MIKEL MERINO</t>
+  </si>
+  <si>
+    <t>RYAN ALLSOP</t>
+  </si>
+  <si>
+    <t>3 (4-1)</t>
+  </si>
+  <si>
+    <t>2 (4-2)</t>
+  </si>
+  <si>
+    <t>OISIN McENTEE</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M351"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1945,7 +1983,7 @@
     </row>
     <row r="2" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
@@ -1954,7 +1992,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="17"/>
       <c r="H2" s="70" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2004,16 +2042,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E5" s="28">
         <v>1</v>
       </c>
       <c r="F5" s="29">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="64"/>
@@ -2027,15 +2065,15 @@
       </c>
       <c r="K5" s="30">
         <f t="shared" ref="K5:K17" si="0">L5-M5</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L5" s="31">
         <f>SUM(F8:F25)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M5" s="32">
         <f>SUM(F5:F7)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2056,15 +2094,15 @@
       </c>
       <c r="K6" s="30">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L6" s="31">
         <f>SUM(F35:F52)</f>
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="M6" s="32">
         <f>SUM(F32:F34)</f>
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2085,15 +2123,15 @@
       </c>
       <c r="K7" s="30">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L7" s="31">
         <f>SUM(F62:F79)</f>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="M7" s="32">
         <f>SUM(F59:F61)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2101,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>136</v>
@@ -2127,11 +2165,11 @@
       </c>
       <c r="L8" s="31">
         <f>SUM(F89:F106)</f>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M8" s="32">
         <f>SUM(F86:F88)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2139,16 +2177,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E9" s="34">
         <v>1</v>
       </c>
       <c r="F9" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="65"/>
       <c r="I9" s="15" t="str">
@@ -2161,24 +2199,33 @@
       </c>
       <c r="K9" s="30">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L9" s="31">
         <f>SUM(F116:F133)</f>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M9" s="32">
         <f>SUM(F113:F115)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="45"/>
+      <c r="B10" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="34">
+        <v>1</v>
+      </c>
+      <c r="F10" s="33">
+        <v>5</v>
+      </c>
       <c r="H10" s="65"/>
       <c r="I10" s="15" t="str">
         <f>D137</f>
@@ -2190,15 +2237,15 @@
       </c>
       <c r="K10" s="30">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L10" s="31">
         <f>SUM(F143:F160)</f>
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="M10" s="32">
         <f>SUM(F140:F142)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2209,13 +2256,13 @@
         <v>241</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E11" s="34">
         <v>1</v>
       </c>
       <c r="F11" s="33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H11" s="65"/>
       <c r="I11" s="15" t="str">
@@ -2228,32 +2275,35 @@
       </c>
       <c r="K11" s="30">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L11" s="31">
         <f>SUM(F170:F187)</f>
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M11" s="32">
         <f>SUM(F167:F169)</f>
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="34">
-        <v>1</v>
-      </c>
-      <c r="F12" s="33">
-        <v>8</v>
+      <c r="D12" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="61">
+        <v>1</v>
+      </c>
+      <c r="F12" s="46">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="H12" s="65"/>
       <c r="I12" s="15" t="str">
@@ -2266,15 +2316,15 @@
       </c>
       <c r="K12" s="30">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L12" s="31">
         <f>SUM(F197:F214)</f>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M12" s="32">
         <f>SUM(F194:F196)</f>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2282,19 +2332,22 @@
         <v>13</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="34">
-        <v>1</v>
+      <c r="E13" s="34" t="s">
+        <v>253</v>
       </c>
       <c r="F13" s="33">
-        <v>3</v>
-      </c>
-      <c r="H13" s="65"/>
-      <c r="I13" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="G13" s="45"/>
+      <c r="H13" s="67">
+        <v>45704</v>
+      </c>
+      <c r="I13" s="35" t="str">
         <f>D218</f>
         <v>GARETH HOSFORD</v>
       </c>
@@ -2304,25 +2357,24 @@
       </c>
       <c r="K13" s="30">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="31">
         <f>SUM(F224:F241)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M13" s="32">
         <f>SUM(F221:F223)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="65"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="53"/>
+      <c r="H14" s="67"/>
       <c r="I14" s="35" t="str">
         <f>+D245</f>
         <v>JULIAN SLADE</v>
@@ -2333,15 +2385,15 @@
       </c>
       <c r="K14" s="30">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L14" s="31">
         <f>SUM(F251:F268)</f>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M14" s="32">
         <f>SUM(F248:F250)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2349,7 +2401,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>79</v>
@@ -2372,15 +2424,15 @@
       </c>
       <c r="K15" s="30">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L15" s="31">
         <f>SUM(F277:F295)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M15" s="32">
         <f>SUM(F275:F276)</f>
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2388,11 +2440,11 @@
         <v>14</v>
       </c>
       <c r="C16" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>246</v>
-      </c>
       <c r="E16" s="61">
         <v>1</v>
       </c>
@@ -2400,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H16" s="64"/>
       <c r="I16" s="35" t="str">
@@ -2413,15 +2465,15 @@
       </c>
       <c r="K16" s="30">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L16" s="31">
         <f>SUM(F305:F322)</f>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M16" s="32">
         <f>SUM(F302:F304)</f>
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2429,19 +2481,19 @@
         <v>14</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>151</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F17" s="46">
         <v>2</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H17" s="67">
         <v>45551</v>
@@ -2451,19 +2503,19 @@
         <v>AUSTIN LALLY</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K17" s="30">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L17" s="31">
         <f>SUM(F332:F349)</f>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M17" s="32">
         <f>SUM(F329:F331)</f>
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2471,13 +2523,13 @@
         <v>14</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>136</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F18" s="33">
         <v>1</v>
@@ -2496,7 +2548,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>149</v>
@@ -2508,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H19" s="64"/>
       <c r="K19" s="18"/>
@@ -2520,13 +2572,13 @@
         <v>14</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F20" s="33">
         <v>14</v>
@@ -2541,7 +2593,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D21" s="46" t="s">
         <v>115</v>
@@ -2553,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H21" s="64"/>
     </row>
@@ -2562,13 +2614,13 @@
         <v>14</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F22" s="33">
         <v>9</v>
@@ -2583,10 +2635,10 @@
         <v>14</v>
       </c>
       <c r="C23" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="46" t="s">
         <v>249</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>250</v>
       </c>
       <c r="E23" s="61">
         <v>1</v>
@@ -2595,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H23" s="67"/>
     </row>
@@ -2604,13 +2656,13 @@
         <v>14</v>
       </c>
       <c r="C24" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="D24" s="46" t="s">
-        <v>286</v>
-      </c>
       <c r="E24" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F24" s="46">
         <v>2</v>
@@ -2625,13 +2677,13 @@
         <v>14</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F25" s="29">
         <v>1</v>
@@ -2650,7 +2702,7 @@
       </c>
       <c r="F26" s="43">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="64"/>
@@ -2715,7 +2767,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D32" s="49" t="s">
         <v>47</v>
@@ -2727,7 +2779,7 @@
         <v>8</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H32" s="64"/>
     </row>
@@ -2736,16 +2788,16 @@
         <v>11</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F33" s="27">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G33" s="50"/>
       <c r="H33" s="67">
@@ -2794,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" s="64"/>
     </row>
@@ -2852,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H39" s="64"/>
     </row>
@@ -2861,19 +2913,19 @@
         <v>13</v>
       </c>
       <c r="C40" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D40" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="D40" s="46" t="s">
-        <v>268</v>
-      </c>
       <c r="E40" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F40" s="46">
         <v>2</v>
       </c>
       <c r="G40" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H40" s="67">
         <v>45523</v>
@@ -2890,10 +2942,10 @@
         <v>71</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F41" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H41" s="67">
         <v>45642</v>
@@ -2913,7 +2965,7 @@
         <v>23</v>
       </c>
       <c r="F42" s="33">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G42" s="45"/>
       <c r="H42" s="64"/>
@@ -2935,7 +2987,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H43" s="64"/>
     </row>
@@ -2944,16 +2996,16 @@
         <v>14</v>
       </c>
       <c r="C44" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="D44" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="D44" s="33" t="s">
-        <v>317</v>
-      </c>
       <c r="E44" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F44" s="33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H44" s="67">
         <v>45621</v>
@@ -2967,7 +3019,7 @@
         <v>62</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E45" s="61">
         <v>1</v>
@@ -2976,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H45" s="64"/>
     </row>
@@ -2985,19 +3037,19 @@
         <v>14</v>
       </c>
       <c r="C46" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="D46" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="D46" s="46" t="s">
-        <v>260</v>
-      </c>
       <c r="E46" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F46" s="46">
         <v>1</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H46" s="67">
         <v>45523</v>
@@ -3014,10 +3066,10 @@
         <v>129</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F47" s="33">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H47" s="67">
         <v>45578</v>
@@ -3040,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H48" s="67"/>
     </row>
@@ -3049,19 +3101,19 @@
         <v>14</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D49" s="46" t="s">
         <v>181</v>
       </c>
       <c r="E49" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F49" s="46">
         <v>0</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H49" s="67">
         <v>45531</v>
@@ -3078,10 +3130,10 @@
         <v>57</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F50" s="33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H50" s="67">
         <v>45565</v>
@@ -3104,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H51" s="67"/>
     </row>
@@ -3113,13 +3165,13 @@
         <v>14</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D52" s="41" t="s">
         <v>55</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F52" s="29">
         <v>9</v>
@@ -3138,7 +3190,7 @@
       </c>
       <c r="F53" s="43">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G53" s="17"/>
     </row>
@@ -3202,7 +3254,7 @@
         <v>11</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D59" s="27" t="s">
         <v>67</v>
@@ -3211,7 +3263,7 @@
         <v>15</v>
       </c>
       <c r="F59" s="29">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G59" s="50"/>
       <c r="H59" s="64"/>
@@ -3267,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63" s="64"/>
     </row>
@@ -3358,7 +3410,7 @@
         <v>6</v>
       </c>
       <c r="F69" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H69" s="64"/>
     </row>
@@ -3413,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H72" s="64"/>
     </row>
@@ -3434,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H73" s="64"/>
     </row>
@@ -3443,19 +3495,19 @@
         <v>14</v>
       </c>
       <c r="C74" s="46" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D74" s="46" t="s">
         <v>92</v>
       </c>
       <c r="E74" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F74" s="46">
         <v>0</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H74" s="67">
         <v>45604</v>
@@ -3472,13 +3524,13 @@
         <v>71</v>
       </c>
       <c r="E75" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F75" s="46">
         <v>1</v>
       </c>
       <c r="G75" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H75" s="67">
         <v>45628</v>
@@ -3489,19 +3541,19 @@
         <v>14</v>
       </c>
       <c r="C76" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D76" s="46" t="s">
         <v>67</v>
       </c>
       <c r="E76" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F76" s="46">
         <v>1</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H76" s="67">
         <v>45649</v>
@@ -3512,16 +3564,16 @@
         <v>14</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D77" s="33" t="s">
         <v>73</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F77" s="33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G77" s="45"/>
       <c r="H77" s="67">
@@ -3554,7 +3606,7 @@
       </c>
       <c r="F80" s="43">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="64"/>
@@ -3619,7 +3671,7 @@
         <v>11</v>
       </c>
       <c r="C86" s="49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D86" s="49" t="s">
         <v>84</v>
@@ -3631,7 +3683,7 @@
         <v>10</v>
       </c>
       <c r="G86" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H86" s="64"/>
     </row>
@@ -3640,16 +3692,16 @@
         <v>11</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>131</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F87" s="27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G87" s="50"/>
       <c r="H87" s="67">
@@ -3679,7 +3731,7 @@
         <v>10</v>
       </c>
       <c r="F89" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G89" s="45"/>
       <c r="H89" s="64"/>
@@ -3701,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H90" s="64"/>
     </row>
@@ -3710,16 +3762,16 @@
         <v>12</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D91" s="33" t="s">
         <v>57</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F91" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H91" s="67">
         <v>45534</v>
@@ -3742,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3750,13 +3802,13 @@
         <v>13</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D93" s="33" t="s">
         <v>146</v>
       </c>
       <c r="E93" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F93" s="33">
         <v>3</v>
@@ -3779,7 +3831,7 @@
         <v>33</v>
       </c>
       <c r="F94" s="33">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3799,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H95" s="64"/>
     </row>
@@ -3808,13 +3860,13 @@
         <v>13</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="33" t="s">
         <v>113</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F96" s="33">
         <v>7</v>
@@ -3858,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H98" s="64"/>
     </row>
@@ -3867,13 +3919,13 @@
         <v>14</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E99" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F99" s="33">
         <v>4</v>
@@ -3899,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3907,19 +3959,19 @@
         <v>14</v>
       </c>
       <c r="C101" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D101" s="46" t="s">
         <v>151</v>
       </c>
       <c r="E101" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F101" s="46">
         <v>0</v>
       </c>
       <c r="G101" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H101" s="67">
         <v>45548</v>
@@ -3930,13 +3982,13 @@
         <v>14</v>
       </c>
       <c r="C102" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="D102" s="33" t="s">
-        <v>214</v>
-      </c>
       <c r="E102" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F102" s="33">
         <v>3</v>
@@ -3962,7 +4014,7 @@
         <v>2</v>
       </c>
       <c r="G103" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H103" s="64"/>
     </row>
@@ -3971,19 +4023,19 @@
         <v>14</v>
       </c>
       <c r="C104" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D104" s="46" t="s">
         <v>102</v>
       </c>
       <c r="E104" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F104" s="46">
         <v>0</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H104" s="67">
         <v>45566</v>
@@ -4000,7 +4052,7 @@
         <v>136</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F105" s="33">
         <v>6</v>
@@ -4014,7 +4066,7 @@
         <v>14</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D106" s="41" t="s">
         <v>100</v>
@@ -4100,29 +4152,43 @@
       <c r="B113" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C113" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="D113" s="27" t="s">
+      <c r="C113" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="D113" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E113" s="28">
+      <c r="E113" s="62">
         <v>5</v>
       </c>
-      <c r="F113" s="29">
-        <v>32</v>
-      </c>
-      <c r="G113" s="50"/>
+      <c r="F113" s="63">
+        <v>34</v>
+      </c>
+      <c r="G113" s="50" t="s">
+        <v>255</v>
+      </c>
       <c r="H113" s="64"/>
     </row>
     <row r="114" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="26"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="27"/>
+      <c r="B114" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="D114" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E114" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="F114" s="27">
+        <v>0</v>
+      </c>
       <c r="G114" s="50"/>
-      <c r="H114" s="64"/>
+      <c r="H114" s="67">
+        <v>45702</v>
+      </c>
     </row>
     <row r="115" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="49"/>
@@ -4141,7 +4207,7 @@
         <v>101</v>
       </c>
       <c r="D116" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E116" s="34">
         <v>3</v>
@@ -4187,7 +4253,7 @@
         <v>3</v>
       </c>
       <c r="G118" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H118" s="64"/>
     </row>
@@ -4196,19 +4262,19 @@
         <v>13</v>
       </c>
       <c r="C119" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D119" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E119" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F119" s="46">
         <v>1</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H119" s="67">
         <v>45551</v>
@@ -4225,10 +4291,10 @@
         <v>106</v>
       </c>
       <c r="E120" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F120" s="33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H120" s="67">
         <v>45592</v>
@@ -4251,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4259,19 +4325,19 @@
         <v>13</v>
       </c>
       <c r="C122" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D122" s="46" t="s">
         <v>92</v>
       </c>
       <c r="E122" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F122" s="46">
         <v>2</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H122" s="67">
         <v>45529</v>
@@ -4282,16 +4348,16 @@
         <v>13</v>
       </c>
       <c r="C123" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="D123" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="D123" s="33" t="s">
-        <v>327</v>
-      </c>
       <c r="E123" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F123" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123" s="67">
         <v>45653</v>
@@ -4329,7 +4395,7 @@
         <v>7</v>
       </c>
       <c r="F125" s="33">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H125" s="67"/>
     </row>
@@ -4368,7 +4434,7 @@
         <v>6</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H127" s="67"/>
     </row>
@@ -4377,13 +4443,13 @@
         <v>14</v>
       </c>
       <c r="C128" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D128" s="33" t="s">
         <v>77</v>
       </c>
       <c r="E128" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F128" s="33">
         <v>0</v>
@@ -4410,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H129" s="64"/>
     </row>
@@ -4419,13 +4485,13 @@
         <v>14</v>
       </c>
       <c r="C130" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D130" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E130" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F130" s="33">
         <v>14</v>
@@ -4442,7 +4508,7 @@
         <v>116</v>
       </c>
       <c r="D131" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E131" s="61">
         <v>11</v>
@@ -4451,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H131" s="64"/>
     </row>
@@ -4460,19 +4526,19 @@
         <v>14</v>
       </c>
       <c r="C132" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D132" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E132" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F132" s="46">
         <v>3</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H132" s="67">
         <v>45556</v>
@@ -4483,16 +4549,16 @@
         <v>14</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D133" s="41" t="s">
         <v>169</v>
       </c>
       <c r="E133" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F133" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G133" s="17"/>
       <c r="H133" s="67">
@@ -4508,7 +4574,7 @@
       </c>
       <c r="F134" s="43">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G134" s="17"/>
       <c r="H134" s="64"/>
@@ -4585,7 +4651,7 @@
         <v>7</v>
       </c>
       <c r="G140" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H140" s="64"/>
     </row>
@@ -4594,16 +4660,16 @@
         <v>11</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D141" s="27" t="s">
         <v>153</v>
       </c>
       <c r="E141" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F141" s="27">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G141" s="50"/>
       <c r="H141" s="67">
@@ -4672,7 +4738,7 @@
         <v>2</v>
       </c>
       <c r="G145" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H145" s="64"/>
     </row>
@@ -4681,16 +4747,16 @@
         <v>13</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E146" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F146" s="33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H146" s="67">
         <v>45604</v>
@@ -4713,7 +4779,7 @@
         <v>6</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H147" s="64"/>
     </row>
@@ -4722,16 +4788,16 @@
         <v>13</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D148" s="33" t="s">
         <v>104</v>
       </c>
       <c r="E148" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F148" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" s="67">
         <v>45692</v>
@@ -4754,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H149" s="64"/>
     </row>
@@ -4763,16 +4829,16 @@
         <v>13</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E150" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F150" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H150" s="67">
         <v>45564</v>
@@ -4799,7 +4865,7 @@
         <v>80</v>
       </c>
       <c r="F152" s="33">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G152" s="45"/>
       <c r="H152" s="64"/>
@@ -4821,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H153" s="64"/>
     </row>
@@ -4830,19 +4896,19 @@
         <v>14</v>
       </c>
       <c r="C154" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D154" s="46" t="s">
         <v>169</v>
       </c>
       <c r="E154" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F154" s="46">
         <v>1</v>
       </c>
       <c r="G154" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H154" s="67">
         <v>45552</v>
@@ -4853,13 +4919,13 @@
         <v>14</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D155" s="33" t="s">
         <v>49</v>
       </c>
       <c r="E155" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F155" s="33">
         <v>11</v>
@@ -4885,7 +4951,7 @@
         <v>2</v>
       </c>
       <c r="G156" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H156" s="67"/>
     </row>
@@ -4894,16 +4960,16 @@
         <v>14</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D157" s="33" t="s">
         <v>106</v>
       </c>
       <c r="E157" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F157" s="33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H157" s="67">
         <v>45552</v>
@@ -4926,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="G158" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H158" s="67"/>
     </row>
@@ -4935,13 +5001,13 @@
         <v>14</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D159" s="33" t="s">
         <v>140</v>
       </c>
       <c r="E159" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F159" s="33">
         <v>9</v>
@@ -4964,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="29">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G160" s="17"/>
       <c r="H160" s="64"/>
@@ -4978,7 +5044,7 @@
       </c>
       <c r="F161" s="43">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="64"/>
@@ -5042,29 +5108,43 @@
       <c r="B167" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C167" s="27" t="s">
+      <c r="C167" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D167" s="27" t="s">
+      <c r="D167" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E167" s="28">
+      <c r="E167" s="62">
         <v>7</v>
       </c>
-      <c r="F167" s="29">
-        <v>34</v>
-      </c>
-      <c r="G167" s="50"/>
+      <c r="F167" s="63">
+        <v>43</v>
+      </c>
+      <c r="G167" s="50" t="s">
+        <v>255</v>
+      </c>
       <c r="H167" s="64"/>
     </row>
     <row r="168" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="26"/>
-      <c r="C168" s="27"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="28"/>
-      <c r="F168" s="27"/>
+      <c r="B168" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D168" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E168" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="F168" s="27">
+        <v>1</v>
+      </c>
       <c r="G168" s="50"/>
-      <c r="H168" s="64"/>
+      <c r="H168" s="67">
+        <v>45715</v>
+      </c>
     </row>
     <row r="169" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="49"/>
@@ -5129,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="G172" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H172" s="64"/>
     </row>
@@ -5144,10 +5224,10 @@
         <v>108</v>
       </c>
       <c r="E173" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F173" s="33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H173" s="67">
         <v>45601</v>
@@ -5157,68 +5237,82 @@
       <c r="B174" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C174" s="33" t="s">
+      <c r="C174" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="D174" s="33" t="s">
+      <c r="D174" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E174" s="34">
+      <c r="E174" s="61">
         <v>15</v>
       </c>
-      <c r="F174" s="33">
+      <c r="F174" s="46">
         <v>15</v>
       </c>
-      <c r="H174" s="64"/>
+      <c r="G174" s="14" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="175" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C175" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D175" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E175" s="61">
-        <v>1</v>
-      </c>
-      <c r="F175" s="46">
+      <c r="C175" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="D175" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E175" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="F175" s="33">
         <v>0</v>
       </c>
-      <c r="G175" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="H175" s="64"/>
+      <c r="H175" s="67">
+        <v>45700</v>
+      </c>
     </row>
     <row r="176" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C176" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="D176" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="E176" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F176" s="33">
+      <c r="C176" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D176" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E176" s="61">
+        <v>1</v>
+      </c>
+      <c r="F176" s="46">
+        <v>0</v>
+      </c>
+      <c r="G176" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="H176" s="64"/>
+    </row>
+    <row r="177" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D177" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="E177" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="F177" s="33">
         <v>7</v>
       </c>
-      <c r="H176" s="67">
+      <c r="H177" s="67">
         <v>45526</v>
       </c>
-    </row>
-    <row r="177" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="53"/>
-      <c r="C177" s="53"/>
-      <c r="D177" s="53"/>
-      <c r="E177" s="60"/>
-      <c r="F177" s="53"/>
-      <c r="H177" s="64"/>
     </row>
     <row r="178" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="46" t="s">
@@ -5254,7 +5348,7 @@
         <v>2</v>
       </c>
       <c r="G179" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H179" s="64"/>
     </row>
@@ -5263,16 +5357,16 @@
         <v>14</v>
       </c>
       <c r="C180" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D180" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E180" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F180" s="33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H180" s="67">
         <v>45601</v>
@@ -5295,7 +5389,7 @@
         <v>13</v>
       </c>
       <c r="G181" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H181" s="67"/>
     </row>
@@ -5304,13 +5398,13 @@
         <v>14</v>
       </c>
       <c r="C182" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D182" s="33" t="s">
         <v>64</v>
       </c>
       <c r="E182" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F182" s="33">
         <v>0</v>
@@ -5336,7 +5430,7 @@
         <v>11</v>
       </c>
       <c r="G183" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H183" s="67"/>
     </row>
@@ -5345,16 +5439,16 @@
         <v>14</v>
       </c>
       <c r="C184" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D184" s="33" t="s">
         <v>131</v>
       </c>
       <c r="E184" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F184" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H184" s="67">
         <v>45676</v>
@@ -5377,7 +5471,7 @@
         <v>2</v>
       </c>
       <c r="G185" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="186" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5385,19 +5479,19 @@
         <v>14</v>
       </c>
       <c r="C186" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D186" s="46" t="s">
         <v>120</v>
       </c>
       <c r="E186" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F186" s="53">
         <v>7</v>
       </c>
       <c r="G186" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H186" s="67">
         <v>45565</v>
@@ -5408,13 +5502,13 @@
         <v>14</v>
       </c>
       <c r="C187" s="41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D187" s="41" t="s">
         <v>77</v>
       </c>
       <c r="E187" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F187" s="29">
         <v>0</v>
@@ -5433,7 +5527,7 @@
       </c>
       <c r="F188" s="43">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G188" s="17"/>
       <c r="H188" s="64"/>
@@ -5498,7 +5592,7 @@
         <v>11</v>
       </c>
       <c r="C194" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D194" s="27" t="s">
         <v>149</v>
@@ -5507,7 +5601,7 @@
         <v>4</v>
       </c>
       <c r="F194" s="29">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G194" s="50"/>
       <c r="H194" s="64"/>
@@ -5547,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="G197" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H197" s="64"/>
     </row>
@@ -5556,13 +5650,13 @@
         <v>12</v>
       </c>
       <c r="C198" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D198" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E198" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F198" s="33">
         <v>3</v>
@@ -5579,7 +5673,7 @@
         <v>152</v>
       </c>
       <c r="D199" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E199" s="34">
         <v>1</v>
@@ -5625,13 +5719,13 @@
         <v>155</v>
       </c>
       <c r="D202" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E202" s="34">
         <v>1</v>
       </c>
       <c r="F202" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G202" s="45"/>
       <c r="H202" s="64"/>
@@ -5653,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H203" s="64"/>
     </row>
@@ -5662,13 +5756,13 @@
         <v>13</v>
       </c>
       <c r="C204" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D204" s="33" t="s">
         <v>127</v>
       </c>
       <c r="E204" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F204" s="33">
         <v>3</v>
@@ -5719,7 +5813,7 @@
         <v>4</v>
       </c>
       <c r="F207" s="33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H207" s="64"/>
     </row>
@@ -5737,7 +5831,7 @@
         <v>10</v>
       </c>
       <c r="F208" s="33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H208" s="64"/>
     </row>
@@ -5776,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="G210" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H210" s="64"/>
     </row>
@@ -5785,16 +5879,16 @@
         <v>14</v>
       </c>
       <c r="C211" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D211" s="33" t="s">
         <v>47</v>
       </c>
       <c r="E211" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F211" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H211" s="67">
         <v>45535</v>
@@ -5835,7 +5929,7 @@
       </c>
       <c r="F215" s="43">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G215" s="17"/>
       <c r="H215" s="64"/>
@@ -5900,7 +5994,7 @@
         <v>11</v>
       </c>
       <c r="C221" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D221" s="49" t="s">
         <v>144</v>
@@ -5912,7 +6006,7 @@
         <v>30</v>
       </c>
       <c r="G221" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H221" s="64"/>
     </row>
@@ -5921,16 +6015,16 @@
         <v>11</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D222" s="27" t="s">
         <v>129</v>
       </c>
       <c r="E222" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F222" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G222" s="50"/>
       <c r="H222" s="67">
@@ -6000,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="G226" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H226" s="64"/>
     </row>
@@ -6009,19 +6103,19 @@
         <v>13</v>
       </c>
       <c r="C227" s="46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D227" s="46" t="s">
         <v>55</v>
       </c>
       <c r="E227" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F227" s="46">
         <v>2</v>
       </c>
       <c r="G227" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H227" s="67">
         <v>45529</v>
@@ -6032,13 +6126,13 @@
         <v>13</v>
       </c>
       <c r="C228" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D228" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E228" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F228" s="33">
         <v>4</v>
@@ -6064,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="G229" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H229" s="64"/>
     </row>
@@ -6073,13 +6167,13 @@
         <v>13</v>
       </c>
       <c r="C230" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D230" s="33" t="s">
         <v>100</v>
       </c>
       <c r="E230" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F230" s="33">
         <v>4</v>
@@ -6105,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="G231" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H231" s="64"/>
     </row>
@@ -6114,16 +6208,16 @@
         <v>13</v>
       </c>
       <c r="C232" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D232" s="33" t="s">
         <v>153</v>
       </c>
       <c r="E232" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F232" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G232" s="45"/>
       <c r="H232" s="67">
@@ -6135,7 +6229,7 @@
         <v>14</v>
       </c>
       <c r="C233" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D233" s="33" t="s">
         <v>169</v>
@@ -6144,7 +6238,7 @@
         <v>8</v>
       </c>
       <c r="F233" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6164,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="G234" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="235" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6172,19 +6266,19 @@
         <v>14</v>
       </c>
       <c r="C235" s="46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D235" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E235" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F235" s="46">
         <v>0</v>
       </c>
       <c r="G235" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H235" s="67">
         <v>45529</v>
@@ -6195,13 +6289,13 @@
         <v>14</v>
       </c>
       <c r="C236" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D236" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E236" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F236" s="33">
         <v>0</v>
@@ -6227,7 +6321,7 @@
         <v>5</v>
       </c>
       <c r="G237" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H237" s="67"/>
     </row>
@@ -6236,16 +6330,16 @@
         <v>14</v>
       </c>
       <c r="C238" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="D238" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="D238" s="33" t="s">
-        <v>340</v>
-      </c>
       <c r="E238" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F238" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G238" s="45"/>
       <c r="H238" s="67">
@@ -6287,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="G240" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="241" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6295,13 +6389,13 @@
         <v>14</v>
       </c>
       <c r="C241" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D241" s="41" t="s">
         <v>61</v>
       </c>
       <c r="E241" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F241" s="29">
         <v>7</v>
@@ -6320,7 +6414,7 @@
       </c>
       <c r="F242" s="43">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G242" s="17"/>
       <c r="H242" s="64"/>
@@ -6385,7 +6479,7 @@
         <v>8</v>
       </c>
       <c r="F248" s="29">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G248" s="50"/>
     </row>
@@ -6413,7 +6507,7 @@
         <v>176</v>
       </c>
       <c r="D251" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E251" s="34">
         <v>1</v>
@@ -6431,7 +6525,7 @@
         <v>177</v>
       </c>
       <c r="D252" s="33" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="E252" s="34">
         <v>1</v>
@@ -6461,7 +6555,7 @@
         <v>15</v>
       </c>
       <c r="F254" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G254" s="45"/>
     </row>
@@ -6499,7 +6593,7 @@
         <v>2</v>
       </c>
       <c r="G256" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6507,16 +6601,16 @@
         <v>13</v>
       </c>
       <c r="C257" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D257" s="33" t="s">
         <v>136</v>
       </c>
       <c r="E257" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F257" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H257" s="67">
         <v>45627</v>
@@ -6543,7 +6637,7 @@
         <v>30</v>
       </c>
       <c r="F259" s="33">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G259" s="45"/>
     </row>
@@ -6564,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="G260" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="261" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6572,16 +6666,16 @@
         <v>14</v>
       </c>
       <c r="C261" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D261" s="33" t="s">
         <v>84</v>
       </c>
       <c r="E261" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F261" s="33">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H261" s="67">
         <v>45534</v>
@@ -6604,7 +6698,7 @@
         <v>5</v>
       </c>
       <c r="G262" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H262" s="67"/>
     </row>
@@ -6613,16 +6707,16 @@
         <v>14</v>
       </c>
       <c r="C263" s="33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D263" s="33" t="s">
         <v>106</v>
       </c>
       <c r="E263" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F263" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H263" s="67">
         <v>45627</v>
@@ -6662,7 +6756,7 @@
         <v>5</v>
       </c>
       <c r="G265" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="266" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6670,13 +6764,13 @@
         <v>14</v>
       </c>
       <c r="C266" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D266" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="D266" s="33" t="s">
-        <v>334</v>
-      </c>
       <c r="E266" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F266" s="33">
         <v>1</v>
@@ -6711,7 +6805,7 @@
       </c>
       <c r="F269" s="43">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G269" s="17"/>
     </row>
@@ -6774,7 +6868,7 @@
         <v>10</v>
       </c>
       <c r="F275" s="29">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G275" s="17"/>
     </row>
@@ -6815,10 +6909,10 @@
         <v>12</v>
       </c>
       <c r="C279" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="D279" s="33" t="s">
         <v>189</v>
-      </c>
-      <c r="D279" s="33" t="s">
-        <v>190</v>
       </c>
       <c r="E279" s="34">
         <v>2</v>
@@ -6840,16 +6934,16 @@
         <v>13</v>
       </c>
       <c r="C281" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D281" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E281" s="34">
         <v>7</v>
       </c>
       <c r="F281" s="33">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G281" s="45"/>
     </row>
@@ -6858,7 +6952,7 @@
         <v>13</v>
       </c>
       <c r="C282" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D282" s="33" t="s">
         <v>181</v>
@@ -6867,7 +6961,7 @@
         <v>22</v>
       </c>
       <c r="F282" s="33">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6875,7 +6969,7 @@
         <v>13</v>
       </c>
       <c r="C283" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D283" s="33" t="s">
         <v>169</v>
@@ -6901,16 +6995,16 @@
         <v>14</v>
       </c>
       <c r="C285" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D285" s="33" t="s">
         <v>195</v>
-      </c>
-      <c r="D285" s="33" t="s">
-        <v>196</v>
       </c>
       <c r="E285" s="34">
         <v>2</v>
       </c>
       <c r="F285" s="33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G285" s="45"/>
     </row>
@@ -6919,10 +7013,10 @@
         <v>14</v>
       </c>
       <c r="C286" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D286" s="46" t="s">
         <v>197</v>
-      </c>
-      <c r="D286" s="46" t="s">
-        <v>198</v>
       </c>
       <c r="E286" s="61">
         <v>1</v>
@@ -6931,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="G286" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="287" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6939,13 +7033,13 @@
         <v>14</v>
       </c>
       <c r="C287" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D287" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E287" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F287" s="33">
         <v>2</v>
@@ -6959,7 +7053,7 @@
         <v>14</v>
       </c>
       <c r="C288" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D288" s="46" t="s">
         <v>51</v>
@@ -6971,7 +7065,7 @@
         <v>2</v>
       </c>
       <c r="G288" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H288" s="67"/>
     </row>
@@ -6986,7 +7080,7 @@
         <v>98</v>
       </c>
       <c r="E289" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F289" s="33">
         <v>4</v>
@@ -7001,10 +7095,10 @@
         <v>14</v>
       </c>
       <c r="C290" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D290" s="46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E290" s="61">
         <v>3</v>
@@ -7013,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="G290" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H290" s="67"/>
     </row>
@@ -7022,13 +7116,13 @@
         <v>14</v>
       </c>
       <c r="C291" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D291" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E291" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F291" s="33">
         <v>3</v>
@@ -7043,10 +7137,10 @@
         <v>14</v>
       </c>
       <c r="C292" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D292" s="46" t="s">
         <v>201</v>
-      </c>
-      <c r="D292" s="46" t="s">
-        <v>202</v>
       </c>
       <c r="E292" s="61">
         <v>3</v>
@@ -7055,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="G292" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H292" s="67"/>
     </row>
@@ -7064,13 +7158,13 @@
         <v>14</v>
       </c>
       <c r="C293" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D293" s="33" t="s">
         <v>131</v>
       </c>
       <c r="E293" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F293" s="33">
         <v>3</v>
@@ -7105,7 +7199,7 @@
       </c>
       <c r="F296" s="43">
         <f>SUM(F278:F295)-SUM(F275:F277)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G296" s="17"/>
     </row>
@@ -7160,7 +7254,7 @@
         <v>11</v>
       </c>
       <c r="C302" s="49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D302" s="49" t="s">
         <v>120</v>
@@ -7172,7 +7266,7 @@
         <v>7</v>
       </c>
       <c r="G302" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7180,13 +7274,13 @@
         <v>11</v>
       </c>
       <c r="C303" s="49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D303" s="49" t="s">
         <v>102</v>
       </c>
       <c r="E303" s="62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F303" s="49">
         <v>21</v>
@@ -7201,16 +7295,16 @@
         <v>11</v>
       </c>
       <c r="C304" s="27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D304" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E304" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F304" s="27">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G304" s="45"/>
       <c r="H304" s="67">
@@ -7222,10 +7316,10 @@
         <v>12</v>
       </c>
       <c r="C305" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D305" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E305" s="34">
         <v>2</v>
@@ -7240,7 +7334,7 @@
         <v>12</v>
       </c>
       <c r="C306" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D306" s="33" t="s">
         <v>66</v>
@@ -7258,7 +7352,7 @@
         <v>13</v>
       </c>
       <c r="C307" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D307" s="33" t="s">
         <v>92</v>
@@ -7275,10 +7369,10 @@
         <v>13</v>
       </c>
       <c r="C308" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D308" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E308" s="61">
         <v>25</v>
@@ -7287,7 +7381,7 @@
         <v>4</v>
       </c>
       <c r="G308" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="309" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7295,13 +7389,13 @@
         <v>13</v>
       </c>
       <c r="C309" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D309" s="33" t="s">
         <v>108</v>
       </c>
       <c r="E309" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F309" s="33">
         <v>5</v>
@@ -7315,10 +7409,10 @@
         <v>13</v>
       </c>
       <c r="C310" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D310" s="46" t="s">
         <v>209</v>
-      </c>
-      <c r="D310" s="46" t="s">
-        <v>210</v>
       </c>
       <c r="E310" s="60">
         <v>16</v>
@@ -7327,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="G310" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="311" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7335,19 +7429,19 @@
         <v>13</v>
       </c>
       <c r="C311" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D311" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E311" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F311" s="46">
         <v>0</v>
       </c>
       <c r="G311" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H311" s="67">
         <v>45518</v>
@@ -7358,13 +7452,13 @@
         <v>13</v>
       </c>
       <c r="C312" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D312" s="33" t="s">
         <v>49</v>
       </c>
       <c r="E312" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F312" s="33">
         <v>4</v>
@@ -7378,10 +7472,10 @@
         <v>14</v>
       </c>
       <c r="C313" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D313" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E313" s="61">
         <v>15</v>
@@ -7390,7 +7484,7 @@
         <v>1</v>
       </c>
       <c r="G313" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="314" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7398,13 +7492,13 @@
         <v>14</v>
       </c>
       <c r="C314" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="D314" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="D314" s="33" t="s">
-        <v>298</v>
-      </c>
       <c r="E314" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F314" s="33">
         <v>6</v>
@@ -7418,7 +7512,7 @@
         <v>14</v>
       </c>
       <c r="C315" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D315" s="33" t="s">
         <v>140</v>
@@ -7427,7 +7521,7 @@
         <v>15</v>
       </c>
       <c r="F315" s="33">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G315" s="45"/>
     </row>
@@ -7436,10 +7530,10 @@
         <v>14</v>
       </c>
       <c r="C316" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D316" s="46" t="s">
         <v>213</v>
-      </c>
-      <c r="D316" s="46" t="s">
-        <v>214</v>
       </c>
       <c r="E316" s="61">
         <v>7</v>
@@ -7448,7 +7542,7 @@
         <v>1</v>
       </c>
       <c r="G316" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="317" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7459,13 +7553,13 @@
         <v>62</v>
       </c>
       <c r="D317" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E317" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F317" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H317" s="67">
         <v>45550</v>
@@ -7476,7 +7570,7 @@
         <v>14</v>
       </c>
       <c r="C318" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D318" s="46" t="s">
         <v>84</v>
@@ -7488,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="G318" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="319" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7496,19 +7590,19 @@
         <v>14</v>
       </c>
       <c r="C319" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D319" s="46" t="s">
         <v>181</v>
       </c>
       <c r="E319" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F319" s="46">
         <v>0</v>
       </c>
       <c r="G319" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H319" s="67">
         <v>45518</v>
@@ -7519,13 +7613,13 @@
         <v>14</v>
       </c>
       <c r="C320" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D320" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E320" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F320" s="33">
         <v>3</v>
@@ -7539,7 +7633,7 @@
         <v>14</v>
       </c>
       <c r="C321" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D321" s="46" t="s">
         <v>106</v>
@@ -7551,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="G321" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7560,13 +7654,13 @@
         <v>14</v>
       </c>
       <c r="C322" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D322" s="41" t="s">
         <v>57</v>
       </c>
       <c r="E322" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F322" s="29">
         <v>3</v>
@@ -7585,7 +7679,7 @@
       </c>
       <c r="F323" s="43">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G323" s="17"/>
     </row>
@@ -7597,7 +7691,7 @@
     </row>
     <row r="326" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C326" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D326" s="15" t="s">
         <v>39</v>
@@ -7634,10 +7728,10 @@
         <v>11</v>
       </c>
       <c r="C329" s="49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D329" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E329" s="62">
         <v>1</v>
@@ -7646,7 +7740,7 @@
         <v>9</v>
       </c>
       <c r="G329" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7654,19 +7748,19 @@
         <v>11</v>
       </c>
       <c r="C330" s="49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D330" s="49" t="s">
         <v>159</v>
       </c>
       <c r="E330" s="62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F330" s="49">
         <v>28</v>
       </c>
       <c r="G330" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H330" s="67">
         <v>45537</v>
@@ -7677,16 +7771,16 @@
         <v>11</v>
       </c>
       <c r="C331" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D331" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E331" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F331" s="27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G331" s="45"/>
       <c r="H331" s="67">
@@ -7706,7 +7800,7 @@
         <v>12</v>
       </c>
       <c r="C333" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D333" s="33" t="s">
         <v>53</v>
@@ -7715,7 +7809,7 @@
         <v>15</v>
       </c>
       <c r="F333" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7723,10 +7817,10 @@
         <v>12</v>
       </c>
       <c r="C334" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D334" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E334" s="34">
         <v>4</v>
@@ -7749,10 +7843,10 @@
         <v>13</v>
       </c>
       <c r="C336" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="D336" s="46" t="s">
         <v>219</v>
-      </c>
-      <c r="D336" s="46" t="s">
-        <v>220</v>
       </c>
       <c r="E336" s="61">
         <v>15</v>
@@ -7761,7 +7855,7 @@
         <v>2</v>
       </c>
       <c r="G336" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="337" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7769,16 +7863,16 @@
         <v>13</v>
       </c>
       <c r="C337" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D337" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E337" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F337" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G337" s="45"/>
       <c r="H337" s="67">
@@ -7790,7 +7884,7 @@
         <v>13</v>
       </c>
       <c r="C338" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D338" s="33" t="s">
         <v>53</v>
@@ -7799,7 +7893,7 @@
         <v>47</v>
       </c>
       <c r="F338" s="33">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="339" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7807,7 +7901,7 @@
         <v>13</v>
       </c>
       <c r="C339" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D339" s="33" t="s">
         <v>53</v>
@@ -7816,7 +7910,7 @@
         <v>2</v>
       </c>
       <c r="F339" s="33">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="340" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7831,10 +7925,10 @@
         <v>14</v>
       </c>
       <c r="C341" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D341" s="46" t="s">
         <v>223</v>
-      </c>
-      <c r="D341" s="46" t="s">
-        <v>224</v>
       </c>
       <c r="E341" s="61">
         <v>6</v>
@@ -7843,7 +7937,7 @@
         <v>3</v>
       </c>
       <c r="G341" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="342" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7854,10 +7948,10 @@
         <v>116</v>
       </c>
       <c r="D342" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E342" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F342" s="33">
         <v>2</v>
@@ -7871,7 +7965,7 @@
         <v>14</v>
       </c>
       <c r="C343" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D343" s="33" t="s">
         <v>104</v>
@@ -7889,7 +7983,7 @@
         <v>14</v>
       </c>
       <c r="C344" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D344" s="46" t="s">
         <v>104</v>
@@ -7901,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="G344" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="345" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7909,13 +8003,13 @@
         <v>14</v>
       </c>
       <c r="C345" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D345" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E345" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F345" s="33">
         <v>1</v>
@@ -7930,7 +8024,7 @@
         <v>14</v>
       </c>
       <c r="C346" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D346" s="33" t="s">
         <v>53</v>
@@ -7948,7 +8042,7 @@
         <v>14</v>
       </c>
       <c r="C347" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D347" s="46" t="s">
         <v>136</v>
@@ -7960,7 +8054,7 @@
         <v>1</v>
       </c>
       <c r="G347" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="348" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7968,13 +8062,13 @@
         <v>14</v>
       </c>
       <c r="C348" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D348" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E348" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F348" s="33">
         <v>0</v>
@@ -7999,7 +8093,7 @@
       </c>
       <c r="F350" s="43">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="351" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8028,7 +8122,7 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8114,13 +8208,13 @@
         <v>21</v>
       </c>
       <c r="E7" s="30">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F7" s="31">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G7" s="32">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K7" s="51"/>
     </row>
@@ -8135,13 +8229,13 @@
         <v>41</v>
       </c>
       <c r="E8" s="30">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F8" s="31">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G8" s="32">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8149,19 +8243,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E9" s="30">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F9" s="31">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G9" s="32">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8169,19 +8263,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E10" s="30">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F10" s="31">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G10" s="32">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8195,13 +8289,13 @@
         <v>19</v>
       </c>
       <c r="E11" s="30">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F11" s="31">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G11" s="32">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8209,19 +8303,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E12" s="30">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F12" s="31">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G12" s="32">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8229,19 +8323,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E13" s="30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="31">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G13" s="32">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8249,19 +8343,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="E14" s="30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="31">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="G14" s="32">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8269,19 +8363,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E15" s="30">
+        <v>18</v>
+      </c>
+      <c r="F15" s="31">
+        <v>57</v>
+      </c>
+      <c r="G15" s="32">
         <v>39</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="E15" s="30">
-        <v>16</v>
-      </c>
-      <c r="F15" s="31">
-        <v>66</v>
-      </c>
-      <c r="G15" s="32">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8295,13 +8389,13 @@
         <v>35</v>
       </c>
       <c r="E16" s="30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="31">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G16" s="32">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -8315,13 +8409,13 @@
         <v>43</v>
       </c>
       <c r="E17" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="31">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G17" s="32">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -8329,19 +8423,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E18" s="30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="31">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G18" s="32">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -8349,19 +8443,19 @@
         <v>13</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E19" s="30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F19" s="31">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G19" s="32">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -8420,11 +8514,15 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
+      <c r="A4" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>347</v>
+      </c>
       <c r="D4" s="45" t="s">
         <v>19</v>
       </c>
@@ -8433,9 +8531,13 @@
       <c r="A5" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="45" t="s">
+      <c r="B5" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8443,9 +8545,13 @@
       <c r="A6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="45" t="s">
+      <c r="B6" s="57" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8453,9 +8559,13 @@
       <c r="A7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="45" t="s">
+      <c r="B7" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8463,9 +8573,13 @@
       <c r="A8" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="45" t="s">
+      <c r="B8" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8476,25 +8590,47 @@
       <c r="B10" s="50"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
+      <c r="A11" s="59" t="s">
+        <v>251</v>
+      </c>
       <c r="B11" s="57"/>
       <c r="C11" s="57"/>
+      <c r="D11" s="45" t="s">
+        <v>31</v>
+      </c>
       <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>17</v>
+      </c>
       <c r="B12" s="57"/>
       <c r="C12" s="57"/>
+      <c r="D12" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="59" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
+      <c r="D13" s="45" t="s">
+        <v>44</v>
+      </c>
       <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>30</v>
+      </c>
       <c r="B14" s="57"/>
       <c r="C14" s="57"/>
+      <c r="D14" s="45" t="s">
+        <v>234</v>
+      </c>
       <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">

--- a/data/DL24-25.xlsx
+++ b/data/DL24-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0001c2a442dfed87/Documents/Dream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3531" documentId="8_{4A520963-05AC-46D2-973E-A3A248908BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{210327AB-77DA-4608-A383-1B4F73839A24}"/>
+  <xr:revisionPtr revIDLastSave="3844" documentId="8_{4A520963-05AC-46D2-973E-A3A248908BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F581E6B-1B75-4328-918D-747FD2CCD9C6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="366">
   <si>
     <t>TONY APPLETON</t>
   </si>
@@ -1112,6 +1112,27 @@
   </si>
   <si>
     <t>OISIN McENTEE</t>
+  </si>
+  <si>
+    <t>MARCO ASENSIO</t>
+  </si>
+  <si>
+    <t>1 (1-0)</t>
+  </si>
+  <si>
+    <t>2 (3-1)</t>
+  </si>
+  <si>
+    <t>ALISSON BECKER</t>
+  </si>
+  <si>
+    <t>MALIK MOTHERSILLE</t>
+  </si>
+  <si>
+    <t>-1 (0-1)</t>
+  </si>
+  <si>
+    <t>1 (2-1)</t>
   </si>
 </sst>
 </file>
@@ -1534,9 +1555,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1569,6 +1587,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1950,9 +1971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M351"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1963,7 +1982,7 @@
     <col min="5" max="5" width="10.6640625" style="44" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="68" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="67" customWidth="1"/>
     <col min="9" max="9" width="23.77734375" style="19" customWidth="1"/>
     <col min="10" max="10" width="31.44140625" style="19" customWidth="1"/>
     <col min="11" max="12" width="12" style="19" customWidth="1"/>
@@ -1979,7 +1998,7 @@
       <c r="E1" s="16"/>
       <c r="F1" s="15"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="64"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="15" t="s">
@@ -1991,7 +2010,7 @@
       <c r="E2" s="16"/>
       <c r="F2" s="15"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="69" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2001,7 +2020,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="15"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="64"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
@@ -2020,7 +2039,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="17"/>
-      <c r="H4" s="64"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="21" t="s">
         <v>6</v>
       </c>
@@ -2051,11 +2070,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="29">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G5" s="50"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="69" t="str">
+      <c r="H5" s="63"/>
+      <c r="I5" s="68" t="str">
         <f>D2</f>
         <v>TONY APPLETON</v>
       </c>
@@ -2065,15 +2084,15 @@
       </c>
       <c r="K5" s="30">
         <f t="shared" ref="K5:K17" si="0">L5-M5</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L5" s="31">
         <f>SUM(F8:F25)</f>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M5" s="32">
         <f>SUM(F5:F7)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2083,7 +2102,7 @@
       <c r="E6" s="28"/>
       <c r="F6" s="27"/>
       <c r="G6" s="50"/>
-      <c r="H6" s="65"/>
+      <c r="H6" s="64"/>
       <c r="I6" s="15" t="str">
         <f>D29</f>
         <v>IAN RADCLIFFE</v>
@@ -2094,15 +2113,15 @@
       </c>
       <c r="K6" s="30">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L6" s="31">
         <f>SUM(F35:F52)</f>
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M6" s="32">
         <f>SUM(F32:F34)</f>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2112,7 +2131,7 @@
       <c r="E7" s="28"/>
       <c r="F7" s="27"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="66"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="15" t="str">
         <f>D56</f>
         <v>ROBIN MARSHALL</v>
@@ -2123,15 +2142,15 @@
       </c>
       <c r="K7" s="30">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L7" s="31">
         <f>SUM(F62:F79)</f>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M7" s="32">
         <f>SUM(F59:F61)</f>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2150,7 +2169,7 @@
       <c r="F8" s="33">
         <v>1</v>
       </c>
-      <c r="H8" s="65"/>
+      <c r="H8" s="64"/>
       <c r="I8" s="15" t="str">
         <f>D83</f>
         <v>TED LINEHAN</v>
@@ -2161,15 +2180,15 @@
       </c>
       <c r="K8" s="30">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L8" s="31">
         <f>SUM(F89:F106)</f>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M8" s="32">
         <f>SUM(F86:F88)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2186,9 +2205,9 @@
         <v>1</v>
       </c>
       <c r="F9" s="33">
-        <v>1</v>
-      </c>
-      <c r="H9" s="65"/>
+        <v>2</v>
+      </c>
+      <c r="H9" s="64"/>
       <c r="I9" s="15" t="str">
         <f>D110</f>
         <v>MARK TYLDESLEY</v>
@@ -2199,15 +2218,15 @@
       </c>
       <c r="K9" s="30">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L9" s="31">
         <f>SUM(F116:F133)</f>
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="M9" s="32">
         <f>SUM(F113:F115)</f>
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2224,9 +2243,9 @@
         <v>1</v>
       </c>
       <c r="F10" s="33">
-        <v>5</v>
-      </c>
-      <c r="H10" s="65"/>
+        <v>6</v>
+      </c>
+      <c r="H10" s="64"/>
       <c r="I10" s="15" t="str">
         <f>D137</f>
         <v>ANDY PETERSON</v>
@@ -2237,34 +2256,37 @@
       </c>
       <c r="K10" s="30">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L10" s="31">
         <f>SUM(F143:F160)</f>
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" s="32">
         <f>SUM(F140:F142)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="34">
-        <v>1</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E11" s="60">
+        <v>1</v>
+      </c>
+      <c r="F11" s="46">
         <v>8</v>
       </c>
-      <c r="H11" s="65"/>
+      <c r="G11" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="H11" s="64"/>
       <c r="I11" s="15" t="str">
         <f>D164</f>
         <v>BRYN COOMBE</v>
@@ -2275,38 +2297,37 @@
       </c>
       <c r="K11" s="30">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L11" s="31">
         <f>SUM(F170:F187)</f>
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M11" s="32">
         <f>SUM(F167:F169)</f>
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="61">
-        <v>1</v>
-      </c>
-      <c r="F12" s="46">
+      <c r="C12" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="33">
         <v>3</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="15" t="str">
+      <c r="H12" s="66">
+        <v>45721</v>
+      </c>
+      <c r="I12" s="35" t="str">
         <f>D191</f>
         <v>GARY COOMBE</v>
       </c>
@@ -2316,37 +2337,37 @@
       </c>
       <c r="K12" s="30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L12" s="31">
         <f>SUM(F197:F214)</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M12" s="32">
         <f>SUM(F194:F196)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="D13" s="33" t="s">
+      <c r="C13" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="F13" s="33">
-        <v>0</v>
-      </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="67">
-        <v>45704</v>
-      </c>
+      <c r="E13" s="60">
+        <v>1</v>
+      </c>
+      <c r="F13" s="46">
+        <v>3</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="H13" s="66"/>
       <c r="I13" s="35" t="str">
         <f>D218</f>
         <v>GARETH HOSFORD</v>
@@ -2357,24 +2378,37 @@
       </c>
       <c r="K13" s="30">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="31">
         <f>SUM(F224:F241)</f>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M13" s="32">
         <f>SUM(F221:F223)</f>
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="53"/>
-      <c r="H14" s="67"/>
+      <c r="B14" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="33">
+        <v>3</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="66">
+        <v>45704</v>
+      </c>
       <c r="I14" s="35" t="str">
         <f>+D245</f>
         <v>JULIAN SLADE</v>
@@ -2389,11 +2423,11 @@
       </c>
       <c r="L14" s="31">
         <f>SUM(F251:F268)</f>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M14" s="32">
         <f>SUM(F248:F250)</f>
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2410,10 +2444,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G15" s="45"/>
-      <c r="H15" s="66"/>
+      <c r="H15" s="65"/>
       <c r="I15" s="35" t="str">
         <f>+D272</f>
         <v>CONAL HENRY</v>
@@ -2424,15 +2458,15 @@
       </c>
       <c r="K15" s="30">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L15" s="31">
         <f>SUM(F277:F295)</f>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M15" s="32">
         <f>SUM(F275:F276)</f>
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2445,7 +2479,7 @@
       <c r="D16" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="60">
         <v>1</v>
       </c>
       <c r="F16" s="46">
@@ -2454,7 +2488,7 @@
       <c r="G16" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H16" s="64"/>
+      <c r="H16" s="63"/>
       <c r="I16" s="35" t="str">
         <f>+D299</f>
         <v>GORDON PETERSON</v>
@@ -2465,15 +2499,15 @@
       </c>
       <c r="K16" s="30">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L16" s="31">
         <f>SUM(F305:F322)</f>
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M16" s="32">
         <f>SUM(F302:F304)</f>
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2486,7 +2520,7 @@
       <c r="D17" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F17" s="46">
@@ -2495,7 +2529,7 @@
       <c r="G17" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H17" s="67">
+      <c r="H17" s="66">
         <v>45551</v>
       </c>
       <c r="I17" s="35" t="str">
@@ -2507,15 +2541,15 @@
       </c>
       <c r="K17" s="30">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L17" s="31">
         <f>SUM(F332:F349)</f>
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="M17" s="32">
         <f>SUM(F329:F331)</f>
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2532,9 +2566,9 @@
         <v>253</v>
       </c>
       <c r="F18" s="33">
-        <v>1</v>
-      </c>
-      <c r="H18" s="67">
+        <v>2</v>
+      </c>
+      <c r="H18" s="66">
         <v>45693</v>
       </c>
       <c r="I18" s="36"/>
@@ -2553,7 +2587,7 @@
       <c r="D19" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="60">
         <v>1</v>
       </c>
       <c r="F19" s="46">
@@ -2562,7 +2596,7 @@
       <c r="G19" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H19" s="64"/>
+      <c r="H19" s="63"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
@@ -2584,7 +2618,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="45"/>
-      <c r="H20" s="67">
+      <c r="H20" s="66">
         <v>45515</v>
       </c>
     </row>
@@ -2598,7 +2632,7 @@
       <c r="D21" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="60">
         <v>1</v>
       </c>
       <c r="F21" s="46">
@@ -2607,7 +2641,7 @@
       <c r="G21" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H21" s="64"/>
+      <c r="H21" s="63"/>
     </row>
     <row r="22" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="46" t="s">
@@ -2626,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="45"/>
-      <c r="H22" s="67">
+      <c r="H22" s="66">
         <v>45515</v>
       </c>
     </row>
@@ -2640,7 +2674,7 @@
       <c r="D23" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="60">
         <v>1</v>
       </c>
       <c r="F23" s="46">
@@ -2649,7 +2683,7 @@
       <c r="G23" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H23" s="67"/>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
@@ -2661,14 +2695,14 @@
       <c r="D24" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F24" s="46">
         <v>2</v>
       </c>
       <c r="G24" s="45"/>
-      <c r="H24" s="67">
+      <c r="H24" s="66">
         <v>45537</v>
       </c>
     </row>
@@ -2686,10 +2720,10 @@
         <v>253</v>
       </c>
       <c r="F25" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="50"/>
-      <c r="H25" s="67">
+      <c r="H25" s="66">
         <v>45693</v>
       </c>
     </row>
@@ -2702,10 +2736,10 @@
       </c>
       <c r="F26" s="43">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="64"/>
+      <c r="H26" s="63"/>
     </row>
     <row r="27" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="15"/>
@@ -2713,7 +2747,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="15"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="64"/>
+      <c r="H27" s="63"/>
     </row>
     <row r="28" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="15"/>
@@ -2721,7 +2755,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="15"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="64"/>
+      <c r="H28" s="63"/>
     </row>
     <row r="29" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="15" t="s">
@@ -2733,7 +2767,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="15"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="64"/>
+      <c r="H29" s="63"/>
     </row>
     <row r="30" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="15"/>
@@ -2741,7 +2775,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="15"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="64"/>
+      <c r="H30" s="63"/>
     </row>
     <row r="31" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
@@ -2760,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="64"/>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="26" t="s">
@@ -2772,46 +2806,58 @@
       <c r="D32" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="62">
+      <c r="E32" s="61">
         <v>6</v>
       </c>
-      <c r="F32" s="63">
+      <c r="F32" s="62">
         <v>8</v>
       </c>
       <c r="G32" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="H32" s="64"/>
+      <c r="H32" s="63"/>
     </row>
     <row r="33" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="E33" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="F33" s="27">
-        <v>33</v>
+      <c r="E33" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="F33" s="49">
+        <v>36</v>
       </c>
       <c r="G33" s="50"/>
-      <c r="H33" s="67">
+      <c r="H33" s="66">
         <v>45555</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="49"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="27"/>
+      <c r="B34" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="F34" s="27">
+        <v>3</v>
+      </c>
       <c r="G34" s="50"/>
-      <c r="H34" s="64"/>
+      <c r="H34" s="66">
+        <v>45734</v>
+      </c>
     </row>
     <row r="35" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
@@ -2830,7 +2876,7 @@
         <v>5</v>
       </c>
       <c r="G35" s="45"/>
-      <c r="H35" s="64"/>
+      <c r="H35" s="63"/>
     </row>
     <row r="36" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
@@ -2846,9 +2892,9 @@
         <v>12</v>
       </c>
       <c r="F36" s="33">
-        <v>14</v>
-      </c>
-      <c r="H36" s="64"/>
+        <v>15</v>
+      </c>
+      <c r="H36" s="63"/>
     </row>
     <row r="37" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="46" t="s">
@@ -2866,7 +2912,7 @@
       <c r="F37" s="33">
         <v>16</v>
       </c>
-      <c r="H37" s="64"/>
+      <c r="H37" s="63"/>
     </row>
     <row r="38" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="46" t="s">
@@ -2885,7 +2931,7 @@
         <v>4</v>
       </c>
       <c r="G38" s="45"/>
-      <c r="H38" s="64"/>
+      <c r="H38" s="63"/>
     </row>
     <row r="39" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="46" t="s">
@@ -2897,7 +2943,7 @@
       <c r="D39" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="61">
+      <c r="E39" s="60">
         <v>4</v>
       </c>
       <c r="F39" s="46">
@@ -2906,7 +2952,7 @@
       <c r="G39" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H39" s="64"/>
+      <c r="H39" s="63"/>
     </row>
     <row r="40" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="46" t="s">
@@ -2918,7 +2964,7 @@
       <c r="D40" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="E40" s="61" t="s">
+      <c r="E40" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F40" s="46">
@@ -2927,7 +2973,7 @@
       <c r="G40" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H40" s="67">
+      <c r="H40" s="66">
         <v>45523</v>
       </c>
     </row>
@@ -2945,9 +2991,9 @@
         <v>253</v>
       </c>
       <c r="F41" s="33">
-        <v>5</v>
-      </c>
-      <c r="H41" s="67">
+        <v>10</v>
+      </c>
+      <c r="H41" s="66">
         <v>45642</v>
       </c>
     </row>
@@ -2965,10 +3011,10 @@
         <v>23</v>
       </c>
       <c r="F42" s="33">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G42" s="45"/>
-      <c r="H42" s="64"/>
+      <c r="H42" s="63"/>
     </row>
     <row r="43" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="46" t="s">
@@ -2980,7 +3026,7 @@
       <c r="D43" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="61">
+      <c r="E43" s="60">
         <v>10</v>
       </c>
       <c r="F43" s="46">
@@ -2989,7 +3035,7 @@
       <c r="G43" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H43" s="64"/>
+      <c r="H43" s="63"/>
     </row>
     <row r="44" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
@@ -3007,7 +3053,7 @@
       <c r="F44" s="33">
         <v>8</v>
       </c>
-      <c r="H44" s="67">
+      <c r="H44" s="66">
         <v>45621</v>
       </c>
     </row>
@@ -3021,7 +3067,7 @@
       <c r="D45" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="E45" s="61">
+      <c r="E45" s="60">
         <v>1</v>
       </c>
       <c r="F45" s="46">
@@ -3030,7 +3076,7 @@
       <c r="G45" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H45" s="64"/>
+      <c r="H45" s="63"/>
     </row>
     <row r="46" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="46" t="s">
@@ -3042,7 +3088,7 @@
       <c r="D46" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E46" s="61" t="s">
+      <c r="E46" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F46" s="46">
@@ -3051,7 +3097,7 @@
       <c r="G46" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H46" s="67">
+      <c r="H46" s="66">
         <v>45523</v>
       </c>
     </row>
@@ -3069,9 +3115,9 @@
         <v>253</v>
       </c>
       <c r="F47" s="33">
-        <v>14</v>
-      </c>
-      <c r="H47" s="67">
+        <v>15</v>
+      </c>
+      <c r="H47" s="66">
         <v>45578</v>
       </c>
     </row>
@@ -3085,7 +3131,7 @@
       <c r="D48" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="61">
+      <c r="E48" s="60">
         <v>4</v>
       </c>
       <c r="F48" s="46">
@@ -3094,7 +3140,7 @@
       <c r="G48" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H48" s="67"/>
+      <c r="H48" s="66"/>
     </row>
     <row r="49" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="46" t="s">
@@ -3106,7 +3152,7 @@
       <c r="D49" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="E49" s="61" t="s">
+      <c r="E49" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F49" s="46">
@@ -3115,7 +3161,7 @@
       <c r="G49" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H49" s="67">
+      <c r="H49" s="66">
         <v>45531</v>
       </c>
     </row>
@@ -3135,7 +3181,7 @@
       <c r="F50" s="33">
         <v>12</v>
       </c>
-      <c r="H50" s="67">
+      <c r="H50" s="66">
         <v>45565</v>
       </c>
     </row>
@@ -3149,7 +3195,7 @@
       <c r="D51" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="60">
         <v>1</v>
       </c>
       <c r="F51" s="46">
@@ -3158,7 +3204,7 @@
       <c r="G51" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H51" s="67"/>
+      <c r="H51" s="66"/>
     </row>
     <row r="52" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="48" t="s">
@@ -3174,10 +3220,10 @@
         <v>253</v>
       </c>
       <c r="F52" s="29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G52" s="17"/>
-      <c r="H52" s="67">
+      <c r="H52" s="66">
         <v>45543</v>
       </c>
     </row>
@@ -3190,7 +3236,7 @@
       </c>
       <c r="F53" s="43">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G53" s="17"/>
     </row>
@@ -3200,7 +3246,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="15"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="64"/>
+      <c r="H54" s="63"/>
     </row>
     <row r="55" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="15"/>
@@ -3208,7 +3254,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="15"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="64"/>
+      <c r="H55" s="63"/>
     </row>
     <row r="56" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="15" t="s">
@@ -3220,7 +3266,7 @@
       <c r="E56" s="16"/>
       <c r="F56" s="15"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="64"/>
+      <c r="H56" s="63"/>
     </row>
     <row r="57" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C57" s="15"/>
@@ -3228,7 +3274,7 @@
       <c r="E57" s="16"/>
       <c r="F57" s="15"/>
       <c r="G57" s="17"/>
-      <c r="H57" s="64"/>
+      <c r="H57" s="63"/>
     </row>
     <row r="58" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="20" t="s">
@@ -3247,7 +3293,7 @@
         <v>5</v>
       </c>
       <c r="G58" s="17"/>
-      <c r="H58" s="64"/>
+      <c r="H58" s="63"/>
     </row>
     <row r="59" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="26" t="s">
@@ -3263,10 +3309,10 @@
         <v>15</v>
       </c>
       <c r="F59" s="29">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G59" s="50"/>
-      <c r="H59" s="64"/>
+      <c r="H59" s="63"/>
     </row>
     <row r="60" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="26"/>
@@ -3275,7 +3321,7 @@
       <c r="E60" s="28"/>
       <c r="F60" s="27"/>
       <c r="G60" s="50"/>
-      <c r="H60" s="64"/>
+      <c r="H60" s="63"/>
     </row>
     <row r="61" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="49"/>
@@ -3284,7 +3330,7 @@
       <c r="E61" s="28"/>
       <c r="F61" s="27"/>
       <c r="G61" s="17"/>
-      <c r="H61" s="64"/>
+      <c r="H61" s="63"/>
     </row>
     <row r="62" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="46" t="s">
@@ -3303,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="45"/>
-      <c r="H62" s="64"/>
+      <c r="H62" s="63"/>
     </row>
     <row r="63" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="46" t="s">
@@ -3321,7 +3367,7 @@
       <c r="F63" s="33">
         <v>3</v>
       </c>
-      <c r="H63" s="64"/>
+      <c r="H63" s="63"/>
     </row>
     <row r="64" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="46"/>
@@ -3329,7 +3375,7 @@
       <c r="D64" s="33"/>
       <c r="E64" s="34"/>
       <c r="F64" s="33"/>
-      <c r="H64" s="64"/>
+      <c r="H64" s="63"/>
     </row>
     <row r="65" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="46" t="s">
@@ -3348,7 +3394,7 @@
         <v>10</v>
       </c>
       <c r="G65" s="45"/>
-      <c r="H65" s="64"/>
+      <c r="H65" s="63"/>
     </row>
     <row r="66" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="46" t="s">
@@ -3364,10 +3410,10 @@
         <v>10</v>
       </c>
       <c r="F66" s="33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G66" s="45"/>
-      <c r="H66" s="64"/>
+      <c r="H66" s="63"/>
     </row>
     <row r="67" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="46" t="s">
@@ -3385,7 +3431,7 @@
       <c r="F67" s="33">
         <v>9</v>
       </c>
-      <c r="H67" s="64"/>
+      <c r="H67" s="63"/>
     </row>
     <row r="68" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="46"/>
@@ -3394,7 +3440,7 @@
       <c r="E68" s="34"/>
       <c r="F68" s="33"/>
       <c r="G68" s="45"/>
-      <c r="H68" s="64"/>
+      <c r="H68" s="63"/>
     </row>
     <row r="69" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="46" t="s">
@@ -3410,9 +3456,9 @@
         <v>6</v>
       </c>
       <c r="F69" s="33">
-        <v>7</v>
-      </c>
-      <c r="H69" s="64"/>
+        <v>9</v>
+      </c>
+      <c r="H69" s="63"/>
     </row>
     <row r="70" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="46" t="s">
@@ -3431,7 +3477,7 @@
         <v>8</v>
       </c>
       <c r="G70" s="45"/>
-      <c r="H70" s="64"/>
+      <c r="H70" s="63"/>
     </row>
     <row r="71" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="46" t="s">
@@ -3447,9 +3493,9 @@
         <v>1</v>
       </c>
       <c r="F71" s="33">
-        <v>7</v>
-      </c>
-      <c r="H71" s="64"/>
+        <v>10</v>
+      </c>
+      <c r="H71" s="63"/>
     </row>
     <row r="72" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="46" t="s">
@@ -3465,9 +3511,9 @@
         <v>1</v>
       </c>
       <c r="F72" s="33">
-        <v>10</v>
-      </c>
-      <c r="H72" s="64"/>
+        <v>12</v>
+      </c>
+      <c r="H72" s="63"/>
     </row>
     <row r="73" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="46" t="s">
@@ -3479,7 +3525,7 @@
       <c r="D73" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E73" s="61">
+      <c r="E73" s="60">
         <v>1</v>
       </c>
       <c r="F73" s="46">
@@ -3488,7 +3534,7 @@
       <c r="G73" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H73" s="64"/>
+      <c r="H73" s="63"/>
     </row>
     <row r="74" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="46" t="s">
@@ -3500,7 +3546,7 @@
       <c r="D74" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="E74" s="61" t="s">
+      <c r="E74" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F74" s="46">
@@ -3509,7 +3555,7 @@
       <c r="G74" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H74" s="67">
+      <c r="H74" s="66">
         <v>45604</v>
       </c>
     </row>
@@ -3523,7 +3569,7 @@
       <c r="D75" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E75" s="61" t="s">
+      <c r="E75" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F75" s="46">
@@ -3532,7 +3578,7 @@
       <c r="G75" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H75" s="67">
+      <c r="H75" s="66">
         <v>45628</v>
       </c>
     </row>
@@ -3546,7 +3592,7 @@
       <c r="D76" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E76" s="61" t="s">
+      <c r="E76" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F76" s="46">
@@ -3555,7 +3601,7 @@
       <c r="G76" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H76" s="67">
+      <c r="H76" s="66">
         <v>45649</v>
       </c>
     </row>
@@ -3573,10 +3619,10 @@
         <v>253</v>
       </c>
       <c r="F77" s="33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G77" s="45"/>
-      <c r="H77" s="67">
+      <c r="H77" s="66">
         <v>45670</v>
       </c>
     </row>
@@ -3595,7 +3641,7 @@
       <c r="E79" s="28"/>
       <c r="F79" s="29"/>
       <c r="G79" s="17"/>
-      <c r="H79" s="64"/>
+      <c r="H79" s="63"/>
     </row>
     <row r="80" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="15"/>
@@ -3606,10 +3652,10 @@
       </c>
       <c r="F80" s="43">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G80" s="17"/>
-      <c r="H80" s="64"/>
+      <c r="H80" s="63"/>
     </row>
     <row r="81" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="15"/>
@@ -3617,7 +3663,7 @@
       <c r="E81" s="16"/>
       <c r="F81" s="15"/>
       <c r="G81" s="17"/>
-      <c r="H81" s="64"/>
+      <c r="H81" s="63"/>
     </row>
     <row r="82" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="15"/>
@@ -3625,7 +3671,7 @@
       <c r="E82" s="16"/>
       <c r="F82" s="15"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="64"/>
+      <c r="H82" s="63"/>
     </row>
     <row r="83" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="15" t="s">
@@ -3637,7 +3683,7 @@
       <c r="E83" s="16"/>
       <c r="F83" s="15"/>
       <c r="G83" s="17"/>
-      <c r="H83" s="64"/>
+      <c r="H83" s="63"/>
     </row>
     <row r="84" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C84" s="15"/>
@@ -3645,7 +3691,7 @@
       <c r="E84" s="16"/>
       <c r="F84" s="15"/>
       <c r="G84" s="17"/>
-      <c r="H84" s="64"/>
+      <c r="H84" s="63"/>
     </row>
     <row r="85" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="20" t="s">
@@ -3664,7 +3710,7 @@
         <v>5</v>
       </c>
       <c r="G85" s="17"/>
-      <c r="H85" s="64"/>
+      <c r="H85" s="63"/>
     </row>
     <row r="86" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="26" t="s">
@@ -3676,16 +3722,16 @@
       <c r="D86" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E86" s="62">
-        <v>1</v>
-      </c>
-      <c r="F86" s="63">
+      <c r="E86" s="61">
+        <v>1</v>
+      </c>
+      <c r="F86" s="62">
         <v>10</v>
       </c>
       <c r="G86" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="H86" s="64"/>
+      <c r="H86" s="63"/>
     </row>
     <row r="87" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="49" t="s">
@@ -3701,10 +3747,10 @@
         <v>253</v>
       </c>
       <c r="F87" s="27">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G87" s="50"/>
-      <c r="H87" s="67">
+      <c r="H87" s="66">
         <v>45564</v>
       </c>
     </row>
@@ -3715,7 +3761,7 @@
       <c r="E88" s="28"/>
       <c r="F88" s="27"/>
       <c r="G88" s="17"/>
-      <c r="H88" s="64"/>
+      <c r="H88" s="63"/>
     </row>
     <row r="89" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="46" t="s">
@@ -3731,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F89" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G89" s="45"/>
-      <c r="H89" s="64"/>
+      <c r="H89" s="63"/>
     </row>
     <row r="90" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="46" t="s">
@@ -3746,7 +3792,7 @@
       <c r="D90" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="E90" s="61">
+      <c r="E90" s="60">
         <v>1</v>
       </c>
       <c r="F90" s="46">
@@ -3755,7 +3801,7 @@
       <c r="G90" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H90" s="64"/>
+      <c r="H90" s="63"/>
     </row>
     <row r="91" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="46" t="s">
@@ -3773,7 +3819,7 @@
       <c r="F91" s="33">
         <v>4</v>
       </c>
-      <c r="H91" s="67">
+      <c r="H91" s="66">
         <v>45534</v>
       </c>
     </row>
@@ -3787,7 +3833,7 @@
       <c r="D92" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="E92" s="61">
+      <c r="E92" s="60">
         <v>1</v>
       </c>
       <c r="F92" s="46">
@@ -3813,7 +3859,7 @@
       <c r="F93" s="33">
         <v>3</v>
       </c>
-      <c r="H93" s="67">
+      <c r="H93" s="66">
         <v>45534</v>
       </c>
     </row>
@@ -3844,7 +3890,7 @@
       <c r="D95" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E95" s="61">
+      <c r="E95" s="60">
         <v>1</v>
       </c>
       <c r="F95" s="46">
@@ -3853,7 +3899,7 @@
       <c r="G95" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H95" s="64"/>
+      <c r="H95" s="63"/>
     </row>
     <row r="96" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="46" t="s">
@@ -3871,7 +3917,7 @@
       <c r="F96" s="33">
         <v>7</v>
       </c>
-      <c r="H96" s="67">
+      <c r="H96" s="66">
         <v>45526</v>
       </c>
     </row>
@@ -3889,9 +3935,9 @@
         <v>45</v>
       </c>
       <c r="F97" s="33">
-        <v>10</v>
-      </c>
-      <c r="H97" s="64"/>
+        <v>14</v>
+      </c>
+      <c r="H97" s="63"/>
     </row>
     <row r="98" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="46" t="s">
@@ -3903,7 +3949,7 @@
       <c r="D98" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="E98" s="61">
+      <c r="E98" s="60">
         <v>1</v>
       </c>
       <c r="F98" s="46">
@@ -3912,7 +3958,7 @@
       <c r="G98" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H98" s="64"/>
+      <c r="H98" s="63"/>
     </row>
     <row r="99" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="46" t="s">
@@ -3930,7 +3976,7 @@
       <c r="F99" s="33">
         <v>4</v>
       </c>
-      <c r="H99" s="67">
+      <c r="H99" s="66">
         <v>45566</v>
       </c>
     </row>
@@ -3944,7 +3990,7 @@
       <c r="D100" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E100" s="61">
+      <c r="E100" s="60">
         <v>1</v>
       </c>
       <c r="F100" s="46">
@@ -3964,7 +4010,7 @@
       <c r="D101" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="E101" s="61" t="s">
+      <c r="E101" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F101" s="46">
@@ -3973,7 +4019,7 @@
       <c r="G101" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H101" s="67">
+      <c r="H101" s="66">
         <v>45548</v>
       </c>
     </row>
@@ -3993,7 +4039,7 @@
       <c r="F102" s="33">
         <v>3</v>
       </c>
-      <c r="H102" s="67">
+      <c r="H102" s="66">
         <v>45588</v>
       </c>
     </row>
@@ -4007,7 +4053,7 @@
       <c r="D103" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E103" s="61">
+      <c r="E103" s="60">
         <v>1</v>
       </c>
       <c r="F103" s="46">
@@ -4016,7 +4062,7 @@
       <c r="G103" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H103" s="64"/>
+      <c r="H103" s="63"/>
     </row>
     <row r="104" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="46" t="s">
@@ -4028,7 +4074,7 @@
       <c r="D104" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E104" s="61" t="s">
+      <c r="E104" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F104" s="46">
@@ -4037,7 +4083,7 @@
       <c r="G104" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H104" s="67">
+      <c r="H104" s="66">
         <v>45566</v>
       </c>
     </row>
@@ -4055,9 +4101,9 @@
         <v>253</v>
       </c>
       <c r="F105" s="33">
-        <v>6</v>
-      </c>
-      <c r="H105" s="67">
+        <v>7</v>
+      </c>
+      <c r="H105" s="66">
         <v>45627</v>
       </c>
     </row>
@@ -4075,10 +4121,10 @@
         <v>1</v>
       </c>
       <c r="F106" s="29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G106" s="45"/>
-      <c r="H106" s="64"/>
+      <c r="H106" s="63"/>
     </row>
     <row r="107" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C107" s="15"/>
@@ -4089,7 +4135,7 @@
       </c>
       <c r="F107" s="43">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G107" s="17"/>
     </row>
@@ -4099,7 +4145,7 @@
       <c r="E108" s="16"/>
       <c r="F108" s="15"/>
       <c r="G108" s="17"/>
-      <c r="H108" s="64"/>
+      <c r="H108" s="63"/>
     </row>
     <row r="109" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="15"/>
@@ -4107,7 +4153,7 @@
       <c r="E109" s="16"/>
       <c r="F109" s="15"/>
       <c r="G109" s="17"/>
-      <c r="H109" s="64"/>
+      <c r="H109" s="63"/>
     </row>
     <row r="110" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="15" t="s">
@@ -4119,7 +4165,7 @@
       <c r="E110" s="16"/>
       <c r="F110" s="15"/>
       <c r="G110" s="17"/>
-      <c r="H110" s="64"/>
+      <c r="H110" s="63"/>
     </row>
     <row r="111" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C111" s="15"/>
@@ -4127,7 +4173,7 @@
       <c r="E111" s="16"/>
       <c r="F111" s="15"/>
       <c r="G111" s="17"/>
-      <c r="H111" s="64"/>
+      <c r="H111" s="63"/>
     </row>
     <row r="112" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="20" t="s">
@@ -4146,7 +4192,7 @@
         <v>5</v>
       </c>
       <c r="G112" s="17"/>
-      <c r="H112" s="64"/>
+      <c r="H112" s="63"/>
     </row>
     <row r="113" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="26" t="s">
@@ -4158,16 +4204,16 @@
       <c r="D113" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E113" s="62">
+      <c r="E113" s="61">
         <v>5</v>
       </c>
-      <c r="F113" s="63">
+      <c r="F113" s="62">
         <v>34</v>
       </c>
       <c r="G113" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="H113" s="64"/>
+      <c r="H113" s="63"/>
     </row>
     <row r="114" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="49" t="s">
@@ -4183,10 +4229,10 @@
         <v>253</v>
       </c>
       <c r="F114" s="27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G114" s="50"/>
-      <c r="H114" s="67">
+      <c r="H114" s="66">
         <v>45702</v>
       </c>
     </row>
@@ -4197,7 +4243,7 @@
       <c r="E115" s="28"/>
       <c r="F115" s="27"/>
       <c r="G115" s="17"/>
-      <c r="H115" s="64"/>
+      <c r="H115" s="63"/>
     </row>
     <row r="116" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="46" t="s">
@@ -4213,9 +4259,9 @@
         <v>3</v>
       </c>
       <c r="F116" s="33">
-        <v>3</v>
-      </c>
-      <c r="H116" s="64"/>
+        <v>4</v>
+      </c>
+      <c r="H116" s="63"/>
     </row>
     <row r="117" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="46" t="s">
@@ -4231,10 +4277,10 @@
         <v>1</v>
       </c>
       <c r="F117" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G117" s="45"/>
-      <c r="H117" s="64"/>
+      <c r="H117" s="63"/>
     </row>
     <row r="118" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="46" t="s">
@@ -4246,7 +4292,7 @@
       <c r="D118" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="E118" s="61">
+      <c r="E118" s="60">
         <v>1</v>
       </c>
       <c r="F118" s="46">
@@ -4255,7 +4301,7 @@
       <c r="G118" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H118" s="64"/>
+      <c r="H118" s="63"/>
     </row>
     <row r="119" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="46" t="s">
@@ -4267,7 +4313,7 @@
       <c r="D119" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="E119" s="61" t="s">
+      <c r="E119" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F119" s="46">
@@ -4276,7 +4322,7 @@
       <c r="G119" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H119" s="67">
+      <c r="H119" s="66">
         <v>45551</v>
       </c>
     </row>
@@ -4294,9 +4340,9 @@
         <v>253</v>
       </c>
       <c r="F120" s="33">
-        <v>9</v>
-      </c>
-      <c r="H120" s="67">
+        <v>10</v>
+      </c>
+      <c r="H120" s="66">
         <v>45592</v>
       </c>
     </row>
@@ -4310,7 +4356,7 @@
       <c r="D121" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="E121" s="61">
+      <c r="E121" s="60">
         <v>1</v>
       </c>
       <c r="F121" s="46">
@@ -4330,7 +4376,7 @@
       <c r="D122" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="E122" s="61" t="s">
+      <c r="E122" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F122" s="46">
@@ -4339,7 +4385,7 @@
       <c r="G122" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H122" s="67">
+      <c r="H122" s="66">
         <v>45529</v>
       </c>
     </row>
@@ -4359,7 +4405,7 @@
       <c r="F123" s="33">
         <v>2</v>
       </c>
-      <c r="H123" s="67">
+      <c r="H123" s="66">
         <v>45653</v>
       </c>
     </row>
@@ -4379,7 +4425,7 @@
       <c r="F124" s="33">
         <v>4</v>
       </c>
-      <c r="H124" s="67"/>
+      <c r="H124" s="66"/>
     </row>
     <row r="125" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="46" t="s">
@@ -4395,9 +4441,9 @@
         <v>7</v>
       </c>
       <c r="F125" s="33">
-        <v>15</v>
-      </c>
-      <c r="H125" s="67"/>
+        <v>16</v>
+      </c>
+      <c r="H125" s="66"/>
     </row>
     <row r="126" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="46" t="s">
@@ -4413,9 +4459,9 @@
         <v>15</v>
       </c>
       <c r="F126" s="33">
-        <v>7</v>
-      </c>
-      <c r="H126" s="67"/>
+        <v>8</v>
+      </c>
+      <c r="H126" s="66"/>
     </row>
     <row r="127" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="46" t="s">
@@ -4427,7 +4473,7 @@
       <c r="D127" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="E127" s="61">
+      <c r="E127" s="60">
         <v>39</v>
       </c>
       <c r="F127" s="46">
@@ -4436,7 +4482,7 @@
       <c r="G127" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H127" s="67"/>
+      <c r="H127" s="66"/>
     </row>
     <row r="128" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="46" t="s">
@@ -4452,10 +4498,10 @@
         <v>253</v>
       </c>
       <c r="F128" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G128" s="45"/>
-      <c r="H128" s="67">
+      <c r="H128" s="66">
         <v>45698</v>
       </c>
     </row>
@@ -4469,7 +4515,7 @@
       <c r="D129" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="E129" s="61">
+      <c r="E129" s="60">
         <v>12</v>
       </c>
       <c r="F129" s="46">
@@ -4478,7 +4524,7 @@
       <c r="G129" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H129" s="64"/>
+      <c r="H129" s="63"/>
     </row>
     <row r="130" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="46" t="s">
@@ -4496,7 +4542,7 @@
       <c r="F130" s="33">
         <v>14</v>
       </c>
-      <c r="H130" s="67">
+      <c r="H130" s="66">
         <v>45563</v>
       </c>
     </row>
@@ -4510,7 +4556,7 @@
       <c r="D131" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="E131" s="61">
+      <c r="E131" s="60">
         <v>11</v>
       </c>
       <c r="F131" s="46">
@@ -4519,7 +4565,7 @@
       <c r="G131" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H131" s="64"/>
+      <c r="H131" s="63"/>
     </row>
     <row r="132" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="46" t="s">
@@ -4531,7 +4577,7 @@
       <c r="D132" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="E132" s="61" t="s">
+      <c r="E132" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F132" s="46">
@@ -4540,7 +4586,7 @@
       <c r="G132" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H132" s="67">
+      <c r="H132" s="66">
         <v>45556</v>
       </c>
     </row>
@@ -4558,10 +4604,10 @@
         <v>253</v>
       </c>
       <c r="F133" s="29">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G133" s="17"/>
-      <c r="H133" s="67">
+      <c r="H133" s="66">
         <v>45632</v>
       </c>
     </row>
@@ -4574,10 +4620,10 @@
       </c>
       <c r="F134" s="43">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G134" s="17"/>
-      <c r="H134" s="64"/>
+      <c r="H134" s="63"/>
     </row>
     <row r="135" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C135" s="15"/>
@@ -4585,7 +4631,7 @@
       <c r="E135" s="16"/>
       <c r="F135" s="15"/>
       <c r="G135" s="17"/>
-      <c r="H135" s="64"/>
+      <c r="H135" s="63"/>
     </row>
     <row r="136" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="15"/>
@@ -4593,7 +4639,7 @@
       <c r="E136" s="16"/>
       <c r="F136" s="15"/>
       <c r="G136" s="17"/>
-      <c r="H136" s="64"/>
+      <c r="H136" s="63"/>
     </row>
     <row r="137" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="15" t="s">
@@ -4605,7 +4651,7 @@
       <c r="E137" s="16"/>
       <c r="F137" s="15"/>
       <c r="G137" s="17"/>
-      <c r="H137" s="64"/>
+      <c r="H137" s="63"/>
     </row>
     <row r="138" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C138" s="15"/>
@@ -4613,7 +4659,7 @@
       <c r="E138" s="16"/>
       <c r="F138" s="15"/>
       <c r="G138" s="17"/>
-      <c r="H138" s="64"/>
+      <c r="H138" s="63"/>
     </row>
     <row r="139" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="20" t="s">
@@ -4632,7 +4678,7 @@
         <v>5</v>
       </c>
       <c r="G139" s="50"/>
-      <c r="H139" s="64"/>
+      <c r="H139" s="63"/>
     </row>
     <row r="140" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="26" t="s">
@@ -4644,16 +4690,16 @@
       <c r="D140" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E140" s="62">
-        <v>1</v>
-      </c>
-      <c r="F140" s="63">
+      <c r="E140" s="61">
+        <v>1</v>
+      </c>
+      <c r="F140" s="62">
         <v>7</v>
       </c>
       <c r="G140" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="H140" s="64"/>
+      <c r="H140" s="63"/>
     </row>
     <row r="141" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="49" t="s">
@@ -4669,10 +4715,10 @@
         <v>253</v>
       </c>
       <c r="F141" s="27">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G141" s="50"/>
-      <c r="H141" s="67">
+      <c r="H141" s="66">
         <v>45529</v>
       </c>
     </row>
@@ -4683,7 +4729,7 @@
       <c r="E142" s="28"/>
       <c r="F142" s="27"/>
       <c r="G142" s="45"/>
-      <c r="H142" s="64"/>
+      <c r="H142" s="63"/>
     </row>
     <row r="143" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="46" t="s">
@@ -4699,9 +4745,9 @@
         <v>1</v>
       </c>
       <c r="F143" s="33">
-        <v>0</v>
-      </c>
-      <c r="H143" s="64"/>
+        <v>1</v>
+      </c>
+      <c r="H143" s="63"/>
     </row>
     <row r="144" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="46" t="s">
@@ -4719,7 +4765,7 @@
       <c r="F144" s="33">
         <v>1</v>
       </c>
-      <c r="H144" s="64"/>
+      <c r="H144" s="63"/>
     </row>
     <row r="145" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="46" t="s">
@@ -4731,7 +4777,7 @@
       <c r="D145" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E145" s="61">
+      <c r="E145" s="60">
         <v>1</v>
       </c>
       <c r="F145" s="46">
@@ -4740,7 +4786,7 @@
       <c r="G145" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H145" s="64"/>
+      <c r="H145" s="63"/>
     </row>
     <row r="146" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="46" t="s">
@@ -4758,7 +4804,7 @@
       <c r="F146" s="33">
         <v>8</v>
       </c>
-      <c r="H146" s="67">
+      <c r="H146" s="66">
         <v>45604</v>
       </c>
     </row>
@@ -4772,7 +4818,7 @@
       <c r="D147" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E147" s="61">
+      <c r="E147" s="60">
         <v>1</v>
       </c>
       <c r="F147" s="46">
@@ -4781,25 +4827,25 @@
       <c r="G147" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H147" s="64"/>
+      <c r="H147" s="63"/>
     </row>
     <row r="148" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C148" s="33" t="s">
+      <c r="C148" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="D148" s="33" t="s">
+      <c r="D148" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E148" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="F148" s="33">
-        <v>1</v>
-      </c>
-      <c r="H148" s="67">
+      <c r="E148" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="F148" s="46">
+        <v>1</v>
+      </c>
+      <c r="H148" s="66">
         <v>45692</v>
       </c>
     </row>
@@ -4807,49 +4853,62 @@
       <c r="B149" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C149" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D149" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="E149" s="61">
-        <v>1</v>
-      </c>
-      <c r="F149" s="46">
-        <v>1</v>
-      </c>
-      <c r="G149" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="H149" s="64"/>
+      <c r="C149" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E149" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="F149" s="33">
+        <v>0</v>
+      </c>
+      <c r="H149" s="66">
+        <v>45744</v>
+      </c>
     </row>
     <row r="150" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C150" s="33" t="s">
+      <c r="C150" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D150" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E150" s="60">
+        <v>1</v>
+      </c>
+      <c r="F150" s="46">
+        <v>1</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="H150" s="63"/>
+    </row>
+    <row r="151" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="D150" s="33" t="s">
+      <c r="D151" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="E150" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="F150" s="33">
+      <c r="E151" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="F151" s="33">
         <v>5</v>
       </c>
-      <c r="H150" s="67">
+      <c r="H151" s="66">
         <v>45564</v>
       </c>
-    </row>
-    <row r="151" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="53"/>
-      <c r="C151" s="53"/>
-      <c r="D151" s="53"/>
-      <c r="E151" s="60"/>
-      <c r="F151" s="53"/>
     </row>
     <row r="152" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="46" t="s">
@@ -4865,10 +4924,10 @@
         <v>80</v>
       </c>
       <c r="F152" s="33">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G152" s="45"/>
-      <c r="H152" s="64"/>
+      <c r="H152" s="63"/>
     </row>
     <row r="153" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="46" t="s">
@@ -4880,7 +4939,7 @@
       <c r="D153" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="E153" s="61">
+      <c r="E153" s="60">
         <v>2</v>
       </c>
       <c r="F153" s="46">
@@ -4889,7 +4948,7 @@
       <c r="G153" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H153" s="64"/>
+      <c r="H153" s="63"/>
     </row>
     <row r="154" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="46" t="s">
@@ -4901,7 +4960,7 @@
       <c r="D154" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="E154" s="61" t="s">
+      <c r="E154" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F154" s="46">
@@ -4910,7 +4969,7 @@
       <c r="G154" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H154" s="67">
+      <c r="H154" s="66">
         <v>45552</v>
       </c>
     </row>
@@ -4928,9 +4987,9 @@
         <v>253</v>
       </c>
       <c r="F155" s="33">
-        <v>11</v>
-      </c>
-      <c r="H155" s="67">
+        <v>13</v>
+      </c>
+      <c r="H155" s="66">
         <v>45592</v>
       </c>
     </row>
@@ -4944,7 +5003,7 @@
       <c r="D156" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="E156" s="61">
+      <c r="E156" s="60">
         <v>1</v>
       </c>
       <c r="F156" s="46">
@@ -4953,7 +5012,7 @@
       <c r="G156" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H156" s="67"/>
+      <c r="H156" s="66"/>
     </row>
     <row r="157" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="46" t="s">
@@ -4969,9 +5028,9 @@
         <v>253</v>
       </c>
       <c r="F157" s="33">
-        <v>12</v>
-      </c>
-      <c r="H157" s="67">
+        <v>13</v>
+      </c>
+      <c r="H157" s="66">
         <v>45552</v>
       </c>
     </row>
@@ -4985,7 +5044,7 @@
       <c r="D158" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="E158" s="61">
+      <c r="E158" s="60">
         <v>6</v>
       </c>
       <c r="F158" s="46">
@@ -4994,7 +5053,7 @@
       <c r="G158" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H158" s="67"/>
+      <c r="H158" s="66"/>
     </row>
     <row r="159" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="46" t="s">
@@ -5010,9 +5069,9 @@
         <v>253</v>
       </c>
       <c r="F159" s="33">
-        <v>9</v>
-      </c>
-      <c r="H159" s="67">
+        <v>11</v>
+      </c>
+      <c r="H159" s="66">
         <v>45564</v>
       </c>
     </row>
@@ -5030,10 +5089,10 @@
         <v>1</v>
       </c>
       <c r="F160" s="29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G160" s="17"/>
-      <c r="H160" s="64"/>
+      <c r="H160" s="63"/>
     </row>
     <row r="161" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C161" s="15"/>
@@ -5044,10 +5103,10 @@
       </c>
       <c r="F161" s="43">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G161" s="17"/>
-      <c r="H161" s="64"/>
+      <c r="H161" s="63"/>
     </row>
     <row r="162" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C162" s="15"/>
@@ -5055,7 +5114,7 @@
       <c r="E162" s="16"/>
       <c r="F162" s="15"/>
       <c r="G162" s="17"/>
-      <c r="H162" s="64"/>
+      <c r="H162" s="63"/>
     </row>
     <row r="163" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C163" s="15"/>
@@ -5063,7 +5122,7 @@
       <c r="E163" s="16"/>
       <c r="F163" s="15"/>
       <c r="G163" s="17"/>
-      <c r="H163" s="64"/>
+      <c r="H163" s="63"/>
     </row>
     <row r="164" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C164" s="15" t="s">
@@ -5075,7 +5134,7 @@
       <c r="E164" s="16"/>
       <c r="F164" s="15"/>
       <c r="G164" s="17"/>
-      <c r="H164" s="64"/>
+      <c r="H164" s="63"/>
     </row>
     <row r="165" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C165" s="15"/>
@@ -5083,7 +5142,7 @@
       <c r="E165" s="16"/>
       <c r="F165" s="15"/>
       <c r="G165" s="17"/>
-      <c r="H165" s="64"/>
+      <c r="H165" s="63"/>
     </row>
     <row r="166" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="20" t="s">
@@ -5102,7 +5161,7 @@
         <v>5</v>
       </c>
       <c r="G166" s="50"/>
-      <c r="H166" s="64"/>
+      <c r="H166" s="63"/>
     </row>
     <row r="167" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="26" t="s">
@@ -5114,16 +5173,16 @@
       <c r="D167" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E167" s="62">
+      <c r="E167" s="61">
         <v>7</v>
       </c>
-      <c r="F167" s="63">
+      <c r="F167" s="62">
         <v>43</v>
       </c>
       <c r="G167" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="H167" s="64"/>
+      <c r="H167" s="63"/>
     </row>
     <row r="168" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="49" t="s">
@@ -5139,10 +5198,10 @@
         <v>253</v>
       </c>
       <c r="F168" s="27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G168" s="50"/>
-      <c r="H168" s="67">
+      <c r="H168" s="66">
         <v>45715</v>
       </c>
     </row>
@@ -5153,7 +5212,7 @@
       <c r="E169" s="28"/>
       <c r="F169" s="27"/>
       <c r="G169" s="47"/>
-      <c r="H169" s="64"/>
+      <c r="H169" s="63"/>
     </row>
     <row r="170" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="46" t="s">
@@ -5169,9 +5228,9 @@
         <v>3</v>
       </c>
       <c r="F170" s="33">
-        <v>1</v>
-      </c>
-      <c r="H170" s="64"/>
+        <v>2</v>
+      </c>
+      <c r="H170" s="63"/>
     </row>
     <row r="171" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="46" t="s">
@@ -5190,7 +5249,7 @@
         <v>2</v>
       </c>
       <c r="G171" s="45"/>
-      <c r="H171" s="64"/>
+      <c r="H171" s="63"/>
     </row>
     <row r="172" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="46" t="s">
@@ -5202,7 +5261,7 @@
       <c r="D172" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E172" s="61">
+      <c r="E172" s="60">
         <v>9</v>
       </c>
       <c r="F172" s="46">
@@ -5211,7 +5270,7 @@
       <c r="G172" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H172" s="64"/>
+      <c r="H172" s="63"/>
     </row>
     <row r="173" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="46" t="s">
@@ -5227,9 +5286,9 @@
         <v>253</v>
       </c>
       <c r="F173" s="33">
-        <v>6</v>
-      </c>
-      <c r="H173" s="67">
+        <v>7</v>
+      </c>
+      <c r="H173" s="66">
         <v>45601</v>
       </c>
     </row>
@@ -5243,7 +5302,7 @@
       <c r="D174" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E174" s="61">
+      <c r="E174" s="60">
         <v>15</v>
       </c>
       <c r="F174" s="46">
@@ -5269,7 +5328,7 @@
       <c r="F175" s="33">
         <v>0</v>
       </c>
-      <c r="H175" s="67">
+      <c r="H175" s="66">
         <v>45700</v>
       </c>
     </row>
@@ -5283,7 +5342,7 @@
       <c r="D176" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="E176" s="61">
+      <c r="E176" s="60">
         <v>1</v>
       </c>
       <c r="F176" s="46">
@@ -5292,7 +5351,7 @@
       <c r="G176" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H176" s="64"/>
+      <c r="H176" s="63"/>
     </row>
     <row r="177" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="46" t="s">
@@ -5308,9 +5367,9 @@
         <v>253</v>
       </c>
       <c r="F177" s="33">
-        <v>7</v>
-      </c>
-      <c r="H177" s="67">
+        <v>8</v>
+      </c>
+      <c r="H177" s="66">
         <v>45526</v>
       </c>
     </row>
@@ -5328,7 +5387,7 @@
         <v>3</v>
       </c>
       <c r="F178" s="33">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5341,7 +5400,7 @@
       <c r="D179" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E179" s="61">
+      <c r="E179" s="60">
         <v>4</v>
       </c>
       <c r="F179" s="46">
@@ -5350,7 +5409,7 @@
       <c r="G179" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H179" s="64"/>
+      <c r="H179" s="63"/>
     </row>
     <row r="180" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="46" t="s">
@@ -5368,7 +5427,7 @@
       <c r="F180" s="33">
         <v>10</v>
       </c>
-      <c r="H180" s="67">
+      <c r="H180" s="66">
         <v>45601</v>
       </c>
     </row>
@@ -5382,7 +5441,7 @@
       <c r="D181" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="E181" s="61">
+      <c r="E181" s="60">
         <v>5</v>
       </c>
       <c r="F181" s="46">
@@ -5391,7 +5450,7 @@
       <c r="G181" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H181" s="67"/>
+      <c r="H181" s="66"/>
     </row>
     <row r="182" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="46" t="s">
@@ -5409,7 +5468,7 @@
       <c r="F182" s="33">
         <v>0</v>
       </c>
-      <c r="H182" s="67">
+      <c r="H182" s="66">
         <v>45664</v>
       </c>
     </row>
@@ -5423,7 +5482,7 @@
       <c r="D183" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="E183" s="61">
+      <c r="E183" s="60">
         <v>38</v>
       </c>
       <c r="F183" s="46">
@@ -5432,7 +5491,7 @@
       <c r="G183" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H183" s="67"/>
+      <c r="H183" s="66"/>
     </row>
     <row r="184" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="46" t="s">
@@ -5450,7 +5509,7 @@
       <c r="F184" s="33">
         <v>3</v>
       </c>
-      <c r="H184" s="67">
+      <c r="H184" s="66">
         <v>45676</v>
       </c>
     </row>
@@ -5464,7 +5523,7 @@
       <c r="D185" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="E185" s="61">
+      <c r="E185" s="60">
         <v>10</v>
       </c>
       <c r="F185" s="46">
@@ -5484,7 +5543,7 @@
       <c r="D186" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="E186" s="61" t="s">
+      <c r="E186" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F186" s="53">
@@ -5493,7 +5552,7 @@
       <c r="G186" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H186" s="67">
+      <c r="H186" s="66">
         <v>45565</v>
       </c>
     </row>
@@ -5514,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="17"/>
-      <c r="H187" s="67">
+      <c r="H187" s="66">
         <v>45692</v>
       </c>
     </row>
@@ -5527,10 +5586,10 @@
       </c>
       <c r="F188" s="43">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G188" s="17"/>
-      <c r="H188" s="64"/>
+      <c r="H188" s="63"/>
     </row>
     <row r="189" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C189" s="15"/>
@@ -5538,7 +5597,7 @@
       <c r="E189" s="16"/>
       <c r="F189" s="15"/>
       <c r="G189" s="17"/>
-      <c r="H189" s="64"/>
+      <c r="H189" s="63"/>
     </row>
     <row r="190" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C190" s="15"/>
@@ -5546,7 +5605,7 @@
       <c r="E190" s="16"/>
       <c r="F190" s="15"/>
       <c r="G190" s="17"/>
-      <c r="H190" s="64"/>
+      <c r="H190" s="63"/>
     </row>
     <row r="191" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C191" s="15" t="s">
@@ -5558,7 +5617,7 @@
       <c r="E191" s="16"/>
       <c r="F191" s="15"/>
       <c r="G191" s="17"/>
-      <c r="H191" s="64"/>
+      <c r="H191" s="63"/>
     </row>
     <row r="192" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C192" s="15"/>
@@ -5566,7 +5625,7 @@
       <c r="E192" s="16"/>
       <c r="F192" s="15"/>
       <c r="G192" s="17"/>
-      <c r="H192" s="64"/>
+      <c r="H192" s="63"/>
     </row>
     <row r="193" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B193" s="20" t="s">
@@ -5585,7 +5644,7 @@
         <v>5</v>
       </c>
       <c r="G193" s="50"/>
-      <c r="H193" s="64"/>
+      <c r="H193" s="63"/>
     </row>
     <row r="194" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="26" t="s">
@@ -5601,10 +5660,10 @@
         <v>4</v>
       </c>
       <c r="F194" s="29">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G194" s="50"/>
-      <c r="H194" s="64"/>
+      <c r="H194" s="63"/>
     </row>
     <row r="195" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="26"/>
@@ -5613,7 +5672,7 @@
       <c r="E195" s="28"/>
       <c r="F195" s="27"/>
       <c r="G195" s="17"/>
-      <c r="H195" s="64"/>
+      <c r="H195" s="63"/>
     </row>
     <row r="196" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="49"/>
@@ -5622,7 +5681,7 @@
       <c r="E196" s="28"/>
       <c r="F196" s="27"/>
       <c r="G196" s="45"/>
-      <c r="H196" s="64"/>
+      <c r="H196" s="63"/>
     </row>
     <row r="197" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="46" t="s">
@@ -5634,7 +5693,7 @@
       <c r="D197" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="E197" s="61">
+      <c r="E197" s="60">
         <v>3</v>
       </c>
       <c r="F197" s="46">
@@ -5643,7 +5702,7 @@
       <c r="G197" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H197" s="64"/>
+      <c r="H197" s="63"/>
     </row>
     <row r="198" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="46" t="s">
@@ -5661,7 +5720,7 @@
       <c r="F198" s="33">
         <v>3</v>
       </c>
-      <c r="H198" s="67">
+      <c r="H198" s="66">
         <v>45564</v>
       </c>
     </row>
@@ -5682,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="G199" s="45"/>
-      <c r="H199" s="64"/>
+      <c r="H199" s="63"/>
     </row>
     <row r="200" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="46"/>
@@ -5691,7 +5750,7 @@
       <c r="E200" s="34"/>
       <c r="F200" s="33"/>
       <c r="G200" s="45"/>
-      <c r="H200" s="64"/>
+      <c r="H200" s="63"/>
     </row>
     <row r="201" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="46" t="s">
@@ -5707,9 +5766,9 @@
         <v>23</v>
       </c>
       <c r="F201" s="33">
-        <v>9</v>
-      </c>
-      <c r="H201" s="64"/>
+        <v>10</v>
+      </c>
+      <c r="H201" s="63"/>
     </row>
     <row r="202" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="46" t="s">
@@ -5728,7 +5787,7 @@
         <v>5</v>
       </c>
       <c r="G202" s="45"/>
-      <c r="H202" s="64"/>
+      <c r="H202" s="63"/>
     </row>
     <row r="203" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="46" t="s">
@@ -5740,7 +5799,7 @@
       <c r="D203" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="E203" s="61">
+      <c r="E203" s="60">
         <v>2</v>
       </c>
       <c r="F203" s="46">
@@ -5749,7 +5808,7 @@
       <c r="G203" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H203" s="64"/>
+      <c r="H203" s="63"/>
     </row>
     <row r="204" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="46" t="s">
@@ -5768,7 +5827,7 @@
         <v>3</v>
       </c>
       <c r="G204" s="45"/>
-      <c r="H204" s="67">
+      <c r="H204" s="66">
         <v>45515</v>
       </c>
     </row>
@@ -5776,9 +5835,9 @@
       <c r="B205" s="53"/>
       <c r="C205" s="53"/>
       <c r="D205" s="53"/>
-      <c r="E205" s="60"/>
+      <c r="E205" s="59"/>
       <c r="F205" s="53"/>
-      <c r="H205" s="64"/>
+      <c r="H205" s="63"/>
     </row>
     <row r="206" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="46" t="s">
@@ -5797,7 +5856,7 @@
         <v>11</v>
       </c>
       <c r="G206" s="45"/>
-      <c r="H206" s="64"/>
+      <c r="H206" s="63"/>
     </row>
     <row r="207" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="46" t="s">
@@ -5813,9 +5872,9 @@
         <v>4</v>
       </c>
       <c r="F207" s="33">
-        <v>7</v>
-      </c>
-      <c r="H207" s="64"/>
+        <v>8</v>
+      </c>
+      <c r="H207" s="63"/>
     </row>
     <row r="208" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="46" t="s">
@@ -5833,7 +5892,7 @@
       <c r="F208" s="33">
         <v>7</v>
       </c>
-      <c r="H208" s="64"/>
+      <c r="H208" s="63"/>
     </row>
     <row r="209" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="46" t="s">
@@ -5863,7 +5922,7 @@
       <c r="D210" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="E210" s="61">
+      <c r="E210" s="60">
         <v>15</v>
       </c>
       <c r="F210" s="46">
@@ -5872,7 +5931,7 @@
       <c r="G210" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H210" s="64"/>
+      <c r="H210" s="63"/>
     </row>
     <row r="211" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="46" t="s">
@@ -5888,9 +5947,9 @@
         <v>253</v>
       </c>
       <c r="F211" s="33">
-        <v>4</v>
-      </c>
-      <c r="H211" s="67">
+        <v>5</v>
+      </c>
+      <c r="H211" s="66">
         <v>45535</v>
       </c>
     </row>
@@ -5900,7 +5959,7 @@
       <c r="D212" s="33"/>
       <c r="E212" s="34"/>
       <c r="F212" s="33"/>
-      <c r="H212" s="64"/>
+      <c r="H212" s="63"/>
     </row>
     <row r="213" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="46"/>
@@ -5909,7 +5968,7 @@
       <c r="E213" s="34"/>
       <c r="F213" s="33"/>
       <c r="G213" s="45"/>
-      <c r="H213" s="64"/>
+      <c r="H213" s="63"/>
     </row>
     <row r="214" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="48"/>
@@ -5918,7 +5977,7 @@
       <c r="E214" s="28"/>
       <c r="F214" s="29"/>
       <c r="G214" s="17"/>
-      <c r="H214" s="64"/>
+      <c r="H214" s="63"/>
     </row>
     <row r="215" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C215" s="15"/>
@@ -5929,10 +5988,10 @@
       </c>
       <c r="F215" s="43">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G215" s="17"/>
-      <c r="H215" s="64"/>
+      <c r="H215" s="63"/>
     </row>
     <row r="216" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C216" s="15"/>
@@ -5940,7 +5999,7 @@
       <c r="E216" s="16"/>
       <c r="F216" s="15"/>
       <c r="G216" s="17"/>
-      <c r="H216" s="64"/>
+      <c r="H216" s="63"/>
     </row>
     <row r="217" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C217" s="15"/>
@@ -5948,7 +6007,7 @@
       <c r="E217" s="16"/>
       <c r="F217" s="15"/>
       <c r="G217" s="17"/>
-      <c r="H217" s="64"/>
+      <c r="H217" s="63"/>
     </row>
     <row r="218" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C218" s="15" t="s">
@@ -5960,7 +6019,7 @@
       <c r="E218" s="16"/>
       <c r="F218" s="15"/>
       <c r="G218" s="17"/>
-      <c r="H218" s="64"/>
+      <c r="H218" s="63"/>
     </row>
     <row r="219" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C219" s="15"/>
@@ -5968,7 +6027,7 @@
       <c r="E219" s="16"/>
       <c r="F219" s="15"/>
       <c r="G219" s="17"/>
-      <c r="H219" s="64"/>
+      <c r="H219" s="63"/>
     </row>
     <row r="220" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B220" s="20" t="s">
@@ -5987,7 +6046,7 @@
         <v>5</v>
       </c>
       <c r="G220" s="50"/>
-      <c r="H220" s="64"/>
+      <c r="H220" s="63"/>
     </row>
     <row r="221" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="26" t="s">
@@ -5999,16 +6058,16 @@
       <c r="D221" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="E221" s="62">
-        <v>1</v>
-      </c>
-      <c r="F221" s="63">
+      <c r="E221" s="61">
+        <v>1</v>
+      </c>
+      <c r="F221" s="62">
         <v>30</v>
       </c>
       <c r="G221" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="H221" s="64"/>
+      <c r="H221" s="63"/>
     </row>
     <row r="222" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="49" t="s">
@@ -6024,10 +6083,10 @@
         <v>253</v>
       </c>
       <c r="F222" s="27">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G222" s="50"/>
-      <c r="H222" s="67">
+      <c r="H222" s="66">
         <v>45682</v>
       </c>
     </row>
@@ -6038,7 +6097,7 @@
       <c r="E223" s="28"/>
       <c r="F223" s="27"/>
       <c r="G223" s="45"/>
-      <c r="H223" s="64"/>
+      <c r="H223" s="63"/>
     </row>
     <row r="224" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="46" t="s">
@@ -6056,7 +6115,7 @@
       <c r="F224" s="33">
         <v>5</v>
       </c>
-      <c r="H224" s="64"/>
+      <c r="H224" s="63"/>
     </row>
     <row r="225" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="46" t="s">
@@ -6075,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="G225" s="45"/>
-      <c r="H225" s="64"/>
+      <c r="H225" s="63"/>
     </row>
     <row r="226" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="46" t="s">
@@ -6087,7 +6146,7 @@
       <c r="D226" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="E226" s="61">
+      <c r="E226" s="60">
         <v>16</v>
       </c>
       <c r="F226" s="46">
@@ -6096,7 +6155,7 @@
       <c r="G226" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H226" s="64"/>
+      <c r="H226" s="63"/>
     </row>
     <row r="227" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="46" t="s">
@@ -6108,7 +6167,7 @@
       <c r="D227" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E227" s="61" t="s">
+      <c r="E227" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F227" s="46">
@@ -6117,7 +6176,7 @@
       <c r="G227" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H227" s="67">
+      <c r="H227" s="66">
         <v>45529</v>
       </c>
     </row>
@@ -6135,9 +6194,9 @@
         <v>253</v>
       </c>
       <c r="F228" s="33">
-        <v>4</v>
-      </c>
-      <c r="H228" s="67">
+        <v>5</v>
+      </c>
+      <c r="H228" s="66">
         <v>45590</v>
       </c>
     </row>
@@ -6151,7 +6210,7 @@
       <c r="D229" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E229" s="61">
+      <c r="E229" s="60">
         <v>12</v>
       </c>
       <c r="F229" s="46">
@@ -6160,7 +6219,7 @@
       <c r="G229" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H229" s="64"/>
+      <c r="H229" s="63"/>
     </row>
     <row r="230" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="46" t="s">
@@ -6178,7 +6237,7 @@
       <c r="F230" s="33">
         <v>4</v>
       </c>
-      <c r="H230" s="67">
+      <c r="H230" s="66">
         <v>45590</v>
       </c>
     </row>
@@ -6192,7 +6251,7 @@
       <c r="D231" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="E231" s="61">
+      <c r="E231" s="60">
         <v>3</v>
       </c>
       <c r="F231" s="46">
@@ -6201,7 +6260,7 @@
       <c r="G231" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H231" s="64"/>
+      <c r="H231" s="63"/>
     </row>
     <row r="232" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="46" t="s">
@@ -6217,10 +6276,10 @@
         <v>253</v>
       </c>
       <c r="F232" s="33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G232" s="45"/>
-      <c r="H232" s="67">
+      <c r="H232" s="66">
         <v>45590</v>
       </c>
     </row>
@@ -6251,7 +6310,7 @@
       <c r="D234" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E234" s="61">
+      <c r="E234" s="60">
         <v>15</v>
       </c>
       <c r="F234" s="46">
@@ -6271,7 +6330,7 @@
       <c r="D235" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="E235" s="61" t="s">
+      <c r="E235" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F235" s="46">
@@ -6280,7 +6339,7 @@
       <c r="G235" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H235" s="67">
+      <c r="H235" s="66">
         <v>45529</v>
       </c>
     </row>
@@ -6298,9 +6357,9 @@
         <v>253</v>
       </c>
       <c r="F236" s="33">
-        <v>0</v>
-      </c>
-      <c r="H236" s="67">
+        <v>1</v>
+      </c>
+      <c r="H236" s="66">
         <v>45682</v>
       </c>
     </row>
@@ -6314,7 +6373,7 @@
       <c r="D237" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="E237" s="61">
+      <c r="E237" s="60">
         <v>3</v>
       </c>
       <c r="F237" s="46">
@@ -6323,7 +6382,7 @@
       <c r="G237" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H237" s="67"/>
+      <c r="H237" s="66"/>
     </row>
     <row r="238" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="46" t="s">
@@ -6342,7 +6401,7 @@
         <v>2</v>
       </c>
       <c r="G238" s="45"/>
-      <c r="H238" s="67">
+      <c r="H238" s="66">
         <v>45682</v>
       </c>
     </row>
@@ -6362,7 +6421,7 @@
       <c r="F239" s="33">
         <v>7</v>
       </c>
-      <c r="H239" s="64"/>
+      <c r="H239" s="63"/>
     </row>
     <row r="240" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="46" t="s">
@@ -6374,7 +6433,7 @@
       <c r="D240" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E240" s="61">
+      <c r="E240" s="60">
         <v>1</v>
       </c>
       <c r="F240" s="46">
@@ -6398,10 +6457,10 @@
         <v>253</v>
       </c>
       <c r="F241" s="29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G241" s="17"/>
-      <c r="H241" s="67">
+      <c r="H241" s="66">
         <v>45529</v>
       </c>
     </row>
@@ -6414,17 +6473,17 @@
       </c>
       <c r="F242" s="43">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G242" s="17"/>
-      <c r="H242" s="64"/>
+      <c r="H242" s="63"/>
     </row>
     <row r="243" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C243" s="15"/>
       <c r="D243" s="15"/>
       <c r="E243" s="16"/>
       <c r="F243" s="15"/>
-      <c r="H243" s="64"/>
+      <c r="H243" s="63"/>
     </row>
     <row r="244" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G244" s="17"/>
@@ -6479,7 +6538,7 @@
         <v>8</v>
       </c>
       <c r="F248" s="29">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G248" s="50"/>
     </row>
@@ -6555,7 +6614,7 @@
         <v>15</v>
       </c>
       <c r="F254" s="33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G254" s="45"/>
     </row>
@@ -6586,7 +6645,7 @@
       <c r="D256" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="E256" s="61">
+      <c r="E256" s="60">
         <v>1</v>
       </c>
       <c r="F256" s="46">
@@ -6610,9 +6669,9 @@
         <v>253</v>
       </c>
       <c r="F257" s="33">
-        <v>5</v>
-      </c>
-      <c r="H257" s="67">
+        <v>6</v>
+      </c>
+      <c r="H257" s="66">
         <v>45627</v>
       </c>
     </row>
@@ -6620,7 +6679,7 @@
       <c r="B258" s="53"/>
       <c r="C258" s="53"/>
       <c r="D258" s="53"/>
-      <c r="E258" s="60"/>
+      <c r="E258" s="59"/>
       <c r="F258" s="53"/>
     </row>
     <row r="259" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6637,7 +6696,7 @@
         <v>30</v>
       </c>
       <c r="F259" s="33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G259" s="45"/>
     </row>
@@ -6651,7 +6710,7 @@
       <c r="D260" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="E260" s="61">
+      <c r="E260" s="60">
         <v>9</v>
       </c>
       <c r="F260" s="46">
@@ -6675,9 +6734,9 @@
         <v>253</v>
       </c>
       <c r="F261" s="33">
-        <v>16</v>
-      </c>
-      <c r="H261" s="67">
+        <v>18</v>
+      </c>
+      <c r="H261" s="66">
         <v>45534</v>
       </c>
     </row>
@@ -6691,7 +6750,7 @@
       <c r="D262" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="E262" s="61">
+      <c r="E262" s="60">
         <v>3</v>
       </c>
       <c r="F262" s="46">
@@ -6700,7 +6759,7 @@
       <c r="G262" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H262" s="67"/>
+      <c r="H262" s="66"/>
     </row>
     <row r="263" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="46" t="s">
@@ -6718,7 +6777,7 @@
       <c r="F263" s="33">
         <v>4</v>
       </c>
-      <c r="H263" s="67">
+      <c r="H263" s="66">
         <v>45627</v>
       </c>
     </row>
@@ -6749,7 +6808,7 @@
       <c r="D265" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="E265" s="61">
+      <c r="E265" s="60">
         <v>1</v>
       </c>
       <c r="F265" s="46">
@@ -6776,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="G266" s="45"/>
-      <c r="H266" s="67">
+      <c r="H266" s="66">
         <v>45310</v>
       </c>
     </row>
@@ -6868,7 +6927,7 @@
         <v>10</v>
       </c>
       <c r="F275" s="29">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G275" s="17"/>
     </row>
@@ -6943,7 +7002,7 @@
         <v>7</v>
       </c>
       <c r="F281" s="33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G281" s="45"/>
     </row>
@@ -6961,7 +7020,7 @@
         <v>22</v>
       </c>
       <c r="F282" s="33">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7004,7 +7063,7 @@
         <v>2</v>
       </c>
       <c r="F285" s="33">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G285" s="45"/>
     </row>
@@ -7018,7 +7077,7 @@
       <c r="D286" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="E286" s="61">
+      <c r="E286" s="60">
         <v>1</v>
       </c>
       <c r="F286" s="46">
@@ -7044,7 +7103,7 @@
       <c r="F287" s="33">
         <v>2</v>
       </c>
-      <c r="H287" s="67">
+      <c r="H287" s="66">
         <v>45515</v>
       </c>
     </row>
@@ -7058,7 +7117,7 @@
       <c r="D288" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E288" s="61">
+      <c r="E288" s="60">
         <v>17</v>
       </c>
       <c r="F288" s="46">
@@ -7067,7 +7126,7 @@
       <c r="G288" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H288" s="67"/>
+      <c r="H288" s="66"/>
     </row>
     <row r="289" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="46" t="s">
@@ -7083,10 +7142,10 @@
         <v>253</v>
       </c>
       <c r="F289" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G289" s="45"/>
-      <c r="H289" s="67">
+      <c r="H289" s="66">
         <v>45636</v>
       </c>
     </row>
@@ -7100,7 +7159,7 @@
       <c r="D290" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="E290" s="61">
+      <c r="E290" s="60">
         <v>3</v>
       </c>
       <c r="F290" s="46">
@@ -7109,7 +7168,7 @@
       <c r="G290" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H290" s="67"/>
+      <c r="H290" s="66"/>
     </row>
     <row r="291" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="46" t="s">
@@ -7128,7 +7187,7 @@
         <v>3</v>
       </c>
       <c r="G291" s="45"/>
-      <c r="H291" s="67">
+      <c r="H291" s="66">
         <v>45636</v>
       </c>
     </row>
@@ -7142,7 +7201,7 @@
       <c r="D292" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="E292" s="61">
+      <c r="E292" s="60">
         <v>3</v>
       </c>
       <c r="F292" s="46">
@@ -7151,7 +7210,7 @@
       <c r="G292" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H292" s="67"/>
+      <c r="H292" s="66"/>
     </row>
     <row r="293" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="46" t="s">
@@ -7170,7 +7229,7 @@
         <v>3</v>
       </c>
       <c r="G293" s="45"/>
-      <c r="H293" s="67">
+      <c r="H293" s="66">
         <v>45636</v>
       </c>
     </row>
@@ -7199,7 +7258,7 @@
       </c>
       <c r="F296" s="43">
         <f>SUM(F278:F295)-SUM(F275:F277)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G296" s="17"/>
     </row>
@@ -7259,10 +7318,10 @@
       <c r="D302" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="E302" s="62">
-        <v>1</v>
-      </c>
-      <c r="F302" s="63">
+      <c r="E302" s="61">
+        <v>1</v>
+      </c>
+      <c r="F302" s="62">
         <v>7</v>
       </c>
       <c r="G302" s="50" t="s">
@@ -7279,14 +7338,14 @@
       <c r="D303" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E303" s="62" t="s">
+      <c r="E303" s="61" t="s">
         <v>253</v>
       </c>
       <c r="F303" s="49">
         <v>21</v>
       </c>
       <c r="G303" s="50"/>
-      <c r="H303" s="67">
+      <c r="H303" s="66">
         <v>45559</v>
       </c>
     </row>
@@ -7304,10 +7363,10 @@
         <v>253</v>
       </c>
       <c r="F304" s="27">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G304" s="45"/>
-      <c r="H304" s="67">
+      <c r="H304" s="66">
         <v>45657</v>
       </c>
     </row>
@@ -7343,7 +7402,7 @@
         <v>1</v>
       </c>
       <c r="F306" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G306" s="45"/>
     </row>
@@ -7374,7 +7433,7 @@
       <c r="D308" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="E308" s="61">
+      <c r="E308" s="60">
         <v>25</v>
       </c>
       <c r="F308" s="46">
@@ -7398,9 +7457,9 @@
         <v>253</v>
       </c>
       <c r="F309" s="33">
-        <v>5</v>
-      </c>
-      <c r="H309" s="67">
+        <v>6</v>
+      </c>
+      <c r="H309" s="66">
         <v>45564</v>
       </c>
     </row>
@@ -7414,7 +7473,7 @@
       <c r="D310" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="E310" s="60">
+      <c r="E310" s="59">
         <v>16</v>
       </c>
       <c r="F310" s="53">
@@ -7434,7 +7493,7 @@
       <c r="D311" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="E311" s="61" t="s">
+      <c r="E311" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F311" s="46">
@@ -7443,7 +7502,7 @@
       <c r="G311" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H311" s="67">
+      <c r="H311" s="66">
         <v>45518</v>
       </c>
     </row>
@@ -7463,7 +7522,7 @@
       <c r="F312" s="33">
         <v>4</v>
       </c>
-      <c r="H312" s="67">
+      <c r="H312" s="66">
         <v>45532</v>
       </c>
     </row>
@@ -7477,7 +7536,7 @@
       <c r="D313" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="E313" s="61">
+      <c r="E313" s="60">
         <v>15</v>
       </c>
       <c r="F313" s="46">
@@ -7501,9 +7560,9 @@
         <v>253</v>
       </c>
       <c r="F314" s="33">
-        <v>6</v>
-      </c>
-      <c r="H314" s="67">
+        <v>7</v>
+      </c>
+      <c r="H314" s="66">
         <v>45557</v>
       </c>
     </row>
@@ -7521,7 +7580,7 @@
         <v>15</v>
       </c>
       <c r="F315" s="33">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G315" s="45"/>
     </row>
@@ -7535,7 +7594,7 @@
       <c r="D316" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="E316" s="61">
+      <c r="E316" s="60">
         <v>7</v>
       </c>
       <c r="F316" s="46">
@@ -7561,7 +7620,7 @@
       <c r="F317" s="33">
         <v>3</v>
       </c>
-      <c r="H317" s="67">
+      <c r="H317" s="66">
         <v>45550</v>
       </c>
     </row>
@@ -7575,7 +7634,7 @@
       <c r="D318" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E318" s="61">
+      <c r="E318" s="60">
         <v>1</v>
       </c>
       <c r="F318" s="46">
@@ -7595,7 +7654,7 @@
       <c r="D319" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="E319" s="61" t="s">
+      <c r="E319" s="60" t="s">
         <v>253</v>
       </c>
       <c r="F319" s="46">
@@ -7604,7 +7663,7 @@
       <c r="G319" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H319" s="67">
+      <c r="H319" s="66">
         <v>45518</v>
       </c>
     </row>
@@ -7622,9 +7681,9 @@
         <v>253</v>
       </c>
       <c r="F320" s="33">
-        <v>3</v>
-      </c>
-      <c r="H320" s="67">
+        <v>4</v>
+      </c>
+      <c r="H320" s="66">
         <v>45528</v>
       </c>
     </row>
@@ -7638,7 +7697,7 @@
       <c r="D321" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="E321" s="61">
+      <c r="E321" s="60">
         <v>1</v>
       </c>
       <c r="F321" s="46">
@@ -7666,7 +7725,7 @@
         <v>3</v>
       </c>
       <c r="G322" s="17"/>
-      <c r="H322" s="67">
+      <c r="H322" s="66">
         <v>45515</v>
       </c>
     </row>
@@ -7679,7 +7738,7 @@
       </c>
       <c r="F323" s="43">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G323" s="17"/>
     </row>
@@ -7733,10 +7792,10 @@
       <c r="D329" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="E329" s="62">
-        <v>1</v>
-      </c>
-      <c r="F329" s="63">
+      <c r="E329" s="61">
+        <v>1</v>
+      </c>
+      <c r="F329" s="62">
         <v>9</v>
       </c>
       <c r="G329" s="45" t="s">
@@ -7753,7 +7812,7 @@
       <c r="D330" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="E330" s="62" t="s">
+      <c r="E330" s="61" t="s">
         <v>253</v>
       </c>
       <c r="F330" s="49">
@@ -7762,7 +7821,7 @@
       <c r="G330" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H330" s="67">
+      <c r="H330" s="66">
         <v>45537</v>
       </c>
     </row>
@@ -7780,10 +7839,10 @@
         <v>253</v>
       </c>
       <c r="F331" s="27">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G331" s="45"/>
-      <c r="H331" s="67">
+      <c r="H331" s="66">
         <v>45642</v>
       </c>
     </row>
@@ -7826,7 +7885,7 @@
         <v>4</v>
       </c>
       <c r="F334" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G334" s="45"/>
     </row>
@@ -7848,7 +7907,7 @@
       <c r="D336" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="E336" s="61">
+      <c r="E336" s="60">
         <v>15</v>
       </c>
       <c r="F336" s="46">
@@ -7872,10 +7931,10 @@
         <v>253</v>
       </c>
       <c r="F337" s="33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G337" s="45"/>
-      <c r="H337" s="67">
+      <c r="H337" s="66">
         <v>45662</v>
       </c>
     </row>
@@ -7893,7 +7952,7 @@
         <v>47</v>
       </c>
       <c r="F338" s="33">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="339" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7910,7 +7969,7 @@
         <v>2</v>
       </c>
       <c r="F339" s="33">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="340" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7930,7 +7989,7 @@
       <c r="D341" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="E341" s="61">
+      <c r="E341" s="60">
         <v>6</v>
       </c>
       <c r="F341" s="46">
@@ -7954,9 +8013,9 @@
         <v>253</v>
       </c>
       <c r="F342" s="33">
-        <v>2</v>
-      </c>
-      <c r="H342" s="67">
+        <v>5</v>
+      </c>
+      <c r="H342" s="66">
         <v>45662</v>
       </c>
     </row>
@@ -7974,7 +8033,7 @@
         <v>3</v>
       </c>
       <c r="F343" s="33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G343" s="45"/>
     </row>
@@ -7988,7 +8047,7 @@
       <c r="D344" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E344" s="61">
+      <c r="E344" s="60">
         <v>1</v>
       </c>
       <c r="F344" s="46">
@@ -8015,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="G345" s="45"/>
-      <c r="H345" s="67">
+      <c r="H345" s="66">
         <v>45662</v>
       </c>
     </row>
@@ -8033,7 +8092,7 @@
         <v>2</v>
       </c>
       <c r="F346" s="33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G346" s="45"/>
     </row>
@@ -8047,7 +8106,7 @@
       <c r="D347" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="E347" s="61">
+      <c r="E347" s="60">
         <v>1</v>
       </c>
       <c r="F347" s="46">
@@ -8071,9 +8130,9 @@
         <v>253</v>
       </c>
       <c r="F348" s="33">
-        <v>0</v>
-      </c>
-      <c r="H348" s="67">
+        <v>1</v>
+      </c>
+      <c r="H348" s="66">
         <v>45662</v>
       </c>
     </row>
@@ -8093,7 +8152,7 @@
       </c>
       <c r="F350" s="43">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="351" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8122,7 +8181,7 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8208,13 +8267,13 @@
         <v>21</v>
       </c>
       <c r="E7" s="30">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F7" s="31">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G7" s="32">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K7" s="51"/>
     </row>
@@ -8229,13 +8288,13 @@
         <v>41</v>
       </c>
       <c r="E8" s="30">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F8" s="31">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G8" s="32">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8243,19 +8302,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E9" s="30">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="31">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G9" s="32">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8263,19 +8322,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E10" s="30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="31">
         <v>87</v>
       </c>
       <c r="G10" s="32">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8283,19 +8342,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E11" s="30">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" s="31">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" s="32">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8309,13 +8368,13 @@
         <v>44</v>
       </c>
       <c r="E12" s="30">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F12" s="31">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G12" s="32">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8329,13 +8388,13 @@
         <v>17</v>
       </c>
       <c r="E13" s="30">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F13" s="31">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G13" s="32">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8349,13 +8408,13 @@
         <v>234</v>
       </c>
       <c r="E14" s="30">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F14" s="31">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G14" s="32">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8369,13 +8428,13 @@
         <v>251</v>
       </c>
       <c r="E15" s="30">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F15" s="31">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G15" s="32">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8383,19 +8442,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E16" s="30">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="31">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G16" s="32">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -8403,19 +8462,19 @@
         <v>11</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E17" s="30">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" s="31">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G17" s="32">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -8423,19 +8482,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E18" s="30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F18" s="31">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G18" s="32">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -8443,19 +8502,19 @@
         <v>13</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E19" s="30">
         <v>3</v>
       </c>
       <c r="F19" s="31">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G19" s="32">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -8590,33 +8649,45 @@
       <c r="B10" s="50"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
+      <c r="B11" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>348</v>
+      </c>
       <c r="D11" s="45" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
+      <c r="B12" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>348</v>
+      </c>
       <c r="D12" s="45" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
+      <c r="B13" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>348</v>
+      </c>
       <c r="D13" s="45" t="s">
         <v>44</v>
       </c>
@@ -8626,9 +8697,13 @@
       <c r="A14" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="45" t="s">
+      <c r="B14" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>234</v>
       </c>
       <c r="F14" s="57"/>
@@ -8646,13 +8721,33 @@
       <c r="B16" s="50"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>251</v>
+      </c>
       <c r="F17" s="57"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
+      <c r="A18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>21</v>
+      </c>
       <c r="F18" s="57"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8669,8 +8764,14 @@
       <c r="F20" s="57"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>234</v>
+      </c>
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
+      <c r="D21" s="45" t="s">
+        <v>17</v>
+      </c>
       <c r="F21" s="57"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
